--- a/whisky_database.xlsx
+++ b/whisky_database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\新藤駿介(ShindoShunsuke)\Documents\GitHub\whisky-sommelier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD63F6D-D513-412E-A0BF-1425454FBDAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC38D84-4F12-42D1-A39F-B8E72B2903CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{A2419164-9416-4CEB-A64A-CE2C95D250D1}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="658">
   <si>
     <t>番号</t>
   </si>
@@ -397,9 +397,6 @@
     <t>GLENTAUCHERS11年2011-2023</t>
   </si>
   <si>
-    <t>グレンタウチャーズ11年（2011-2023）は、繊細な花の香りにハチミツの甘さ、青リンゴ、洋ナシの風味が特徴です。口当たりはバニラカスタード、軽いスパイス、穏やかな樽の影響が感じられます。フィニッシュはモルトビスケット、かすかな柑橘類、ホワイトペッパーのタッチが残ります。</t>
-  </si>
-  <si>
     <t>東京浪漫シークレット（マッカラン）　24年</t>
   </si>
   <si>
@@ -995,9 +992,6 @@
   </si>
   <si>
     <t>山形県飽海郡遊佐町に2018年に設立された山形県初のウイスキー蒸留所。地元の清酒メーカー9社の共同出資会社「金龍」によって運営されています。鳥海山の伏流水「湧水の里」の水を使用し、山形の気候風土を活かした独自のウイスキーづくりを目指しています。現在は若いウイスキーを中心に展開し、長期熟成も進行中です。</t>
-  </si>
-  <si>
-    <t>明石 3年粉色ウィスキー</t>
   </si>
   <si>
     <t>この明石3年粉色ウィスキーは、繊細なプロファイルを持ち、微妙な花の香り、軽い桜の風味、そしてバニラのヒントを提供します。若さが新鮮な特徴をもたらし、穏やかな樽の影響、マイルドなスパイス、そしてマジパンの風味が感じられます。フィニッシュはクリーンで、わずかな甘さと微妙なフルーツノートが特徴です。</t>
@@ -2209,6 +2203,24 @@
   </si>
   <si>
     <t>キルホーマンは、100% アイラの11回目のリリースで、アイラ産大麦の優秀性を引き続き称えています！このシングルモルトは、アイラ島の単一の農場で栽培された大麦を使用し、26本のバーボン樽と7本のオロロソ・シェリー樽で熟成されました。このディスティラリーの素晴らしい仕事（そして当然ながら美味しいウイスキー）の素晴らしい一例です！</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>明石 シェリーカスクPX 3年</t>
+    <rPh sb="14" eb="15">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>GLENTAUCHERS　31年　THE NECTAR(グレントファース)</t>
+    <rPh sb="15" eb="16">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>グレントファース 31年（1989年蒸留）は、スペイサイド地方の蒸留所が生み出した長期熟成モルトで、ディープなゴールデンカラーと共に、完熟バナナ、シナモン、白檀の芳醇な香りが特徴的です。口当たりは甘くソフトで、フルーティーさとスパイス感のバランスが絶妙、完熟バナナ、ライチキャンディの風味が広がり、フィニッシュではライトなビターがゆっくりと優しく続きます。31年という長期熟成がもたらす複雑さとエレガントさを兼ね備えた、希少価値の高いウィスキーといえるでしょう。</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -2394,15 +2406,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2411,6 +2414,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2750,8 +2762,8 @@
   <dimension ref="A1:Q110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F112" sqref="F112"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F114" sqref="F114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2824,8 +2836,8 @@
       <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="14" t="s">
-        <v>639</v>
+      <c r="Q1" s="11" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -2850,34 +2862,34 @@
       <c r="G2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L2" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="M2" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N2" s="12">
+        <v>57.302</v>
+      </c>
+      <c r="O2" s="12">
+        <v>-6.3559999999999999</v>
+      </c>
+      <c r="P2" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="L2" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N2" s="15">
-        <v>57.302</v>
-      </c>
-      <c r="O2" s="15">
-        <v>-6.3559999999999999</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q2" s="16"/>
+      <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="99.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
@@ -2901,34 +2913,34 @@
       <c r="G3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="M3" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="K3" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L3" s="15" t="s">
+      <c r="N3" s="12">
+        <v>55.63</v>
+      </c>
+      <c r="O3" s="12">
+        <v>-6.1929999999999996</v>
+      </c>
+      <c r="P3" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="M3" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="N3" s="15">
-        <v>55.63</v>
-      </c>
-      <c r="O3" s="15">
-        <v>-6.1929999999999996</v>
-      </c>
-      <c r="P3" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="Q3" s="16"/>
+      <c r="Q3" s="13"/>
     </row>
     <row r="4" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
@@ -2952,34 +2964,34 @@
       <c r="G4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L4" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="I4" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="15" t="s">
+      <c r="M4" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N4" s="12">
+        <v>57.484999999999999</v>
+      </c>
+      <c r="O4" s="12">
+        <v>-3.2080000000000002</v>
+      </c>
+      <c r="P4" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="K4" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N4" s="15">
-        <v>57.484999999999999</v>
-      </c>
-      <c r="O4" s="15">
-        <v>-3.2080000000000002</v>
-      </c>
-      <c r="P4" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q4" s="16"/>
+      <c r="Q4" s="13"/>
     </row>
     <row r="5" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
@@ -3003,34 +3015,34 @@
       <c r="G5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="I5" s="15" t="s">
+      <c r="H5" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N5" s="12">
+        <v>55.756</v>
+      </c>
+      <c r="O5" s="12">
+        <v>-6.2889999999999997</v>
+      </c>
+      <c r="P5" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="J5" s="15" t="s">
-        <v>360</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>369</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N5" s="15">
-        <v>55.756</v>
-      </c>
-      <c r="O5" s="15">
-        <v>-6.2889999999999997</v>
-      </c>
-      <c r="P5" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q5" s="16"/>
+      <c r="Q5" s="13"/>
     </row>
     <row r="6" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
@@ -3054,34 +3066,34 @@
       <c r="G6" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="I6" s="15" t="s">
+      <c r="H6" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L6" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="M6" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="K6" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L6" s="15" t="s">
+      <c r="N6" s="12">
+        <v>55.991</v>
+      </c>
+      <c r="O6" s="12">
+        <v>-3.827</v>
+      </c>
+      <c r="P6" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="M6" s="15" t="s">
-        <v>374</v>
-      </c>
-      <c r="N6" s="15">
-        <v>55.991</v>
-      </c>
-      <c r="O6" s="15">
-        <v>-3.827</v>
-      </c>
-      <c r="P6" s="15" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q6" s="16"/>
+      <c r="Q6" s="13"/>
     </row>
     <row r="7" spans="1:17" ht="32.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
@@ -3114,7 +3126,7 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
-      <c r="Q7" s="16"/>
+      <c r="Q7" s="13"/>
     </row>
     <row r="8" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
@@ -3138,34 +3150,34 @@
       <c r="G8" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="J8" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="K8" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L8" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="M8" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N8" s="12">
+        <v>55.424999999999997</v>
+      </c>
+      <c r="O8" s="12">
+        <v>-5.609</v>
+      </c>
+      <c r="P8" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="K8" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="M8" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N8" s="15">
-        <v>55.424999999999997</v>
-      </c>
-      <c r="O8" s="15">
-        <v>-5.609</v>
-      </c>
-      <c r="P8" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q8" s="16"/>
+      <c r="Q8" s="13"/>
     </row>
     <row r="9" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
@@ -3189,34 +3201,34 @@
       <c r="G9" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L9" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="M9" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N9" s="12">
+        <v>55.878</v>
+      </c>
+      <c r="O9" s="12">
+        <v>-6.125</v>
+      </c>
+      <c r="P9" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="J9" s="15" t="s">
-        <v>360</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>383</v>
-      </c>
-      <c r="M9" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N9" s="15">
-        <v>55.878</v>
-      </c>
-      <c r="O9" s="15">
-        <v>-6.125</v>
-      </c>
-      <c r="P9" s="15" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q9" s="16">
+      <c r="Q9" s="13">
         <v>40</v>
       </c>
     </row>
@@ -3242,34 +3254,34 @@
       <c r="G10" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="J10" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="K10" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L10" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="M10" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N10" s="12">
+        <v>56.624000000000002</v>
+      </c>
+      <c r="O10" s="12">
+        <v>-3.85</v>
+      </c>
+      <c r="P10" s="12" t="s">
         <v>387</v>
       </c>
-      <c r="K10" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>388</v>
-      </c>
-      <c r="M10" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N10" s="15">
-        <v>56.624000000000002</v>
-      </c>
-      <c r="O10" s="15">
-        <v>-3.85</v>
-      </c>
-      <c r="P10" s="15" t="s">
-        <v>389</v>
-      </c>
-      <c r="Q10" s="16"/>
+      <c r="Q10" s="13"/>
     </row>
     <row r="11" spans="1:17" ht="50.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
@@ -3293,34 +3305,34 @@
       <c r="G11" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="J11" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="K11" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L11" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="M11" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N11" s="12">
+        <v>55.640999999999998</v>
+      </c>
+      <c r="O11" s="12">
+        <v>-6.109</v>
+      </c>
+      <c r="P11" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="K11" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>393</v>
-      </c>
-      <c r="M11" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N11" s="15">
-        <v>55.640999999999998</v>
-      </c>
-      <c r="O11" s="15">
-        <v>-6.109</v>
-      </c>
-      <c r="P11" s="15" t="s">
-        <v>394</v>
-      </c>
-      <c r="Q11" s="16"/>
+      <c r="Q11" s="13"/>
     </row>
     <row r="12" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
@@ -3344,104 +3356,104 @@
       <c r="G12" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N12" s="12">
+        <v>58.968000000000004</v>
+      </c>
+      <c r="O12" s="12">
+        <v>-2.956</v>
+      </c>
+      <c r="P12" s="12" t="s">
         <v>502</v>
       </c>
-      <c r="I12" s="15" t="s">
-        <v>503</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>373</v>
-      </c>
-      <c r="M12" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N12" s="15">
-        <v>58.968000000000004</v>
-      </c>
-      <c r="O12" s="15">
-        <v>-2.956</v>
-      </c>
-      <c r="P12" s="15" t="s">
-        <v>504</v>
-      </c>
-      <c r="Q12" s="16"/>
+      <c r="Q12" s="13"/>
     </row>
     <row r="13" spans="1:17" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="11">
+      <c r="A13" s="15">
         <v>12</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="11" t="s">
+      <c r="C13" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="15">
         <v>1830</v>
       </c>
-      <c r="M13" s="11" t="s">
+      <c r="M13" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="N13" s="11">
+      <c r="N13" s="15">
         <v>57.302</v>
       </c>
-      <c r="O13" s="11">
+      <c r="O13" s="15">
         <v>-6.3559999999999999</v>
       </c>
-      <c r="P13" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q13" s="16"/>
+      <c r="P13" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q13" s="13"/>
     </row>
     <row r="14" spans="1:17" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="11"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="16"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="13"/>
     </row>
     <row r="15" spans="1:17" ht="79.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
@@ -3465,34 +3477,34 @@
       <c r="G15" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="J15" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="K15" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L15" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="J15" s="15" t="s">
+      <c r="M15" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N15" s="12">
+        <v>55.640999999999998</v>
+      </c>
+      <c r="O15" s="12">
+        <v>-6.109</v>
+      </c>
+      <c r="P15" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="K15" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L15" s="15" t="s">
-        <v>393</v>
-      </c>
-      <c r="M15" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N15" s="15">
-        <v>55.640999999999998</v>
-      </c>
-      <c r="O15" s="15">
-        <v>-6.109</v>
-      </c>
-      <c r="P15" s="15" t="s">
-        <v>394</v>
-      </c>
-      <c r="Q15" s="16"/>
+      <c r="Q15" s="13"/>
     </row>
     <row r="16" spans="1:17" ht="105.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
@@ -3516,34 +3528,34 @@
       <c r="G16" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="J16" s="12" t="s">
         <v>399</v>
       </c>
-      <c r="I16" s="15" t="s">
+      <c r="K16" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="J16" s="15" t="s">
+      <c r="L16" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="K16" s="15" t="s">
+      <c r="M16" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N16" s="12">
+        <v>37.398000000000003</v>
+      </c>
+      <c r="O16" s="12">
+        <v>140.36000000000001</v>
+      </c>
+      <c r="P16" s="12" t="s">
         <v>402</v>
       </c>
-      <c r="L16" s="15" t="s">
-        <v>403</v>
-      </c>
-      <c r="M16" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N16" s="15">
-        <v>37.398000000000003</v>
-      </c>
-      <c r="O16" s="15">
-        <v>140.36000000000001</v>
-      </c>
-      <c r="P16" s="15" t="s">
-        <v>404</v>
-      </c>
-      <c r="Q16" s="16"/>
+      <c r="Q16" s="13"/>
     </row>
     <row r="17" spans="1:17" ht="79.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
@@ -3567,41 +3579,41 @@
       <c r="G17" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N17" s="12">
+        <v>58.968000000000004</v>
+      </c>
+      <c r="O17" s="12">
+        <v>-2.956</v>
+      </c>
+      <c r="P17" s="12" t="s">
         <v>502</v>
       </c>
-      <c r="I17" s="15" t="s">
-        <v>503</v>
-      </c>
-      <c r="J17" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="K17" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L17" s="15" t="s">
-        <v>373</v>
-      </c>
-      <c r="M17" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N17" s="15">
-        <v>58.968000000000004</v>
-      </c>
-      <c r="O17" s="15">
-        <v>-2.956</v>
-      </c>
-      <c r="P17" s="15" t="s">
-        <v>504</v>
-      </c>
-      <c r="Q17" s="16"/>
+      <c r="Q17" s="13"/>
     </row>
     <row r="18" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>17</v>
@@ -3613,39 +3625,39 @@
         <v>19</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>560</v>
-      </c>
-      <c r="H18" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L18" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="I18" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J18" s="15" t="s">
+      <c r="M18" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N18" s="12">
+        <v>57.484999999999999</v>
+      </c>
+      <c r="O18" s="12">
+        <v>-3.2080000000000002</v>
+      </c>
+      <c r="P18" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="K18" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L18" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="M18" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N18" s="15">
-        <v>57.484999999999999</v>
-      </c>
-      <c r="O18" s="15">
-        <v>-3.2080000000000002</v>
-      </c>
-      <c r="P18" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q18" s="16"/>
+      <c r="Q18" s="13"/>
     </row>
     <row r="19" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
@@ -3669,34 +3681,34 @@
       <c r="G19" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="H19" s="15" t="s">
-        <v>495</v>
-      </c>
-      <c r="I19" s="15" t="s">
+      <c r="H19" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N19" s="12">
+        <v>57.451999999999998</v>
+      </c>
+      <c r="O19" s="12">
+        <v>-3.3769999999999998</v>
+      </c>
+      <c r="P19" s="12" t="s">
         <v>405</v>
       </c>
-      <c r="J19" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="K19" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L19" s="15" t="s">
-        <v>406</v>
-      </c>
-      <c r="M19" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N19" s="15">
-        <v>57.451999999999998</v>
-      </c>
-      <c r="O19" s="15">
-        <v>-3.3769999999999998</v>
-      </c>
-      <c r="P19" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="Q19" s="16"/>
+      <c r="Q19" s="13"/>
     </row>
     <row r="20" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
@@ -3720,34 +3732,34 @@
       <c r="G20" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="H20" s="15" t="s">
-        <v>495</v>
-      </c>
-      <c r="I20" s="15" t="s">
+      <c r="H20" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N20" s="12">
+        <v>57.451999999999998</v>
+      </c>
+      <c r="O20" s="12">
+        <v>-3.3769999999999998</v>
+      </c>
+      <c r="P20" s="12" t="s">
         <v>405</v>
       </c>
-      <c r="J20" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="K20" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L20" s="15" t="s">
-        <v>406</v>
-      </c>
-      <c r="M20" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N20" s="15">
-        <v>57.451999999999998</v>
-      </c>
-      <c r="O20" s="15">
-        <v>-3.3769999999999998</v>
-      </c>
-      <c r="P20" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="Q20" s="16"/>
+      <c r="Q20" s="13"/>
     </row>
     <row r="21" spans="1:17" ht="48" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
@@ -3798,7 +3810,7 @@
       <c r="P21" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q21" s="16"/>
+      <c r="Q21" s="13"/>
     </row>
     <row r="22" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
@@ -3822,34 +3834,34 @@
       <c r="G22" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="J22" s="12" t="s">
         <v>408</v>
       </c>
-      <c r="I22" s="15" t="s">
+      <c r="K22" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N22" s="12">
+        <v>56.835999999999999</v>
+      </c>
+      <c r="O22" s="12">
+        <v>-5.0739999999999998</v>
+      </c>
+      <c r="P22" s="12" t="s">
         <v>409</v>
       </c>
-      <c r="J22" s="15" t="s">
-        <v>410</v>
-      </c>
-      <c r="K22" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L22" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="M22" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N22" s="15">
-        <v>56.835999999999999</v>
-      </c>
-      <c r="O22" s="15">
-        <v>-5.0739999999999998</v>
-      </c>
-      <c r="P22" s="15" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q22" s="16"/>
+      <c r="Q22" s="13"/>
     </row>
     <row r="23" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
@@ -3873,34 +3885,34 @@
       <c r="G23" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="H23" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="J23" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="I23" s="15" t="s">
+      <c r="K23" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N23" s="12">
+        <v>58.968000000000004</v>
+      </c>
+      <c r="O23" s="12">
+        <v>-2.956</v>
+      </c>
+      <c r="P23" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="J23" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="K23" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L23" s="15" t="s">
-        <v>373</v>
-      </c>
-      <c r="M23" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N23" s="15">
-        <v>58.968000000000004</v>
-      </c>
-      <c r="O23" s="15">
-        <v>-2.956</v>
-      </c>
-      <c r="P23" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="Q23" s="16"/>
+      <c r="Q23" s="13"/>
     </row>
     <row r="24" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="3">
@@ -3919,39 +3931,39 @@
         <v>96</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="H24" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="I24" s="15" t="s">
+      <c r="H24" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>565</v>
+      </c>
+      <c r="K24" s="12" t="s">
         <v>477</v>
       </c>
-      <c r="J24" s="15" t="s">
-        <v>567</v>
-      </c>
-      <c r="K24" s="15" t="s">
-        <v>479</v>
-      </c>
-      <c r="L24" s="15" t="s">
-        <v>480</v>
-      </c>
-      <c r="M24" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N24" s="15">
+      <c r="L24" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N24" s="12">
         <v>63.002000000000002</v>
       </c>
-      <c r="O24" s="15">
+      <c r="O24" s="12">
         <v>17.798999999999999</v>
       </c>
-      <c r="P24" s="15" t="s">
-        <v>568</v>
-      </c>
-      <c r="Q24" s="16"/>
+      <c r="P24" s="12" t="s">
+        <v>566</v>
+      </c>
+      <c r="Q24" s="13"/>
     </row>
     <row r="25" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="3">
@@ -3975,36 +3987,36 @@
       <c r="G25" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="H25" s="15" t="s">
+      <c r="H25" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N25" s="12">
+        <v>57.649000000000001</v>
+      </c>
+      <c r="O25" s="12">
+        <v>-3.64</v>
+      </c>
+      <c r="P25" s="12" t="s">
         <v>482</v>
       </c>
-      <c r="I25" s="15" t="s">
-        <v>483</v>
-      </c>
-      <c r="J25" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="K25" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L25" s="15" t="s">
-        <v>413</v>
-      </c>
-      <c r="M25" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N25" s="15">
-        <v>57.649000000000001</v>
-      </c>
-      <c r="O25" s="15">
-        <v>-3.64</v>
-      </c>
-      <c r="P25" s="15" t="s">
-        <v>484</v>
-      </c>
-      <c r="Q25" s="16"/>
-    </row>
-    <row r="26" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -4026,34 +4038,34 @@
       <c r="G26" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="H26" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L26" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="I26" s="15" t="s">
+      <c r="M26" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N26" s="12">
+        <v>55.78</v>
+      </c>
+      <c r="O26" s="12">
+        <v>-6.4329999999999998</v>
+      </c>
+      <c r="P26" s="12" t="s">
         <v>439</v>
       </c>
-      <c r="J26" s="15" t="s">
-        <v>360</v>
-      </c>
-      <c r="K26" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L26" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="M26" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N26" s="15">
-        <v>55.78</v>
-      </c>
-      <c r="O26" s="15">
-        <v>-6.4329999999999998</v>
-      </c>
-      <c r="P26" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="Q26" s="16"/>
+      <c r="Q26" s="13"/>
     </row>
     <row r="27" spans="1:17" ht="48" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="3">
@@ -4104,7 +4116,7 @@
       <c r="P27" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="Q27" s="16"/>
+      <c r="Q27" s="13"/>
     </row>
     <row r="28" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="3">
@@ -4128,34 +4140,34 @@
       <c r="G28" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="H28" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L28" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="I28" s="15" t="s">
+      <c r="M28" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N28" s="12">
+        <v>57.444000000000003</v>
+      </c>
+      <c r="O28" s="12">
+        <v>-3.1280000000000001</v>
+      </c>
+      <c r="P28" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="J28" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="K28" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L28" s="15" t="s">
-        <v>417</v>
-      </c>
-      <c r="M28" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N28" s="15">
-        <v>57.444000000000003</v>
-      </c>
-      <c r="O28" s="15">
-        <v>-3.1280000000000001</v>
-      </c>
-      <c r="P28" s="15" t="s">
-        <v>418</v>
-      </c>
-      <c r="Q28" s="16"/>
+      <c r="Q28" s="13"/>
     </row>
     <row r="29" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="3">
@@ -4179,41 +4191,41 @@
       <c r="G29" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="H29" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L29" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="I29" s="15" t="s">
+      <c r="M29" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N29" s="12">
+        <v>57.444000000000003</v>
+      </c>
+      <c r="O29" s="12">
+        <v>-3.1280000000000001</v>
+      </c>
+      <c r="P29" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="J29" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="K29" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L29" s="15" t="s">
-        <v>417</v>
-      </c>
-      <c r="M29" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N29" s="15">
-        <v>57.444000000000003</v>
-      </c>
-      <c r="O29" s="15">
-        <v>-3.1280000000000001</v>
-      </c>
-      <c r="P29" s="15" t="s">
-        <v>418</v>
-      </c>
-      <c r="Q29" s="16"/>
-    </row>
-    <row r="30" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="3">
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>117</v>
+        <v>656</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>17</v>
@@ -4225,46 +4237,46 @@
         <v>84</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>118</v>
+        <v>657</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="H30" s="15" t="s">
+      <c r="H30" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L30" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="M30" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N30" s="12">
+        <v>57.545999999999999</v>
+      </c>
+      <c r="O30" s="12">
+        <v>-3.048</v>
+      </c>
+      <c r="P30" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="I30" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="J30" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="K30" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L30" s="15" t="s">
-        <v>413</v>
-      </c>
-      <c r="M30" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N30" s="15">
-        <v>57.545999999999999</v>
-      </c>
-      <c r="O30" s="15">
-        <v>-3.048</v>
-      </c>
-      <c r="P30" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="Q30" s="16"/>
+      <c r="Q30" s="13"/>
     </row>
     <row r="31" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="3">
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>17</v>
@@ -4276,148 +4288,148 @@
         <v>19</v>
       </c>
       <c r="F31" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G31" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="G31" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="H31" s="15" t="s">
+      <c r="H31" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L31" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="I31" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J31" s="15" t="s">
+      <c r="M31" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N31" s="12">
+        <v>57.484999999999999</v>
+      </c>
+      <c r="O31" s="12">
+        <v>-3.2080000000000002</v>
+      </c>
+      <c r="P31" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="K31" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L31" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="M31" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N31" s="15">
-        <v>57.484999999999999</v>
-      </c>
-      <c r="O31" s="15">
-        <v>-3.2080000000000002</v>
-      </c>
-      <c r="P31" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q31" s="16"/>
+      <c r="Q31" s="13"/>
     </row>
     <row r="32" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="3">
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="G32" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="G32" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H32" s="15" t="s">
+      <c r="H32" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="J32" s="12" t="s">
         <v>470</v>
       </c>
-      <c r="I32" s="15" t="s">
+      <c r="K32" s="12" t="s">
         <v>471</v>
       </c>
-      <c r="J32" s="15" t="s">
+      <c r="L32" s="12" t="s">
         <v>472</v>
       </c>
-      <c r="K32" s="15" t="s">
+      <c r="M32" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N32" s="12">
+        <v>53.338000000000001</v>
+      </c>
+      <c r="O32" s="12">
+        <v>-6.2779999999999996</v>
+      </c>
+      <c r="P32" s="12" t="s">
         <v>473</v>
       </c>
-      <c r="L32" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="M32" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N32" s="15">
-        <v>53.338000000000001</v>
-      </c>
-      <c r="O32" s="15">
-        <v>-6.2779999999999996</v>
-      </c>
-      <c r="P32" s="15" t="s">
-        <v>475</v>
-      </c>
-      <c r="Q32" s="16"/>
+      <c r="Q32" s="13"/>
     </row>
     <row r="33" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="3">
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E33" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="G33" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H33" s="15" t="s">
-        <v>563</v>
-      </c>
-      <c r="I33" s="15" t="s">
-        <v>508</v>
-      </c>
-      <c r="J33" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="L33" s="12" t="s">
         <v>472</v>
       </c>
-      <c r="K33" s="15" t="s">
-        <v>473</v>
-      </c>
-      <c r="L33" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="M33" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N33" s="15">
+      <c r="M33" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N33" s="12">
         <v>53.338000000000001</v>
       </c>
-      <c r="O33" s="15">
+      <c r="O33" s="12">
         <v>-6.2779999999999996</v>
       </c>
-      <c r="P33" s="15" t="s">
-        <v>509</v>
-      </c>
-      <c r="Q33" s="16"/>
+      <c r="P33" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q33" s="13"/>
     </row>
     <row r="34" spans="1:17" ht="132.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="3">
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>17</v>
@@ -4426,49 +4438,49 @@
         <v>25</v>
       </c>
       <c r="E34" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="G34" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="G34" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="H34" s="15" t="s">
+      <c r="H34" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="J34" s="12" t="s">
         <v>569</v>
       </c>
-      <c r="I34" s="15" t="s">
+      <c r="K34" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L34" s="12" t="s">
         <v>570</v>
       </c>
-      <c r="J34" s="15" t="s">
+      <c r="M34" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N34" s="12">
+        <v>58.023000000000003</v>
+      </c>
+      <c r="O34" s="12">
+        <v>-3.867</v>
+      </c>
+      <c r="P34" s="12" t="s">
         <v>571</v>
       </c>
-      <c r="K34" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L34" s="15" t="s">
-        <v>572</v>
-      </c>
-      <c r="M34" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N34" s="15">
-        <v>58.023000000000003</v>
-      </c>
-      <c r="O34" s="15">
-        <v>-3.867</v>
-      </c>
-      <c r="P34" s="15" t="s">
-        <v>573</v>
-      </c>
-      <c r="Q34" s="16"/>
+      <c r="Q34" s="13"/>
     </row>
     <row r="35" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="3">
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>17</v>
@@ -4477,49 +4489,49 @@
         <v>25</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F35" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G35" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="G35" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H35" s="15" t="s">
-        <v>582</v>
-      </c>
-      <c r="I35" s="15" t="s">
+      <c r="H35" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L35" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="M35" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N35" s="12">
+        <v>57.337000000000003</v>
+      </c>
+      <c r="O35" s="12">
+        <v>-2.3149999999999999</v>
+      </c>
+      <c r="P35" s="12" t="s">
         <v>574</v>
       </c>
-      <c r="J35" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="K35" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L35" s="15" t="s">
-        <v>575</v>
-      </c>
-      <c r="M35" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N35" s="15">
-        <v>57.337000000000003</v>
-      </c>
-      <c r="O35" s="15">
-        <v>-2.3149999999999999</v>
-      </c>
-      <c r="P35" s="15" t="s">
-        <v>576</v>
-      </c>
-      <c r="Q35" s="16"/>
+      <c r="Q35" s="13"/>
     </row>
     <row r="36" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="3">
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>17</v>
@@ -4531,46 +4543,46 @@
         <v>61</v>
       </c>
       <c r="F36" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G36" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="G36" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="H36" s="15" t="s">
-        <v>582</v>
-      </c>
-      <c r="I36" s="15" t="s">
+      <c r="H36" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L36" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="M36" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N36" s="12">
+        <v>57.337000000000003</v>
+      </c>
+      <c r="O36" s="12">
+        <v>-2.3149999999999999</v>
+      </c>
+      <c r="P36" s="12" t="s">
         <v>574</v>
       </c>
-      <c r="J36" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="K36" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L36" s="15" t="s">
-        <v>575</v>
-      </c>
-      <c r="M36" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N36" s="15">
-        <v>57.337000000000003</v>
-      </c>
-      <c r="O36" s="15">
-        <v>-2.3149999999999999</v>
-      </c>
-      <c r="P36" s="15" t="s">
-        <v>576</v>
-      </c>
-      <c r="Q36" s="16"/>
+      <c r="Q36" s="13"/>
     </row>
     <row r="37" spans="1:17" ht="84.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="3">
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>17</v>
@@ -4582,39 +4594,39 @@
         <v>61</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="H37" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L37" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="M37" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N37" s="12">
+        <v>56.704000000000001</v>
+      </c>
+      <c r="O37" s="12">
+        <v>-3.7330000000000001</v>
+      </c>
+      <c r="P37" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="I37" s="15" t="s">
-        <v>420</v>
-      </c>
-      <c r="J37" s="15" t="s">
-        <v>387</v>
-      </c>
-      <c r="K37" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L37" s="15" t="s">
-        <v>373</v>
-      </c>
-      <c r="M37" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N37" s="15">
-        <v>56.704000000000001</v>
-      </c>
-      <c r="O37" s="15">
-        <v>-3.7330000000000001</v>
-      </c>
-      <c r="P37" s="15" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q37" s="16">
+      <c r="Q37" s="13">
         <v>55.5</v>
       </c>
     </row>
@@ -4623,7 +4635,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>17</v>
@@ -4635,39 +4647,39 @@
         <v>19</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H38" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="I38" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L38" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="M38" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N38" s="12">
+        <v>55.756</v>
+      </c>
+      <c r="O38" s="12">
+        <v>-6.2889999999999997</v>
+      </c>
+      <c r="P38" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="J38" s="15" t="s">
-        <v>360</v>
-      </c>
-      <c r="K38" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L38" s="15" t="s">
-        <v>369</v>
-      </c>
-      <c r="M38" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N38" s="15">
-        <v>55.756</v>
-      </c>
-      <c r="O38" s="15">
-        <v>-6.2889999999999997</v>
-      </c>
-      <c r="P38" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q38" s="16">
+      <c r="Q38" s="13">
         <v>46</v>
       </c>
     </row>
@@ -4676,7 +4688,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>17</v>
@@ -4685,49 +4697,49 @@
         <v>41</v>
       </c>
       <c r="E39" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="G39" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="H39" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="I39" s="15" t="s">
+      <c r="H39" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="K39" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L39" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="M39" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N39" s="12">
+        <v>55.756</v>
+      </c>
+      <c r="O39" s="12">
+        <v>-6.2889999999999997</v>
+      </c>
+      <c r="P39" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="J39" s="15" t="s">
-        <v>360</v>
-      </c>
-      <c r="K39" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L39" s="15" t="s">
-        <v>369</v>
-      </c>
-      <c r="M39" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N39" s="15">
-        <v>55.756</v>
-      </c>
-      <c r="O39" s="15">
-        <v>-6.2889999999999997</v>
-      </c>
-      <c r="P39" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q39" s="16"/>
+      <c r="Q39" s="13"/>
     </row>
     <row r="40" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="3">
         <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>17</v>
@@ -4739,46 +4751,46 @@
         <v>76</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="H40" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="J40" s="12" t="s">
         <v>485</v>
       </c>
-      <c r="I40" s="15" t="s">
+      <c r="K40" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="L40" s="12" t="s">
         <v>486</v>
       </c>
-      <c r="J40" s="15" t="s">
+      <c r="M40" s="12" t="s">
         <v>487</v>
       </c>
-      <c r="K40" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="L40" s="15" t="s">
+      <c r="N40" s="12">
+        <v>36.347999999999999</v>
+      </c>
+      <c r="O40" s="12">
+        <v>138.596</v>
+      </c>
+      <c r="P40" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="M40" s="15" t="s">
-        <v>489</v>
-      </c>
-      <c r="N40" s="15">
-        <v>36.347999999999999</v>
-      </c>
-      <c r="O40" s="15">
-        <v>138.596</v>
-      </c>
-      <c r="P40" s="15" t="s">
-        <v>490</v>
-      </c>
-      <c r="Q40" s="16"/>
+      <c r="Q40" s="13"/>
     </row>
     <row r="41" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="3">
         <v>39</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>17</v>
@@ -4790,39 +4802,39 @@
         <v>28</v>
       </c>
       <c r="F41" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G41" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="G41" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="H41" s="15" t="s">
+      <c r="H41" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="J41" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="K41" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L41" s="12" t="s">
         <v>422</v>
       </c>
-      <c r="I41" s="15" t="s">
+      <c r="M41" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N41" s="12">
+        <v>55.853999999999999</v>
+      </c>
+      <c r="O41" s="12">
+        <v>-6.1079999999999997</v>
+      </c>
+      <c r="P41" s="12" t="s">
         <v>423</v>
       </c>
-      <c r="J41" s="15" t="s">
-        <v>360</v>
-      </c>
-      <c r="K41" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L41" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="M41" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N41" s="15">
-        <v>55.853999999999999</v>
-      </c>
-      <c r="O41" s="15">
-        <v>-6.1079999999999997</v>
-      </c>
-      <c r="P41" s="15" t="s">
-        <v>425</v>
-      </c>
-      <c r="Q41" s="16">
+      <c r="Q41" s="13">
         <v>54.1</v>
       </c>
     </row>
@@ -4831,7 +4843,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>17</v>
@@ -4840,49 +4852,49 @@
         <v>25</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="H42" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="J42" s="12" t="s">
         <v>426</v>
       </c>
-      <c r="I42" s="15" t="s">
+      <c r="K42" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L42" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="M42" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N42" s="12">
+        <v>56.847000000000001</v>
+      </c>
+      <c r="O42" s="12">
+        <v>-2.5880000000000001</v>
+      </c>
+      <c r="P42" s="12" t="s">
         <v>427</v>
       </c>
-      <c r="J42" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="K42" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L42" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="M42" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N42" s="15">
-        <v>56.847000000000001</v>
-      </c>
-      <c r="O42" s="15">
-        <v>-2.5880000000000001</v>
-      </c>
-      <c r="P42" s="15" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q42" s="16"/>
+      <c r="Q42" s="13"/>
     </row>
     <row r="43" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A43" s="3">
         <v>41</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>17</v>
@@ -4894,46 +4906,46 @@
         <v>84</v>
       </c>
       <c r="F43" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G43" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="G43" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="H43" s="15" t="s">
+      <c r="H43" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="J43" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="K43" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L43" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="I43" s="15" t="s">
+      <c r="M43" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N43" s="12">
+        <v>57.427</v>
+      </c>
+      <c r="O43" s="12">
+        <v>-3.3130000000000002</v>
+      </c>
+      <c r="P43" s="12" t="s">
         <v>431</v>
       </c>
-      <c r="J43" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="K43" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L43" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="M43" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N43" s="15">
-        <v>57.427</v>
-      </c>
-      <c r="O43" s="15">
-        <v>-3.3130000000000002</v>
-      </c>
-      <c r="P43" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="Q43" s="16"/>
-    </row>
-    <row r="44" spans="1:17" ht="79.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" spans="1:17" ht="78.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>17</v>
@@ -4942,13 +4954,13 @@
         <v>49</v>
       </c>
       <c r="E44" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="G44" s="8" t="s">
         <v>156</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>157</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -4959,14 +4971,14 @@
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
-      <c r="Q44" s="16"/>
+      <c r="Q44" s="13"/>
     </row>
     <row r="45" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A45" s="3">
         <v>43</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>17</v>
@@ -4978,46 +4990,46 @@
         <v>84</v>
       </c>
       <c r="F45" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G45" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="G45" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="H45" s="15" t="s">
+      <c r="H45" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="J45" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="K45" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L45" s="12" t="s">
         <v>434</v>
       </c>
-      <c r="I45" s="15" t="s">
+      <c r="M45" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N45" s="12">
+        <v>57.646999999999998</v>
+      </c>
+      <c r="O45" s="12">
+        <v>-3.2930000000000001</v>
+      </c>
+      <c r="P45" s="12" t="s">
         <v>435</v>
       </c>
-      <c r="J45" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="K45" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L45" s="15" t="s">
-        <v>436</v>
-      </c>
-      <c r="M45" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N45" s="15">
-        <v>57.646999999999998</v>
-      </c>
-      <c r="O45" s="15">
-        <v>-3.2930000000000001</v>
-      </c>
-      <c r="P45" s="15" t="s">
-        <v>437</v>
-      </c>
-      <c r="Q45" s="16"/>
-    </row>
-    <row r="46" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="Q45" s="13"/>
+    </row>
+    <row r="46" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A46" s="3">
         <v>44</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>17</v>
@@ -5029,48 +5041,48 @@
         <v>28</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="H46" s="15" t="s">
+      <c r="H46" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="J46" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="K46" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L46" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="I46" s="15" t="s">
+      <c r="M46" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N46" s="12">
+        <v>55.78</v>
+      </c>
+      <c r="O46" s="12">
+        <v>-6.4329999999999998</v>
+      </c>
+      <c r="P46" s="12" t="s">
         <v>439</v>
       </c>
-      <c r="J46" s="15" t="s">
-        <v>360</v>
-      </c>
-      <c r="K46" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L46" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="M46" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N46" s="15">
-        <v>55.78</v>
-      </c>
-      <c r="O46" s="15">
-        <v>-6.4329999999999998</v>
-      </c>
-      <c r="P46" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="Q46" s="16">
+      <c r="Q46" s="13">
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="48" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <v>45</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>17</v>
@@ -5082,19 +5094,19 @@
         <v>19</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G47" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="H47" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="I47" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="J47" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>49</v>
@@ -5112,16 +5124,16 @@
         <v>130.32300000000001</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q47" s="16"/>
-    </row>
-    <row r="48" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>165</v>
+      </c>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A48" s="3">
         <v>46</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>17</v>
@@ -5133,46 +5145,46 @@
         <v>28</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="H48" s="15" t="s">
+      <c r="H48" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="J48" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="K48" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L48" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="I48" s="15" t="s">
+      <c r="M48" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N48" s="12">
+        <v>55.78</v>
+      </c>
+      <c r="O48" s="12">
+        <v>-6.4329999999999998</v>
+      </c>
+      <c r="P48" s="12" t="s">
         <v>439</v>
       </c>
-      <c r="J48" s="15" t="s">
-        <v>360</v>
-      </c>
-      <c r="K48" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L48" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="M48" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N48" s="15">
-        <v>55.78</v>
-      </c>
-      <c r="O48" s="15">
-        <v>-6.4329999999999998</v>
-      </c>
-      <c r="P48" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="Q48" s="16"/>
+      <c r="Q48" s="13"/>
     </row>
     <row r="49" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A49" s="3">
         <v>47</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>17</v>
@@ -5181,49 +5193,49 @@
         <v>25</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F49" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G49" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="G49" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="H49" s="15" t="s">
+      <c r="H49" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="J49" s="12" t="s">
         <v>426</v>
       </c>
-      <c r="I49" s="15" t="s">
+      <c r="K49" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L49" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="M49" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N49" s="12">
+        <v>56.847000000000001</v>
+      </c>
+      <c r="O49" s="12">
+        <v>-2.5880000000000001</v>
+      </c>
+      <c r="P49" s="12" t="s">
         <v>427</v>
       </c>
-      <c r="J49" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="K49" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L49" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="M49" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N49" s="15">
-        <v>56.847000000000001</v>
-      </c>
-      <c r="O49" s="15">
-        <v>-2.5880000000000001</v>
-      </c>
-      <c r="P49" s="15" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q49" s="16"/>
+      <c r="Q49" s="13"/>
     </row>
     <row r="50" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A50" s="3">
         <v>48</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>17</v>
@@ -5235,46 +5247,46 @@
         <v>19</v>
       </c>
       <c r="F50" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G50" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="G50" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="H50" s="15" t="s">
-        <v>585</v>
-      </c>
-      <c r="I50" s="15" t="s">
+      <c r="H50" s="12" t="s">
+        <v>583</v>
+      </c>
+      <c r="I50" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="J50" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="K50" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L50" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="M50" s="12" t="s">
         <v>577</v>
       </c>
-      <c r="J50" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="K50" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L50" s="15" t="s">
-        <v>578</v>
-      </c>
-      <c r="M50" s="15" t="s">
-        <v>579</v>
-      </c>
-      <c r="N50" s="15">
+      <c r="N50" s="12">
         <v>57.683999999999997</v>
       </c>
-      <c r="O50" s="15">
+      <c r="O50" s="12">
         <v>-2.5649999999999999</v>
       </c>
-      <c r="P50" s="15" t="s">
-        <v>583</v>
-      </c>
-      <c r="Q50" s="16"/>
-    </row>
-    <row r="51" spans="1:17" ht="48" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="P50" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A51" s="3">
         <v>49</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>17</v>
@@ -5283,10 +5295,10 @@
         <v>49</v>
       </c>
       <c r="E51" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F51" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="G51" s="8" t="s">
         <v>106</v>
@@ -5318,14 +5330,14 @@
       <c r="P51" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="Q51" s="16"/>
+      <c r="Q51" s="13"/>
     </row>
     <row r="52" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A52" s="3">
         <v>50</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>17</v>
@@ -5334,49 +5346,49 @@
         <v>25</v>
       </c>
       <c r="E52" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F52" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="G52" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="G52" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="H52" s="15" t="s">
+      <c r="H52" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="I52" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="J52" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="I52" s="15" t="s">
+      <c r="K52" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L52" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="J52" s="15" t="s">
+      <c r="M52" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N52" s="12">
+        <v>55.424999999999997</v>
+      </c>
+      <c r="O52" s="12">
+        <v>-5.609</v>
+      </c>
+      <c r="P52" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="K52" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L52" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="M52" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N52" s="15">
-        <v>55.424999999999997</v>
-      </c>
-      <c r="O52" s="15">
-        <v>-5.609</v>
-      </c>
-      <c r="P52" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q52" s="16"/>
+      <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A53" s="3">
         <v>51</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>17</v>
@@ -5388,46 +5400,46 @@
         <v>19</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="H53" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="I53" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="J53" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="K53" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L53" s="12" t="s">
         <v>422</v>
       </c>
-      <c r="I53" s="15" t="s">
+      <c r="M53" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N53" s="12">
+        <v>55.853999999999999</v>
+      </c>
+      <c r="O53" s="12">
+        <v>-6.1079999999999997</v>
+      </c>
+      <c r="P53" s="12" t="s">
         <v>423</v>
       </c>
-      <c r="J53" s="15" t="s">
-        <v>360</v>
-      </c>
-      <c r="K53" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L53" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="M53" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N53" s="15">
-        <v>55.853999999999999</v>
-      </c>
-      <c r="O53" s="15">
-        <v>-6.1079999999999997</v>
-      </c>
-      <c r="P53" s="15" t="s">
-        <v>425</v>
-      </c>
-      <c r="Q53" s="16"/>
+      <c r="Q53" s="13"/>
     </row>
     <row r="54" spans="1:17" ht="79.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A54" s="3">
         <v>52</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>17</v>
@@ -5439,46 +5451,46 @@
         <v>19</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="H54" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>582</v>
+      </c>
+      <c r="I54" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="J54" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="K54" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L54" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="M54" s="12" t="s">
+        <v>579</v>
+      </c>
+      <c r="N54" s="12">
+        <v>55.767000000000003</v>
+      </c>
+      <c r="O54" s="12">
+        <v>-6.3620000000000001</v>
+      </c>
+      <c r="P54" s="12" t="s">
         <v>584</v>
       </c>
-      <c r="I54" s="15" t="s">
-        <v>580</v>
-      </c>
-      <c r="J54" s="15" t="s">
-        <v>360</v>
-      </c>
-      <c r="K54" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L54" s="15" t="s">
-        <v>383</v>
-      </c>
-      <c r="M54" s="15" t="s">
-        <v>581</v>
-      </c>
-      <c r="N54" s="15">
-        <v>55.767000000000003</v>
-      </c>
-      <c r="O54" s="15">
-        <v>-6.3620000000000001</v>
-      </c>
-      <c r="P54" s="15" t="s">
-        <v>586</v>
-      </c>
-      <c r="Q54" s="16"/>
+      <c r="Q54" s="13"/>
     </row>
     <row r="55" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="3">
         <v>53</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>17</v>
@@ -5490,39 +5502,39 @@
         <v>84</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="H55" s="15" t="s">
-        <v>587</v>
-      </c>
-      <c r="I55" s="15" t="s">
-        <v>405</v>
-      </c>
-      <c r="J55" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="K55" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L55" s="15" t="s">
-        <v>406</v>
-      </c>
-      <c r="M55" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N55" s="15">
+        <v>184</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="I55" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="J55" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="K55" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L55" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="M55" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N55" s="12">
         <v>57.451999999999998</v>
       </c>
-      <c r="O55" s="15">
+      <c r="O55" s="12">
         <v>-3.3769999999999998</v>
       </c>
-      <c r="P55" s="15" t="s">
-        <v>588</v>
-      </c>
-      <c r="Q55" s="16">
+      <c r="P55" s="12" t="s">
+        <v>586</v>
+      </c>
+      <c r="Q55" s="13">
         <v>57.3</v>
       </c>
     </row>
@@ -5531,7 +5543,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>17</v>
@@ -5543,39 +5555,39 @@
         <v>84</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="H56" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="I56" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="J56" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="K56" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L56" s="12" t="s">
         <v>442</v>
       </c>
-      <c r="I56" s="15" t="s">
+      <c r="M56" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N56" s="12">
+        <v>57.533000000000001</v>
+      </c>
+      <c r="O56" s="12">
+        <v>-3.206</v>
+      </c>
+      <c r="P56" s="12" t="s">
         <v>443</v>
       </c>
-      <c r="J56" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="K56" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L56" s="15" t="s">
-        <v>444</v>
-      </c>
-      <c r="M56" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N56" s="15">
-        <v>57.533000000000001</v>
-      </c>
-      <c r="O56" s="15">
-        <v>-3.206</v>
-      </c>
-      <c r="P56" s="15" t="s">
-        <v>445</v>
-      </c>
-      <c r="Q56" s="16">
+      <c r="Q56" s="13">
         <v>58.1</v>
       </c>
     </row>
@@ -5584,7 +5596,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>17</v>
@@ -5596,46 +5608,46 @@
         <v>84</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="H57" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="I57" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="J57" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="K57" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L57" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="M57" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N57" s="12">
+        <v>57.343000000000004</v>
+      </c>
+      <c r="O57" s="12">
+        <v>-3.3380000000000001</v>
+      </c>
+      <c r="P57" s="12" t="s">
         <v>446</v>
       </c>
-      <c r="I57" s="15" t="s">
-        <v>447</v>
-      </c>
-      <c r="J57" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="K57" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L57" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="M57" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N57" s="15">
-        <v>57.343000000000004</v>
-      </c>
-      <c r="O57" s="15">
-        <v>-3.3380000000000001</v>
-      </c>
-      <c r="P57" s="15" t="s">
-        <v>448</v>
-      </c>
-      <c r="Q57" s="16"/>
+      <c r="Q57" s="13"/>
     </row>
     <row r="58" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A58" s="3">
         <v>56</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>17</v>
@@ -5647,46 +5659,46 @@
         <v>76</v>
       </c>
       <c r="F58" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G58" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="G58" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="H58" s="15" t="s">
-        <v>496</v>
-      </c>
-      <c r="I58" s="15" t="s">
+      <c r="H58" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="I58" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="J58" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="K58" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="L58" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="J58" s="15" t="s">
+      <c r="M58" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N58" s="12">
+        <v>35.988999999999997</v>
+      </c>
+      <c r="O58" s="12">
+        <v>139.072</v>
+      </c>
+      <c r="P58" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="K58" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="L58" s="15" t="s">
-        <v>456</v>
-      </c>
-      <c r="M58" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N58" s="15">
-        <v>35.988999999999997</v>
-      </c>
-      <c r="O58" s="15">
-        <v>139.072</v>
-      </c>
-      <c r="P58" s="15" t="s">
-        <v>457</v>
-      </c>
-      <c r="Q58" s="16"/>
+      <c r="Q58" s="13"/>
     </row>
     <row r="59" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A59" s="3">
         <v>57</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>17</v>
@@ -5698,46 +5710,46 @@
         <v>19</v>
       </c>
       <c r="F59" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G59" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="G59" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="H59" s="15" t="s">
+      <c r="H59" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="I59" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="J59" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="K59" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L59" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="M59" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N59" s="12">
+        <v>58.968000000000004</v>
+      </c>
+      <c r="O59" s="12">
+        <v>-2.956</v>
+      </c>
+      <c r="P59" s="12" t="s">
         <v>502</v>
       </c>
-      <c r="I59" s="15" t="s">
-        <v>503</v>
-      </c>
-      <c r="J59" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="K59" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L59" s="15" t="s">
-        <v>373</v>
-      </c>
-      <c r="M59" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N59" s="15">
-        <v>58.968000000000004</v>
-      </c>
-      <c r="O59" s="15">
-        <v>-2.956</v>
-      </c>
-      <c r="P59" s="15" t="s">
-        <v>504</v>
-      </c>
-      <c r="Q59" s="16"/>
+      <c r="Q59" s="13"/>
     </row>
     <row r="60" spans="1:17" ht="50.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A60" s="3">
         <v>58</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>17</v>
@@ -5749,46 +5761,46 @@
         <v>19</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="H60" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="H60" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="I60" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="J60" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="I60" s="15" t="s">
+      <c r="K60" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L60" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="J60" s="15" t="s">
+      <c r="M60" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N60" s="12">
+        <v>55.640999999999998</v>
+      </c>
+      <c r="O60" s="12">
+        <v>-6.109</v>
+      </c>
+      <c r="P60" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="K60" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L60" s="15" t="s">
-        <v>393</v>
-      </c>
-      <c r="M60" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N60" s="15">
-        <v>55.640999999999998</v>
-      </c>
-      <c r="O60" s="15">
-        <v>-6.109</v>
-      </c>
-      <c r="P60" s="15" t="s">
-        <v>394</v>
-      </c>
-      <c r="Q60" s="16"/>
+      <c r="Q60" s="13"/>
     </row>
     <row r="61" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A61" s="3">
         <v>59</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>17</v>
@@ -5800,39 +5812,39 @@
         <v>84</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G61" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="H61" s="15" t="s">
+      <c r="H61" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="I61" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J61" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="K61" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L61" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="I61" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J61" s="15" t="s">
+      <c r="M61" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N61" s="12">
+        <v>57.484999999999999</v>
+      </c>
+      <c r="O61" s="12">
+        <v>-3.2080000000000002</v>
+      </c>
+      <c r="P61" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="K61" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L61" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="M61" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N61" s="15">
-        <v>57.484999999999999</v>
-      </c>
-      <c r="O61" s="15">
-        <v>-3.2080000000000002</v>
-      </c>
-      <c r="P61" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q61" s="16">
+      <c r="Q61" s="13">
         <v>40</v>
       </c>
     </row>
@@ -5841,7 +5853,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>17</v>
@@ -5853,39 +5865,39 @@
         <v>84</v>
       </c>
       <c r="F62" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G62" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="G62" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="H62" s="15" t="s">
+      <c r="H62" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="I62" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="J62" s="12" t="s">
         <v>408</v>
       </c>
-      <c r="I62" s="15" t="s">
+      <c r="K62" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L62" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="M62" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N62" s="12">
+        <v>56.835999999999999</v>
+      </c>
+      <c r="O62" s="12">
+        <v>-5.0739999999999998</v>
+      </c>
+      <c r="P62" s="12" t="s">
         <v>409</v>
       </c>
-      <c r="J62" s="15" t="s">
-        <v>410</v>
-      </c>
-      <c r="K62" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L62" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="M62" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N62" s="15">
-        <v>56.835999999999999</v>
-      </c>
-      <c r="O62" s="15">
-        <v>-5.0739999999999998</v>
-      </c>
-      <c r="P62" s="15" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q62" s="16">
+      <c r="Q62" s="13">
         <v>40</v>
       </c>
     </row>
@@ -5894,51 +5906,51 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>202</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F63" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G63" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="G63" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="H63" s="15" t="s">
-        <v>592</v>
-      </c>
-      <c r="I63" s="15" t="s">
+      <c r="H63" s="12" t="s">
+        <v>590</v>
+      </c>
+      <c r="I63" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="J63" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="K63" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L63" s="12" t="s">
         <v>589</v>
       </c>
-      <c r="J63" s="15" t="s">
-        <v>590</v>
-      </c>
-      <c r="K63" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L63" s="15" t="s">
+      <c r="M63" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N63" s="12">
+        <v>55.832999999999998</v>
+      </c>
+      <c r="O63" s="12">
+        <v>-5.9509999999999996</v>
+      </c>
+      <c r="P63" s="12" t="s">
         <v>591</v>
       </c>
-      <c r="M63" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N63" s="15">
-        <v>55.832999999999998</v>
-      </c>
-      <c r="O63" s="15">
-        <v>-5.9509999999999996</v>
-      </c>
-      <c r="P63" s="15" t="s">
-        <v>593</v>
-      </c>
-      <c r="Q63" s="16">
+      <c r="Q63" s="13">
         <v>60.7</v>
       </c>
     </row>
@@ -5947,7 +5959,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>17</v>
@@ -5956,49 +5968,49 @@
         <v>25</v>
       </c>
       <c r="E64" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F64" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="G64" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="G64" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="H64" s="15" t="s">
-        <v>595</v>
-      </c>
-      <c r="I64" s="15" t="s">
+      <c r="H64" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="I64" s="12" t="s">
+        <v>592</v>
+      </c>
+      <c r="J64" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="K64" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L64" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="M64" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N64" s="12">
+        <v>56.701999999999998</v>
+      </c>
+      <c r="O64" s="12">
+        <v>-3.702</v>
+      </c>
+      <c r="P64" s="12" t="s">
         <v>594</v>
       </c>
-      <c r="J64" s="15" t="s">
-        <v>387</v>
-      </c>
-      <c r="K64" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L64" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="M64" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N64" s="15">
-        <v>56.701999999999998</v>
-      </c>
-      <c r="O64" s="15">
-        <v>-3.702</v>
-      </c>
-      <c r="P64" s="15" t="s">
-        <v>596</v>
-      </c>
-      <c r="Q64" s="16"/>
+      <c r="Q64" s="13"/>
     </row>
     <row r="65" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A65" s="3">
         <v>63</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>17</v>
@@ -6007,49 +6019,49 @@
         <v>25</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="H65" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="H65" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="I65" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="J65" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="I65" s="15" t="s">
+      <c r="K65" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L65" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="J65" s="15" t="s">
+      <c r="M65" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N65" s="12">
+        <v>55.424999999999997</v>
+      </c>
+      <c r="O65" s="12">
+        <v>-5.609</v>
+      </c>
+      <c r="P65" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="K65" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L65" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="M65" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N65" s="15">
-        <v>55.424999999999997</v>
-      </c>
-      <c r="O65" s="15">
-        <v>-5.609</v>
-      </c>
-      <c r="P65" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q65" s="16"/>
+      <c r="Q65" s="13"/>
     </row>
     <row r="66" spans="1:17" ht="99.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A66" s="3">
         <v>64</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>17</v>
@@ -6061,46 +6073,46 @@
         <v>19</v>
       </c>
       <c r="F66" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G66" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="G66" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="H66" s="15" t="s">
+      <c r="H66" s="12" t="s">
+        <v>602</v>
+      </c>
+      <c r="I66" s="12" t="s">
+        <v>603</v>
+      </c>
+      <c r="J66" s="12" t="s">
         <v>604</v>
       </c>
-      <c r="I66" s="15" t="s">
+      <c r="K66" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L66" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="M66" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N66" s="12">
+        <v>56.622999999999998</v>
+      </c>
+      <c r="O66" s="12">
+        <v>-6.07</v>
+      </c>
+      <c r="P66" s="12" t="s">
         <v>605</v>
       </c>
-      <c r="J66" s="15" t="s">
-        <v>606</v>
-      </c>
-      <c r="K66" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L66" s="15" t="s">
-        <v>373</v>
-      </c>
-      <c r="M66" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N66" s="15">
-        <v>56.622999999999998</v>
-      </c>
-      <c r="O66" s="15">
-        <v>-6.07</v>
-      </c>
-      <c r="P66" s="15" t="s">
-        <v>607</v>
-      </c>
-      <c r="Q66" s="16"/>
+      <c r="Q66" s="13"/>
     </row>
     <row r="67" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A67" s="3">
         <v>65</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>17</v>
@@ -6112,39 +6124,39 @@
         <v>76</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="H67" s="15" t="s">
-        <v>496</v>
-      </c>
-      <c r="I67" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="H67" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="I67" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="J67" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="K67" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="L67" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="J67" s="15" t="s">
+      <c r="M67" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N67" s="12">
+        <v>35.988999999999997</v>
+      </c>
+      <c r="O67" s="12">
+        <v>139.072</v>
+      </c>
+      <c r="P67" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="K67" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="L67" s="15" t="s">
-        <v>456</v>
-      </c>
-      <c r="M67" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N67" s="15">
-        <v>35.988999999999997</v>
-      </c>
-      <c r="O67" s="15">
-        <v>139.072</v>
-      </c>
-      <c r="P67" s="15" t="s">
-        <v>457</v>
-      </c>
-      <c r="Q67" s="16">
+      <c r="Q67" s="13">
         <v>48</v>
       </c>
     </row>
@@ -6153,7 +6165,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>17</v>
@@ -6165,46 +6177,46 @@
         <v>84</v>
       </c>
       <c r="F68" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G68" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="G68" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="H68" s="15" t="s">
+      <c r="H68" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="I68" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="J68" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="K68" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L68" s="12" t="s">
         <v>434</v>
       </c>
-      <c r="I68" s="15" t="s">
+      <c r="M68" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N68" s="12">
+        <v>57.646999999999998</v>
+      </c>
+      <c r="O68" s="12">
+        <v>-3.2930000000000001</v>
+      </c>
+      <c r="P68" s="12" t="s">
         <v>435</v>
       </c>
-      <c r="J68" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="K68" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L68" s="15" t="s">
-        <v>436</v>
-      </c>
-      <c r="M68" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N68" s="15">
-        <v>57.646999999999998</v>
-      </c>
-      <c r="O68" s="15">
-        <v>-3.2930000000000001</v>
-      </c>
-      <c r="P68" s="15" t="s">
-        <v>437</v>
-      </c>
-      <c r="Q68" s="16"/>
+      <c r="Q68" s="13"/>
     </row>
     <row r="69" spans="1:17" ht="99.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A69" s="3">
         <v>67</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>17</v>
@@ -6216,46 +6228,46 @@
         <v>19</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="H69" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="H69" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="I69" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="J69" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="K69" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L69" s="12" t="s">
         <v>600</v>
       </c>
-      <c r="I69" s="15" t="s">
+      <c r="M69" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N69" s="12">
+        <v>57.551000000000002</v>
+      </c>
+      <c r="O69" s="12">
+        <v>-4.4340000000000002</v>
+      </c>
+      <c r="P69" s="12" t="s">
         <v>601</v>
       </c>
-      <c r="J69" s="15" t="s">
-        <v>571</v>
-      </c>
-      <c r="K69" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L69" s="15" t="s">
-        <v>602</v>
-      </c>
-      <c r="M69" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N69" s="15">
-        <v>57.551000000000002</v>
-      </c>
-      <c r="O69" s="15">
-        <v>-4.4340000000000002</v>
-      </c>
-      <c r="P69" s="15" t="s">
-        <v>603</v>
-      </c>
-      <c r="Q69" s="16"/>
+      <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A70" s="3">
         <v>68</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>17</v>
@@ -6267,46 +6279,46 @@
         <v>19</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="H70" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H70" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="I70" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="J70" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="K70" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L70" s="12" t="s">
         <v>422</v>
       </c>
-      <c r="I70" s="15" t="s">
+      <c r="M70" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N70" s="12">
+        <v>55.853999999999999</v>
+      </c>
+      <c r="O70" s="12">
+        <v>-6.1079999999999997</v>
+      </c>
+      <c r="P70" s="12" t="s">
         <v>423</v>
       </c>
-      <c r="J70" s="15" t="s">
-        <v>360</v>
-      </c>
-      <c r="K70" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L70" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="M70" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N70" s="15">
-        <v>55.853999999999999</v>
-      </c>
-      <c r="O70" s="15">
-        <v>-6.1079999999999997</v>
-      </c>
-      <c r="P70" s="15" t="s">
-        <v>425</v>
-      </c>
-      <c r="Q70" s="16"/>
+      <c r="Q70" s="13"/>
     </row>
     <row r="71" spans="1:17" ht="99.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A71" s="3">
         <v>69</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>17</v>
@@ -6318,46 +6330,46 @@
         <v>84</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="H71" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="H71" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="I71" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="J71" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="K71" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L71" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="I71" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="J71" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="K71" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L71" s="15" t="s">
-        <v>417</v>
-      </c>
-      <c r="M71" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N71" s="15">
+      <c r="M71" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N71" s="12">
         <v>57.444000000000003</v>
       </c>
-      <c r="O71" s="15">
+      <c r="O71" s="12">
         <v>-3.1280000000000001</v>
       </c>
-      <c r="P71" s="15" t="s">
-        <v>599</v>
-      </c>
-      <c r="Q71" s="16"/>
+      <c r="P71" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="Q71" s="13"/>
     </row>
     <row r="72" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A72" s="3">
         <v>70</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>17</v>
@@ -6369,46 +6381,46 @@
         <v>76</v>
       </c>
       <c r="F72" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G72" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="G72" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="H72" s="15" t="s">
+      <c r="H72" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="I72" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="J72" s="12" t="s">
         <v>449</v>
       </c>
-      <c r="I72" s="15" t="s">
+      <c r="K72" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="L72" s="12" t="s">
         <v>450</v>
       </c>
-      <c r="J72" s="15" t="s">
+      <c r="M72" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N72" s="12">
+        <v>34.890999999999998</v>
+      </c>
+      <c r="O72" s="12">
+        <v>135.67500000000001</v>
+      </c>
+      <c r="P72" s="12" t="s">
         <v>451</v>
       </c>
-      <c r="K72" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="L72" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="M72" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N72" s="15">
-        <v>34.890999999999998</v>
-      </c>
-      <c r="O72" s="15">
-        <v>135.67500000000001</v>
-      </c>
-      <c r="P72" s="15" t="s">
-        <v>453</v>
-      </c>
-      <c r="Q72" s="16"/>
+      <c r="Q72" s="13"/>
     </row>
     <row r="73" spans="1:17" ht="99.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A73" s="3">
         <v>71</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>17</v>
@@ -6417,49 +6429,49 @@
         <v>25</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F73" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G73" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="G73" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="H73" s="15" t="s">
+      <c r="H73" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="I73" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="J73" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="I73" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="J73" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="K73" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L73" s="15" t="s">
-        <v>373</v>
-      </c>
-      <c r="M73" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N73" s="15">
+      <c r="K73" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L73" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="M73" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N73" s="12">
         <v>58.968000000000004</v>
       </c>
-      <c r="O73" s="15">
+      <c r="O73" s="12">
         <v>-2.956</v>
       </c>
-      <c r="P73" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="Q73" s="16"/>
-    </row>
-    <row r="74" spans="1:17" ht="99.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="P73" s="12" t="s">
+        <v>596</v>
+      </c>
+      <c r="Q73" s="13"/>
+    </row>
+    <row r="74" spans="1:17" ht="99.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A74" s="3">
         <v>72</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>17</v>
@@ -6471,46 +6483,46 @@
         <v>19</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G74" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="H74" s="15" t="s">
+      <c r="H74" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="I74" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="J74" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="K74" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L74" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="I74" s="15" t="s">
-        <v>439</v>
-      </c>
-      <c r="J74" s="15" t="s">
-        <v>360</v>
-      </c>
-      <c r="K74" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L74" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="M74" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N74" s="15">
+      <c r="M74" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N74" s="12">
         <v>55.78</v>
       </c>
-      <c r="O74" s="15">
+      <c r="O74" s="12">
         <v>-6.4329999999999998</v>
       </c>
-      <c r="P74" s="15" t="s">
-        <v>597</v>
-      </c>
-      <c r="Q74" s="16"/>
+      <c r="P74" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q74" s="13"/>
     </row>
     <row r="75" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A75" s="3">
         <v>73</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>17</v>
@@ -6522,46 +6534,46 @@
         <v>76</v>
       </c>
       <c r="F75" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G75" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="G75" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="H75" s="15" t="s">
+      <c r="H75" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="I75" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="J75" s="12" t="s">
         <v>485</v>
       </c>
-      <c r="I75" s="15" t="s">
+      <c r="K75" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="L75" s="12" t="s">
         <v>486</v>
       </c>
-      <c r="J75" s="15" t="s">
+      <c r="M75" s="12" t="s">
         <v>487</v>
       </c>
-      <c r="K75" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="L75" s="15" t="s">
+      <c r="N75" s="12">
+        <v>36.347999999999999</v>
+      </c>
+      <c r="O75" s="12">
+        <v>138.596</v>
+      </c>
+      <c r="P75" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="M75" s="15" t="s">
-        <v>489</v>
-      </c>
-      <c r="N75" s="15">
-        <v>36.347999999999999</v>
-      </c>
-      <c r="O75" s="15">
-        <v>138.596</v>
-      </c>
-      <c r="P75" s="15" t="s">
-        <v>490</v>
-      </c>
-      <c r="Q75" s="16"/>
-    </row>
-    <row r="76" spans="1:17" ht="99.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="Q75" s="13"/>
+    </row>
+    <row r="76" spans="1:17" ht="99.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A76" s="3">
         <v>74</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>17</v>
@@ -6573,39 +6585,39 @@
         <v>19</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G76" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="H76" s="15" t="s">
+      <c r="H76" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="I76" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="J76" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="K76" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L76" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="I76" s="15" t="s">
-        <v>439</v>
-      </c>
-      <c r="J76" s="15" t="s">
-        <v>360</v>
-      </c>
-      <c r="K76" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L76" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="M76" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N76" s="15">
+      <c r="M76" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N76" s="12">
         <v>55.78</v>
       </c>
-      <c r="O76" s="15">
+      <c r="O76" s="12">
         <v>-6.4329999999999998</v>
       </c>
-      <c r="P76" s="15" t="s">
-        <v>597</v>
-      </c>
-      <c r="Q76" s="16">
+      <c r="P76" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q76" s="13">
         <v>50</v>
       </c>
     </row>
@@ -6614,58 +6626,58 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>236</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F77" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G77" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="G77" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="H77" s="15" t="s">
+      <c r="H77" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="I77" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="J77" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="K77" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L77" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="I77" s="15" t="s">
-        <v>431</v>
-      </c>
-      <c r="J77" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="K77" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L77" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="M77" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N77" s="15">
+      <c r="M77" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N77" s="12">
         <v>57.427</v>
       </c>
-      <c r="O77" s="15">
+      <c r="O77" s="12">
         <v>-3.3130000000000002</v>
       </c>
-      <c r="P77" s="15" t="s">
-        <v>621</v>
-      </c>
-      <c r="Q77" s="16"/>
+      <c r="P77" s="12" t="s">
+        <v>619</v>
+      </c>
+      <c r="Q77" s="13"/>
     </row>
     <row r="78" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A78" s="3">
         <v>76</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>17</v>
@@ -6677,46 +6689,46 @@
         <v>76</v>
       </c>
       <c r="F78" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="G78" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="G78" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="H78" s="15" t="s">
+      <c r="H78" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="I78" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="J78" s="12" t="s">
         <v>485</v>
       </c>
-      <c r="I78" s="15" t="s">
+      <c r="K78" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="L78" s="12" t="s">
         <v>486</v>
       </c>
-      <c r="J78" s="15" t="s">
+      <c r="M78" s="12" t="s">
         <v>487</v>
       </c>
-      <c r="K78" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="L78" s="15" t="s">
+      <c r="N78" s="12">
+        <v>36.347999999999999</v>
+      </c>
+      <c r="O78" s="12">
+        <v>138.596</v>
+      </c>
+      <c r="P78" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="M78" s="15" t="s">
-        <v>489</v>
-      </c>
-      <c r="N78" s="15">
-        <v>36.347999999999999</v>
-      </c>
-      <c r="O78" s="15">
-        <v>138.596</v>
-      </c>
-      <c r="P78" s="15" t="s">
-        <v>490</v>
-      </c>
-      <c r="Q78" s="16"/>
+      <c r="Q78" s="13"/>
     </row>
     <row r="79" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A79" s="3">
         <v>77</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>17</v>
@@ -6725,22 +6737,22 @@
         <v>49</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F79" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G79" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="G79" s="8" t="s">
+      <c r="H79" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="H79" s="3" t="s">
+      <c r="I79" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="I79" s="3" t="s">
+      <c r="J79" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="J79" s="3" t="s">
-        <v>246</v>
       </c>
       <c r="K79" s="3" t="s">
         <v>49</v>
@@ -6758,16 +6770,16 @@
         <v>132.334</v>
       </c>
       <c r="P79" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q79" s="16"/>
+        <v>246</v>
+      </c>
+      <c r="Q79" s="13"/>
     </row>
     <row r="80" spans="1:17" ht="99.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A80" s="3">
         <v>78</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>17</v>
@@ -6779,46 +6791,46 @@
         <v>61</v>
       </c>
       <c r="F80" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G80" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="G80" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="H80" s="15" t="s">
+      <c r="H80" s="12" t="s">
+        <v>615</v>
+      </c>
+      <c r="I80" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="J80" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="K80" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L80" s="12" t="s">
         <v>617</v>
       </c>
-      <c r="I80" s="15" t="s">
+      <c r="M80" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N80" s="12">
+        <v>57.52</v>
+      </c>
+      <c r="O80" s="12">
+        <v>-4.0469999999999997</v>
+      </c>
+      <c r="P80" s="12" t="s">
         <v>618</v>
       </c>
-      <c r="J80" s="15" t="s">
-        <v>571</v>
-      </c>
-      <c r="K80" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L80" s="15" t="s">
-        <v>619</v>
-      </c>
-      <c r="M80" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N80" s="15">
-        <v>57.52</v>
-      </c>
-      <c r="O80" s="15">
-        <v>-4.0469999999999997</v>
-      </c>
-      <c r="P80" s="15" t="s">
-        <v>620</v>
-      </c>
-      <c r="Q80" s="16"/>
+      <c r="Q80" s="13"/>
     </row>
     <row r="81" spans="1:17" ht="99.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A81" s="3">
         <v>79</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>17</v>
@@ -6830,46 +6842,46 @@
         <v>84</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="H81" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="H81" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="I81" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="J81" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="K81" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L81" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="M81" s="12" t="s">
         <v>613</v>
       </c>
-      <c r="I81" s="15" t="s">
+      <c r="N81" s="12">
+        <v>57.438000000000002</v>
+      </c>
+      <c r="O81" s="12">
+        <v>-3.3460000000000001</v>
+      </c>
+      <c r="P81" s="12" t="s">
         <v>614</v>
       </c>
-      <c r="J81" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="K81" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L81" s="15" t="s">
-        <v>388</v>
-      </c>
-      <c r="M81" s="15" t="s">
-        <v>615</v>
-      </c>
-      <c r="N81" s="15">
-        <v>57.438000000000002</v>
-      </c>
-      <c r="O81" s="15">
-        <v>-3.3460000000000001</v>
-      </c>
-      <c r="P81" s="15" t="s">
-        <v>616</v>
-      </c>
-      <c r="Q81" s="16"/>
+      <c r="Q81" s="13"/>
     </row>
     <row r="82" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A82" s="3">
         <v>80</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>17</v>
@@ -6878,49 +6890,49 @@
         <v>49</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F82" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="G82" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="G82" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="H82" s="15" t="s">
-        <v>496</v>
-      </c>
-      <c r="I82" s="15" t="s">
+      <c r="H82" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="I82" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="J82" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="K82" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="L82" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="J82" s="15" t="s">
+      <c r="M82" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N82" s="12">
+        <v>35.988999999999997</v>
+      </c>
+      <c r="O82" s="12">
+        <v>139.072</v>
+      </c>
+      <c r="P82" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="K82" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="L82" s="15" t="s">
-        <v>456</v>
-      </c>
-      <c r="M82" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N82" s="15">
-        <v>35.988999999999997</v>
-      </c>
-      <c r="O82" s="15">
-        <v>139.072</v>
-      </c>
-      <c r="P82" s="15" t="s">
-        <v>457</v>
-      </c>
-      <c r="Q82" s="16"/>
+      <c r="Q82" s="13"/>
     </row>
     <row r="83" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A83" s="3">
         <v>81</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>17</v>
@@ -6932,46 +6944,46 @@
         <v>76</v>
       </c>
       <c r="F83" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="G83" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="G83" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="H83" s="15" t="s">
-        <v>496</v>
-      </c>
-      <c r="I83" s="15" t="s">
+      <c r="H83" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="I83" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="J83" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="K83" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="L83" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="J83" s="15" t="s">
+      <c r="M83" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N83" s="12">
+        <v>35.988999999999997</v>
+      </c>
+      <c r="O83" s="12">
+        <v>139.072</v>
+      </c>
+      <c r="P83" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="K83" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="L83" s="15" t="s">
-        <v>456</v>
-      </c>
-      <c r="M83" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N83" s="15">
-        <v>35.988999999999997</v>
-      </c>
-      <c r="O83" s="15">
-        <v>139.072</v>
-      </c>
-      <c r="P83" s="15" t="s">
-        <v>457</v>
-      </c>
-      <c r="Q83" s="16"/>
+      <c r="Q83" s="13"/>
     </row>
     <row r="84" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A84" s="3">
         <v>82</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>17</v>
@@ -6983,46 +6995,46 @@
         <v>76</v>
       </c>
       <c r="F84" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="G84" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="G84" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="H84" s="15" t="s">
-        <v>496</v>
-      </c>
-      <c r="I84" s="15" t="s">
+      <c r="H84" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="I84" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="J84" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="K84" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="L84" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="J84" s="15" t="s">
+      <c r="M84" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N84" s="12">
+        <v>35.988999999999997</v>
+      </c>
+      <c r="O84" s="12">
+        <v>139.072</v>
+      </c>
+      <c r="P84" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="K84" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="L84" s="15" t="s">
-        <v>456</v>
-      </c>
-      <c r="M84" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N84" s="15">
-        <v>35.988999999999997</v>
-      </c>
-      <c r="O84" s="15">
-        <v>139.072</v>
-      </c>
-      <c r="P84" s="15" t="s">
-        <v>457</v>
-      </c>
-      <c r="Q84" s="16"/>
+      <c r="Q84" s="13"/>
     </row>
     <row r="85" spans="1:17" ht="78.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A85" s="3">
         <v>83</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>17</v>
@@ -7034,19 +7046,19 @@
         <v>76</v>
       </c>
       <c r="F85" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="G85" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="G85" s="8" t="s">
+      <c r="H85" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="H85" s="3" t="s">
+      <c r="I85" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="I85" s="3" t="s">
+      <c r="J85" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="J85" s="3" t="s">
-        <v>266</v>
       </c>
       <c r="K85" s="3" t="s">
         <v>49</v>
@@ -7055,7 +7067,7 @@
         <v>1985</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N85" s="3">
         <v>35.899000000000001</v>
@@ -7064,37 +7076,37 @@
         <v>137.94200000000001</v>
       </c>
       <c r="P85" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q85" s="16"/>
+        <v>267</v>
+      </c>
+      <c r="Q85" s="13"/>
     </row>
     <row r="86" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A86" s="3">
         <v>84</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F86" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="G86" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="G86" s="8" t="s">
+      <c r="H86" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="H86" s="3" t="s">
+      <c r="I86" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="I86" s="3" t="s">
-        <v>273</v>
       </c>
       <c r="J86" s="3" t="s">
         <v>38</v>
@@ -7115,16 +7127,16 @@
         <v>-3.1179999999999999</v>
       </c>
       <c r="P86" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q86" s="16"/>
+        <v>273</v>
+      </c>
+      <c r="Q86" s="13"/>
     </row>
     <row r="87" spans="1:17" ht="78.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A87" s="3">
         <v>85</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>17</v>
@@ -7136,10 +7148,10 @@
         <v>84</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
@@ -7150,7 +7162,7 @@
       <c r="N87" s="3"/>
       <c r="O87" s="3"/>
       <c r="P87" s="3"/>
-      <c r="Q87" s="16">
+      <c r="Q87" s="13">
         <v>57.9</v>
       </c>
     </row>
@@ -7159,7 +7171,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>17</v>
@@ -7168,49 +7180,49 @@
         <v>25</v>
       </c>
       <c r="E88" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="F88" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="F88" s="3" t="s">
+      <c r="G88" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="G88" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="H88" s="15" t="s">
+      <c r="H88" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="I88" s="12" t="s">
+        <v>608</v>
+      </c>
+      <c r="J88" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="K88" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L88" s="12" t="s">
         <v>609</v>
       </c>
-      <c r="I88" s="15" t="s">
+      <c r="M88" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N88" s="12">
+        <v>57.688000000000002</v>
+      </c>
+      <c r="O88" s="12">
+        <v>-4.1680000000000001</v>
+      </c>
+      <c r="P88" s="12" t="s">
         <v>610</v>
       </c>
-      <c r="J88" s="15" t="s">
-        <v>571</v>
-      </c>
-      <c r="K88" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L88" s="15" t="s">
-        <v>611</v>
-      </c>
-      <c r="M88" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N88" s="15">
-        <v>57.688000000000002</v>
-      </c>
-      <c r="O88" s="15">
-        <v>-4.1680000000000001</v>
-      </c>
-      <c r="P88" s="15" t="s">
-        <v>612</v>
-      </c>
-      <c r="Q88" s="16"/>
+      <c r="Q88" s="13"/>
     </row>
     <row r="89" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A89" s="3">
         <v>87</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>17</v>
@@ -7222,19 +7234,19 @@
         <v>76</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G89" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="H89" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="H89" s="3" t="s">
+      <c r="I89" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="I89" s="3" t="s">
+      <c r="J89" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>246</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>49</v>
@@ -7252,16 +7264,16 @@
         <v>132.334</v>
       </c>
       <c r="P89" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q89" s="16"/>
+        <v>246</v>
+      </c>
+      <c r="Q89" s="13"/>
     </row>
     <row r="90" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A90" s="3">
         <v>88</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>17</v>
@@ -7273,97 +7285,97 @@
         <v>76</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="H90" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="H90" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="I90" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="J90" s="12" t="s">
         <v>399</v>
       </c>
-      <c r="I90" s="15" t="s">
+      <c r="K90" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="J90" s="15" t="s">
+      <c r="L90" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="K90" s="15" t="s">
+      <c r="M90" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N90" s="12">
+        <v>37.398000000000003</v>
+      </c>
+      <c r="O90" s="12">
+        <v>140.36000000000001</v>
+      </c>
+      <c r="P90" s="12" t="s">
         <v>402</v>
       </c>
-      <c r="L90" s="15" t="s">
-        <v>403</v>
-      </c>
-      <c r="M90" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N90" s="15">
-        <v>37.398000000000003</v>
-      </c>
-      <c r="O90" s="15">
-        <v>140.36000000000001</v>
-      </c>
-      <c r="P90" s="15" t="s">
-        <v>404</v>
-      </c>
-      <c r="Q90" s="16"/>
+      <c r="Q90" s="13"/>
     </row>
     <row r="91" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A91" s="3">
         <v>89</v>
       </c>
       <c r="B91" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F91" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C91" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>285</v>
-      </c>
       <c r="G91" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="H91" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="H91" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="I91" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="J91" s="12" t="s">
         <v>470</v>
       </c>
-      <c r="I91" s="15" t="s">
+      <c r="K91" s="12" t="s">
         <v>471</v>
       </c>
-      <c r="J91" s="15" t="s">
+      <c r="L91" s="12" t="s">
         <v>472</v>
       </c>
-      <c r="K91" s="15" t="s">
+      <c r="M91" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N91" s="12">
+        <v>53.338000000000001</v>
+      </c>
+      <c r="O91" s="12">
+        <v>-6.2779999999999996</v>
+      </c>
+      <c r="P91" s="12" t="s">
         <v>473</v>
       </c>
-      <c r="L91" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="M91" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N91" s="15">
-        <v>53.338000000000001</v>
-      </c>
-      <c r="O91" s="15">
-        <v>-6.2779999999999996</v>
-      </c>
-      <c r="P91" s="15" t="s">
-        <v>475</v>
-      </c>
-      <c r="Q91" s="16"/>
+      <c r="Q91" s="13"/>
     </row>
     <row r="92" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A92" s="3">
         <v>90</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>17</v>
@@ -7375,7 +7387,7 @@
         <v>76</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G92" s="8" t="s">
         <v>106</v>
@@ -7407,14 +7419,14 @@
       <c r="P92" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="Q92" s="16"/>
+      <c r="Q92" s="13"/>
     </row>
     <row r="93" spans="1:17" ht="116.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A93" s="3">
         <v>91</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>17</v>
@@ -7426,46 +7438,46 @@
         <v>84</v>
       </c>
       <c r="F93" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="G93" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="G93" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="H93" s="15" t="s">
+      <c r="H93" s="12" t="s">
+        <v>633</v>
+      </c>
+      <c r="I93" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="J93" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="K93" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L93" s="12" t="s">
         <v>635</v>
       </c>
-      <c r="I93" s="15" t="s">
+      <c r="M93" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N93" s="12">
+        <v>57.253</v>
+      </c>
+      <c r="O93" s="12">
+        <v>-3.3780000000000001</v>
+      </c>
+      <c r="P93" s="12" t="s">
         <v>636</v>
       </c>
-      <c r="J93" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="K93" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L93" s="15" t="s">
-        <v>637</v>
-      </c>
-      <c r="M93" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N93" s="15">
-        <v>57.253</v>
-      </c>
-      <c r="O93" s="15">
-        <v>-3.3780000000000001</v>
-      </c>
-      <c r="P93" s="15" t="s">
-        <v>638</v>
-      </c>
-      <c r="Q93" s="16"/>
+      <c r="Q93" s="13"/>
     </row>
     <row r="94" spans="1:17" ht="116.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A94" s="3">
         <v>92</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>17</v>
@@ -7477,46 +7489,46 @@
         <v>61</v>
       </c>
       <c r="F94" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G94" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="G94" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="H94" s="15" t="s">
+      <c r="H94" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="I94" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="J94" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="K94" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L94" s="12" t="s">
         <v>631</v>
       </c>
-      <c r="I94" s="15" t="s">
+      <c r="M94" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N94" s="12">
+        <v>57.756</v>
+      </c>
+      <c r="O94" s="12">
+        <v>-4.2229999999999999</v>
+      </c>
+      <c r="P94" s="12" t="s">
         <v>632</v>
       </c>
-      <c r="J94" s="15" t="s">
-        <v>571</v>
-      </c>
-      <c r="K94" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L94" s="15" t="s">
-        <v>633</v>
-      </c>
-      <c r="M94" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N94" s="15">
-        <v>57.756</v>
-      </c>
-      <c r="O94" s="15">
-        <v>-4.2229999999999999</v>
-      </c>
-      <c r="P94" s="15" t="s">
-        <v>634</v>
-      </c>
-      <c r="Q94" s="16"/>
+      <c r="Q94" s="13"/>
     </row>
     <row r="95" spans="1:17" ht="116.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A95" s="3">
         <v>93</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>17</v>
@@ -7528,46 +7540,46 @@
         <v>84</v>
       </c>
       <c r="F95" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="G95" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="G95" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="H95" s="15" t="s">
+      <c r="H95" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="I95" s="12" t="s">
+        <v>625</v>
+      </c>
+      <c r="J95" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="K95" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L95" s="12" t="s">
         <v>626</v>
       </c>
-      <c r="I95" s="15" t="s">
+      <c r="M95" s="12" t="s">
         <v>627</v>
       </c>
-      <c r="J95" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="K95" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L95" s="15" t="s">
+      <c r="N95" s="12">
+        <v>57.453000000000003</v>
+      </c>
+      <c r="O95" s="12">
+        <v>-3.1160000000000001</v>
+      </c>
+      <c r="P95" s="12" t="s">
         <v>628</v>
       </c>
-      <c r="M95" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="N95" s="15">
-        <v>57.453000000000003</v>
-      </c>
-      <c r="O95" s="15">
-        <v>-3.1160000000000001</v>
-      </c>
-      <c r="P95" s="15" t="s">
-        <v>630</v>
-      </c>
-      <c r="Q95" s="16"/>
+      <c r="Q95" s="13"/>
     </row>
     <row r="96" spans="1:17" ht="50.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A96" s="3">
         <v>94</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>17</v>
@@ -7579,46 +7591,46 @@
         <v>28</v>
       </c>
       <c r="F96" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="G96" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="G96" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="H96" s="15" t="s">
+      <c r="H96" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="I96" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="J96" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="I96" s="15" t="s">
+      <c r="K96" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L96" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="J96" s="15" t="s">
+      <c r="M96" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N96" s="12">
+        <v>55.640999999999998</v>
+      </c>
+      <c r="O96" s="12">
+        <v>-6.109</v>
+      </c>
+      <c r="P96" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="K96" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L96" s="15" t="s">
-        <v>393</v>
-      </c>
-      <c r="M96" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N96" s="15">
-        <v>55.640999999999998</v>
-      </c>
-      <c r="O96" s="15">
-        <v>-6.109</v>
-      </c>
-      <c r="P96" s="15" t="s">
-        <v>394</v>
-      </c>
-      <c r="Q96" s="16"/>
+      <c r="Q96" s="13"/>
     </row>
     <row r="97" spans="1:17" ht="116.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A97" s="3">
         <v>95</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>17</v>
@@ -7630,39 +7642,39 @@
         <v>19</v>
       </c>
       <c r="F97" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="G97" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="G97" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="H97" s="15" t="s">
+      <c r="H97" s="12" t="s">
+        <v>620</v>
+      </c>
+      <c r="I97" s="12" t="s">
+        <v>621</v>
+      </c>
+      <c r="J97" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="K97" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L97" s="12" t="s">
         <v>622</v>
       </c>
-      <c r="I97" s="15" t="s">
+      <c r="M97" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N97" s="12">
+        <v>57.826000000000001</v>
+      </c>
+      <c r="O97" s="12">
+        <v>-4.0789999999999997</v>
+      </c>
+      <c r="P97" s="12" t="s">
         <v>623</v>
       </c>
-      <c r="J97" s="15" t="s">
-        <v>571</v>
-      </c>
-      <c r="K97" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L97" s="15" t="s">
-        <v>624</v>
-      </c>
-      <c r="M97" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N97" s="15">
-        <v>57.826000000000001</v>
-      </c>
-      <c r="O97" s="15">
-        <v>-4.0789999999999997</v>
-      </c>
-      <c r="P97" s="15" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q97" s="16">
+      <c r="Q97" s="13">
         <v>43</v>
       </c>
     </row>
@@ -7671,7 +7683,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>17</v>
@@ -7683,46 +7695,46 @@
         <v>61</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="H98" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="H98" s="12" t="s">
+        <v>615</v>
+      </c>
+      <c r="I98" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="J98" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="K98" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L98" s="12" t="s">
         <v>617</v>
       </c>
-      <c r="I98" s="15" t="s">
+      <c r="M98" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N98" s="12">
+        <v>57.52</v>
+      </c>
+      <c r="O98" s="12">
+        <v>-4.0469999999999997</v>
+      </c>
+      <c r="P98" s="12" t="s">
         <v>618</v>
       </c>
-      <c r="J98" s="15" t="s">
-        <v>571</v>
-      </c>
-      <c r="K98" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L98" s="15" t="s">
-        <v>619</v>
-      </c>
-      <c r="M98" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N98" s="15">
-        <v>57.52</v>
-      </c>
-      <c r="O98" s="15">
-        <v>-4.0469999999999997</v>
-      </c>
-      <c r="P98" s="15" t="s">
-        <v>620</v>
-      </c>
-      <c r="Q98" s="16"/>
+      <c r="Q98" s="13"/>
     </row>
     <row r="99" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A99" s="3">
         <v>97</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>17</v>
@@ -7731,49 +7743,49 @@
         <v>25</v>
       </c>
       <c r="E99" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="F99" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="F99" s="3" t="s">
+      <c r="G99" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="G99" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="H99" s="15" t="s">
-        <v>495</v>
-      </c>
-      <c r="I99" s="15" t="s">
+      <c r="H99" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="I99" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="J99" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="K99" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L99" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="M99" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N99" s="12">
+        <v>57.451999999999998</v>
+      </c>
+      <c r="O99" s="12">
+        <v>-3.3769999999999998</v>
+      </c>
+      <c r="P99" s="12" t="s">
         <v>405</v>
       </c>
-      <c r="J99" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="K99" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L99" s="15" t="s">
-        <v>406</v>
-      </c>
-      <c r="M99" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N99" s="15">
-        <v>57.451999999999998</v>
-      </c>
-      <c r="O99" s="15">
-        <v>-3.3769999999999998</v>
-      </c>
-      <c r="P99" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="Q99" s="16"/>
+      <c r="Q99" s="13"/>
     </row>
     <row r="100" spans="1:17" ht="116.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A100" s="3">
         <v>98</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>17</v>
@@ -7785,46 +7797,46 @@
         <v>19</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="H100" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="H100" s="12" t="s">
+        <v>620</v>
+      </c>
+      <c r="I100" s="12" t="s">
+        <v>621</v>
+      </c>
+      <c r="J100" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="K100" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L100" s="12" t="s">
         <v>622</v>
       </c>
-      <c r="I100" s="15" t="s">
+      <c r="M100" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N100" s="12">
+        <v>57.826000000000001</v>
+      </c>
+      <c r="O100" s="12">
+        <v>-4.0789999999999997</v>
+      </c>
+      <c r="P100" s="12" t="s">
         <v>623</v>
       </c>
-      <c r="J100" s="15" t="s">
-        <v>571</v>
-      </c>
-      <c r="K100" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L100" s="15" t="s">
-        <v>624</v>
-      </c>
-      <c r="M100" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N100" s="15">
-        <v>57.826000000000001</v>
-      </c>
-      <c r="O100" s="15">
-        <v>-4.0789999999999997</v>
-      </c>
-      <c r="P100" s="15" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q100" s="16"/>
+      <c r="Q100" s="13"/>
     </row>
     <row r="101" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A101" s="3">
         <v>99</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>17</v>
@@ -7833,22 +7845,22 @@
         <v>49</v>
       </c>
       <c r="E101" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="F101" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="F101" s="3" t="s">
+      <c r="G101" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="G101" s="8" t="s">
+      <c r="H101" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="H101" s="3" t="s">
+      <c r="I101" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="I101" s="3" t="s">
+      <c r="J101" s="3" t="s">
         <v>315</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>316</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>49</v>
@@ -7866,16 +7878,16 @@
         <v>139.90799999999999</v>
       </c>
       <c r="P101" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q101" s="16"/>
+        <v>316</v>
+      </c>
+      <c r="Q101" s="13"/>
     </row>
     <row r="102" spans="1:17" ht="182.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A102" s="3">
         <v>100</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>318</v>
+        <v>655</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>17</v>
@@ -7887,46 +7899,48 @@
         <v>76</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="H102" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="H102" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="I102" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="J102" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="I102" s="15" t="s">
+      <c r="K102" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="L102" s="12" t="s">
         <v>548</v>
       </c>
-      <c r="J102" s="15" t="s">
+      <c r="M102" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N102" s="12">
+        <v>34.652999999999999</v>
+      </c>
+      <c r="O102" s="12">
+        <v>134.989</v>
+      </c>
+      <c r="P102" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="K102" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="L102" s="15" t="s">
-        <v>550</v>
-      </c>
-      <c r="M102" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N102" s="15">
-        <v>34.652999999999999</v>
-      </c>
-      <c r="O102" s="15">
-        <v>134.989</v>
-      </c>
-      <c r="P102" s="15" t="s">
-        <v>551</v>
-      </c>
-      <c r="Q102" s="16"/>
+      <c r="Q102" s="13">
+        <v>50</v>
+      </c>
     </row>
     <row r="103" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A103" s="3">
         <v>101</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>17</v>
@@ -7938,46 +7952,46 @@
         <v>76</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="H103" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="H103" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="I103" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="J103" s="12" t="s">
         <v>449</v>
       </c>
-      <c r="I103" s="15" t="s">
+      <c r="K103" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="L103" s="12" t="s">
         <v>450</v>
       </c>
-      <c r="J103" s="15" t="s">
+      <c r="M103" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N103" s="12">
+        <v>34.890999999999998</v>
+      </c>
+      <c r="O103" s="12">
+        <v>135.67500000000001</v>
+      </c>
+      <c r="P103" s="12" t="s">
         <v>451</v>
       </c>
-      <c r="K103" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="L103" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="M103" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N103" s="15">
-        <v>34.890999999999998</v>
-      </c>
-      <c r="O103" s="15">
-        <v>135.67500000000001</v>
-      </c>
-      <c r="P103" s="15" t="s">
-        <v>453</v>
-      </c>
-      <c r="Q103" s="16"/>
+      <c r="Q103" s="13"/>
     </row>
     <row r="104" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A104" s="3">
         <v>102</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>17</v>
@@ -7989,46 +8003,46 @@
         <v>76</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="H104" s="15" t="s">
-        <v>496</v>
-      </c>
-      <c r="I104" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="H104" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="I104" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="J104" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="K104" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="L104" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="J104" s="15" t="s">
+      <c r="M104" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N104" s="12">
+        <v>35.988999999999997</v>
+      </c>
+      <c r="O104" s="12">
+        <v>139.072</v>
+      </c>
+      <c r="P104" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="K104" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="L104" s="15" t="s">
-        <v>456</v>
-      </c>
-      <c r="M104" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N104" s="15">
-        <v>35.988999999999997</v>
-      </c>
-      <c r="O104" s="15">
-        <v>139.072</v>
-      </c>
-      <c r="P104" s="15" t="s">
-        <v>457</v>
-      </c>
-      <c r="Q104" s="16"/>
+      <c r="Q104" s="13"/>
     </row>
     <row r="105" spans="1:17" ht="78.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A105" s="3">
         <v>103</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>17</v>
@@ -8040,19 +8054,19 @@
         <v>76</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H105" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="I105" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="I105" s="3" t="s">
+      <c r="J105" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="J105" s="3" t="s">
-        <v>266</v>
       </c>
       <c r="K105" s="3" t="s">
         <v>49</v>
@@ -8061,7 +8075,7 @@
         <v>1985</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N105" s="3">
         <v>35.899000000000001</v>
@@ -8070,16 +8084,16 @@
         <v>137.94200000000001</v>
       </c>
       <c r="P105" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q105" s="16"/>
+        <v>267</v>
+      </c>
+      <c r="Q105" s="13"/>
     </row>
     <row r="106" spans="1:17" ht="78.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A106" s="3">
         <v>104</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>17</v>
@@ -8088,22 +8102,22 @@
         <v>49</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G106" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="H106" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="H106" s="3" t="s">
+      <c r="I106" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="I106" s="3" t="s">
+      <c r="J106" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="J106" s="3" t="s">
-        <v>266</v>
       </c>
       <c r="K106" s="3" t="s">
         <v>49</v>
@@ -8112,7 +8126,7 @@
         <v>1985</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N106" s="3">
         <v>35.899000000000001</v>
@@ -8121,16 +8135,16 @@
         <v>137.94200000000001</v>
       </c>
       <c r="P106" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q106" s="16"/>
+        <v>267</v>
+      </c>
+      <c r="Q106" s="13"/>
     </row>
     <row r="107" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A107" s="3">
         <v>105</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>17</v>
@@ -8139,49 +8153,49 @@
         <v>49</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="H107" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="H107" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="I107" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="J107" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="I107" s="15" t="s">
+      <c r="K107" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="L107" s="12" t="s">
         <v>466</v>
       </c>
-      <c r="J107" s="15" t="s">
+      <c r="M107" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N107" s="12">
+        <v>36.637999999999998</v>
+      </c>
+      <c r="O107" s="12">
+        <v>136.964</v>
+      </c>
+      <c r="P107" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="K107" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="L107" s="15" t="s">
-        <v>468</v>
-      </c>
-      <c r="M107" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N107" s="15">
-        <v>36.637999999999998</v>
-      </c>
-      <c r="O107" s="15">
-        <v>136.964</v>
-      </c>
-      <c r="P107" s="15" t="s">
-        <v>469</v>
-      </c>
-      <c r="Q107" s="16"/>
+      <c r="Q107" s="13"/>
     </row>
     <row r="108" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A108" s="3">
         <v>106</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>17</v>
@@ -8193,46 +8207,46 @@
         <v>19</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="H108" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="H108" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="I108" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="J108" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="K108" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L108" s="12" t="s">
         <v>491</v>
       </c>
-      <c r="I108" s="15" t="s">
+      <c r="M108" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N108" s="12">
+        <v>56.94</v>
+      </c>
+      <c r="O108" s="12">
+        <v>-4.2370000000000001</v>
+      </c>
+      <c r="P108" s="12" t="s">
         <v>492</v>
       </c>
-      <c r="J108" s="15" t="s">
-        <v>387</v>
-      </c>
-      <c r="K108" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L108" s="15" t="s">
-        <v>493</v>
-      </c>
-      <c r="M108" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N108" s="15">
-        <v>56.94</v>
-      </c>
-      <c r="O108" s="15">
-        <v>-4.2370000000000001</v>
-      </c>
-      <c r="P108" s="15" t="s">
-        <v>494</v>
-      </c>
-      <c r="Q108" s="16"/>
+      <c r="Q108" s="13"/>
     </row>
     <row r="109" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A109" s="3">
         <v>107</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>17</v>
@@ -8244,46 +8258,46 @@
         <v>76</v>
       </c>
       <c r="F109" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="G109" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="H109" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="G109" s="8" t="s">
+      <c r="I109" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="H109" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="I109" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="J109" s="15" t="s">
-        <v>497</v>
-      </c>
-      <c r="K109" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="L109" s="15" t="s">
-        <v>463</v>
-      </c>
-      <c r="M109" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N109" s="15">
+      <c r="J109" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="K109" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="L109" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="M109" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N109" s="12">
         <v>43.052</v>
       </c>
-      <c r="O109" s="15">
+      <c r="O109" s="12">
         <v>144.84299999999999</v>
       </c>
-      <c r="P109" s="15" t="s">
-        <v>498</v>
-      </c>
-      <c r="Q109" s="16"/>
+      <c r="P109" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q109" s="13"/>
     </row>
     <row r="110" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A110" s="3">
         <v>108</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>17</v>
@@ -8295,19 +8309,19 @@
         <v>76</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G110" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="H110" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="H110" s="3" t="s">
+      <c r="I110" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="I110" s="3" t="s">
+      <c r="J110" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="J110" s="3" t="s">
-        <v>246</v>
       </c>
       <c r="K110" s="3" t="s">
         <v>49</v>
@@ -8325,26 +8339,19 @@
         <v>132.334</v>
       </c>
       <c r="P110" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q110" s="16"/>
+        <v>246</v>
+      </c>
+      <c r="Q110" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:P110" xr:uid="{D4F60670-F158-4C9B-93E8-D52D53F4A8E3}">
     <filterColumn colId="7">
       <filters>
-        <filter val="キルホーマン蒸溜所"/>
+        <filter val="グレンタウチャーズ蒸溜所"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="16">
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="B13:B14"/>
     <mergeCell ref="N13:N14"/>
     <mergeCell ref="O13:O14"/>
     <mergeCell ref="P13:P14"/>
@@ -8354,6 +8361,13 @@
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="L13:L14"/>
     <mergeCell ref="M13:M14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="B13:B14"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8384,16 +8398,16 @@
   <sheetData>
     <row r="1" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>11</v>
@@ -8408,7 +8422,7 @@
         <v>14</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -8419,16 +8433,16 @@
         <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>358</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G2" s="5">
         <v>57.302</v>
@@ -8437,7 +8451,7 @@
         <v>-6.3559999999999999</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -8448,16 +8462,16 @@
         <v>32</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>360</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>362</v>
       </c>
       <c r="G3" s="5">
         <v>55.63</v>
@@ -8466,27 +8480,27 @@
         <v>-6.1929999999999996</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G4" s="5">
         <v>57.484999999999999</v>
@@ -8495,27 +8509,27 @@
         <v>-3.2080000000000002</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G5" s="5">
         <v>55.756</v>
@@ -8524,27 +8538,27 @@
         <v>-6.2889999999999997</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>372</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>374</v>
       </c>
       <c r="G6" s="5">
         <v>55.991</v>
@@ -8553,27 +8567,27 @@
         <v>-3.827</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="D7" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>379</v>
-      </c>
       <c r="F7" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G7" s="5">
         <v>55.424999999999997</v>
@@ -8582,27 +8596,27 @@
         <v>-5.609</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>383</v>
-      </c>
       <c r="F8" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G8" s="5">
         <v>55.878</v>
@@ -8611,27 +8625,27 @@
         <v>-6.125</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="D9" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>388</v>
-      </c>
       <c r="F9" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G9" s="5">
         <v>56.624000000000002</v>
@@ -8640,27 +8654,27 @@
         <v>-3.85</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="D10" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>393</v>
-      </c>
       <c r="F10" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G10" s="5">
         <v>55.640999999999998</v>
@@ -8669,27 +8683,27 @@
         <v>-6.109</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>397</v>
-      </c>
       <c r="D11" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G11" s="5">
         <v>58.968000000000004</v>
@@ -8698,27 +8712,27 @@
         <v>-2.956</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>403</v>
-      </c>
       <c r="F12" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G12" s="5">
         <v>37.398000000000003</v>
@@ -8727,27 +8741,27 @@
         <v>140.36000000000001</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G13" s="5">
         <v>57.451999999999998</v>
@@ -8756,27 +8770,27 @@
         <v>-3.3769999999999998</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>410</v>
-      </c>
       <c r="D14" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G14" s="5">
         <v>56.835999999999999</v>
@@ -8785,27 +8799,27 @@
         <v>-5.0739999999999998</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G15" s="5">
         <v>57.545999999999999</v>
@@ -8814,27 +8828,27 @@
         <v>-3.048</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>417</v>
-      </c>
       <c r="F16" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G16" s="5">
         <v>57.444000000000003</v>
@@ -8843,27 +8857,27 @@
         <v>-3.1280000000000001</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G17" s="5">
         <v>56.704000000000001</v>
@@ -8872,27 +8886,27 @@
         <v>-3.7330000000000001</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>424</v>
-      </c>
       <c r="F18" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G18" s="5">
         <v>55.853999999999999</v>
@@ -8901,27 +8915,27 @@
         <v>-6.1079999999999997</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>428</v>
-      </c>
       <c r="D19" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G19" s="5">
         <v>56.847000000000001</v>
@@ -8930,27 +8944,27 @@
         <v>-2.5880000000000001</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>432</v>
-      </c>
       <c r="F20" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G20" s="5">
         <v>57.427</v>
@@ -8959,27 +8973,27 @@
         <v>-3.3130000000000002</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>436</v>
-      </c>
       <c r="F21" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G21" s="5">
         <v>57.646999999999998</v>
@@ -8988,27 +9002,27 @@
         <v>-3.2930000000000001</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>440</v>
-      </c>
       <c r="F22" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G22" s="5">
         <v>55.78</v>
@@ -9017,27 +9031,27 @@
         <v>-6.4329999999999998</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>444</v>
-      </c>
       <c r="F23" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G23" s="5">
         <v>57.533000000000001</v>
@@ -9046,27 +9060,27 @@
         <v>-3.206</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G24" s="5">
         <v>57.343000000000004</v>
@@ -9075,27 +9089,27 @@
         <v>-3.3380000000000001</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="D25" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>452</v>
-      </c>
       <c r="F25" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G25" s="5">
         <v>34.890999999999998</v>
@@ -9104,27 +9118,27 @@
         <v>135.67500000000001</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>456</v>
-      </c>
       <c r="F26" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G26" s="5">
         <v>35.988999999999997</v>
@@ -9133,27 +9147,27 @@
         <v>139.072</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>460</v>
-      </c>
       <c r="F27" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G27" s="5">
         <v>35.773000000000003</v>
@@ -9162,7 +9176,7 @@
         <v>137.93700000000001</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -9173,16 +9187,16 @@
         <v>108</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G28" s="5">
         <v>35.380000000000003</v>
@@ -9191,27 +9205,27 @@
         <v>136.274</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="D29" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>468</v>
-      </c>
       <c r="F29" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G29" s="5">
         <v>36.637999999999998</v>
@@ -9220,27 +9234,27 @@
         <v>136.964</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="D30" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="E30" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>474</v>
-      </c>
       <c r="F30" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G30" s="5">
         <v>53.338000000000001</v>
@@ -9249,27 +9263,27 @@
         <v>-6.2779999999999996</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="E31" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>480</v>
-      </c>
       <c r="F31" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G31" s="5">
         <v>63.040999999999997</v>
@@ -9278,27 +9292,27 @@
         <v>17.739000000000001</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G32" s="5">
         <v>57.649000000000001</v>
@@ -9307,27 +9321,27 @@
         <v>-3.64</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="D33" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="F33" s="5" t="s">
         <v>487</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>489</v>
       </c>
       <c r="G33" s="5">
         <v>36.347999999999999</v>
@@ -9336,27 +9350,27 @@
         <v>138.596</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="147.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>493</v>
-      </c>
       <c r="F34" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G34" s="5">
         <v>56.94</v>
@@ -9365,27 +9379,27 @@
         <v>-4.2370000000000001</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G35" s="5">
         <v>43.052</v>
@@ -9394,27 +9408,27 @@
         <v>144.84299999999999</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G36" s="5">
         <v>55.640999999999998</v>
@@ -9423,27 +9437,27 @@
         <v>-6.109</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G37" s="5">
         <v>58.968000000000004</v>
@@ -9452,27 +9466,27 @@
         <v>-2.956</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G38" s="5">
         <v>57.484999999999999</v>
@@ -9481,27 +9495,27 @@
         <v>-3.2080000000000002</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C39" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>474</v>
-      </c>
       <c r="F39" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G39" s="5">
         <v>53.338000000000001</v>
@@ -9510,27 +9524,27 @@
         <v>-6.2779999999999996</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>512</v>
-      </c>
       <c r="D40" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G40" s="5">
         <v>31.454000000000001</v>
@@ -9539,27 +9553,27 @@
         <v>130.46100000000001</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="D41" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="E41" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>517</v>
-      </c>
       <c r="F41" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G41" s="5">
         <v>35.823999999999998</v>
@@ -9568,27 +9582,27 @@
         <v>138.43600000000001</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="D42" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>522</v>
-      </c>
       <c r="F42" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G42" s="5">
         <v>43.177999999999997</v>
@@ -9597,27 +9611,27 @@
         <v>140.76599999999999</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="D43" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="E43" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>526</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>527</v>
-      </c>
       <c r="F43" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G43" s="5">
         <v>38.445999999999998</v>
@@ -9626,27 +9640,27 @@
         <v>140.88300000000001</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>531</v>
-      </c>
       <c r="F44" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G44" s="5">
         <v>36.320999999999998</v>
@@ -9655,27 +9669,27 @@
         <v>138.44999999999999</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="D45" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>536</v>
-      </c>
       <c r="F45" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G45" s="5">
         <v>35.768999999999998</v>
@@ -9684,27 +9698,27 @@
         <v>139.125</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>540</v>
-      </c>
       <c r="D46" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G46" s="5">
         <v>35.302999999999997</v>
@@ -9713,27 +9727,27 @@
         <v>138.95400000000001</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="D47" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="E47" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>545</v>
-      </c>
       <c r="F47" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G47" s="5">
         <v>35.036999999999999</v>
@@ -9742,27 +9756,27 @@
         <v>136.82900000000001</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="D48" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>526</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>527</v>
-      </c>
       <c r="F48" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G48" s="5">
         <v>38.445999999999998</v>
@@ -9771,27 +9785,27 @@
         <v>140.88300000000001</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="D49" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="E49" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>550</v>
-      </c>
       <c r="F49" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G49" s="5">
         <v>34.652999999999999</v>
@@ -9800,27 +9814,27 @@
         <v>134.989</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G50" s="5">
         <v>35.773000000000003</v>
@@ -9829,27 +9843,27 @@
         <v>137.93700000000001</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="E51" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>556</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>557</v>
-      </c>
       <c r="F51" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G51" s="5">
         <v>31.672999999999998</v>
@@ -9858,7 +9872,7 @@
         <v>130.279</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -9868,20 +9882,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6ff6e2ba-ab06-4ac9-b2c7-449843b7cb08" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6ff6e2ba-ab06-4ac9-b2c7-449843b7cb08" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10067,6 +10081,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B963C0D-E7E9-44EF-8AEB-EF3D573F3F67}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{987E6F6F-1448-40F2-A1EC-D5FD1FE7DC5E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="6ff6e2ba-ab06-4ac9-b2c7-449843b7cb08"/>
@@ -10078,14 +10100,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B963C0D-E7E9-44EF-8AEB-EF3D573F3F67}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/whisky_database.xlsx
+++ b/whisky_database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\新藤駿介(ShindoShunsuke)\Documents\GitHub\whisky-sommelier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC38D84-4F12-42D1-A39F-B8E72B2903CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0FD4EC-1D24-45F8-A747-BC073D6D5591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{A2419164-9416-4CEB-A64A-CE2C95D250D1}"/>
   </bookViews>
@@ -406,18 +406,12 @@
     <t>東京浪漫シークレット（マッカラン）</t>
   </si>
   <si>
-    <t>Teeling  2021年祭ボトル</t>
-  </si>
-  <si>
     <t>Ireland</t>
   </si>
   <si>
     <t xml:space="preserve">Irish </t>
   </si>
   <si>
-    <t>このティーリング2021年祭限定ボトルは、ティーリングの特徴的なプロファイルを持ち、ドライフルーツ、バニラ、スパイスのノートが感じられます。柑橘系、ハチミツ、オークのヒントを伴うなめらかな口当たりで、アイリッシュシングルモルトの特徴である優しい温かみと余韻の長い甘さで締めくくられ、ティーリング特有の複雑さを備えています。</t>
-  </si>
-  <si>
     <t>TEELING</t>
   </si>
   <si>
@@ -493,12 +487,6 @@
     <t>FETTERCAIRN25年1995-2021</t>
   </si>
   <si>
-    <t>Glenfarclas莨樽周年2008-2023</t>
-  </si>
-  <si>
-    <t>このグレンファークラス周年記念エディション（2008-2023）は、豊かなシェリーの影響を持ち、ドライフルーツ、クリスマスケーキ、温かいスパイスの風味が特徴です。オーク、トフィー、ダークチョコレートの層が、革や木の実のヒントと調和し、穏やかなスパイスと余韻の長い甘さを伴う、長く温かい余韻が続きます。</t>
-  </si>
-  <si>
     <t>GLENFARCLAS莨樽周年2008-2023</t>
   </si>
   <si>
@@ -916,9 +904,6 @@
     <t>TEANINICH　21年 1999-2020</t>
   </si>
   <si>
-    <t>このティーニニック21年（1999-2020）は、明るい柑橘系の香り、青リンゴ、そして控えめなバニラの洗練されたプロファイルを提供します。口当たりはハチミツのモルト、白コショウ、優しいオークスパイスを感じさせます。このハイランド蒸留所特有のクリーンで草のような特徴が、レモンの皮と軽いキャラメルのヒントを含む中程度の長さのフィニッシュへと発展します。</t>
-  </si>
-  <si>
     <t>TEANINICH</t>
   </si>
   <si>
@@ -944,9 +929,6 @@
   </si>
   <si>
     <t>GLENMORANGIE</t>
-  </si>
-  <si>
-    <t>ROYAL BRACKLA13年2009-2022</t>
   </si>
   <si>
     <t>ロイヤルブラックラ13年（2009-2022）は、ハチミツを纏った果樹園のフルーツ、バニラカスタード、そして穏やかな樽のスパイスの洗練された風味を提供します。口当たりは焼きリンゴ、洋ナシ、柑橘類の皮の層がキャラメル、シナモン、ナツメグのヒントとバランスよく調和しています。エレガントな麦芽の甘さと繊細な樽の余韻で締めくくられます。</t>
@@ -2134,10 +2116,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>CAOL ILA　18年1974-1993</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>BLAIR ATHOL11年2011-2023
 Japanese artist selection vol.5</t>
     <phoneticPr fontId="4"/>
@@ -2221,6 +2199,40 @@
   </si>
   <si>
     <t>グレントファース 31年（1989年蒸留）は、スペイサイド地方の蒸留所が生み出した長期熟成モルトで、ディープなゴールデンカラーと共に、完熟バナナ、シナモン、白檀の芳醇な香りが特徴的です。口当たりは甘くソフトで、フルーティーさとスパイス感のバランスが絶妙、完熟バナナ、ライチキャンディの風味が広がり、フィニッシュではライトなビターがゆっくりと優しく続きます。31年という長期熟成がもたらす複雑さとエレガントさを兼ね備えた、希少価値の高いウィスキーといえるでしょう。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Teeling  2021年 祭ボトル AMERICAN VIRGIN OAK</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>このティーリング2021年の祭限定ボトルは2016~2021年の若めの熟成で極めて高い度数を持ちながら、ティーリングの特徴的なプロファイルである、ドライフルーツ、バニラ、スパイスのノートが感じられます。柑橘系、ハチミツ、オークのヒントを伴うなめらかな口当たりで、アイリッシュシングルモルトの特徴である優しい温かみと余韻の長い甘さで締めくくられ、ティーリング特有の複雑さを備えています。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Glenfarclas 莨樽周年2008-2023</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>このグレンファークラス周年記念エディション（2008-2023）は、豊かなシェリーの影響を持ち、ドライフルーツ、クリスマスケーキ、温かいスパイスの風味が特徴です。度数は高いですが、オーク、トフィー、ダークチョコレートの層が、革や木の実のヒントと調和し、穏やかなスパイスと余韻の長い甘さを伴う、長く温かい余韻が続きます。</t>
+    <rPh sb="81" eb="83">
+      <t>ドスウ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>このオリエンタルなジャケットのティーニニック21年（1999-2020）は、明るい柑橘系の香り、青リンゴ、そして控えめなバニラの洗練されたプロファイルを提供します。口当たりはハチミツのモルト、白コショウ、優しいオークスパイスを感じさせます。このハイランド蒸留所特有のクリーンで草のような特徴が、レモンの皮と軽いキャラメルのヒントを含む中程度の長さのフィニッシュへと発展します。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>CAOL ILA　18年 1974-1993 The MASTER</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>CARNMOR ROYAL BRACKLA 13年 2009-2022</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -2415,10 +2427,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2761,9 +2773,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Q110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F114" sqref="F114"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y80" sqref="Y80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2837,7 +2849,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -2869,16 +2881,16 @@
         <v>23</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N2" s="12">
         <v>57.302</v>
@@ -2887,7 +2899,7 @@
         <v>-6.3559999999999999</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="Q2" s="13"/>
     </row>
@@ -2920,16 +2932,16 @@
         <v>32</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="N3" s="12">
         <v>55.63</v>
@@ -2938,7 +2950,7 @@
         <v>-6.1929999999999996</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="Q3" s="13"/>
     </row>
@@ -2965,22 +2977,22 @@
         <v>35</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>37</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N4" s="12">
         <v>57.484999999999999</v>
@@ -2989,7 +3001,7 @@
         <v>-3.2080000000000002</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="Q4" s="13"/>
     </row>
@@ -3016,22 +3028,22 @@
         <v>43</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N5" s="12">
         <v>55.756</v>
@@ -3040,7 +3052,7 @@
         <v>-6.2889999999999997</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="Q5" s="13"/>
     </row>
@@ -3067,22 +3079,22 @@
         <v>47</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="N6" s="12">
         <v>55.991</v>
@@ -3091,7 +3103,7 @@
         <v>-3.827</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="Q6" s="13"/>
     </row>
@@ -3151,22 +3163,22 @@
         <v>56</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N8" s="12">
         <v>55.424999999999997</v>
@@ -3175,7 +3187,7 @@
         <v>-5.609</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="Q8" s="13"/>
     </row>
@@ -3202,22 +3214,22 @@
         <v>59</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N9" s="12">
         <v>55.878</v>
@@ -3226,7 +3238,7 @@
         <v>-6.125</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="Q9" s="13">
         <v>40</v>
@@ -3255,22 +3267,22 @@
         <v>60</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N10" s="12">
         <v>56.624000000000002</v>
@@ -3279,7 +3291,7 @@
         <v>-3.85</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="Q10" s="13"/>
     </row>
@@ -3306,22 +3318,22 @@
         <v>65</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N11" s="12">
         <v>55.640999999999998</v>
@@ -3330,7 +3342,7 @@
         <v>-6.109</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="Q11" s="13"/>
     </row>
@@ -3357,22 +3369,22 @@
         <v>66</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N12" s="12">
         <v>58.968000000000004</v>
@@ -3381,78 +3393,78 @@
         <v>-2.956</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="Q12" s="13"/>
     </row>
     <row r="13" spans="1:17" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="15">
+      <c r="A13" s="14">
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="15" t="s">
+      <c r="C13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="J13" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="L13" s="15">
+      <c r="L13" s="14">
         <v>1830</v>
       </c>
-      <c r="M13" s="15" t="s">
+      <c r="M13" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="N13" s="15">
+      <c r="N13" s="14">
         <v>57.302</v>
       </c>
-      <c r="O13" s="15">
+      <c r="O13" s="14">
         <v>-6.3559999999999999</v>
       </c>
-      <c r="P13" s="15" t="s">
-        <v>349</v>
+      <c r="P13" s="14" t="s">
+        <v>343</v>
       </c>
       <c r="Q13" s="13"/>
     </row>
     <row r="14" spans="1:17" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="15"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
       <c r="Q14" s="13"/>
     </row>
     <row r="15" spans="1:17" ht="79.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -3478,22 +3490,22 @@
         <v>73</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N15" s="12">
         <v>55.640999999999998</v>
@@ -3502,7 +3514,7 @@
         <v>-6.109</v>
       </c>
       <c r="P15" s="12" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="Q15" s="13"/>
     </row>
@@ -3529,22 +3541,22 @@
         <v>78</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N16" s="12">
         <v>37.398000000000003</v>
@@ -3553,7 +3565,7 @@
         <v>140.36000000000001</v>
       </c>
       <c r="P16" s="12" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="Q16" s="13"/>
     </row>
@@ -3580,22 +3592,22 @@
         <v>79</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N17" s="12">
         <v>58.968000000000004</v>
@@ -3604,7 +3616,7 @@
         <v>-2.956</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="Q17" s="13"/>
     </row>
@@ -3613,7 +3625,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>17</v>
@@ -3625,28 +3637,28 @@
         <v>19</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="I18" s="12" t="s">
         <v>37</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N18" s="12">
         <v>57.484999999999999</v>
@@ -3655,7 +3667,7 @@
         <v>-3.2080000000000002</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="Q18" s="13"/>
     </row>
@@ -3682,22 +3694,22 @@
         <v>81</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N19" s="12">
         <v>57.451999999999998</v>
@@ -3706,7 +3718,7 @@
         <v>-3.3769999999999998</v>
       </c>
       <c r="P19" s="12" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="Q19" s="13"/>
     </row>
@@ -3733,22 +3745,22 @@
         <v>83</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N20" s="12">
         <v>57.451999999999998</v>
@@ -3757,7 +3769,7 @@
         <v>-3.3769999999999998</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="Q20" s="13"/>
     </row>
@@ -3835,22 +3847,22 @@
         <v>91</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N22" s="12">
         <v>56.835999999999999</v>
@@ -3859,7 +3871,7 @@
         <v>-5.0739999999999998</v>
       </c>
       <c r="P22" s="12" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="Q22" s="13"/>
     </row>
@@ -3886,22 +3898,22 @@
         <v>92</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N23" s="12">
         <v>58.968000000000004</v>
@@ -3910,7 +3922,7 @@
         <v>-2.956</v>
       </c>
       <c r="P23" s="12" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Q23" s="13"/>
     </row>
@@ -3931,28 +3943,28 @@
         <v>96</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>97</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N24" s="12">
         <v>63.002000000000002</v>
@@ -3961,7 +3973,7 @@
         <v>17.798999999999999</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="Q24" s="13"/>
     </row>
@@ -3988,22 +4000,22 @@
         <v>100</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N25" s="12">
         <v>57.649000000000001</v>
@@ -4012,7 +4024,7 @@
         <v>-3.64</v>
       </c>
       <c r="P25" s="12" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="Q25" s="13"/>
     </row>
@@ -4039,22 +4051,22 @@
         <v>103</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="M26" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N26" s="12">
         <v>55.78</v>
@@ -4063,7 +4075,7 @@
         <v>-6.4329999999999998</v>
       </c>
       <c r="P26" s="12" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="Q26" s="13"/>
     </row>
@@ -4141,22 +4153,22 @@
         <v>113</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N28" s="12">
         <v>57.444000000000003</v>
@@ -4165,7 +4177,7 @@
         <v>-3.1280000000000001</v>
       </c>
       <c r="P28" s="12" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="Q28" s="13"/>
     </row>
@@ -4192,22 +4204,22 @@
         <v>116</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="M29" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N29" s="12">
         <v>57.444000000000003</v>
@@ -4216,16 +4228,16 @@
         <v>-3.1280000000000001</v>
       </c>
       <c r="P29" s="12" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="Q29" s="13"/>
     </row>
-    <row r="30" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="3">
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>17</v>
@@ -4237,28 +4249,28 @@
         <v>84</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>117</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N30" s="12">
         <v>57.545999999999999</v>
@@ -4267,7 +4279,7 @@
         <v>-3.048</v>
       </c>
       <c r="P30" s="12" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="Q30" s="13"/>
     </row>
@@ -4294,22 +4306,22 @@
         <v>120</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="I31" s="12" t="s">
         <v>37</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="M31" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N31" s="12">
         <v>57.484999999999999</v>
@@ -4318,7 +4330,7 @@
         <v>-3.2080000000000002</v>
       </c>
       <c r="P31" s="12" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="Q31" s="13"/>
     </row>
@@ -4327,40 +4339,40 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="F32" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="G32" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>125</v>
-      </c>
       <c r="H32" s="12" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="M32" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N32" s="12">
         <v>53.338000000000001</v>
@@ -4369,49 +4381,51 @@
         <v>-6.2779999999999996</v>
       </c>
       <c r="P32" s="12" t="s">
-        <v>473</v>
-      </c>
-      <c r="Q32" s="13"/>
+        <v>467</v>
+      </c>
+      <c r="Q32" s="13">
+        <v>62.5</v>
+      </c>
     </row>
     <row r="33" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="3">
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>128</v>
-      </c>
       <c r="G33" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="L33" s="12" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="M33" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N33" s="12">
         <v>53.338000000000001</v>
@@ -4420,7 +4434,7 @@
         <v>-6.2779999999999996</v>
       </c>
       <c r="P33" s="12" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="Q33" s="13"/>
     </row>
@@ -4429,7 +4443,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>17</v>
@@ -4438,31 +4452,31 @@
         <v>25</v>
       </c>
       <c r="E34" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G34" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>132</v>
-      </c>
       <c r="H34" s="12" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L34" s="12" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="M34" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N34" s="12">
         <v>58.023000000000003</v>
@@ -4471,7 +4485,7 @@
         <v>-3.867</v>
       </c>
       <c r="P34" s="12" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="Q34" s="13"/>
     </row>
@@ -4480,7 +4494,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>17</v>
@@ -4489,31 +4503,31 @@
         <v>25</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L35" s="12" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="M35" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N35" s="12">
         <v>57.337000000000003</v>
@@ -4522,7 +4536,7 @@
         <v>-2.3149999999999999</v>
       </c>
       <c r="P35" s="12" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="Q35" s="13"/>
     </row>
@@ -4531,7 +4545,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>17</v>
@@ -4543,28 +4557,28 @@
         <v>61</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L36" s="12" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="M36" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N36" s="12">
         <v>57.337000000000003</v>
@@ -4573,7 +4587,7 @@
         <v>-2.3149999999999999</v>
       </c>
       <c r="P36" s="12" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="Q36" s="13"/>
     </row>
@@ -4582,7 +4596,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>17</v>
@@ -4594,28 +4608,28 @@
         <v>61</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L37" s="12" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="M37" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N37" s="12">
         <v>56.704000000000001</v>
@@ -4624,7 +4638,7 @@
         <v>-3.7330000000000001</v>
       </c>
       <c r="P37" s="12" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="Q37" s="13">
         <v>55.5</v>
@@ -4635,7 +4649,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>17</v>
@@ -4647,28 +4661,28 @@
         <v>19</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L38" s="12" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="M38" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N38" s="12">
         <v>55.756</v>
@@ -4677,7 +4691,7 @@
         <v>-6.2889999999999997</v>
       </c>
       <c r="P38" s="12" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="Q38" s="13">
         <v>46</v>
@@ -4688,7 +4702,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>17</v>
@@ -4697,31 +4711,31 @@
         <v>41</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L39" s="12" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="M39" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N39" s="12">
         <v>55.756</v>
@@ -4730,7 +4744,7 @@
         <v>-6.2889999999999997</v>
       </c>
       <c r="P39" s="12" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="Q39" s="13"/>
     </row>
@@ -4739,7 +4753,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>17</v>
@@ -4751,28 +4765,28 @@
         <v>76</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="L40" s="12" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="M40" s="12" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="N40" s="12">
         <v>36.347999999999999</v>
@@ -4781,7 +4795,7 @@
         <v>138.596</v>
       </c>
       <c r="P40" s="12" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="Q40" s="13"/>
     </row>
@@ -4790,7 +4804,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>17</v>
@@ -4802,28 +4816,28 @@
         <v>28</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L41" s="12" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="M41" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N41" s="12">
         <v>55.853999999999999</v>
@@ -4832,7 +4846,7 @@
         <v>-6.1079999999999997</v>
       </c>
       <c r="P41" s="12" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="Q41" s="13">
         <v>54.1</v>
@@ -4843,7 +4857,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>17</v>
@@ -4852,31 +4866,31 @@
         <v>25</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L42" s="12" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="M42" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N42" s="12">
         <v>56.847000000000001</v>
@@ -4885,7 +4899,7 @@
         <v>-2.5880000000000001</v>
       </c>
       <c r="P42" s="12" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="Q42" s="13"/>
     </row>
@@ -4894,7 +4908,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>150</v>
+        <v>653</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>17</v>
@@ -4906,28 +4920,28 @@
         <v>84</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>151</v>
+        <v>654</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L43" s="12" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="M43" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N43" s="12">
         <v>57.427</v>
@@ -4936,16 +4950,18 @@
         <v>-3.3130000000000002</v>
       </c>
       <c r="P43" s="12" t="s">
-        <v>431</v>
-      </c>
-      <c r="Q43" s="13"/>
-    </row>
-    <row r="44" spans="1:17" ht="78.75" hidden="1" x14ac:dyDescent="0.4">
+        <v>425</v>
+      </c>
+      <c r="Q43" s="13">
+        <v>58.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="79.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="3">
         <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>17</v>
@@ -4954,13 +4970,13 @@
         <v>49</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -4978,7 +4994,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>17</v>
@@ -4990,28 +5006,28 @@
         <v>84</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L45" s="12" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="M45" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N45" s="12">
         <v>57.646999999999998</v>
@@ -5020,7 +5036,7 @@
         <v>-3.2930000000000001</v>
       </c>
       <c r="P45" s="12" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="Q45" s="13"/>
     </row>
@@ -5029,7 +5045,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>17</v>
@@ -5041,28 +5057,28 @@
         <v>28</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>103</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="I46" s="12" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="K46" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L46" s="12" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="M46" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N46" s="12">
         <v>55.78</v>
@@ -5071,18 +5087,18 @@
         <v>-6.4329999999999998</v>
       </c>
       <c r="P46" s="12" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="Q46" s="13">
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:17" ht="48" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A47" s="3">
         <v>45</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>17</v>
@@ -5094,19 +5110,19 @@
         <v>19</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>49</v>
@@ -5124,7 +5140,7 @@
         <v>130.32300000000001</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Q47" s="13"/>
     </row>
@@ -5133,7 +5149,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>17</v>
@@ -5145,28 +5161,28 @@
         <v>28</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>103</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="J48" s="12" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L48" s="12" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="M48" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N48" s="12">
         <v>55.78</v>
@@ -5175,7 +5191,7 @@
         <v>-6.4329999999999998</v>
       </c>
       <c r="P48" s="12" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="Q48" s="13"/>
     </row>
@@ -5184,7 +5200,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>17</v>
@@ -5193,31 +5209,31 @@
         <v>25</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L49" s="12" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="M49" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N49" s="12">
         <v>56.847000000000001</v>
@@ -5226,7 +5242,7 @@
         <v>-2.5880000000000001</v>
       </c>
       <c r="P49" s="12" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="Q49" s="13"/>
     </row>
@@ -5235,7 +5251,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>17</v>
@@ -5247,28 +5263,28 @@
         <v>19</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="I50" s="12" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="J50" s="12" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L50" s="12" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="M50" s="12" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="N50" s="12">
         <v>57.683999999999997</v>
@@ -5277,16 +5293,16 @@
         <v>-2.5649999999999999</v>
       </c>
       <c r="P50" s="12" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="Q50" s="13"/>
     </row>
-    <row r="51" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:17" ht="48" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A51" s="3">
         <v>49</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>17</v>
@@ -5295,10 +5311,10 @@
         <v>49</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G51" s="8" t="s">
         <v>106</v>
@@ -5337,7 +5353,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>17</v>
@@ -5346,31 +5362,31 @@
         <v>25</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="J52" s="12" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L52" s="12" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="M52" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N52" s="12">
         <v>55.424999999999997</v>
@@ -5379,7 +5395,7 @@
         <v>-5.609</v>
       </c>
       <c r="P52" s="12" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="Q52" s="13"/>
     </row>
@@ -5388,7 +5404,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>17</v>
@@ -5400,28 +5416,28 @@
         <v>19</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L53" s="12" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="M53" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N53" s="12">
         <v>55.853999999999999</v>
@@ -5430,7 +5446,7 @@
         <v>-6.1079999999999997</v>
       </c>
       <c r="P53" s="12" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="Q53" s="13"/>
     </row>
@@ -5439,7 +5455,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>17</v>
@@ -5451,28 +5467,28 @@
         <v>19</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L54" s="12" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="M54" s="12" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="N54" s="12">
         <v>55.767000000000003</v>
@@ -5481,7 +5497,7 @@
         <v>-6.3620000000000001</v>
       </c>
       <c r="P54" s="12" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="Q54" s="13"/>
     </row>
@@ -5490,7 +5506,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>17</v>
@@ -5502,28 +5518,28 @@
         <v>84</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L55" s="12" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="M55" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N55" s="12">
         <v>57.451999999999998</v>
@@ -5532,7 +5548,7 @@
         <v>-3.3769999999999998</v>
       </c>
       <c r="P55" s="12" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="Q55" s="13">
         <v>57.3</v>
@@ -5543,7 +5559,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>17</v>
@@ -5555,28 +5571,28 @@
         <v>84</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="I56" s="12" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="J56" s="12" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="K56" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L56" s="12" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="M56" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N56" s="12">
         <v>57.533000000000001</v>
@@ -5585,7 +5601,7 @@
         <v>-3.206</v>
       </c>
       <c r="P56" s="12" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="Q56" s="13">
         <v>58.1</v>
@@ -5596,7 +5612,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>17</v>
@@ -5608,28 +5624,28 @@
         <v>84</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="J57" s="12" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="K57" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L57" s="12" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="M57" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N57" s="12">
         <v>57.343000000000004</v>
@@ -5638,7 +5654,7 @@
         <v>-3.3380000000000001</v>
       </c>
       <c r="P57" s="12" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="Q57" s="13"/>
     </row>
@@ -5647,7 +5663,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>17</v>
@@ -5659,28 +5675,28 @@
         <v>76</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="J58" s="12" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="K58" s="12" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="L58" s="12" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="M58" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N58" s="12">
         <v>35.988999999999997</v>
@@ -5689,7 +5705,7 @@
         <v>139.072</v>
       </c>
       <c r="P58" s="12" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="Q58" s="13"/>
     </row>
@@ -5698,7 +5714,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>17</v>
@@ -5710,28 +5726,28 @@
         <v>19</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="J59" s="12" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="K59" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L59" s="12" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="M59" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N59" s="12">
         <v>58.968000000000004</v>
@@ -5740,7 +5756,7 @@
         <v>-2.956</v>
       </c>
       <c r="P59" s="12" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="Q59" s="13"/>
     </row>
@@ -5749,7 +5765,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>17</v>
@@ -5761,28 +5777,28 @@
         <v>19</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="J60" s="12" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="K60" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L60" s="12" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="M60" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N60" s="12">
         <v>55.640999999999998</v>
@@ -5791,7 +5807,7 @@
         <v>-6.109</v>
       </c>
       <c r="P60" s="12" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="Q60" s="13"/>
     </row>
@@ -5800,7 +5816,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>17</v>
@@ -5812,28 +5828,28 @@
         <v>84</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="G61" s="8" t="s">
         <v>88</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="I61" s="12" t="s">
         <v>37</v>
       </c>
       <c r="J61" s="12" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="K61" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L61" s="12" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="M61" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N61" s="12">
         <v>57.484999999999999</v>
@@ -5842,7 +5858,7 @@
         <v>-3.2080000000000002</v>
       </c>
       <c r="P61" s="12" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="Q61" s="13">
         <v>40</v>
@@ -5853,7 +5869,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>17</v>
@@ -5865,28 +5881,28 @@
         <v>84</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="J62" s="12" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="K62" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L62" s="12" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="M62" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N62" s="12">
         <v>56.835999999999999</v>
@@ -5895,7 +5911,7 @@
         <v>-5.0739999999999998</v>
       </c>
       <c r="P62" s="12" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="Q62" s="13">
         <v>40</v>
@@ -5906,40 +5922,40 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="I63" s="12" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="J63" s="12" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="K63" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L63" s="12" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="M63" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N63" s="12">
         <v>55.832999999999998</v>
@@ -5948,7 +5964,7 @@
         <v>-5.9509999999999996</v>
       </c>
       <c r="P63" s="12" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="Q63" s="13">
         <v>60.7</v>
@@ -5959,7 +5975,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>17</v>
@@ -5968,31 +5984,31 @@
         <v>25</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="J64" s="12" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="K64" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L64" s="12" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="M64" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N64" s="12">
         <v>56.701999999999998</v>
@@ -6001,7 +6017,7 @@
         <v>-3.702</v>
       </c>
       <c r="P64" s="12" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="Q64" s="13"/>
     </row>
@@ -6010,7 +6026,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>17</v>
@@ -6019,31 +6035,31 @@
         <v>25</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="I65" s="12" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="J65" s="12" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="K65" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L65" s="12" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="M65" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N65" s="12">
         <v>55.424999999999997</v>
@@ -6052,7 +6068,7 @@
         <v>-5.609</v>
       </c>
       <c r="P65" s="12" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="Q65" s="13"/>
     </row>
@@ -6061,7 +6077,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>17</v>
@@ -6073,28 +6089,28 @@
         <v>19</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="J66" s="12" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="K66" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L66" s="12" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="M66" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N66" s="12">
         <v>56.622999999999998</v>
@@ -6103,7 +6119,7 @@
         <v>-6.07</v>
       </c>
       <c r="P66" s="12" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="Q66" s="13"/>
     </row>
@@ -6112,7 +6128,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>17</v>
@@ -6124,28 +6140,28 @@
         <v>76</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="J67" s="12" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="K67" s="12" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="L67" s="12" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="M67" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N67" s="12">
         <v>35.988999999999997</v>
@@ -6154,7 +6170,7 @@
         <v>139.072</v>
       </c>
       <c r="P67" s="12" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="Q67" s="13">
         <v>48</v>
@@ -6165,7 +6181,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>17</v>
@@ -6177,28 +6193,28 @@
         <v>84</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="I68" s="12" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="J68" s="12" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="K68" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L68" s="12" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="M68" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N68" s="12">
         <v>57.646999999999998</v>
@@ -6207,7 +6223,7 @@
         <v>-3.2930000000000001</v>
       </c>
       <c r="P68" s="12" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="Q68" s="13"/>
     </row>
@@ -6216,7 +6232,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>17</v>
@@ -6228,28 +6244,28 @@
         <v>19</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="I69" s="12" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="J69" s="12" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="K69" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L69" s="12" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="M69" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N69" s="12">
         <v>57.551000000000002</v>
@@ -6258,7 +6274,7 @@
         <v>-4.4340000000000002</v>
       </c>
       <c r="P69" s="12" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="Q69" s="13"/>
     </row>
@@ -6267,7 +6283,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>641</v>
+        <v>656</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>17</v>
@@ -6279,28 +6295,28 @@
         <v>19</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="J70" s="12" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="K70" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L70" s="12" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="M70" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N70" s="12">
         <v>55.853999999999999</v>
@@ -6309,16 +6325,18 @@
         <v>-6.1079999999999997</v>
       </c>
       <c r="P70" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="Q70" s="13"/>
+        <v>417</v>
+      </c>
+      <c r="Q70" s="13">
+        <v>43</v>
+      </c>
     </row>
     <row r="71" spans="1:17" ht="99.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A71" s="3">
         <v>69</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>17</v>
@@ -6330,28 +6348,28 @@
         <v>84</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="J71" s="12" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="K71" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L71" s="12" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="M71" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N71" s="12">
         <v>57.444000000000003</v>
@@ -6360,7 +6378,7 @@
         <v>-3.1280000000000001</v>
       </c>
       <c r="P71" s="12" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="Q71" s="13"/>
     </row>
@@ -6369,7 +6387,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>17</v>
@@ -6381,28 +6399,28 @@
         <v>76</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="I72" s="12" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="J72" s="12" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="K72" s="12" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="L72" s="12" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="M72" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N72" s="12">
         <v>34.890999999999998</v>
@@ -6411,7 +6429,7 @@
         <v>135.67500000000001</v>
       </c>
       <c r="P72" s="12" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="Q72" s="13"/>
     </row>
@@ -6420,7 +6438,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>17</v>
@@ -6429,31 +6447,31 @@
         <v>25</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="I73" s="12" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="J73" s="12" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="K73" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L73" s="12" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="M73" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N73" s="12">
         <v>58.968000000000004</v>
@@ -6462,7 +6480,7 @@
         <v>-2.956</v>
       </c>
       <c r="P73" s="12" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="Q73" s="13"/>
     </row>
@@ -6471,7 +6489,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>17</v>
@@ -6483,28 +6501,28 @@
         <v>19</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G74" s="8" t="s">
         <v>103</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="I74" s="12" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="J74" s="12" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="K74" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L74" s="12" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="M74" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N74" s="12">
         <v>55.78</v>
@@ -6513,7 +6531,7 @@
         <v>-6.4329999999999998</v>
       </c>
       <c r="P74" s="12" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="Q74" s="13"/>
     </row>
@@ -6522,7 +6540,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>17</v>
@@ -6534,28 +6552,28 @@
         <v>76</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H75" s="12" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="I75" s="12" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="J75" s="12" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="K75" s="12" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="L75" s="12" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="M75" s="12" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="N75" s="12">
         <v>36.347999999999999</v>
@@ -6564,7 +6582,7 @@
         <v>138.596</v>
       </c>
       <c r="P75" s="12" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="Q75" s="13"/>
     </row>
@@ -6573,7 +6591,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>17</v>
@@ -6585,28 +6603,28 @@
         <v>19</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="G76" s="8" t="s">
         <v>103</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="I76" s="12" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="J76" s="12" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="K76" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L76" s="12" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="M76" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N76" s="12">
         <v>55.78</v>
@@ -6615,7 +6633,7 @@
         <v>-6.4329999999999998</v>
       </c>
       <c r="P76" s="12" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="Q76" s="13">
         <v>50</v>
@@ -6626,40 +6644,40 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I77" s="12" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="J77" s="12" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="K77" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L77" s="12" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="M77" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N77" s="12">
         <v>57.427</v>
@@ -6668,7 +6686,7 @@
         <v>-3.3130000000000002</v>
       </c>
       <c r="P77" s="12" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="Q77" s="13"/>
     </row>
@@ -6677,7 +6695,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>17</v>
@@ -6689,28 +6707,28 @@
         <v>76</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H78" s="12" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="I78" s="12" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="J78" s="12" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="K78" s="12" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="L78" s="12" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="M78" s="12" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="N78" s="12">
         <v>36.347999999999999</v>
@@ -6719,16 +6737,16 @@
         <v>138.596</v>
       </c>
       <c r="P78" s="12" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="Q78" s="13"/>
     </row>
-    <row r="79" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:17" ht="48" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A79" s="3">
         <v>77</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>17</v>
@@ -6737,22 +6755,22 @@
         <v>49</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F79" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="J79" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="G79" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="J79" s="3" t="s">
-        <v>245</v>
       </c>
       <c r="K79" s="3" t="s">
         <v>49</v>
@@ -6770,16 +6788,16 @@
         <v>132.334</v>
       </c>
       <c r="P79" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="Q79" s="13"/>
     </row>
-    <row r="80" spans="1:17" ht="99.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:17" ht="99.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A80" s="3">
         <v>78</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>17</v>
@@ -6791,28 +6809,28 @@
         <v>61</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="I80" s="12" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="J80" s="12" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="K80" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L80" s="12" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="M80" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N80" s="12">
         <v>57.52</v>
@@ -6821,7 +6839,7 @@
         <v>-4.0469999999999997</v>
       </c>
       <c r="P80" s="12" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="Q80" s="13"/>
     </row>
@@ -6830,7 +6848,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>17</v>
@@ -6842,28 +6860,28 @@
         <v>84</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="I81" s="12" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="J81" s="12" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="K81" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L81" s="12" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="M81" s="12" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="N81" s="12">
         <v>57.438000000000002</v>
@@ -6872,7 +6890,7 @@
         <v>-3.3460000000000001</v>
       </c>
       <c r="P81" s="12" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="Q81" s="13"/>
     </row>
@@ -6881,7 +6899,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>17</v>
@@ -6890,31 +6908,31 @@
         <v>49</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I82" s="12" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="J82" s="12" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="K82" s="12" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="L82" s="12" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="M82" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N82" s="12">
         <v>35.988999999999997</v>
@@ -6923,7 +6941,7 @@
         <v>139.072</v>
       </c>
       <c r="P82" s="12" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="Q82" s="13"/>
     </row>
@@ -6932,7 +6950,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>17</v>
@@ -6944,28 +6962,28 @@
         <v>76</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I83" s="12" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="J83" s="12" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="K83" s="12" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="L83" s="12" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="M83" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N83" s="12">
         <v>35.988999999999997</v>
@@ -6974,7 +6992,7 @@
         <v>139.072</v>
       </c>
       <c r="P83" s="12" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="Q83" s="13"/>
     </row>
@@ -6983,7 +7001,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>17</v>
@@ -6995,28 +7013,28 @@
         <v>76</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I84" s="12" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="J84" s="12" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="K84" s="12" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="L84" s="12" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="M84" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N84" s="12">
         <v>35.988999999999997</v>
@@ -7025,16 +7043,16 @@
         <v>139.072</v>
       </c>
       <c r="P84" s="12" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="Q84" s="13"/>
     </row>
-    <row r="85" spans="1:17" ht="78.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:17" ht="79.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A85" s="3">
         <v>83</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>17</v>
@@ -7046,19 +7064,19 @@
         <v>76</v>
       </c>
       <c r="F85" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="J85" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="G85" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="H85" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="I85" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="J85" s="3" t="s">
-        <v>265</v>
       </c>
       <c r="K85" s="3" t="s">
         <v>49</v>
@@ -7067,7 +7085,7 @@
         <v>1985</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="N85" s="3">
         <v>35.899000000000001</v>
@@ -7076,37 +7094,37 @@
         <v>137.94200000000001</v>
       </c>
       <c r="P85" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q85" s="13"/>
     </row>
-    <row r="86" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:17" ht="48" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A86" s="3">
         <v>84</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="J86" s="3" t="s">
         <v>38</v>
@@ -7127,16 +7145,16 @@
         <v>-3.1179999999999999</v>
       </c>
       <c r="P86" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="Q86" s="13"/>
     </row>
-    <row r="87" spans="1:17" ht="78.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:17" ht="79.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A87" s="3">
         <v>85</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>17</v>
@@ -7148,10 +7166,10 @@
         <v>84</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
@@ -7171,7 +7189,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>17</v>
@@ -7180,31 +7198,31 @@
         <v>25</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="I88" s="12" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="J88" s="12" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="K88" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L88" s="12" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="M88" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N88" s="12">
         <v>57.688000000000002</v>
@@ -7213,16 +7231,16 @@
         <v>-4.1680000000000001</v>
       </c>
       <c r="P88" s="12" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="Q88" s="13"/>
     </row>
-    <row r="89" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:17" ht="48" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A89" s="3">
         <v>87</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>17</v>
@@ -7234,19 +7252,19 @@
         <v>76</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>49</v>
@@ -7264,7 +7282,7 @@
         <v>132.334</v>
       </c>
       <c r="P89" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="Q89" s="13"/>
     </row>
@@ -7273,7 +7291,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>17</v>
@@ -7285,28 +7303,28 @@
         <v>76</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H90" s="12" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="I90" s="12" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="J90" s="12" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="K90" s="12" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="L90" s="12" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="M90" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N90" s="12">
         <v>37.398000000000003</v>
@@ -7315,7 +7333,7 @@
         <v>140.36000000000001</v>
       </c>
       <c r="P90" s="12" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="Q90" s="13"/>
     </row>
@@ -7324,40 +7342,40 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H91" s="12" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="I91" s="12" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="J91" s="12" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="K91" s="12" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="L91" s="12" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="M91" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N91" s="12">
         <v>53.338000000000001</v>
@@ -7366,16 +7384,16 @@
         <v>-6.2779999999999996</v>
       </c>
       <c r="P91" s="12" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="Q91" s="13"/>
     </row>
-    <row r="92" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:17" ht="48" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A92" s="3">
         <v>90</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>17</v>
@@ -7387,7 +7405,7 @@
         <v>76</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G92" s="8" t="s">
         <v>106</v>
@@ -7426,7 +7444,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>17</v>
@@ -7438,28 +7456,28 @@
         <v>84</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H93" s="12" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="I93" s="12" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="J93" s="12" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="K93" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L93" s="12" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="M93" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N93" s="12">
         <v>57.253</v>
@@ -7468,7 +7486,7 @@
         <v>-3.3780000000000001</v>
       </c>
       <c r="P93" s="12" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="Q93" s="13"/>
     </row>
@@ -7477,7 +7495,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>17</v>
@@ -7489,28 +7507,28 @@
         <v>61</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>291</v>
+        <v>655</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="I94" s="12" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="J94" s="12" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="K94" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L94" s="12" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="M94" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N94" s="12">
         <v>57.756</v>
@@ -7519,16 +7537,18 @@
         <v>-4.2229999999999999</v>
       </c>
       <c r="P94" s="12" t="s">
-        <v>632</v>
-      </c>
-      <c r="Q94" s="13"/>
+        <v>626</v>
+      </c>
+      <c r="Q94" s="13">
+        <v>52.1</v>
+      </c>
     </row>
     <row r="95" spans="1:17" ht="116.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A95" s="3">
         <v>93</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>17</v>
@@ -7540,28 +7560,28 @@
         <v>84</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="I95" s="12" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="J95" s="12" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="K95" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L95" s="12" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="M95" s="12" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="N95" s="12">
         <v>57.453000000000003</v>
@@ -7570,16 +7590,18 @@
         <v>-3.1160000000000001</v>
       </c>
       <c r="P95" s="12" t="s">
-        <v>628</v>
-      </c>
-      <c r="Q95" s="13"/>
+        <v>622</v>
+      </c>
+      <c r="Q95" s="13">
+        <v>51.4</v>
+      </c>
     </row>
     <row r="96" spans="1:17" ht="50.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A96" s="3">
         <v>94</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>17</v>
@@ -7591,28 +7613,28 @@
         <v>28</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H96" s="12" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="I96" s="12" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="J96" s="12" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="K96" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L96" s="12" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="M96" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N96" s="12">
         <v>55.640999999999998</v>
@@ -7621,7 +7643,7 @@
         <v>-6.109</v>
       </c>
       <c r="P96" s="12" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="Q96" s="13"/>
     </row>
@@ -7630,7 +7652,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>17</v>
@@ -7642,28 +7664,28 @@
         <v>19</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="H97" s="12" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="I97" s="12" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="J97" s="12" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="K97" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L97" s="12" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="M97" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N97" s="12">
         <v>57.826000000000001</v>
@@ -7672,18 +7694,18 @@
         <v>-4.0789999999999997</v>
       </c>
       <c r="P97" s="12" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="Q97" s="13">
         <v>43</v>
       </c>
     </row>
-    <row r="98" spans="1:17" ht="99.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:17" ht="99.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A98" s="3">
         <v>96</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>301</v>
+        <v>657</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>17</v>
@@ -7695,28 +7717,28 @@
         <v>61</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H98" s="12" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="I98" s="12" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="J98" s="12" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="K98" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L98" s="12" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="M98" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N98" s="12">
         <v>57.52</v>
@@ -7725,16 +7747,18 @@
         <v>-4.0469999999999997</v>
       </c>
       <c r="P98" s="12" t="s">
-        <v>618</v>
-      </c>
-      <c r="Q98" s="13"/>
+        <v>612</v>
+      </c>
+      <c r="Q98" s="13">
+        <v>58.1</v>
+      </c>
     </row>
     <row r="99" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A99" s="3">
         <v>97</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>17</v>
@@ -7743,31 +7767,31 @@
         <v>25</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="H99" s="12" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="I99" s="12" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="J99" s="12" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="K99" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L99" s="12" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="M99" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N99" s="12">
         <v>57.451999999999998</v>
@@ -7776,7 +7800,7 @@
         <v>-3.3769999999999998</v>
       </c>
       <c r="P99" s="12" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="Q99" s="13"/>
     </row>
@@ -7785,7 +7809,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>17</v>
@@ -7797,28 +7821,28 @@
         <v>19</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="H100" s="12" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="I100" s="12" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="J100" s="12" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="K100" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L100" s="12" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="M100" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N100" s="12">
         <v>57.826000000000001</v>
@@ -7827,7 +7851,7 @@
         <v>-4.0789999999999997</v>
       </c>
       <c r="P100" s="12" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="Q100" s="13"/>
     </row>
@@ -7836,7 +7860,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>17</v>
@@ -7845,22 +7869,22 @@
         <v>49</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>49</v>
@@ -7878,7 +7902,7 @@
         <v>139.90799999999999</v>
       </c>
       <c r="P101" s="3" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="Q101" s="13"/>
     </row>
@@ -7887,7 +7911,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>17</v>
@@ -7899,28 +7923,28 @@
         <v>76</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="H102" s="12" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="I102" s="12" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="J102" s="12" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="K102" s="12" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="L102" s="12" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="M102" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N102" s="12">
         <v>34.652999999999999</v>
@@ -7929,7 +7953,7 @@
         <v>134.989</v>
       </c>
       <c r="P102" s="12" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="Q102" s="13">
         <v>50</v>
@@ -7940,7 +7964,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>17</v>
@@ -7952,28 +7976,28 @@
         <v>76</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H103" s="12" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="I103" s="12" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="J103" s="12" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="K103" s="12" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="L103" s="12" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="M103" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N103" s="12">
         <v>34.890999999999998</v>
@@ -7982,7 +8006,7 @@
         <v>135.67500000000001</v>
       </c>
       <c r="P103" s="12" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="Q103" s="13"/>
     </row>
@@ -7991,7 +8015,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>17</v>
@@ -8003,28 +8027,28 @@
         <v>76</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="H104" s="12" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I104" s="12" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="J104" s="12" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="K104" s="12" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="L104" s="12" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="M104" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N104" s="12">
         <v>35.988999999999997</v>
@@ -8033,7 +8057,7 @@
         <v>139.072</v>
       </c>
       <c r="P104" s="12" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="Q104" s="13"/>
     </row>
@@ -8042,7 +8066,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>17</v>
@@ -8054,19 +8078,19 @@
         <v>76</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="K105" s="3" t="s">
         <v>49</v>
@@ -8075,7 +8099,7 @@
         <v>1985</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="N105" s="3">
         <v>35.899000000000001</v>
@@ -8084,7 +8108,7 @@
         <v>137.94200000000001</v>
       </c>
       <c r="P105" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q105" s="13"/>
     </row>
@@ -8093,7 +8117,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>17</v>
@@ -8102,22 +8126,22 @@
         <v>49</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="K106" s="3" t="s">
         <v>49</v>
@@ -8126,7 +8150,7 @@
         <v>1985</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="N106" s="3">
         <v>35.899000000000001</v>
@@ -8135,7 +8159,7 @@
         <v>137.94200000000001</v>
       </c>
       <c r="P106" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q106" s="13"/>
     </row>
@@ -8144,7 +8168,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>17</v>
@@ -8153,31 +8177,31 @@
         <v>49</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="H107" s="12" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="I107" s="12" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="J107" s="12" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="K107" s="12" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="L107" s="12" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="M107" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N107" s="12">
         <v>36.637999999999998</v>
@@ -8186,7 +8210,7 @@
         <v>136.964</v>
       </c>
       <c r="P107" s="12" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="Q107" s="13"/>
     </row>
@@ -8195,7 +8219,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>17</v>
@@ -8207,28 +8231,28 @@
         <v>19</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="H108" s="12" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="I108" s="12" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="J108" s="12" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="K108" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L108" s="12" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="M108" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N108" s="12">
         <v>56.94</v>
@@ -8237,7 +8261,7 @@
         <v>-4.2370000000000001</v>
       </c>
       <c r="P108" s="12" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="Q108" s="13"/>
     </row>
@@ -8246,7 +8270,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>17</v>
@@ -8258,28 +8282,28 @@
         <v>76</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H109" s="12" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="I109" s="12" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="J109" s="12" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="K109" s="12" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="L109" s="12" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="M109" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N109" s="12">
         <v>43.052</v>
@@ -8288,7 +8312,7 @@
         <v>144.84299999999999</v>
       </c>
       <c r="P109" s="12" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="Q109" s="13"/>
     </row>
@@ -8297,7 +8321,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>17</v>
@@ -8309,19 +8333,19 @@
         <v>76</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="K110" s="3" t="s">
         <v>49</v>
@@ -8339,7 +8363,7 @@
         <v>132.334</v>
       </c>
       <c r="P110" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="Q110" s="13"/>
     </row>
@@ -8347,11 +8371,18 @@
   <autoFilter ref="A1:P110" xr:uid="{D4F60670-F158-4C9B-93E8-D52D53F4A8E3}">
     <filterColumn colId="7">
       <filters>
-        <filter val="グレンタウチャーズ蒸溜所"/>
+        <filter val="ロイヤルブラックラ蒸溜所"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="16">
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="B13:B14"/>
     <mergeCell ref="N13:N14"/>
     <mergeCell ref="O13:O14"/>
     <mergeCell ref="P13:P14"/>
@@ -8361,13 +8392,6 @@
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="L13:L14"/>
     <mergeCell ref="M13:M14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="B13:B14"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8398,16 +8422,16 @@
   <sheetData>
     <row r="1" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>11</v>
@@ -8422,7 +8446,7 @@
         <v>14</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -8433,16 +8457,16 @@
         <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G2" s="5">
         <v>57.302</v>
@@ -8451,7 +8475,7 @@
         <v>-6.3559999999999999</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -8462,16 +8486,16 @@
         <v>32</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="G3" s="5">
         <v>55.63</v>
@@ -8480,27 +8504,27 @@
         <v>-6.1929999999999996</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G4" s="5">
         <v>57.484999999999999</v>
@@ -8509,27 +8533,27 @@
         <v>-3.2080000000000002</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G5" s="5">
         <v>55.756</v>
@@ -8538,27 +8562,27 @@
         <v>-6.2889999999999997</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G6" s="5">
         <v>55.991</v>
@@ -8567,27 +8591,27 @@
         <v>-3.827</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G7" s="5">
         <v>55.424999999999997</v>
@@ -8596,27 +8620,27 @@
         <v>-5.609</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G8" s="5">
         <v>55.878</v>
@@ -8625,27 +8649,27 @@
         <v>-6.125</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G9" s="5">
         <v>56.624000000000002</v>
@@ -8654,27 +8678,27 @@
         <v>-3.85</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G10" s="5">
         <v>55.640999999999998</v>
@@ -8683,27 +8707,27 @@
         <v>-6.109</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G11" s="5">
         <v>58.968000000000004</v>
@@ -8712,27 +8736,27 @@
         <v>-2.956</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G12" s="5">
         <v>37.398000000000003</v>
@@ -8741,27 +8765,27 @@
         <v>140.36000000000001</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G13" s="5">
         <v>57.451999999999998</v>
@@ -8770,27 +8794,27 @@
         <v>-3.3769999999999998</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G14" s="5">
         <v>56.835999999999999</v>
@@ -8799,27 +8823,27 @@
         <v>-5.0739999999999998</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G15" s="5">
         <v>57.545999999999999</v>
@@ -8828,27 +8852,27 @@
         <v>-3.048</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G16" s="5">
         <v>57.444000000000003</v>
@@ -8857,27 +8881,27 @@
         <v>-3.1280000000000001</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G17" s="5">
         <v>56.704000000000001</v>
@@ -8886,27 +8910,27 @@
         <v>-3.7330000000000001</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G18" s="5">
         <v>55.853999999999999</v>
@@ -8915,27 +8939,27 @@
         <v>-6.1079999999999997</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G19" s="5">
         <v>56.847000000000001</v>
@@ -8944,27 +8968,27 @@
         <v>-2.5880000000000001</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G20" s="5">
         <v>57.427</v>
@@ -8973,27 +8997,27 @@
         <v>-3.3130000000000002</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G21" s="5">
         <v>57.646999999999998</v>
@@ -9002,27 +9026,27 @@
         <v>-3.2930000000000001</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G22" s="5">
         <v>55.78</v>
@@ -9031,27 +9055,27 @@
         <v>-6.4329999999999998</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G23" s="5">
         <v>57.533000000000001</v>
@@ -9060,27 +9084,27 @@
         <v>-3.206</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G24" s="5">
         <v>57.343000000000004</v>
@@ -9089,27 +9113,27 @@
         <v>-3.3380000000000001</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G25" s="5">
         <v>34.890999999999998</v>
@@ -9118,27 +9142,27 @@
         <v>135.67500000000001</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G26" s="5">
         <v>35.988999999999997</v>
@@ -9147,27 +9171,27 @@
         <v>139.072</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G27" s="5">
         <v>35.773000000000003</v>
@@ -9176,7 +9200,7 @@
         <v>137.93700000000001</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -9187,16 +9211,16 @@
         <v>108</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G28" s="5">
         <v>35.380000000000003</v>
@@ -9205,27 +9229,27 @@
         <v>136.274</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G29" s="5">
         <v>36.637999999999998</v>
@@ -9234,27 +9258,27 @@
         <v>136.964</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G30" s="5">
         <v>53.338000000000001</v>
@@ -9263,27 +9287,27 @@
         <v>-6.2779999999999996</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G31" s="5">
         <v>63.040999999999997</v>
@@ -9292,27 +9316,27 @@
         <v>17.739000000000001</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G32" s="5">
         <v>57.649000000000001</v>
@@ -9321,27 +9345,27 @@
         <v>-3.64</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="G33" s="5">
         <v>36.347999999999999</v>
@@ -9350,27 +9374,27 @@
         <v>138.596</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="147.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G34" s="5">
         <v>56.94</v>
@@ -9379,27 +9403,27 @@
         <v>-4.2370000000000001</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G35" s="5">
         <v>43.052</v>
@@ -9408,27 +9432,27 @@
         <v>144.84299999999999</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G36" s="5">
         <v>55.640999999999998</v>
@@ -9437,27 +9461,27 @@
         <v>-6.109</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G37" s="5">
         <v>58.968000000000004</v>
@@ -9466,7 +9490,7 @@
         <v>-2.956</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -9474,19 +9498,19 @@
         <v>120</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G38" s="5">
         <v>57.484999999999999</v>
@@ -9495,27 +9519,27 @@
         <v>-3.2080000000000002</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G39" s="5">
         <v>53.338000000000001</v>
@@ -9524,27 +9548,27 @@
         <v>-6.2779999999999996</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G40" s="5">
         <v>31.454000000000001</v>
@@ -9553,27 +9577,27 @@
         <v>130.46100000000001</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G41" s="5">
         <v>35.823999999999998</v>
@@ -9582,27 +9606,27 @@
         <v>138.43600000000001</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G42" s="5">
         <v>43.177999999999997</v>
@@ -9611,27 +9635,27 @@
         <v>140.76599999999999</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G43" s="5">
         <v>38.445999999999998</v>
@@ -9640,27 +9664,27 @@
         <v>140.88300000000001</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G44" s="5">
         <v>36.320999999999998</v>
@@ -9669,27 +9693,27 @@
         <v>138.44999999999999</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G45" s="5">
         <v>35.768999999999998</v>
@@ -9698,27 +9722,27 @@
         <v>139.125</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G46" s="5">
         <v>35.302999999999997</v>
@@ -9727,27 +9751,27 @@
         <v>138.95400000000001</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G47" s="5">
         <v>35.036999999999999</v>
@@ -9756,27 +9780,27 @@
         <v>136.82900000000001</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G48" s="5">
         <v>38.445999999999998</v>
@@ -9785,27 +9809,27 @@
         <v>140.88300000000001</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G49" s="5">
         <v>34.652999999999999</v>
@@ -9814,27 +9838,27 @@
         <v>134.989</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G50" s="5">
         <v>35.773000000000003</v>
@@ -9843,27 +9867,27 @@
         <v>137.93700000000001</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G51" s="5">
         <v>31.672999999999998</v>
@@ -9872,7 +9896,7 @@
         <v>130.279</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -9882,20 +9906,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6ff6e2ba-ab06-4ac9-b2c7-449843b7cb08" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6ff6e2ba-ab06-4ac9-b2c7-449843b7cb08" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10081,14 +10105,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B963C0D-E7E9-44EF-8AEB-EF3D573F3F67}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{987E6F6F-1448-40F2-A1EC-D5FD1FE7DC5E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="6ff6e2ba-ab06-4ac9-b2c7-449843b7cb08"/>
@@ -10100,6 +10116,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B963C0D-E7E9-44EF-8AEB-EF3D573F3F67}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/whisky_database.xlsx
+++ b/whisky_database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\新藤駿介(ShindoShunsuke)\Documents\GitHub\whisky-sommelier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0FD4EC-1D24-45F8-A747-BC073D6D5591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB121F0-BE85-432A-A8B3-A0E529B3028A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{A2419164-9416-4CEB-A64A-CE2C95D250D1}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="659">
   <si>
     <t>番号</t>
   </si>
@@ -163,9 +163,6 @@
     <t>スペイサイド地方に位置し、シェリー樽熟成のシングルモルトで世界的に有名な蒸留所。最高品質の樽にこだわり、リッチで芳醇な味わいのウイスキーを生産しています。投資対象としても人気が高く、稀少な古いボトルは高値で取引されています。2018年には最新鋭の新蒸留所を開設しました。</t>
   </si>
   <si>
-    <t>ボウモア　26年　ダンカンテイラー</t>
-  </si>
-  <si>
     <t>Scotland Islay</t>
   </si>
   <si>
@@ -256,9 +253,6 @@
     <t>Scotland Isle of Skye</t>
   </si>
   <si>
-    <t>このタリスカー11年（2010-2022）は、海塩と黒胡椒の特徴的な海洋性の風味が前面に出ています。口当たりは洋梨とリンゴの甘みがあり、温かみのあるスパイスと蒸留所特有のピリッとした煙の風味とバランスよく調和しています。余韻は長く、塩気、オーク、かすかな柑橘類の皮の風味が残ります。</t>
-  </si>
-  <si>
     <t>TALISKER</t>
   </si>
   <si>
@@ -325,9 +319,6 @@
     <t>熟成された豊かな蜂蜜とヒースの香りが、優しい煙と調和しています。ドライフルーツ、オレンジピール、ダークチョコレートの複雑な層が、微妙なスパイスとオークと混ざり合います。オークニー特有のピートが特徴的な芳香のある煙を提供し、自然な甘さを補完して、長く温かみのある余韻へと導きます。</t>
   </si>
   <si>
-    <t xml:space="preserve">High Coast 2013-2021 </t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -529,9 +520,6 @@
     <t>鹿児島県南さつま市の本坊酒造発祥の地に2016年に設立された蒸留所。蔵多山と長屋山に囲まれた盆地にあり、冬は冷え込みが厳しく昼夜の寒暖差が大きい環境が特徴。駒ヶ岳蒸留所がクリーンでライトな酒質であるのに対し、津貫はリッチでヘビーな酒質を生み出しており、同じ会社の異なる個性を持つ2つの蒸留所として注目されています。</t>
   </si>
   <si>
-    <t>KILCHOMAN　2013－2021</t>
-  </si>
-  <si>
     <t>2013年蒸留、2021年ボトリングのキルホーマン。アイラ島特有のピート香りと海の塩気が特徴的で、甘い大麦の風味とシトラスの皮の爽やかさが調和しています。8年間の熟成により、バニラ、トフィー、ドライフルーツの複雑さが加わり、長く温かい余韻には炭化したオークと持続する煙の香りが残ります。</t>
   </si>
   <si>
@@ -998,9 +986,6 @@
   </si>
   <si>
     <t>駒ヶ岳　蝶々2024</t>
-  </si>
-  <si>
-    <t>駒ヶ岳 蝶々2024は、エレガントな花の香りとハチミツの甘さ、そして微かな柑橘系の風味が特徴の限定版日本ウイスキーです。口当たりは繊細な果実の風味と軽いオークとバニラのバランスが良く、洗練された余韻には微かなスパイスと優しい温かみが感じられます。マルス信州蒸留所の職人技を示す洗練された表現です。</t>
   </si>
   <si>
     <t>駒ヶ岳</t>
@@ -1807,10 +1792,6 @@
     <t>鹿児島県いちき串木野市の海岸沿いに位置する蒸溜所。2017年に焼酎メーカーの濱田酒造が設立し、2018年3月に蒸溜を開始。「KANOSUKE」ブランドとして展開し、初の製品は2021年に発売された。東シナ海に面した立地で海からの風の影響を受ける熟成環境が特徴。異なる形状の3つのポットスチルを用いて多様な原酒を製造し、焼酎造りで培った発酵技術を応用した独自のウイスキー造りに取り組む。鹿児島らしい温暖な気候が生み出す豊かな風味のウイスキーとして注目を集めている。</t>
   </si>
   <si>
-    <t>Sing malt sheets&amp;Veille</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>シングルモルト（分類不明）</t>
     <rPh sb="8" eb="10">
       <t>ブンルイ</t>
@@ -1827,22 +1808,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>この24年熟成のウイスキー（1996年から2021年のマッカランまたはグレンロセス）は、ドライフルーツ、オークスパイス、蜂蜜の層が豊かに複雑に絡み合います。長期熟成により、ダークチョコレート、オレンジピール、クリスマスケーキの深い風味と、革やタバコのニュアンスが感じられます。フィニッシュは長く温かみがあり、微かなオークタンニンと余韻のある甘さが特徴です。内容は、マッカランかグレンロセスと言われています。（地図はマッカランを掲載）</t>
-    <rPh sb="178" eb="180">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="195" eb="196">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="204" eb="206">
-      <t>チズ</t>
-    </rPh>
-    <rPh sb="213" eb="215">
-      <t>ケイサイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>ティーリング蒸留所</t>
     <rPh sb="6" eb="9">
       <t>ジョウリュジョ</t>
@@ -1855,10 +1820,6 @@
   </si>
   <si>
     <t>シグナトリによる1995年に蒸留され2021年にボトリングされた25年熟成のハイランドシングルモルト。トロピカルフルーツ、ハチミツ、バニラの豊かな香りに、ダークチョコレート、ローストナッツ、控えめなオークスパイスのノートが感じられます。口当たりはドライフルーツ、トフィー、柑橘系の皮の風味があり、穏やかなスパイスとオークの長く温かい余韻が続きます。</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ハイコースト2013-2021は、バニラ、ハチミツ、果樹園のフルーツの風味とやさしいオークスパイスのバランスの取れたプロファイルを提供します。口当たりには麦芽の甘さ、軽いシトラス、そして海岸の塩気のヒントが現れます。フィニッシュは温かみのあるスパイスと乾燥フルーツの余韻と共に中長く続きます。</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -2233,6 +2194,69 @@
   </si>
   <si>
     <t>CARNMOR ROYAL BRACKLA 13年 2009-2022</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>GLENLIVET 20年 2003-2023 Gordon&amp;Macphail</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>このタリスカー11年（2010-2022）は、海塩と黒胡椒の特徴的な海洋性の風味が前面に出ています。口当たりは洋梨とリンゴの甘みがあり、温かみのあるスパイスと蒸留所特有のピリッとした煙の風味とバランスよく調和しています。余韻は長く、塩気、オーク、かすかな柑橘類の皮の風味が残ります。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Sing malt sheets&amp;Veille (マッカランもしくはグレンロセス）</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>日本をイメージしたジャケットの24年熟成のウイスキー（1996年から2021年のマッカランまたはグレンロセス）は、ドライフルーツ、オークスパイス、蜂蜜の層が豊かに複雑に絡み合います。長期熟成により、ダークチョコレート、オレンジピール、クリスマスケーキの深い風味と、革やタバコのニュアンスが感じられます。フィニッシュは長く温かみがあり、微かなオークタンニンと余韻のある甘さが特徴です。内容は、マッカランかグレンロセスと言われています。（地図はマッカランを掲載）</t>
+    <rPh sb="0" eb="2">
+      <t>ニホン</t>
+    </rPh>
+    <rPh sb="191" eb="193">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="208" eb="209">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="217" eb="219">
+      <t>チズ</t>
+    </rPh>
+    <rPh sb="226" eb="228">
+      <t>ケイサイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アサギマダラの里フォトコンテスト2024年の写真をジャケットにまとった１本。駒ヶ岳 蝶々2024は、エレガントな花の香りとハチミツの甘さ、そして微かな柑橘系の風味が特徴の限定版日本ウイスキーです。口当たりは繊細な果実の風味と軽いオークとバニラのバランスが良く、洗練された余韻には微かなスパイスと優しい温かみが感じられます。マルス信州蒸留所の職人技を示す洗練された表現です。</t>
+    <rPh sb="7" eb="8">
+      <t>サト</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>KILCHOMAN　テキーラシングルカスクフィニッシュ　2013－2021</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>High Coast 2013-2021 PRIVATE BOTTLING</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>かなり度数の高い１本。ハイコースト2013-2021は、バニラ、ハチミツ、果樹園のフルーツの風味とやさしいオークスパイスのバランスの取れたプロファイルを提供します。口当たりには麦芽の甘さ、軽いシトラス、そして海岸の塩気のヒントが現れます。フィニッシュは温かみのあるスパイスと乾燥フルーツの余韻と共に中長く続きます。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ボウモア　26年　ダンカンテイラー</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -2427,10 +2451,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2773,9 +2797,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Q110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y80" sqref="Y80"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F132" sqref="F132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2849,7 +2873,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -2881,16 +2905,16 @@
         <v>23</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N2" s="12">
         <v>57.302</v>
@@ -2899,7 +2923,7 @@
         <v>-6.3559999999999999</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="Q2" s="13"/>
     </row>
@@ -2932,16 +2956,16 @@
         <v>32</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="K3" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="M3" s="12" t="s">
         <v>349</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>354</v>
       </c>
       <c r="N3" s="12">
         <v>55.63</v>
@@ -2950,7 +2974,7 @@
         <v>-6.1929999999999996</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="Q3" s="13"/>
     </row>
@@ -2977,22 +3001,22 @@
         <v>35</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>37</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N4" s="12">
         <v>57.484999999999999</v>
@@ -3001,49 +3025,49 @@
         <v>-3.2080000000000002</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="Q4" s="13"/>
     </row>
-    <row r="5" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>43</v>
-      </c>
       <c r="H5" s="12" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N5" s="12">
         <v>55.756</v>
@@ -3052,16 +3076,18 @@
         <v>-6.2889999999999997</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q5" s="13"/>
+        <v>357</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>50.2</v>
+      </c>
     </row>
     <row r="6" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>17</v>
@@ -3070,31 +3096,31 @@
         <v>25</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="H6" s="12" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="N6" s="12">
         <v>55.991</v>
@@ -3103,7 +3129,7 @@
         <v>-3.827</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="Q6" s="13"/>
     </row>
@@ -3112,22 +3138,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -3145,7 +3171,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>17</v>
@@ -3154,31 +3180,31 @@
         <v>25</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>56</v>
-      </c>
       <c r="H8" s="12" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N8" s="12">
         <v>55.424999999999997</v>
@@ -3187,7 +3213,7 @@
         <v>-5.609</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="Q8" s="13"/>
     </row>
@@ -3196,40 +3222,40 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="H9" s="12" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N9" s="12">
         <v>55.878</v>
@@ -3238,7 +3264,7 @@
         <v>-6.125</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="Q9" s="13">
         <v>40</v>
@@ -3249,7 +3275,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>17</v>
@@ -3258,31 +3284,31 @@
         <v>25</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="G10" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N10" s="12">
         <v>56.624000000000002</v>
@@ -3291,7 +3317,7 @@
         <v>-3.85</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="Q10" s="13"/>
     </row>
@@ -3300,40 +3326,40 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>65</v>
-      </c>
       <c r="H11" s="12" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N11" s="12">
         <v>55.640999999999998</v>
@@ -3342,7 +3368,7 @@
         <v>-6.109</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="Q11" s="13"/>
     </row>
@@ -3351,40 +3377,40 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N12" s="12">
         <v>58.968000000000004</v>
@@ -3393,78 +3419,78 @@
         <v>-2.956</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="Q12" s="13"/>
     </row>
     <row r="13" spans="1:17" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="14">
+      <c r="A13" s="15">
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="14" t="s">
+      <c r="E13" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>651</v>
+      </c>
+      <c r="G13" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="H13" s="14" t="s">
+      <c r="H13" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="I13" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="J13" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L13" s="15">
         <v>1830</v>
       </c>
-      <c r="M13" s="14" t="s">
+      <c r="M13" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="N13" s="14">
+      <c r="N13" s="15">
         <v>57.302</v>
       </c>
-      <c r="O13" s="14">
+      <c r="O13" s="15">
         <v>-6.3559999999999999</v>
       </c>
-      <c r="P13" s="14" t="s">
-        <v>343</v>
+      <c r="P13" s="15" t="s">
+        <v>338</v>
       </c>
       <c r="Q13" s="13"/>
     </row>
-    <row r="14" spans="1:17" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="14"/>
+    <row r="14" spans="1:17" ht="48.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
       <c r="Q14" s="13"/>
     </row>
     <row r="15" spans="1:17" ht="79.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -3472,40 +3498,40 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N15" s="12">
         <v>55.640999999999998</v>
@@ -3514,7 +3540,7 @@
         <v>-6.109</v>
       </c>
       <c r="P15" s="12" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="Q15" s="13"/>
     </row>
@@ -3523,40 +3549,40 @@
         <v>14</v>
       </c>
       <c r="B16" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="G16" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>78</v>
-      </c>
       <c r="H16" s="12" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N16" s="12">
         <v>37.398000000000003</v>
@@ -3565,7 +3591,7 @@
         <v>140.36000000000001</v>
       </c>
       <c r="P16" s="12" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="Q16" s="13"/>
     </row>
@@ -3574,40 +3600,40 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N17" s="12">
         <v>58.968000000000004</v>
@@ -3616,7 +3642,7 @@
         <v>-2.956</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="Q17" s="13"/>
     </row>
@@ -3625,7 +3651,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>551</v>
+        <v>652</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>17</v>
@@ -3637,28 +3663,28 @@
         <v>19</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>554</v>
+        <v>653</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="I18" s="12" t="s">
         <v>37</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N18" s="12">
         <v>57.484999999999999</v>
@@ -3667,16 +3693,18 @@
         <v>-3.2080000000000002</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q18" s="13"/>
+        <v>354</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>48.1</v>
+      </c>
     </row>
     <row r="19" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>17</v>
@@ -3688,28 +3716,28 @@
         <v>19</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N19" s="12">
         <v>57.451999999999998</v>
@@ -3718,7 +3746,7 @@
         <v>-3.3769999999999998</v>
       </c>
       <c r="P19" s="12" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="Q19" s="13"/>
     </row>
@@ -3727,7 +3755,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>17</v>
@@ -3736,31 +3764,31 @@
         <v>25</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N20" s="12">
         <v>57.451999999999998</v>
@@ -3769,7 +3797,7 @@
         <v>-3.3769999999999998</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="Q20" s="13"/>
     </row>
@@ -3778,7 +3806,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>17</v>
@@ -3790,10 +3818,10 @@
         <v>19</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>36</v>
@@ -3829,7 +3857,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>17</v>
@@ -3841,28 +3869,28 @@
         <v>19</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N22" s="12">
         <v>56.835999999999999</v>
@@ -3871,7 +3899,7 @@
         <v>-5.0739999999999998</v>
       </c>
       <c r="P22" s="12" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="Q22" s="13"/>
     </row>
@@ -3880,40 +3908,40 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N23" s="12">
         <v>58.968000000000004</v>
@@ -3922,7 +3950,7 @@
         <v>-2.956</v>
       </c>
       <c r="P23" s="12" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="Q23" s="13"/>
     </row>
@@ -3931,40 +3959,40 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="G24" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>97</v>
-      </c>
       <c r="H24" s="12" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N24" s="12">
         <v>63.002000000000002</v>
@@ -3973,16 +4001,18 @@
         <v>17.798999999999999</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>560</v>
-      </c>
-      <c r="Q24" s="13"/>
+        <v>552</v>
+      </c>
+      <c r="Q24" s="13">
+        <v>64.900000000000006</v>
+      </c>
     </row>
     <row r="25" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="3">
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>17</v>
@@ -3991,31 +4021,31 @@
         <v>25</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N25" s="12">
         <v>57.649000000000001</v>
@@ -4024,7 +4054,7 @@
         <v>-3.64</v>
       </c>
       <c r="P25" s="12" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="Q25" s="13"/>
     </row>
@@ -4033,40 +4063,40 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="M26" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N26" s="12">
         <v>55.78</v>
@@ -4075,7 +4105,7 @@
         <v>-6.4329999999999998</v>
       </c>
       <c r="P26" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="Q26" s="13"/>
     </row>
@@ -4084,34 +4114,34 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27" s="3" t="s">
+      <c r="I27" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="J27" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="K27" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L27" s="3">
         <v>2016</v>
@@ -4126,7 +4156,7 @@
         <v>136.26400000000001</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q27" s="13"/>
     </row>
@@ -4135,7 +4165,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>17</v>
@@ -4144,31 +4174,31 @@
         <v>25</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N28" s="12">
         <v>57.444000000000003</v>
@@ -4177,7 +4207,7 @@
         <v>-3.1280000000000001</v>
       </c>
       <c r="P28" s="12" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="Q28" s="13"/>
     </row>
@@ -4186,7 +4216,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>17</v>
@@ -4195,31 +4225,31 @@
         <v>25</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="M29" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N29" s="12">
         <v>57.444000000000003</v>
@@ -4228,7 +4258,7 @@
         <v>-3.1280000000000001</v>
       </c>
       <c r="P29" s="12" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="Q29" s="13"/>
     </row>
@@ -4237,7 +4267,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>17</v>
@@ -4246,31 +4276,31 @@
         <v>25</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N30" s="12">
         <v>57.545999999999999</v>
@@ -4279,7 +4309,7 @@
         <v>-3.048</v>
       </c>
       <c r="P30" s="12" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="Q30" s="13"/>
     </row>
@@ -4288,7 +4318,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>17</v>
@@ -4300,28 +4330,28 @@
         <v>19</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="I31" s="12" t="s">
         <v>37</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="M31" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N31" s="12">
         <v>57.484999999999999</v>
@@ -4330,7 +4360,7 @@
         <v>-3.2080000000000002</v>
       </c>
       <c r="P31" s="12" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="Q31" s="13"/>
     </row>
@@ -4339,40 +4369,40 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="M32" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N32" s="12">
         <v>53.338000000000001</v>
@@ -4381,7 +4411,7 @@
         <v>-6.2779999999999996</v>
       </c>
       <c r="P32" s="12" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="Q32" s="13">
         <v>62.5</v>
@@ -4392,40 +4422,40 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="L33" s="12" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="M33" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N33" s="12">
         <v>53.338000000000001</v>
@@ -4434,7 +4464,7 @@
         <v>-6.2779999999999996</v>
       </c>
       <c r="P33" s="12" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="Q33" s="13"/>
     </row>
@@ -4443,7 +4473,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>17</v>
@@ -4452,31 +4482,31 @@
         <v>25</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L34" s="12" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="M34" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N34" s="12">
         <v>58.023000000000003</v>
@@ -4485,7 +4515,7 @@
         <v>-3.867</v>
       </c>
       <c r="P34" s="12" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="Q34" s="13"/>
     </row>
@@ -4494,7 +4524,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>17</v>
@@ -4503,31 +4533,31 @@
         <v>25</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L35" s="12" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="M35" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N35" s="12">
         <v>57.337000000000003</v>
@@ -4536,7 +4566,7 @@
         <v>-2.3149999999999999</v>
       </c>
       <c r="P35" s="12" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="Q35" s="13"/>
     </row>
@@ -4545,7 +4575,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>17</v>
@@ -4554,31 +4584,31 @@
         <v>25</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L36" s="12" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="M36" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N36" s="12">
         <v>57.337000000000003</v>
@@ -4587,7 +4617,7 @@
         <v>-2.3149999999999999</v>
       </c>
       <c r="P36" s="12" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="Q36" s="13"/>
     </row>
@@ -4596,7 +4626,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>17</v>
@@ -4605,31 +4635,31 @@
         <v>25</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L37" s="12" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="M37" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N37" s="12">
         <v>56.704000000000001</v>
@@ -4638,51 +4668,51 @@
         <v>-3.7330000000000001</v>
       </c>
       <c r="P37" s="12" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="Q37" s="13">
         <v>55.5</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="84.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:17" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="3">
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L38" s="12" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="M38" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N38" s="12">
         <v>55.756</v>
@@ -4691,51 +4721,51 @@
         <v>-6.2889999999999997</v>
       </c>
       <c r="P38" s="12" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="Q38" s="13">
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="79.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:17" ht="79.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="3">
         <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L39" s="12" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="M39" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N39" s="12">
         <v>55.756</v>
@@ -4744,7 +4774,7 @@
         <v>-6.2889999999999997</v>
       </c>
       <c r="P39" s="12" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="Q39" s="13"/>
     </row>
@@ -4753,40 +4783,40 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="L40" s="12" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="M40" s="12" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="N40" s="12">
         <v>36.347999999999999</v>
@@ -4795,7 +4825,7 @@
         <v>138.596</v>
       </c>
       <c r="P40" s="12" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="Q40" s="13"/>
     </row>
@@ -4804,7 +4834,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>17</v>
@@ -4816,28 +4846,28 @@
         <v>28</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L41" s="12" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="M41" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N41" s="12">
         <v>55.853999999999999</v>
@@ -4846,7 +4876,7 @@
         <v>-6.1079999999999997</v>
       </c>
       <c r="P41" s="12" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="Q41" s="13">
         <v>54.1</v>
@@ -4857,7 +4887,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>17</v>
@@ -4866,31 +4896,31 @@
         <v>25</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L42" s="12" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="M42" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N42" s="12">
         <v>56.847000000000001</v>
@@ -4899,7 +4929,7 @@
         <v>-2.5880000000000001</v>
       </c>
       <c r="P42" s="12" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="Q42" s="13"/>
     </row>
@@ -4908,7 +4938,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>17</v>
@@ -4917,31 +4947,31 @@
         <v>25</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L43" s="12" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="M43" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N43" s="12">
         <v>57.427</v>
@@ -4950,33 +4980,33 @@
         <v>-3.3130000000000002</v>
       </c>
       <c r="P43" s="12" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="Q43" s="13">
         <v>58.7</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="79.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:17" ht="78.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G44" s="8" t="s">
         <v>149</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>152</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -4994,7 +5024,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>17</v>
@@ -5003,31 +5033,31 @@
         <v>25</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L45" s="12" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="M45" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N45" s="12">
         <v>57.646999999999998</v>
@@ -5036,7 +5066,7 @@
         <v>-3.2930000000000001</v>
       </c>
       <c r="P45" s="12" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="Q45" s="13"/>
     </row>
@@ -5045,40 +5075,40 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="I46" s="12" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="K46" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L46" s="12" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="M46" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N46" s="12">
         <v>55.78</v>
@@ -5087,45 +5117,45 @@
         <v>-6.4329999999999998</v>
       </c>
       <c r="P46" s="12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="Q46" s="13">
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="48" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <v>45</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G47" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="J47" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>160</v>
-      </c>
       <c r="K47" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L47" s="3">
         <v>2016</v>
@@ -5140,7 +5170,7 @@
         <v>130.32300000000001</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="Q47" s="13"/>
     </row>
@@ -5149,7 +5179,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>162</v>
+        <v>655</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>17</v>
@@ -5161,28 +5191,28 @@
         <v>28</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="J48" s="12" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L48" s="12" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="M48" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N48" s="12">
         <v>55.78</v>
@@ -5191,16 +5221,18 @@
         <v>-6.4329999999999998</v>
       </c>
       <c r="P48" s="12" t="s">
-        <v>433</v>
-      </c>
-      <c r="Q48" s="13"/>
+        <v>428</v>
+      </c>
+      <c r="Q48" s="13">
+        <v>55.7</v>
+      </c>
     </row>
     <row r="49" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A49" s="3">
         <v>47</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>17</v>
@@ -5209,31 +5241,31 @@
         <v>25</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L49" s="12" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="M49" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N49" s="12">
         <v>56.847000000000001</v>
@@ -5242,7 +5274,7 @@
         <v>-2.5880000000000001</v>
       </c>
       <c r="P49" s="12" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="Q49" s="13"/>
     </row>
@@ -5251,7 +5283,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>17</v>
@@ -5263,28 +5295,28 @@
         <v>19</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="I50" s="12" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="J50" s="12" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L50" s="12" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="M50" s="12" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="N50" s="12">
         <v>57.683999999999997</v>
@@ -5293,43 +5325,43 @@
         <v>-2.5649999999999999</v>
       </c>
       <c r="P50" s="12" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="Q50" s="13"/>
     </row>
-    <row r="51" spans="1:17" ht="48" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A51" s="3">
         <v>49</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G51" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="J51" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="H51" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="K51" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L51" s="3">
         <v>2016</v>
@@ -5344,7 +5376,7 @@
         <v>136.26400000000001</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q51" s="13"/>
     </row>
@@ -5353,7 +5385,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>17</v>
@@ -5362,31 +5394,31 @@
         <v>25</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="J52" s="12" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L52" s="12" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="M52" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N52" s="12">
         <v>55.424999999999997</v>
@@ -5395,7 +5427,7 @@
         <v>-5.609</v>
       </c>
       <c r="P52" s="12" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="Q52" s="13"/>
     </row>
@@ -5404,40 +5436,40 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L53" s="12" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="M53" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N53" s="12">
         <v>55.853999999999999</v>
@@ -5446,7 +5478,7 @@
         <v>-6.1079999999999997</v>
       </c>
       <c r="P53" s="12" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="Q53" s="13"/>
     </row>
@@ -5455,40 +5487,40 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L54" s="12" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="M54" s="12" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="N54" s="12">
         <v>55.767000000000003</v>
@@ -5497,7 +5529,7 @@
         <v>-6.3620000000000001</v>
       </c>
       <c r="P54" s="12" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="Q54" s="13"/>
     </row>
@@ -5506,7 +5538,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>17</v>
@@ -5515,31 +5547,31 @@
         <v>25</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L55" s="12" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="M55" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N55" s="12">
         <v>57.451999999999998</v>
@@ -5548,7 +5580,7 @@
         <v>-3.3769999999999998</v>
       </c>
       <c r="P55" s="12" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="Q55" s="13">
         <v>57.3</v>
@@ -5559,7 +5591,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>17</v>
@@ -5568,31 +5600,31 @@
         <v>25</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="I56" s="12" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="J56" s="12" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="K56" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L56" s="12" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="M56" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N56" s="12">
         <v>57.533000000000001</v>
@@ -5601,7 +5633,7 @@
         <v>-3.206</v>
       </c>
       <c r="P56" s="12" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="Q56" s="13">
         <v>58.1</v>
@@ -5612,7 +5644,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>184</v>
+        <v>650</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>17</v>
@@ -5621,31 +5653,31 @@
         <v>25</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="J57" s="12" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="K57" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L57" s="12" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="M57" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N57" s="12">
         <v>57.343000000000004</v>
@@ -5654,49 +5686,51 @@
         <v>-3.3380000000000001</v>
       </c>
       <c r="P57" s="12" t="s">
-        <v>440</v>
-      </c>
-      <c r="Q57" s="13"/>
+        <v>435</v>
+      </c>
+      <c r="Q57" s="13">
+        <v>58.3</v>
+      </c>
     </row>
     <row r="58" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A58" s="3">
         <v>56</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="J58" s="12" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="K58" s="12" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="L58" s="12" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="M58" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N58" s="12">
         <v>35.988999999999997</v>
@@ -5705,7 +5739,7 @@
         <v>139.072</v>
       </c>
       <c r="P58" s="12" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="Q58" s="13"/>
     </row>
@@ -5714,40 +5748,40 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="J59" s="12" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="K59" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L59" s="12" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="M59" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N59" s="12">
         <v>58.968000000000004</v>
@@ -5756,7 +5790,7 @@
         <v>-2.956</v>
       </c>
       <c r="P59" s="12" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="Q59" s="13"/>
     </row>
@@ -5765,40 +5799,40 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="J60" s="12" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="K60" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L60" s="12" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M60" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N60" s="12">
         <v>55.640999999999998</v>
@@ -5807,7 +5841,7 @@
         <v>-6.109</v>
       </c>
       <c r="P60" s="12" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="Q60" s="13"/>
     </row>
@@ -5816,7 +5850,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>17</v>
@@ -5825,31 +5859,31 @@
         <v>25</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="I61" s="12" t="s">
         <v>37</v>
       </c>
       <c r="J61" s="12" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="K61" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L61" s="12" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="M61" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N61" s="12">
         <v>57.484999999999999</v>
@@ -5858,7 +5892,7 @@
         <v>-3.2080000000000002</v>
       </c>
       <c r="P61" s="12" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="Q61" s="13">
         <v>40</v>
@@ -5869,7 +5903,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>17</v>
@@ -5878,31 +5912,31 @@
         <v>25</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="J62" s="12" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="K62" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L62" s="12" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="M62" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N62" s="12">
         <v>56.835999999999999</v>
@@ -5911,7 +5945,7 @@
         <v>-5.0739999999999998</v>
       </c>
       <c r="P62" s="12" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="Q62" s="13">
         <v>40</v>
@@ -5922,40 +5956,40 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="I63" s="12" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="J63" s="12" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="K63" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L63" s="12" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="M63" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N63" s="12">
         <v>55.832999999999998</v>
@@ -5964,7 +5998,7 @@
         <v>-5.9509999999999996</v>
       </c>
       <c r="P63" s="12" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="Q63" s="13">
         <v>60.7</v>
@@ -5975,7 +6009,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>17</v>
@@ -5984,31 +6018,31 @@
         <v>25</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="J64" s="12" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="K64" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L64" s="12" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="M64" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N64" s="12">
         <v>56.701999999999998</v>
@@ -6017,7 +6051,7 @@
         <v>-3.702</v>
       </c>
       <c r="P64" s="12" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="Q64" s="13"/>
     </row>
@@ -6026,7 +6060,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>17</v>
@@ -6035,31 +6069,31 @@
         <v>25</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="I65" s="12" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="J65" s="12" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="K65" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L65" s="12" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="M65" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N65" s="12">
         <v>55.424999999999997</v>
@@ -6068,7 +6102,7 @@
         <v>-5.609</v>
       </c>
       <c r="P65" s="12" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="Q65" s="13"/>
     </row>
@@ -6077,7 +6111,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>17</v>
@@ -6089,28 +6123,28 @@
         <v>19</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="J66" s="12" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="K66" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L66" s="12" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="M66" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N66" s="12">
         <v>56.622999999999998</v>
@@ -6119,7 +6153,7 @@
         <v>-6.07</v>
       </c>
       <c r="P66" s="12" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="Q66" s="13"/>
     </row>
@@ -6128,40 +6162,40 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="J67" s="12" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="K67" s="12" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="L67" s="12" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="M67" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N67" s="12">
         <v>35.988999999999997</v>
@@ -6170,7 +6204,7 @@
         <v>139.072</v>
       </c>
       <c r="P67" s="12" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="Q67" s="13">
         <v>48</v>
@@ -6181,7 +6215,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>17</v>
@@ -6190,31 +6224,31 @@
         <v>25</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="I68" s="12" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="J68" s="12" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="K68" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L68" s="12" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="M68" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N68" s="12">
         <v>57.646999999999998</v>
@@ -6223,7 +6257,7 @@
         <v>-3.2930000000000001</v>
       </c>
       <c r="P68" s="12" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="Q68" s="13"/>
     </row>
@@ -6232,7 +6266,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>17</v>
@@ -6244,28 +6278,28 @@
         <v>19</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="I69" s="12" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="J69" s="12" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="K69" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L69" s="12" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="M69" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N69" s="12">
         <v>57.551000000000002</v>
@@ -6274,7 +6308,7 @@
         <v>-4.4340000000000002</v>
       </c>
       <c r="P69" s="12" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="Q69" s="13"/>
     </row>
@@ -6283,40 +6317,40 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="J70" s="12" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="K70" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L70" s="12" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="M70" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N70" s="12">
         <v>55.853999999999999</v>
@@ -6325,7 +6359,7 @@
         <v>-6.1079999999999997</v>
       </c>
       <c r="P70" s="12" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="Q70" s="13">
         <v>43</v>
@@ -6336,7 +6370,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>17</v>
@@ -6345,31 +6379,31 @@
         <v>25</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="J71" s="12" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="K71" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L71" s="12" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="M71" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N71" s="12">
         <v>57.444000000000003</v>
@@ -6378,7 +6412,7 @@
         <v>-3.1280000000000001</v>
       </c>
       <c r="P71" s="12" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="Q71" s="13"/>
     </row>
@@ -6387,40 +6421,40 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="I72" s="12" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="J72" s="12" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="K72" s="12" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="L72" s="12" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="M72" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N72" s="12">
         <v>34.890999999999998</v>
@@ -6429,7 +6463,7 @@
         <v>135.67500000000001</v>
       </c>
       <c r="P72" s="12" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="Q72" s="13"/>
     </row>
@@ -6438,7 +6472,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>17</v>
@@ -6447,31 +6481,31 @@
         <v>25</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="I73" s="12" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="J73" s="12" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="K73" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L73" s="12" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="M73" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N73" s="12">
         <v>58.968000000000004</v>
@@ -6480,7 +6514,7 @@
         <v>-2.956</v>
       </c>
       <c r="P73" s="12" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="Q73" s="13"/>
     </row>
@@ -6489,40 +6523,40 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="I74" s="12" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="J74" s="12" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="K74" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L74" s="12" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="M74" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N74" s="12">
         <v>55.78</v>
@@ -6531,7 +6565,7 @@
         <v>-6.4329999999999998</v>
       </c>
       <c r="P74" s="12" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="Q74" s="13"/>
     </row>
@@ -6540,40 +6574,40 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H75" s="12" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="I75" s="12" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="J75" s="12" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="K75" s="12" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="L75" s="12" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="M75" s="12" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="N75" s="12">
         <v>36.347999999999999</v>
@@ -6582,7 +6616,7 @@
         <v>138.596</v>
       </c>
       <c r="P75" s="12" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="Q75" s="13"/>
     </row>
@@ -6591,40 +6625,40 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="I76" s="12" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="J76" s="12" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="K76" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L76" s="12" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="M76" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N76" s="12">
         <v>55.78</v>
@@ -6633,7 +6667,7 @@
         <v>-6.4329999999999998</v>
       </c>
       <c r="P76" s="12" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="Q76" s="13">
         <v>50</v>
@@ -6644,40 +6678,40 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="I77" s="12" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="J77" s="12" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="K77" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L77" s="12" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="M77" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N77" s="12">
         <v>57.427</v>
@@ -6686,7 +6720,7 @@
         <v>-3.3130000000000002</v>
       </c>
       <c r="P77" s="12" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="Q77" s="13"/>
     </row>
@@ -6695,40 +6729,40 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H78" s="12" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="I78" s="12" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="J78" s="12" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="K78" s="12" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="L78" s="12" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="M78" s="12" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="N78" s="12">
         <v>36.347999999999999</v>
@@ -6737,43 +6771,43 @@
         <v>138.596</v>
       </c>
       <c r="P78" s="12" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="Q78" s="13"/>
     </row>
-    <row r="79" spans="1:17" ht="48" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A79" s="3">
         <v>77</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F79" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="J79" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="G79" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="J79" s="3" t="s">
-        <v>241</v>
-      </c>
       <c r="K79" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L79" s="3">
         <v>2018</v>
@@ -6788,16 +6822,16 @@
         <v>132.334</v>
       </c>
       <c r="P79" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="Q79" s="13"/>
     </row>
-    <row r="80" spans="1:17" ht="99.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:17" ht="99.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A80" s="3">
         <v>78</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>17</v>
@@ -6806,31 +6840,31 @@
         <v>25</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="I80" s="12" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="J80" s="12" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="K80" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L80" s="12" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="M80" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N80" s="12">
         <v>57.52</v>
@@ -6839,7 +6873,7 @@
         <v>-4.0469999999999997</v>
       </c>
       <c r="P80" s="12" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="Q80" s="13"/>
     </row>
@@ -6848,7 +6882,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>17</v>
@@ -6857,31 +6891,31 @@
         <v>25</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="I81" s="12" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="J81" s="12" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="K81" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L81" s="12" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="M81" s="12" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="N81" s="12">
         <v>57.438000000000002</v>
@@ -6890,7 +6924,7 @@
         <v>-3.3460000000000001</v>
       </c>
       <c r="P81" s="12" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="Q81" s="13"/>
     </row>
@@ -6899,40 +6933,40 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="I82" s="12" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="J82" s="12" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="K82" s="12" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="L82" s="12" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="M82" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N82" s="12">
         <v>35.988999999999997</v>
@@ -6941,7 +6975,7 @@
         <v>139.072</v>
       </c>
       <c r="P82" s="12" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="Q82" s="13"/>
     </row>
@@ -6950,40 +6984,40 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="I83" s="12" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="J83" s="12" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="K83" s="12" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="L83" s="12" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="M83" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N83" s="12">
         <v>35.988999999999997</v>
@@ -6992,7 +7026,7 @@
         <v>139.072</v>
       </c>
       <c r="P83" s="12" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="Q83" s="13"/>
     </row>
@@ -7001,40 +7035,40 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="I84" s="12" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="J84" s="12" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="K84" s="12" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="L84" s="12" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="M84" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N84" s="12">
         <v>35.988999999999997</v>
@@ -7043,49 +7077,49 @@
         <v>139.072</v>
       </c>
       <c r="P84" s="12" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="Q84" s="13"/>
     </row>
-    <row r="85" spans="1:17" ht="79.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:17" ht="78.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A85" s="3">
         <v>83</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F85" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="J85" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="G85" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="H85" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="I85" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="J85" s="3" t="s">
-        <v>261</v>
-      </c>
       <c r="K85" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L85" s="3">
         <v>1985</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="N85" s="3">
         <v>35.899000000000001</v>
@@ -7094,37 +7128,37 @@
         <v>137.94200000000001</v>
       </c>
       <c r="P85" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="Q85" s="13"/>
     </row>
-    <row r="86" spans="1:17" ht="48" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A86" s="3">
         <v>84</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="J86" s="3" t="s">
         <v>38</v>
@@ -7145,16 +7179,16 @@
         <v>-3.1179999999999999</v>
       </c>
       <c r="P86" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="Q86" s="13"/>
     </row>
-    <row r="87" spans="1:17" ht="79.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:17" ht="78.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A87" s="3">
         <v>85</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>17</v>
@@ -7163,13 +7197,13 @@
         <v>25</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
@@ -7189,7 +7223,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>17</v>
@@ -7198,31 +7232,31 @@
         <v>25</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="I88" s="12" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="J88" s="12" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="K88" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L88" s="12" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="M88" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N88" s="12">
         <v>57.688000000000002</v>
@@ -7231,43 +7265,43 @@
         <v>-4.1680000000000001</v>
       </c>
       <c r="P88" s="12" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="Q88" s="13"/>
     </row>
-    <row r="89" spans="1:17" ht="48" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A89" s="3">
         <v>87</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L89" s="3">
         <v>2018</v>
@@ -7282,7 +7316,7 @@
         <v>132.334</v>
       </c>
       <c r="P89" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="Q89" s="13"/>
     </row>
@@ -7291,40 +7325,40 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H90" s="12" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="I90" s="12" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="J90" s="12" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="K90" s="12" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="L90" s="12" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="M90" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N90" s="12">
         <v>37.398000000000003</v>
@@ -7333,7 +7367,7 @@
         <v>140.36000000000001</v>
       </c>
       <c r="P90" s="12" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="Q90" s="13"/>
     </row>
@@ -7342,40 +7376,40 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H91" s="12" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="I91" s="12" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="J91" s="12" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="K91" s="12" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="L91" s="12" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="M91" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N91" s="12">
         <v>53.338000000000001</v>
@@ -7384,43 +7418,43 @@
         <v>-6.2779999999999996</v>
       </c>
       <c r="P91" s="12" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="Q91" s="13"/>
     </row>
-    <row r="92" spans="1:17" ht="48" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A92" s="3">
         <v>90</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G92" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="J92" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="H92" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="I92" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J92" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="K92" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L92" s="3">
         <v>2016</v>
@@ -7435,7 +7469,7 @@
         <v>136.26400000000001</v>
       </c>
       <c r="P92" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q92" s="13"/>
     </row>
@@ -7444,7 +7478,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>17</v>
@@ -7453,31 +7487,31 @@
         <v>25</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H93" s="12" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="I93" s="12" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="J93" s="12" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="K93" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L93" s="12" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="M93" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N93" s="12">
         <v>57.253</v>
@@ -7486,7 +7520,7 @@
         <v>-3.3780000000000001</v>
       </c>
       <c r="P93" s="12" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="Q93" s="13"/>
     </row>
@@ -7495,7 +7529,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>17</v>
@@ -7504,31 +7538,31 @@
         <v>25</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="I94" s="12" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="J94" s="12" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="K94" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L94" s="12" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="M94" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N94" s="12">
         <v>57.756</v>
@@ -7537,7 +7571,7 @@
         <v>-4.2229999999999999</v>
       </c>
       <c r="P94" s="12" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="Q94" s="13">
         <v>52.1</v>
@@ -7548,7 +7582,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>17</v>
@@ -7557,31 +7591,31 @@
         <v>25</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="I95" s="12" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="J95" s="12" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="K95" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L95" s="12" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="M95" s="12" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="N95" s="12">
         <v>57.453000000000003</v>
@@ -7590,7 +7624,7 @@
         <v>-3.1160000000000001</v>
       </c>
       <c r="P95" s="12" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="Q95" s="13">
         <v>51.4</v>
@@ -7601,7 +7635,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>17</v>
@@ -7613,28 +7647,28 @@
         <v>28</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H96" s="12" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="I96" s="12" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="J96" s="12" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="K96" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L96" s="12" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M96" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N96" s="12">
         <v>55.640999999999998</v>
@@ -7643,7 +7677,7 @@
         <v>-6.109</v>
       </c>
       <c r="P96" s="12" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="Q96" s="13"/>
     </row>
@@ -7652,7 +7686,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>17</v>
@@ -7664,28 +7698,28 @@
         <v>19</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H97" s="12" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="I97" s="12" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="J97" s="12" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="K97" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L97" s="12" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="M97" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N97" s="12">
         <v>57.826000000000001</v>
@@ -7694,18 +7728,18 @@
         <v>-4.0789999999999997</v>
       </c>
       <c r="P97" s="12" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="Q97" s="13">
         <v>43</v>
       </c>
     </row>
-    <row r="98" spans="1:17" ht="99.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:17" ht="99.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A98" s="3">
         <v>96</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>17</v>
@@ -7714,31 +7748,31 @@
         <v>25</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H98" s="12" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="I98" s="12" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="J98" s="12" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="K98" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L98" s="12" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="M98" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N98" s="12">
         <v>57.52</v>
@@ -7747,7 +7781,7 @@
         <v>-4.0469999999999997</v>
       </c>
       <c r="P98" s="12" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="Q98" s="13">
         <v>58.1</v>
@@ -7758,7 +7792,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>17</v>
@@ -7767,31 +7801,31 @@
         <v>25</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H99" s="12" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="I99" s="12" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="J99" s="12" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="K99" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L99" s="12" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="M99" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N99" s="12">
         <v>57.451999999999998</v>
@@ -7800,7 +7834,7 @@
         <v>-3.3769999999999998</v>
       </c>
       <c r="P99" s="12" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="Q99" s="13"/>
     </row>
@@ -7809,7 +7843,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>17</v>
@@ -7821,28 +7855,28 @@
         <v>19</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H100" s="12" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="I100" s="12" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="J100" s="12" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="K100" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L100" s="12" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="M100" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N100" s="12">
         <v>57.826000000000001</v>
@@ -7851,7 +7885,7 @@
         <v>-4.0789999999999997</v>
       </c>
       <c r="P100" s="12" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="Q100" s="13"/>
     </row>
@@ -7860,34 +7894,34 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="G101" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="H101" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="C101" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E101" s="3" t="s">
+      <c r="I101" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="F101" s="3" t="s">
+      <c r="J101" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="G101" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>309</v>
-      </c>
       <c r="K101" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L101" s="3">
         <v>2018</v>
@@ -7902,7 +7936,7 @@
         <v>139.90799999999999</v>
       </c>
       <c r="P101" s="3" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="Q101" s="13"/>
     </row>
@@ -7911,40 +7945,40 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H102" s="12" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="I102" s="12" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="J102" s="12" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="K102" s="12" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="L102" s="12" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="M102" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N102" s="12">
         <v>34.652999999999999</v>
@@ -7953,7 +7987,7 @@
         <v>134.989</v>
       </c>
       <c r="P102" s="12" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="Q102" s="13">
         <v>50</v>
@@ -7964,40 +7998,40 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H103" s="12" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="I103" s="12" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="J103" s="12" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="K103" s="12" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="L103" s="12" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="M103" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N103" s="12">
         <v>34.890999999999998</v>
@@ -8006,7 +8040,7 @@
         <v>135.67500000000001</v>
       </c>
       <c r="P103" s="12" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="Q103" s="13"/>
     </row>
@@ -8015,40 +8049,40 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H104" s="12" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="I104" s="12" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="J104" s="12" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="K104" s="12" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="L104" s="12" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="M104" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N104" s="12">
         <v>35.988999999999997</v>
@@ -8057,7 +8091,7 @@
         <v>139.072</v>
       </c>
       <c r="P104" s="12" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="Q104" s="13"/>
     </row>
@@ -8066,40 +8100,40 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>319</v>
+        <v>654</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L105" s="3">
         <v>1985</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="N105" s="3">
         <v>35.899000000000001</v>
@@ -8108,49 +8142,51 @@
         <v>137.94200000000001</v>
       </c>
       <c r="P105" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q105" s="13"/>
+        <v>259</v>
+      </c>
+      <c r="Q105" s="13">
+        <v>48</v>
+      </c>
     </row>
     <row r="106" spans="1:17" ht="78.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A106" s="3">
         <v>104</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L106" s="3">
         <v>1985</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="N106" s="3">
         <v>35.899000000000001</v>
@@ -8159,7 +8195,7 @@
         <v>137.94200000000001</v>
       </c>
       <c r="P106" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="Q106" s="13"/>
     </row>
@@ -8168,40 +8204,40 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H107" s="12" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="I107" s="12" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="J107" s="12" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="K107" s="12" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="L107" s="12" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="M107" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N107" s="12">
         <v>36.637999999999998</v>
@@ -8210,7 +8246,7 @@
         <v>136.964</v>
       </c>
       <c r="P107" s="12" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="Q107" s="13"/>
     </row>
@@ -8219,7 +8255,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>17</v>
@@ -8231,28 +8267,28 @@
         <v>19</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H108" s="12" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="I108" s="12" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="J108" s="12" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="K108" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L108" s="12" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="M108" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N108" s="12">
         <v>56.94</v>
@@ -8261,7 +8297,7 @@
         <v>-4.2370000000000001</v>
       </c>
       <c r="P108" s="12" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="Q108" s="13"/>
     </row>
@@ -8270,40 +8306,40 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H109" s="12" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="I109" s="12" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="J109" s="12" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="K109" s="12" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="L109" s="12" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="M109" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N109" s="12">
         <v>43.052</v>
@@ -8312,7 +8348,7 @@
         <v>144.84299999999999</v>
       </c>
       <c r="P109" s="12" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="Q109" s="13"/>
     </row>
@@ -8321,34 +8357,34 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L110" s="3">
         <v>2018</v>
@@ -8363,7 +8399,7 @@
         <v>132.334</v>
       </c>
       <c r="P110" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="Q110" s="13"/>
     </row>
@@ -8371,18 +8407,11 @@
   <autoFilter ref="A1:P110" xr:uid="{D4F60670-F158-4C9B-93E8-D52D53F4A8E3}">
     <filterColumn colId="7">
       <filters>
-        <filter val="ロイヤルブラックラ蒸溜所"/>
+        <filter val="ボウモア蒸溜所"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="16">
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="B13:B14"/>
     <mergeCell ref="N13:N14"/>
     <mergeCell ref="O13:O14"/>
     <mergeCell ref="P13:P14"/>
@@ -8392,6 +8421,13 @@
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="L13:L14"/>
     <mergeCell ref="M13:M14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="B13:B14"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8422,16 +8458,16 @@
   <sheetData>
     <row r="1" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>11</v>
@@ -8446,7 +8482,7 @@
         <v>14</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -8457,16 +8493,16 @@
         <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G2" s="5">
         <v>57.302</v>
@@ -8475,7 +8511,7 @@
         <v>-6.3559999999999999</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -8486,16 +8522,16 @@
         <v>32</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>349</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>354</v>
       </c>
       <c r="G3" s="5">
         <v>55.63</v>
@@ -8504,27 +8540,27 @@
         <v>-6.1929999999999996</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G4" s="5">
         <v>57.484999999999999</v>
@@ -8533,27 +8569,27 @@
         <v>-3.2080000000000002</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G5" s="5">
         <v>55.756</v>
@@ -8562,27 +8598,27 @@
         <v>-6.2889999999999997</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G6" s="5">
         <v>55.991</v>
@@ -8591,27 +8627,27 @@
         <v>-3.827</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G7" s="5">
         <v>55.424999999999997</v>
@@ -8620,27 +8656,27 @@
         <v>-5.609</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G8" s="5">
         <v>55.878</v>
@@ -8649,27 +8685,27 @@
         <v>-6.125</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G9" s="5">
         <v>56.624000000000002</v>
@@ -8678,27 +8714,27 @@
         <v>-3.85</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G10" s="5">
         <v>55.640999999999998</v>
@@ -8707,27 +8743,27 @@
         <v>-6.109</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G11" s="5">
         <v>58.968000000000004</v>
@@ -8736,27 +8772,27 @@
         <v>-2.956</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G12" s="5">
         <v>37.398000000000003</v>
@@ -8765,27 +8801,27 @@
         <v>140.36000000000001</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G13" s="5">
         <v>57.451999999999998</v>
@@ -8794,27 +8830,27 @@
         <v>-3.3769999999999998</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G14" s="5">
         <v>56.835999999999999</v>
@@ -8823,27 +8859,27 @@
         <v>-5.0739999999999998</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G15" s="5">
         <v>57.545999999999999</v>
@@ -8852,27 +8888,27 @@
         <v>-3.048</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G16" s="5">
         <v>57.444000000000003</v>
@@ -8881,27 +8917,27 @@
         <v>-3.1280000000000001</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G17" s="5">
         <v>56.704000000000001</v>
@@ -8910,27 +8946,27 @@
         <v>-3.7330000000000001</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G18" s="5">
         <v>55.853999999999999</v>
@@ -8939,27 +8975,27 @@
         <v>-6.1079999999999997</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G19" s="5">
         <v>56.847000000000001</v>
@@ -8968,27 +9004,27 @@
         <v>-2.5880000000000001</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G20" s="5">
         <v>57.427</v>
@@ -8997,27 +9033,27 @@
         <v>-3.3130000000000002</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G21" s="5">
         <v>57.646999999999998</v>
@@ -9026,27 +9062,27 @@
         <v>-3.2930000000000001</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G22" s="5">
         <v>55.78</v>
@@ -9055,27 +9091,27 @@
         <v>-6.4329999999999998</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G23" s="5">
         <v>57.533000000000001</v>
@@ -9084,27 +9120,27 @@
         <v>-3.206</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G24" s="5">
         <v>57.343000000000004</v>
@@ -9113,27 +9149,27 @@
         <v>-3.3380000000000001</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G25" s="5">
         <v>34.890999999999998</v>
@@ -9142,27 +9178,27 @@
         <v>135.67500000000001</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G26" s="5">
         <v>35.988999999999997</v>
@@ -9171,27 +9207,27 @@
         <v>139.072</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G27" s="5">
         <v>35.773000000000003</v>
@@ -9200,27 +9236,27 @@
         <v>137.93700000000001</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G28" s="5">
         <v>35.380000000000003</v>
@@ -9229,27 +9265,27 @@
         <v>136.274</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G29" s="5">
         <v>36.637999999999998</v>
@@ -9258,27 +9294,27 @@
         <v>136.964</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G30" s="5">
         <v>53.338000000000001</v>
@@ -9287,27 +9323,27 @@
         <v>-6.2779999999999996</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G31" s="5">
         <v>63.040999999999997</v>
@@ -9316,27 +9352,27 @@
         <v>17.739000000000001</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G32" s="5">
         <v>57.649000000000001</v>
@@ -9345,27 +9381,27 @@
         <v>-3.64</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="G33" s="5">
         <v>36.347999999999999</v>
@@ -9374,27 +9410,27 @@
         <v>138.596</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="147.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G34" s="5">
         <v>56.94</v>
@@ -9403,27 +9439,27 @@
         <v>-4.2370000000000001</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G35" s="5">
         <v>43.052</v>
@@ -9432,27 +9468,27 @@
         <v>144.84299999999999</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G36" s="5">
         <v>55.640999999999998</v>
@@ -9461,27 +9497,27 @@
         <v>-6.109</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G37" s="5">
         <v>58.968000000000004</v>
@@ -9490,27 +9526,27 @@
         <v>-2.956</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G38" s="5">
         <v>57.484999999999999</v>
@@ -9519,27 +9555,27 @@
         <v>-3.2080000000000002</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G39" s="5">
         <v>53.338000000000001</v>
@@ -9548,27 +9584,27 @@
         <v>-6.2779999999999996</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G40" s="5">
         <v>31.454000000000001</v>
@@ -9577,27 +9613,27 @@
         <v>130.46100000000001</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G41" s="5">
         <v>35.823999999999998</v>
@@ -9606,27 +9642,27 @@
         <v>138.43600000000001</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G42" s="5">
         <v>43.177999999999997</v>
@@ -9635,27 +9671,27 @@
         <v>140.76599999999999</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G43" s="5">
         <v>38.445999999999998</v>
@@ -9664,27 +9700,27 @@
         <v>140.88300000000001</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G44" s="5">
         <v>36.320999999999998</v>
@@ -9693,27 +9729,27 @@
         <v>138.44999999999999</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G45" s="5">
         <v>35.768999999999998</v>
@@ -9722,27 +9758,27 @@
         <v>139.125</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G46" s="5">
         <v>35.302999999999997</v>
@@ -9751,27 +9787,27 @@
         <v>138.95400000000001</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G47" s="5">
         <v>35.036999999999999</v>
@@ -9780,27 +9816,27 @@
         <v>136.82900000000001</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G48" s="5">
         <v>38.445999999999998</v>
@@ -9809,27 +9845,27 @@
         <v>140.88300000000001</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G49" s="5">
         <v>34.652999999999999</v>
@@ -9838,27 +9874,27 @@
         <v>134.989</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G50" s="5">
         <v>35.773000000000003</v>
@@ -9867,27 +9903,27 @@
         <v>137.93700000000001</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G51" s="5">
         <v>31.672999999999998</v>
@@ -9896,7 +9932,7 @@
         <v>130.279</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -9906,20 +9942,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6ff6e2ba-ab06-4ac9-b2c7-449843b7cb08" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6ff6e2ba-ab06-4ac9-b2c7-449843b7cb08" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10105,6 +10141,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B963C0D-E7E9-44EF-8AEB-EF3D573F3F67}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{987E6F6F-1448-40F2-A1EC-D5FD1FE7DC5E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="6ff6e2ba-ab06-4ac9-b2c7-449843b7cb08"/>
@@ -10116,14 +10160,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B963C0D-E7E9-44EF-8AEB-EF3D573F3F67}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/whisky_database.xlsx
+++ b/whisky_database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\新藤駿介(ShindoShunsuke)\Documents\GitHub\whisky-sommelier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB121F0-BE85-432A-A8B3-A0E529B3028A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D3D904-820E-4289-8E45-CAFD108A5C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{A2419164-9416-4CEB-A64A-CE2C95D250D1}"/>
   </bookViews>
@@ -328,9 +328,6 @@
     <t>HIGH</t>
   </si>
   <si>
-    <t>Benromach 2009-2021 223瓶限定</t>
-  </si>
-  <si>
     <t>2009年蒸留、2021年にボトリングされた限定223本のベンロマック。穏やかなスモークと豊かな果実味、バニラ、控えめなスパイスの特徴的なベンロマックの個性を持つ。口当たりは甘いモルト、キャラメル、リンゴ、シナモンに、12年の熟成によるチョコレートとオークの影響が感じられる。</t>
   </si>
   <si>
@@ -880,9 +877,6 @@
     <t>長浜蒸留所の若いシングルモルトで、青りんごと洋梨の鮮やかな果実味に、バニラと軽いオークのニュアンスが感じられます。口当たりは穏やかな麦芽の甘さとかすかなスパイス、柑橘類の皮の風味がバランスよく広がります。クリーンな余韻にはハチミツと軽い花の香りが残ります。</t>
   </si>
   <si>
-    <t>TOMINTOUL16年 1999 19年</t>
-  </si>
-  <si>
     <t>バニラ、ハチミツ、果樹園のフルーツの風味を持つ穏やかなスペイサイドモルト。19年の熟成により、微妙なオークスパイス、ローストナッツ、モルトのヒントが深みを増します。スムースでエレガントな味わいで、スイートバーレーと軽いスパイスが特徴の中程度の長さのフィニッシュ。</t>
   </si>
   <si>
@@ -920,9 +914,6 @@
   </si>
   <si>
     <t>ロイヤルブラックラ13年（2009-2022）は、ハチミツを纏った果樹園のフルーツ、バニラカスタード、そして穏やかな樽のスパイスの洗練された風味を提供します。口当たりは焼きリンゴ、洋ナシ、柑橘類の皮の層がキャラメル、シナモン、ナツメグのヒントとバランスよく調和しています。エレガントな麦芽の甘さと繊細な樽の余韻で締めくくられます。</t>
-  </si>
-  <si>
-    <t>DAILUAINE RUM10年2012-2022</t>
   </si>
   <si>
     <t>Single Malt   (Rum Cask Finish)</t>
@@ -2257,6 +2248,21 @@
   </si>
   <si>
     <t>ボウモア　26年　ダンカンテイラー</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>TOMINTOUL 1999 19年(GLENLIVET)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Benromach 2009-2021 信濃屋223瓶限定</t>
+    <rPh sb="20" eb="23">
+      <t>シナノヤ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>DAILUAINE JAMAICAN RUM10年2012-2022</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -2451,10 +2457,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2797,9 +2803,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Q110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F132" sqref="F132"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q112" sqref="Q112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2873,7 +2879,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -2905,16 +2911,16 @@
         <v>23</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N2" s="12">
         <v>57.302</v>
@@ -2923,7 +2929,7 @@
         <v>-6.3559999999999999</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="Q2" s="13"/>
     </row>
@@ -2956,16 +2962,16 @@
         <v>32</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="N3" s="12">
         <v>55.63</v>
@@ -2974,7 +2980,7 @@
         <v>-6.1929999999999996</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="Q3" s="13"/>
     </row>
@@ -3001,22 +3007,22 @@
         <v>35</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>37</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N4" s="12">
         <v>57.484999999999999</v>
@@ -3025,16 +3031,16 @@
         <v>-3.2080000000000002</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="Q4" s="13"/>
     </row>
-    <row r="5" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>17</v>
@@ -3052,22 +3058,22 @@
         <v>42</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N5" s="12">
         <v>55.756</v>
@@ -3076,7 +3082,7 @@
         <v>-6.2889999999999997</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="Q5" s="13">
         <v>50.2</v>
@@ -3105,22 +3111,22 @@
         <v>46</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="I6" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="M6" s="12" t="s">
         <v>358</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>361</v>
       </c>
       <c r="N6" s="12">
         <v>55.991</v>
@@ -3129,7 +3135,7 @@
         <v>-3.827</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="Q6" s="13"/>
     </row>
@@ -3189,22 +3195,22 @@
         <v>55</v>
       </c>
       <c r="H8" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="L8" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="I8" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>366</v>
-      </c>
       <c r="M8" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N8" s="12">
         <v>55.424999999999997</v>
@@ -3213,7 +3219,7 @@
         <v>-5.609</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="Q8" s="13"/>
     </row>
@@ -3240,22 +3246,22 @@
         <v>58</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N9" s="12">
         <v>55.878</v>
@@ -3264,7 +3270,7 @@
         <v>-6.125</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="Q9" s="13">
         <v>40</v>
@@ -3293,22 +3299,22 @@
         <v>59</v>
       </c>
       <c r="H10" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="L10" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="I10" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>375</v>
-      </c>
       <c r="M10" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N10" s="12">
         <v>56.624000000000002</v>
@@ -3317,7 +3323,7 @@
         <v>-3.85</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="Q10" s="13"/>
     </row>
@@ -3344,22 +3350,22 @@
         <v>64</v>
       </c>
       <c r="H11" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="L11" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="I11" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>380</v>
-      </c>
       <c r="M11" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N11" s="12">
         <v>55.640999999999998</v>
@@ -3368,7 +3374,7 @@
         <v>-6.109</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="Q11" s="13"/>
     </row>
@@ -3395,22 +3401,22 @@
         <v>65</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N12" s="12">
         <v>58.968000000000004</v>
@@ -3419,78 +3425,78 @@
         <v>-2.956</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="Q12" s="13"/>
     </row>
     <row r="13" spans="1:17" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="15">
+      <c r="A13" s="14">
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="15" t="s">
+      <c r="C13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="15" t="s">
-        <v>651</v>
-      </c>
-      <c r="G13" s="14" t="s">
+      <c r="F13" s="14" t="s">
+        <v>648</v>
+      </c>
+      <c r="G13" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="J13" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="L13" s="15">
+      <c r="L13" s="14">
         <v>1830</v>
       </c>
-      <c r="M13" s="15" t="s">
+      <c r="M13" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="N13" s="15">
+      <c r="N13" s="14">
         <v>57.302</v>
       </c>
-      <c r="O13" s="15">
+      <c r="O13" s="14">
         <v>-6.3559999999999999</v>
       </c>
-      <c r="P13" s="15" t="s">
-        <v>338</v>
+      <c r="P13" s="14" t="s">
+        <v>335</v>
       </c>
       <c r="Q13" s="13"/>
     </row>
     <row r="14" spans="1:17" ht="48.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="15"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
       <c r="Q14" s="13"/>
     </row>
     <row r="15" spans="1:17" ht="79.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -3516,22 +3522,22 @@
         <v>71</v>
       </c>
       <c r="H15" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="L15" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="I15" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>380</v>
-      </c>
       <c r="M15" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N15" s="12">
         <v>55.640999999999998</v>
@@ -3540,7 +3546,7 @@
         <v>-6.109</v>
       </c>
       <c r="P15" s="12" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="Q15" s="13"/>
     </row>
@@ -3567,22 +3573,22 @@
         <v>76</v>
       </c>
       <c r="H16" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="K16" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="L16" s="12" t="s">
         <v>387</v>
       </c>
-      <c r="J16" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>390</v>
-      </c>
       <c r="M16" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N16" s="12">
         <v>37.398000000000003</v>
@@ -3591,7 +3597,7 @@
         <v>140.36000000000001</v>
       </c>
       <c r="P16" s="12" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="Q16" s="13"/>
     </row>
@@ -3618,22 +3624,22 @@
         <v>77</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N17" s="12">
         <v>58.968000000000004</v>
@@ -3642,7 +3648,7 @@
         <v>-2.956</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="Q17" s="13"/>
     </row>
@@ -3651,7 +3657,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>17</v>
@@ -3663,28 +3669,28 @@
         <v>19</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="I18" s="12" t="s">
         <v>37</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N18" s="12">
         <v>57.484999999999999</v>
@@ -3693,13 +3699,13 @@
         <v>-3.2080000000000002</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="Q18" s="13">
         <v>48.1</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -3722,22 +3728,22 @@
         <v>79</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N19" s="12">
         <v>57.451999999999998</v>
@@ -3746,11 +3752,11 @@
         <v>-3.3769999999999998</v>
       </c>
       <c r="P19" s="12" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="Q19" s="13"/>
     </row>
-    <row r="20" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -3773,22 +3779,22 @@
         <v>81</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N20" s="12">
         <v>57.451999999999998</v>
@@ -3797,7 +3803,7 @@
         <v>-3.3769999999999998</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="Q20" s="13"/>
     </row>
@@ -3875,22 +3881,22 @@
         <v>89</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N22" s="12">
         <v>56.835999999999999</v>
@@ -3899,7 +3905,7 @@
         <v>-5.0739999999999998</v>
       </c>
       <c r="P22" s="12" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="Q22" s="13"/>
     </row>
@@ -3926,22 +3932,22 @@
         <v>90</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N23" s="12">
         <v>58.968000000000004</v>
@@ -3950,7 +3956,7 @@
         <v>-2.956</v>
       </c>
       <c r="P23" s="12" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="Q23" s="13"/>
     </row>
@@ -3959,7 +3965,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>17</v>
@@ -3971,28 +3977,28 @@
         <v>93</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>94</v>
       </c>
       <c r="H24" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="K24" s="12" t="s">
         <v>463</v>
       </c>
-      <c r="I24" s="12" t="s">
+      <c r="L24" s="12" t="s">
         <v>464</v>
       </c>
-      <c r="J24" s="12" t="s">
-        <v>551</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="L24" s="12" t="s">
-        <v>467</v>
-      </c>
       <c r="M24" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N24" s="12">
         <v>63.002000000000002</v>
@@ -4001,7 +4007,7 @@
         <v>17.798999999999999</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="Q24" s="13">
         <v>64.900000000000006</v>
@@ -4012,7 +4018,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>95</v>
+        <v>657</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>17</v>
@@ -4024,28 +4030,28 @@
         <v>82</v>
       </c>
       <c r="F25" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="G25" s="8" t="s">
-        <v>97</v>
-      </c>
       <c r="H25" s="12" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N25" s="12">
         <v>57.649000000000001</v>
@@ -4054,16 +4060,18 @@
         <v>-3.64</v>
       </c>
       <c r="P25" s="12" t="s">
-        <v>471</v>
-      </c>
-      <c r="Q25" s="13"/>
+        <v>468</v>
+      </c>
+      <c r="Q25" s="13">
+        <v>58.7</v>
+      </c>
     </row>
     <row r="26" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="3">
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>17</v>
@@ -4075,28 +4083,28 @@
         <v>19</v>
       </c>
       <c r="F26" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="G26" s="8" t="s">
-        <v>100</v>
-      </c>
       <c r="H26" s="12" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="M26" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N26" s="12">
         <v>55.78</v>
@@ -4105,7 +4113,7 @@
         <v>-6.4329999999999998</v>
       </c>
       <c r="P26" s="12" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="Q26" s="13"/>
     </row>
@@ -4114,7 +4122,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>17</v>
@@ -4126,19 +4134,19 @@
         <v>74</v>
       </c>
       <c r="F27" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G27" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="H27" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="I27" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="J27" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>48</v>
@@ -4156,7 +4164,7 @@
         <v>136.26400000000001</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q27" s="13"/>
     </row>
@@ -4165,7 +4173,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>17</v>
@@ -4177,28 +4185,28 @@
         <v>82</v>
       </c>
       <c r="F28" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="G28" s="8" t="s">
-        <v>110</v>
-      </c>
       <c r="H28" s="12" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N28" s="12">
         <v>57.444000000000003</v>
@@ -4207,7 +4215,7 @@
         <v>-3.1280000000000001</v>
       </c>
       <c r="P28" s="12" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="Q28" s="13"/>
     </row>
@@ -4216,7 +4224,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>17</v>
@@ -4228,28 +4236,28 @@
         <v>82</v>
       </c>
       <c r="F29" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G29" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="G29" s="8" t="s">
-        <v>113</v>
-      </c>
       <c r="H29" s="12" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="M29" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N29" s="12">
         <v>57.444000000000003</v>
@@ -4258,7 +4266,7 @@
         <v>-3.1280000000000001</v>
       </c>
       <c r="P29" s="12" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="Q29" s="13"/>
     </row>
@@ -4267,7 +4275,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>17</v>
@@ -4279,28 +4287,28 @@
         <v>82</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N30" s="12">
         <v>57.545999999999999</v>
@@ -4309,7 +4317,7 @@
         <v>-3.048</v>
       </c>
       <c r="P30" s="12" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="Q30" s="13"/>
     </row>
@@ -4318,7 +4326,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>17</v>
@@ -4330,28 +4338,28 @@
         <v>19</v>
       </c>
       <c r="F31" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G31" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="G31" s="8" t="s">
-        <v>117</v>
-      </c>
       <c r="H31" s="12" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="I31" s="12" t="s">
         <v>37</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M31" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N31" s="12">
         <v>57.484999999999999</v>
@@ -4360,7 +4368,7 @@
         <v>-3.2080000000000002</v>
       </c>
       <c r="P31" s="12" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="Q31" s="13"/>
     </row>
@@ -4369,40 +4377,40 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D32" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="F32" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="G32" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>120</v>
-      </c>
       <c r="H32" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="K32" s="12" t="s">
         <v>457</v>
       </c>
-      <c r="I32" s="12" t="s">
+      <c r="L32" s="12" t="s">
         <v>458</v>
       </c>
-      <c r="J32" s="12" t="s">
-        <v>459</v>
-      </c>
-      <c r="K32" s="12" t="s">
-        <v>460</v>
-      </c>
-      <c r="L32" s="12" t="s">
-        <v>461</v>
-      </c>
       <c r="M32" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N32" s="12">
         <v>53.338000000000001</v>
@@ -4411,7 +4419,7 @@
         <v>-6.2779999999999996</v>
       </c>
       <c r="P32" s="12" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="Q32" s="13">
         <v>62.5</v>
@@ -4422,40 +4430,40 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E33" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="G33" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="L33" s="12" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="M33" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N33" s="12">
         <v>53.338000000000001</v>
@@ -4464,7 +4472,7 @@
         <v>-6.2779999999999996</v>
       </c>
       <c r="P33" s="12" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="Q33" s="13"/>
     </row>
@@ -4473,7 +4481,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>17</v>
@@ -4482,31 +4490,31 @@
         <v>25</v>
       </c>
       <c r="E34" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="G34" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="G34" s="8" t="s">
-        <v>127</v>
-      </c>
       <c r="H34" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="L34" s="12" t="s">
         <v>553</v>
       </c>
-      <c r="I34" s="12" t="s">
-        <v>554</v>
-      </c>
-      <c r="J34" s="12" t="s">
-        <v>555</v>
-      </c>
-      <c r="K34" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="L34" s="12" t="s">
-        <v>556</v>
-      </c>
       <c r="M34" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N34" s="12">
         <v>58.023000000000003</v>
@@ -4515,7 +4523,7 @@
         <v>-3.867</v>
       </c>
       <c r="P34" s="12" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="Q34" s="13"/>
     </row>
@@ -4524,7 +4532,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>17</v>
@@ -4533,31 +4541,31 @@
         <v>25</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F35" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G35" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="G35" s="8" t="s">
-        <v>130</v>
-      </c>
       <c r="H35" s="12" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L35" s="12" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="M35" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N35" s="12">
         <v>57.337000000000003</v>
@@ -4566,7 +4574,7 @@
         <v>-2.3149999999999999</v>
       </c>
       <c r="P35" s="12" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="Q35" s="13"/>
     </row>
@@ -4575,7 +4583,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>17</v>
@@ -4587,28 +4595,28 @@
         <v>60</v>
       </c>
       <c r="F36" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G36" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="G36" s="8" t="s">
-        <v>133</v>
-      </c>
       <c r="H36" s="12" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L36" s="12" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="M36" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N36" s="12">
         <v>57.337000000000003</v>
@@ -4617,7 +4625,7 @@
         <v>-2.3149999999999999</v>
       </c>
       <c r="P36" s="12" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="Q36" s="13"/>
     </row>
@@ -4626,7 +4634,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>17</v>
@@ -4638,28 +4646,28 @@
         <v>60</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L37" s="12" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="M37" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N37" s="12">
         <v>56.704000000000001</v>
@@ -4668,18 +4676,18 @@
         <v>-3.7330000000000001</v>
       </c>
       <c r="P37" s="12" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="Q37" s="13">
         <v>55.5</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:17" ht="84.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="3">
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>17</v>
@@ -4691,28 +4699,28 @@
         <v>19</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L38" s="12" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="M38" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N38" s="12">
         <v>55.756</v>
@@ -4721,18 +4729,18 @@
         <v>-6.2889999999999997</v>
       </c>
       <c r="P38" s="12" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="Q38" s="13">
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="79.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:17" ht="79.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="3">
         <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>17</v>
@@ -4741,31 +4749,31 @@
         <v>40</v>
       </c>
       <c r="E39" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="G39" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>139</v>
-      </c>
       <c r="H39" s="12" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L39" s="12" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="M39" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N39" s="12">
         <v>55.756</v>
@@ -4774,7 +4782,7 @@
         <v>-6.2889999999999997</v>
       </c>
       <c r="P39" s="12" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="Q39" s="13"/>
     </row>
@@ -4783,7 +4791,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>17</v>
@@ -4795,28 +4803,28 @@
         <v>74</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H40" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="K40" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="L40" s="12" t="s">
         <v>472</v>
       </c>
-      <c r="I40" s="12" t="s">
+      <c r="M40" s="12" t="s">
         <v>473</v>
-      </c>
-      <c r="J40" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="K40" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="L40" s="12" t="s">
-        <v>475</v>
-      </c>
-      <c r="M40" s="12" t="s">
-        <v>476</v>
       </c>
       <c r="N40" s="12">
         <v>36.347999999999999</v>
@@ -4825,7 +4833,7 @@
         <v>138.596</v>
       </c>
       <c r="P40" s="12" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="Q40" s="13"/>
     </row>
@@ -4834,7 +4842,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>17</v>
@@ -4846,28 +4854,28 @@
         <v>28</v>
       </c>
       <c r="F41" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G41" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="G41" s="8" t="s">
-        <v>143</v>
-      </c>
       <c r="H41" s="12" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L41" s="12" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="M41" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N41" s="12">
         <v>55.853999999999999</v>
@@ -4876,7 +4884,7 @@
         <v>-6.1079999999999997</v>
       </c>
       <c r="P41" s="12" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="Q41" s="13">
         <v>54.1</v>
@@ -4887,7 +4895,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>17</v>
@@ -4896,31 +4904,31 @@
         <v>25</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L42" s="12" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M42" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N42" s="12">
         <v>56.847000000000001</v>
@@ -4929,7 +4937,7 @@
         <v>-2.5880000000000001</v>
       </c>
       <c r="P42" s="12" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="Q42" s="13"/>
     </row>
@@ -4938,7 +4946,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>17</v>
@@ -4950,28 +4958,28 @@
         <v>82</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L43" s="12" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="M43" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N43" s="12">
         <v>57.427</v>
@@ -4980,18 +4988,18 @@
         <v>-3.3130000000000002</v>
       </c>
       <c r="P43" s="12" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="Q43" s="13">
         <v>58.7</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="78.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:17" ht="79.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="3">
         <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>17</v>
@@ -5000,13 +5008,13 @@
         <v>48</v>
       </c>
       <c r="E44" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="G44" s="8" t="s">
         <v>148</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>149</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -5024,7 +5032,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>17</v>
@@ -5036,28 +5044,28 @@
         <v>82</v>
       </c>
       <c r="F45" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G45" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="G45" s="8" t="s">
-        <v>152</v>
-      </c>
       <c r="H45" s="12" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L45" s="12" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="M45" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N45" s="12">
         <v>57.646999999999998</v>
@@ -5066,7 +5074,7 @@
         <v>-3.2930000000000001</v>
       </c>
       <c r="P45" s="12" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="Q45" s="13"/>
     </row>
@@ -5075,7 +5083,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>17</v>
@@ -5087,28 +5095,28 @@
         <v>28</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="I46" s="12" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="K46" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L46" s="12" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="M46" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N46" s="12">
         <v>55.78</v>
@@ -5117,18 +5125,18 @@
         <v>-6.4329999999999998</v>
       </c>
       <c r="P46" s="12" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="Q46" s="13">
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:17" ht="48" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A47" s="3">
         <v>45</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>17</v>
@@ -5140,19 +5148,19 @@
         <v>19</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G47" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="H47" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="I47" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="J47" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>48</v>
@@ -5170,7 +5178,7 @@
         <v>130.32300000000001</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q47" s="13"/>
     </row>
@@ -5179,7 +5187,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>17</v>
@@ -5191,28 +5199,28 @@
         <v>28</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="J48" s="12" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L48" s="12" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="M48" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N48" s="12">
         <v>55.78</v>
@@ -5221,7 +5229,7 @@
         <v>-6.4329999999999998</v>
       </c>
       <c r="P48" s="12" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="Q48" s="13">
         <v>55.7</v>
@@ -5232,7 +5240,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>17</v>
@@ -5241,31 +5249,31 @@
         <v>25</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F49" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G49" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="G49" s="8" t="s">
-        <v>162</v>
-      </c>
       <c r="H49" s="12" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L49" s="12" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M49" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N49" s="12">
         <v>56.847000000000001</v>
@@ -5274,7 +5282,7 @@
         <v>-2.5880000000000001</v>
       </c>
       <c r="P49" s="12" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="Q49" s="13"/>
     </row>
@@ -5283,7 +5291,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>17</v>
@@ -5295,28 +5303,28 @@
         <v>19</v>
       </c>
       <c r="F50" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G50" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="G50" s="8" t="s">
-        <v>165</v>
-      </c>
       <c r="H50" s="12" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="I50" s="12" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="J50" s="12" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L50" s="12" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="M50" s="12" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="N50" s="12">
         <v>57.683999999999997</v>
@@ -5325,16 +5333,16 @@
         <v>-2.5649999999999999</v>
       </c>
       <c r="P50" s="12" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="Q50" s="13"/>
     </row>
-    <row r="51" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:17" ht="48" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A51" s="3">
         <v>49</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>17</v>
@@ -5343,22 +5351,22 @@
         <v>48</v>
       </c>
       <c r="E51" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F51" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>168</v>
-      </c>
       <c r="G51" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H51" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="I51" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="I51" s="3" t="s">
+      <c r="J51" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="K51" s="3" t="s">
         <v>48</v>
@@ -5376,7 +5384,7 @@
         <v>136.26400000000001</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q51" s="13"/>
     </row>
@@ -5385,7 +5393,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>17</v>
@@ -5394,31 +5402,31 @@
         <v>25</v>
       </c>
       <c r="E52" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F52" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="G52" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="G52" s="8" t="s">
-        <v>172</v>
-      </c>
       <c r="H52" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="I52" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="J52" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="K52" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="L52" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="I52" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="J52" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="K52" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="L52" s="12" t="s">
-        <v>366</v>
-      </c>
       <c r="M52" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N52" s="12">
         <v>55.424999999999997</v>
@@ -5427,7 +5435,7 @@
         <v>-5.609</v>
       </c>
       <c r="P52" s="12" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="Q52" s="13"/>
     </row>
@@ -5436,7 +5444,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>17</v>
@@ -5448,28 +5456,28 @@
         <v>19</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L53" s="12" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="M53" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N53" s="12">
         <v>55.853999999999999</v>
@@ -5478,7 +5486,7 @@
         <v>-6.1079999999999997</v>
       </c>
       <c r="P53" s="12" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="Q53" s="13"/>
     </row>
@@ -5487,7 +5495,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>17</v>
@@ -5499,28 +5507,28 @@
         <v>19</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L54" s="12" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="M54" s="12" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="N54" s="12">
         <v>55.767000000000003</v>
@@ -5529,16 +5537,16 @@
         <v>-6.3620000000000001</v>
       </c>
       <c r="P54" s="12" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="Q54" s="13"/>
     </row>
-    <row r="55" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="3">
         <v>53</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>17</v>
@@ -5550,28 +5558,28 @@
         <v>82</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L55" s="12" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="M55" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N55" s="12">
         <v>57.451999999999998</v>
@@ -5580,7 +5588,7 @@
         <v>-3.3769999999999998</v>
       </c>
       <c r="P55" s="12" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="Q55" s="13">
         <v>57.3</v>
@@ -5591,7 +5599,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>17</v>
@@ -5603,28 +5611,28 @@
         <v>82</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="I56" s="12" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="J56" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="K56" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L56" s="12" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="M56" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N56" s="12">
         <v>57.533000000000001</v>
@@ -5633,7 +5641,7 @@
         <v>-3.206</v>
       </c>
       <c r="P56" s="12" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="Q56" s="13">
         <v>58.1</v>
@@ -5644,7 +5652,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>17</v>
@@ -5656,28 +5664,28 @@
         <v>82</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="J57" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="K57" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L57" s="12" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M57" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N57" s="12">
         <v>57.343000000000004</v>
@@ -5686,7 +5694,7 @@
         <v>-3.3380000000000001</v>
       </c>
       <c r="P57" s="12" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="Q57" s="13">
         <v>58.3</v>
@@ -5697,7 +5705,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>17</v>
@@ -5709,28 +5717,28 @@
         <v>74</v>
       </c>
       <c r="F58" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G58" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="G58" s="8" t="s">
-        <v>184</v>
-      </c>
       <c r="H58" s="12" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="J58" s="12" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="K58" s="12" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="L58" s="12" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="M58" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N58" s="12">
         <v>35.988999999999997</v>
@@ -5739,7 +5747,7 @@
         <v>139.072</v>
       </c>
       <c r="P58" s="12" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="Q58" s="13"/>
     </row>
@@ -5748,7 +5756,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>17</v>
@@ -5760,28 +5768,28 @@
         <v>19</v>
       </c>
       <c r="F59" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G59" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="G59" s="8" t="s">
-        <v>187</v>
-      </c>
       <c r="H59" s="12" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="J59" s="12" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="K59" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L59" s="12" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="M59" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N59" s="12">
         <v>58.968000000000004</v>
@@ -5790,7 +5798,7 @@
         <v>-2.956</v>
       </c>
       <c r="P59" s="12" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="Q59" s="13"/>
     </row>
@@ -5799,7 +5807,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>17</v>
@@ -5811,28 +5819,28 @@
         <v>19</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H60" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="I60" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="J60" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="K60" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="L60" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="I60" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="J60" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="K60" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="L60" s="12" t="s">
-        <v>380</v>
-      </c>
       <c r="M60" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N60" s="12">
         <v>55.640999999999998</v>
@@ -5841,7 +5849,7 @@
         <v>-6.109</v>
       </c>
       <c r="P60" s="12" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="Q60" s="13"/>
     </row>
@@ -5850,7 +5858,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>17</v>
@@ -5862,28 +5870,28 @@
         <v>82</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G61" s="8" t="s">
         <v>86</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="I61" s="12" t="s">
         <v>37</v>
       </c>
       <c r="J61" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="K61" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L61" s="12" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M61" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N61" s="12">
         <v>57.484999999999999</v>
@@ -5892,7 +5900,7 @@
         <v>-3.2080000000000002</v>
       </c>
       <c r="P61" s="12" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="Q61" s="13">
         <v>40</v>
@@ -5903,7 +5911,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>17</v>
@@ -5915,28 +5923,28 @@
         <v>82</v>
       </c>
       <c r="F62" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G62" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="G62" s="8" t="s">
-        <v>191</v>
-      </c>
       <c r="H62" s="12" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J62" s="12" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="K62" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L62" s="12" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="M62" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N62" s="12">
         <v>56.835999999999999</v>
@@ -5945,7 +5953,7 @@
         <v>-5.0739999999999998</v>
       </c>
       <c r="P62" s="12" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="Q62" s="13">
         <v>40</v>
@@ -5956,40 +5964,40 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>193</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F63" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G63" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="G63" s="8" t="s">
-        <v>195</v>
-      </c>
       <c r="H63" s="12" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="I63" s="12" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="J63" s="12" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="K63" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L63" s="12" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="M63" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N63" s="12">
         <v>55.832999999999998</v>
@@ -5998,7 +6006,7 @@
         <v>-5.9509999999999996</v>
       </c>
       <c r="P63" s="12" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="Q63" s="13">
         <v>60.7</v>
@@ -6009,7 +6017,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>17</v>
@@ -6018,31 +6026,31 @@
         <v>25</v>
       </c>
       <c r="E64" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F64" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="G64" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="G64" s="8" t="s">
-        <v>199</v>
-      </c>
       <c r="H64" s="12" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="J64" s="12" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="K64" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L64" s="12" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="M64" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N64" s="12">
         <v>56.701999999999998</v>
@@ -6051,7 +6059,7 @@
         <v>-3.702</v>
       </c>
       <c r="P64" s="12" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="Q64" s="13"/>
     </row>
@@ -6060,7 +6068,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>17</v>
@@ -6069,31 +6077,31 @@
         <v>25</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H65" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="I65" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="J65" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="K65" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="L65" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="I65" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="J65" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="K65" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="L65" s="12" t="s">
-        <v>366</v>
-      </c>
       <c r="M65" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N65" s="12">
         <v>55.424999999999997</v>
@@ -6102,7 +6110,7 @@
         <v>-5.609</v>
       </c>
       <c r="P65" s="12" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="Q65" s="13"/>
     </row>
@@ -6111,7 +6119,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>17</v>
@@ -6123,28 +6131,28 @@
         <v>19</v>
       </c>
       <c r="F66" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G66" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="G66" s="8" t="s">
-        <v>204</v>
-      </c>
       <c r="H66" s="12" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="J66" s="12" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="K66" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L66" s="12" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="M66" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N66" s="12">
         <v>56.622999999999998</v>
@@ -6153,7 +6161,7 @@
         <v>-6.07</v>
       </c>
       <c r="P66" s="12" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="Q66" s="13"/>
     </row>
@@ -6162,7 +6170,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>17</v>
@@ -6174,28 +6182,28 @@
         <v>74</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="J67" s="12" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="K67" s="12" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="L67" s="12" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="M67" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N67" s="12">
         <v>35.988999999999997</v>
@@ -6204,7 +6212,7 @@
         <v>139.072</v>
       </c>
       <c r="P67" s="12" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="Q67" s="13">
         <v>48</v>
@@ -6215,7 +6223,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>17</v>
@@ -6227,28 +6235,28 @@
         <v>82</v>
       </c>
       <c r="F68" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G68" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="G68" s="8" t="s">
-        <v>209</v>
-      </c>
       <c r="H68" s="12" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="I68" s="12" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="J68" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="K68" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L68" s="12" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="M68" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N68" s="12">
         <v>57.646999999999998</v>
@@ -6257,7 +6265,7 @@
         <v>-3.2930000000000001</v>
       </c>
       <c r="P68" s="12" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="Q68" s="13"/>
     </row>
@@ -6266,7 +6274,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>17</v>
@@ -6278,28 +6286,28 @@
         <v>19</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="I69" s="12" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="J69" s="12" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="K69" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L69" s="12" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="M69" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N69" s="12">
         <v>57.551000000000002</v>
@@ -6308,7 +6316,7 @@
         <v>-4.4340000000000002</v>
       </c>
       <c r="P69" s="12" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="Q69" s="13"/>
     </row>
@@ -6317,7 +6325,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>17</v>
@@ -6329,28 +6337,28 @@
         <v>19</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="J70" s="12" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="K70" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L70" s="12" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="M70" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N70" s="12">
         <v>55.853999999999999</v>
@@ -6359,7 +6367,7 @@
         <v>-6.1079999999999997</v>
       </c>
       <c r="P70" s="12" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="Q70" s="13">
         <v>43</v>
@@ -6370,7 +6378,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>17</v>
@@ -6382,28 +6390,28 @@
         <v>82</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="J71" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="K71" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L71" s="12" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="M71" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N71" s="12">
         <v>57.444000000000003</v>
@@ -6412,7 +6420,7 @@
         <v>-3.1280000000000001</v>
       </c>
       <c r="P71" s="12" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="Q71" s="13"/>
     </row>
@@ -6421,7 +6429,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>17</v>
@@ -6433,28 +6441,28 @@
         <v>74</v>
       </c>
       <c r="F72" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G72" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="G72" s="8" t="s">
-        <v>217</v>
-      </c>
       <c r="H72" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="I72" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="J72" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="K72" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="L72" s="12" t="s">
         <v>436</v>
       </c>
-      <c r="I72" s="12" t="s">
-        <v>437</v>
-      </c>
-      <c r="J72" s="12" t="s">
-        <v>438</v>
-      </c>
-      <c r="K72" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="L72" s="12" t="s">
-        <v>439</v>
-      </c>
       <c r="M72" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N72" s="12">
         <v>34.890999999999998</v>
@@ -6463,7 +6471,7 @@
         <v>135.67500000000001</v>
       </c>
       <c r="P72" s="12" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="Q72" s="13"/>
     </row>
@@ -6472,7 +6480,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>17</v>
@@ -6481,31 +6489,31 @@
         <v>25</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F73" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G73" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="G73" s="8" t="s">
-        <v>220</v>
-      </c>
       <c r="H73" s="12" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="I73" s="12" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="J73" s="12" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="K73" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L73" s="12" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="M73" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N73" s="12">
         <v>58.968000000000004</v>
@@ -6514,7 +6522,7 @@
         <v>-2.956</v>
       </c>
       <c r="P73" s="12" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="Q73" s="13"/>
     </row>
@@ -6523,7 +6531,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>17</v>
@@ -6535,28 +6543,28 @@
         <v>19</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="I74" s="12" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="J74" s="12" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="K74" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L74" s="12" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="M74" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N74" s="12">
         <v>55.78</v>
@@ -6565,7 +6573,7 @@
         <v>-6.4329999999999998</v>
       </c>
       <c r="P74" s="12" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="Q74" s="13"/>
     </row>
@@ -6574,7 +6582,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>17</v>
@@ -6586,28 +6594,28 @@
         <v>74</v>
       </c>
       <c r="F75" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="G75" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="G75" s="8" t="s">
-        <v>225</v>
-      </c>
       <c r="H75" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="I75" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="J75" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="K75" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="L75" s="12" t="s">
         <v>472</v>
       </c>
-      <c r="I75" s="12" t="s">
+      <c r="M75" s="12" t="s">
         <v>473</v>
-      </c>
-      <c r="J75" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="K75" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="L75" s="12" t="s">
-        <v>475</v>
-      </c>
-      <c r="M75" s="12" t="s">
-        <v>476</v>
       </c>
       <c r="N75" s="12">
         <v>36.347999999999999</v>
@@ -6616,7 +6624,7 @@
         <v>138.596</v>
       </c>
       <c r="P75" s="12" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="Q75" s="13"/>
     </row>
@@ -6625,7 +6633,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>17</v>
@@ -6637,28 +6645,28 @@
         <v>19</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="I76" s="12" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="J76" s="12" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="K76" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L76" s="12" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="M76" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N76" s="12">
         <v>55.78</v>
@@ -6667,7 +6675,7 @@
         <v>-6.4329999999999998</v>
       </c>
       <c r="P76" s="12" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="Q76" s="13">
         <v>50</v>
@@ -6678,40 +6686,40 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>227</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F77" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G77" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="G77" s="8" t="s">
-        <v>229</v>
-      </c>
       <c r="H77" s="12" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="I77" s="12" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="J77" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="K77" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L77" s="12" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="M77" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N77" s="12">
         <v>57.427</v>
@@ -6720,7 +6728,7 @@
         <v>-3.3130000000000002</v>
       </c>
       <c r="P77" s="12" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="Q77" s="13"/>
     </row>
@@ -6729,7 +6737,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>17</v>
@@ -6741,28 +6749,28 @@
         <v>74</v>
       </c>
       <c r="F78" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G78" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="G78" s="8" t="s">
-        <v>232</v>
-      </c>
       <c r="H78" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="I78" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="J78" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="K78" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="L78" s="12" t="s">
         <v>472</v>
       </c>
-      <c r="I78" s="12" t="s">
+      <c r="M78" s="12" t="s">
         <v>473</v>
-      </c>
-      <c r="J78" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="K78" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="L78" s="12" t="s">
-        <v>475</v>
-      </c>
-      <c r="M78" s="12" t="s">
-        <v>476</v>
       </c>
       <c r="N78" s="12">
         <v>36.347999999999999</v>
@@ -6771,16 +6779,16 @@
         <v>138.596</v>
       </c>
       <c r="P78" s="12" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="Q78" s="13"/>
     </row>
-    <row r="79" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:17" ht="48" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A79" s="3">
         <v>77</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>17</v>
@@ -6789,22 +6797,22 @@
         <v>48</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F79" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G79" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="G79" s="8" t="s">
+      <c r="H79" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="H79" s="3" t="s">
+      <c r="I79" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="I79" s="3" t="s">
+      <c r="J79" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="J79" s="3" t="s">
-        <v>237</v>
       </c>
       <c r="K79" s="3" t="s">
         <v>48</v>
@@ -6822,7 +6830,7 @@
         <v>132.334</v>
       </c>
       <c r="P79" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q79" s="13"/>
     </row>
@@ -6831,7 +6839,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>17</v>
@@ -6843,28 +6851,28 @@
         <v>60</v>
       </c>
       <c r="F80" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="G80" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="G80" s="8" t="s">
-        <v>241</v>
-      </c>
       <c r="H80" s="12" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="I80" s="12" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="J80" s="12" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="K80" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L80" s="12" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="M80" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N80" s="12">
         <v>57.52</v>
@@ -6873,7 +6881,7 @@
         <v>-4.0469999999999997</v>
       </c>
       <c r="P80" s="12" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="Q80" s="13"/>
     </row>
@@ -6882,7 +6890,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>17</v>
@@ -6894,28 +6902,28 @@
         <v>82</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="I81" s="12" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="J81" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="K81" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L81" s="12" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="M81" s="12" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="N81" s="12">
         <v>57.438000000000002</v>
@@ -6924,7 +6932,7 @@
         <v>-3.3460000000000001</v>
       </c>
       <c r="P81" s="12" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="Q81" s="13"/>
     </row>
@@ -6933,7 +6941,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>17</v>
@@ -6942,31 +6950,31 @@
         <v>48</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F82" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G82" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="G82" s="8" t="s">
-        <v>246</v>
-      </c>
       <c r="H82" s="12" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="I82" s="12" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="J82" s="12" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="K82" s="12" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="L82" s="12" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="M82" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N82" s="12">
         <v>35.988999999999997</v>
@@ -6975,7 +6983,7 @@
         <v>139.072</v>
       </c>
       <c r="P82" s="12" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="Q82" s="13"/>
     </row>
@@ -6984,7 +6992,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>17</v>
@@ -6996,28 +7004,28 @@
         <v>74</v>
       </c>
       <c r="F83" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="G83" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="G83" s="8" t="s">
-        <v>249</v>
-      </c>
       <c r="H83" s="12" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="I83" s="12" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="J83" s="12" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="K83" s="12" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="L83" s="12" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="M83" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N83" s="12">
         <v>35.988999999999997</v>
@@ -7026,7 +7034,7 @@
         <v>139.072</v>
       </c>
       <c r="P83" s="12" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="Q83" s="13"/>
     </row>
@@ -7035,7 +7043,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>17</v>
@@ -7047,28 +7055,28 @@
         <v>74</v>
       </c>
       <c r="F84" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="G84" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="G84" s="8" t="s">
-        <v>252</v>
-      </c>
       <c r="H84" s="12" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="I84" s="12" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="J84" s="12" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="K84" s="12" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="L84" s="12" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="M84" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N84" s="12">
         <v>35.988999999999997</v>
@@ -7077,16 +7085,16 @@
         <v>139.072</v>
       </c>
       <c r="P84" s="12" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="Q84" s="13"/>
     </row>
-    <row r="85" spans="1:17" ht="78.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:17" ht="79.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A85" s="3">
         <v>83</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>17</v>
@@ -7098,19 +7106,19 @@
         <v>74</v>
       </c>
       <c r="F85" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G85" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="G85" s="8" t="s">
+      <c r="H85" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="H85" s="3" t="s">
+      <c r="I85" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="I85" s="3" t="s">
+      <c r="J85" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="J85" s="3" t="s">
-        <v>257</v>
       </c>
       <c r="K85" s="3" t="s">
         <v>48</v>
@@ -7119,7 +7127,7 @@
         <v>1985</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N85" s="3">
         <v>35.899000000000001</v>
@@ -7128,37 +7136,37 @@
         <v>137.94200000000001</v>
       </c>
       <c r="P85" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q85" s="13"/>
     </row>
-    <row r="86" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:17" ht="48" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A86" s="3">
         <v>84</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F86" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="G86" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="G86" s="8" t="s">
+      <c r="H86" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="H86" s="3" t="s">
+      <c r="I86" s="3" t="s">
         <v>263</v>
-      </c>
-      <c r="I86" s="3" t="s">
-        <v>264</v>
       </c>
       <c r="J86" s="3" t="s">
         <v>38</v>
@@ -7179,16 +7187,16 @@
         <v>-3.1179999999999999</v>
       </c>
       <c r="P86" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q86" s="13"/>
     </row>
-    <row r="87" spans="1:17" ht="78.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:17" ht="79.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A87" s="3">
         <v>85</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>17</v>
@@ -7200,10 +7208,10 @@
         <v>82</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
@@ -7223,7 +7231,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>17</v>
@@ -7232,31 +7240,31 @@
         <v>25</v>
       </c>
       <c r="E88" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="F88" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="F88" s="3" t="s">
+      <c r="G88" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="G88" s="8" t="s">
-        <v>270</v>
-      </c>
       <c r="H88" s="12" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="I88" s="12" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="J88" s="12" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="K88" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L88" s="12" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="M88" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N88" s="12">
         <v>57.688000000000002</v>
@@ -7265,16 +7273,16 @@
         <v>-4.1680000000000001</v>
       </c>
       <c r="P88" s="12" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="Q88" s="13"/>
     </row>
-    <row r="89" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:17" ht="48" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A89" s="3">
         <v>87</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>17</v>
@@ -7286,19 +7294,19 @@
         <v>74</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G89" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="H89" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="H89" s="3" t="s">
+      <c r="I89" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="I89" s="3" t="s">
+      <c r="J89" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>237</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>48</v>
@@ -7316,7 +7324,7 @@
         <v>132.334</v>
       </c>
       <c r="P89" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q89" s="13"/>
     </row>
@@ -7325,7 +7333,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>17</v>
@@ -7337,28 +7345,28 @@
         <v>74</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H90" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="I90" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="J90" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="K90" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="I90" s="12" t="s">
+      <c r="L90" s="12" t="s">
         <v>387</v>
       </c>
-      <c r="J90" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="K90" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="L90" s="12" t="s">
-        <v>390</v>
-      </c>
       <c r="M90" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N90" s="12">
         <v>37.398000000000003</v>
@@ -7367,7 +7375,7 @@
         <v>140.36000000000001</v>
       </c>
       <c r="P90" s="12" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="Q90" s="13"/>
     </row>
@@ -7376,40 +7384,40 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F91" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="C91" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>276</v>
-      </c>
       <c r="G91" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H91" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="I91" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="J91" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="K91" s="12" t="s">
         <v>457</v>
       </c>
-      <c r="I91" s="12" t="s">
+      <c r="L91" s="12" t="s">
         <v>458</v>
       </c>
-      <c r="J91" s="12" t="s">
-        <v>459</v>
-      </c>
-      <c r="K91" s="12" t="s">
-        <v>460</v>
-      </c>
-      <c r="L91" s="12" t="s">
-        <v>461</v>
-      </c>
       <c r="M91" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N91" s="12">
         <v>53.338000000000001</v>
@@ -7418,16 +7426,16 @@
         <v>-6.2779999999999996</v>
       </c>
       <c r="P91" s="12" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="Q91" s="13"/>
     </row>
-    <row r="92" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:17" ht="48" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A92" s="3">
         <v>90</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>17</v>
@@ -7439,19 +7447,19 @@
         <v>74</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G92" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H92" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="H92" s="3" t="s">
+      <c r="I92" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="I92" s="3" t="s">
+      <c r="J92" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="J92" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="K92" s="3" t="s">
         <v>48</v>
@@ -7469,7 +7477,7 @@
         <v>136.26400000000001</v>
       </c>
       <c r="P92" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q92" s="13"/>
     </row>
@@ -7478,7 +7486,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>279</v>
+        <v>656</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>17</v>
@@ -7490,28 +7498,28 @@
         <v>82</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H93" s="12" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="I93" s="12" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="J93" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="K93" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L93" s="12" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="M93" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N93" s="12">
         <v>57.253</v>
@@ -7520,16 +7528,18 @@
         <v>-3.3780000000000001</v>
       </c>
       <c r="P93" s="12" t="s">
-        <v>622</v>
-      </c>
-      <c r="Q93" s="13"/>
+        <v>619</v>
+      </c>
+      <c r="Q93" s="13">
+        <v>54.8</v>
+      </c>
     </row>
     <row r="94" spans="1:17" ht="116.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A94" s="3">
         <v>92</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>17</v>
@@ -7541,28 +7551,28 @@
         <v>60</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="I94" s="12" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="J94" s="12" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="K94" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L94" s="12" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="M94" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N94" s="12">
         <v>57.756</v>
@@ -7571,7 +7581,7 @@
         <v>-4.2229999999999999</v>
       </c>
       <c r="P94" s="12" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="Q94" s="13">
         <v>52.1</v>
@@ -7582,7 +7592,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>17</v>
@@ -7594,28 +7604,28 @@
         <v>82</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H95" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="I95" s="12" t="s">
+        <v>608</v>
+      </c>
+      <c r="J95" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="K95" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="L95" s="12" t="s">
+        <v>609</v>
+      </c>
+      <c r="M95" s="12" t="s">
         <v>610</v>
-      </c>
-      <c r="I95" s="12" t="s">
-        <v>611</v>
-      </c>
-      <c r="J95" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="K95" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="L95" s="12" t="s">
-        <v>612</v>
-      </c>
-      <c r="M95" s="12" t="s">
-        <v>613</v>
       </c>
       <c r="N95" s="12">
         <v>57.453000000000003</v>
@@ -7624,7 +7634,7 @@
         <v>-3.1160000000000001</v>
       </c>
       <c r="P95" s="12" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="Q95" s="13">
         <v>51.4</v>
@@ -7635,7 +7645,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>17</v>
@@ -7647,28 +7657,28 @@
         <v>28</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H96" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="I96" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="J96" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="K96" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="L96" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="I96" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="J96" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="K96" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="L96" s="12" t="s">
-        <v>380</v>
-      </c>
       <c r="M96" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N96" s="12">
         <v>55.640999999999998</v>
@@ -7677,7 +7687,7 @@
         <v>-6.109</v>
       </c>
       <c r="P96" s="12" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="Q96" s="13"/>
     </row>
@@ -7686,7 +7696,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>17</v>
@@ -7698,28 +7708,28 @@
         <v>19</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H97" s="12" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="I97" s="12" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="J97" s="12" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="K97" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L97" s="12" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="M97" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N97" s="12">
         <v>57.826000000000001</v>
@@ -7728,7 +7738,7 @@
         <v>-4.0789999999999997</v>
       </c>
       <c r="P97" s="12" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="Q97" s="13">
         <v>43</v>
@@ -7739,7 +7749,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>17</v>
@@ -7751,28 +7761,28 @@
         <v>60</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H98" s="12" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="I98" s="12" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="J98" s="12" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="K98" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L98" s="12" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="M98" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N98" s="12">
         <v>57.52</v>
@@ -7781,18 +7791,18 @@
         <v>-4.0469999999999997</v>
       </c>
       <c r="P98" s="12" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="Q98" s="13">
         <v>58.1</v>
       </c>
     </row>
-    <row r="99" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A99" s="3">
         <v>97</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>293</v>
+        <v>658</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>17</v>
@@ -7801,31 +7811,31 @@
         <v>25</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H99" s="12" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="I99" s="12" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="J99" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="K99" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L99" s="12" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="M99" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N99" s="12">
         <v>57.451999999999998</v>
@@ -7834,16 +7844,18 @@
         <v>-3.3769999999999998</v>
       </c>
       <c r="P99" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="Q99" s="13"/>
+        <v>391</v>
+      </c>
+      <c r="Q99" s="13">
+        <v>59.6</v>
+      </c>
     </row>
     <row r="100" spans="1:17" ht="116.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A100" s="3">
         <v>98</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>17</v>
@@ -7855,28 +7867,28 @@
         <v>19</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H100" s="12" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="I100" s="12" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="J100" s="12" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="K100" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L100" s="12" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="M100" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N100" s="12">
         <v>57.826000000000001</v>
@@ -7885,7 +7897,7 @@
         <v>-4.0789999999999997</v>
       </c>
       <c r="P100" s="12" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="Q100" s="13"/>
     </row>
@@ -7894,7 +7906,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>17</v>
@@ -7903,22 +7915,22 @@
         <v>48</v>
       </c>
       <c r="E101" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="G101" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="H101" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="F101" s="3" t="s">
+      <c r="I101" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="G101" s="8" t="s">
+      <c r="J101" s="3" t="s">
         <v>302</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>305</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>48</v>
@@ -7936,7 +7948,7 @@
         <v>139.90799999999999</v>
       </c>
       <c r="P101" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="Q101" s="13"/>
     </row>
@@ -7945,7 +7957,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>17</v>
@@ -7957,28 +7969,28 @@
         <v>74</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H102" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="I102" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="J102" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="K102" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="L102" s="12" t="s">
         <v>534</v>
       </c>
-      <c r="I102" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="J102" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="K102" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="L102" s="12" t="s">
-        <v>537</v>
-      </c>
       <c r="M102" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N102" s="12">
         <v>34.652999999999999</v>
@@ -7987,7 +7999,7 @@
         <v>134.989</v>
       </c>
       <c r="P102" s="12" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="Q102" s="13">
         <v>50</v>
@@ -7998,7 +8010,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>17</v>
@@ -8010,28 +8022,28 @@
         <v>74</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H103" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="I103" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="J103" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="K103" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="L103" s="12" t="s">
         <v>436</v>
       </c>
-      <c r="I103" s="12" t="s">
-        <v>437</v>
-      </c>
-      <c r="J103" s="12" t="s">
-        <v>438</v>
-      </c>
-      <c r="K103" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="L103" s="12" t="s">
-        <v>439</v>
-      </c>
       <c r="M103" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N103" s="12">
         <v>34.890999999999998</v>
@@ -8040,7 +8052,7 @@
         <v>135.67500000000001</v>
       </c>
       <c r="P103" s="12" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="Q103" s="13"/>
     </row>
@@ -8049,7 +8061,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>17</v>
@@ -8061,28 +8073,28 @@
         <v>74</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H104" s="12" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="I104" s="12" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="J104" s="12" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="K104" s="12" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="L104" s="12" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="M104" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N104" s="12">
         <v>35.988999999999997</v>
@@ -8091,7 +8103,7 @@
         <v>139.072</v>
       </c>
       <c r="P104" s="12" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="Q104" s="13"/>
     </row>
@@ -8100,7 +8112,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>17</v>
@@ -8112,19 +8124,19 @@
         <v>74</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H105" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="I105" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="I105" s="3" t="s">
+      <c r="J105" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="J105" s="3" t="s">
-        <v>257</v>
       </c>
       <c r="K105" s="3" t="s">
         <v>48</v>
@@ -8133,7 +8145,7 @@
         <v>1985</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N105" s="3">
         <v>35.899000000000001</v>
@@ -8142,7 +8154,7 @@
         <v>137.94200000000001</v>
       </c>
       <c r="P105" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q105" s="13">
         <v>48</v>
@@ -8153,7 +8165,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>17</v>
@@ -8162,22 +8174,22 @@
         <v>48</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G106" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="H106" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="H106" s="3" t="s">
+      <c r="I106" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="I106" s="3" t="s">
+      <c r="J106" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="J106" s="3" t="s">
-        <v>257</v>
       </c>
       <c r="K106" s="3" t="s">
         <v>48</v>
@@ -8186,7 +8198,7 @@
         <v>1985</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N106" s="3">
         <v>35.899000000000001</v>
@@ -8195,7 +8207,7 @@
         <v>137.94200000000001</v>
       </c>
       <c r="P106" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q106" s="13"/>
     </row>
@@ -8204,7 +8216,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>17</v>
@@ -8213,31 +8225,31 @@
         <v>48</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H107" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="I107" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="J107" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="K107" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="L107" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="I107" s="12" t="s">
-        <v>453</v>
-      </c>
-      <c r="J107" s="12" t="s">
-        <v>454</v>
-      </c>
-      <c r="K107" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="L107" s="12" t="s">
-        <v>455</v>
-      </c>
       <c r="M107" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N107" s="12">
         <v>36.637999999999998</v>
@@ -8246,7 +8258,7 @@
         <v>136.964</v>
       </c>
       <c r="P107" s="12" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="Q107" s="13"/>
     </row>
@@ -8255,7 +8267,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>17</v>
@@ -8267,28 +8279,28 @@
         <v>19</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H108" s="12" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="I108" s="12" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="J108" s="12" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="K108" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L108" s="12" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="M108" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N108" s="12">
         <v>56.94</v>
@@ -8297,7 +8309,7 @@
         <v>-4.2370000000000001</v>
       </c>
       <c r="P108" s="12" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="Q108" s="13"/>
     </row>
@@ -8306,7 +8318,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>17</v>
@@ -8318,28 +8330,28 @@
         <v>74</v>
       </c>
       <c r="F109" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="G109" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="H109" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="I109" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="G109" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="H109" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="I109" s="12" t="s">
-        <v>328</v>
-      </c>
       <c r="J109" s="12" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="K109" s="12" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="L109" s="12" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="M109" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N109" s="12">
         <v>43.052</v>
@@ -8348,7 +8360,7 @@
         <v>144.84299999999999</v>
       </c>
       <c r="P109" s="12" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="Q109" s="13"/>
     </row>
@@ -8357,7 +8369,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>17</v>
@@ -8369,19 +8381,19 @@
         <v>74</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G110" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="H110" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="H110" s="3" t="s">
+      <c r="I110" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="I110" s="3" t="s">
+      <c r="J110" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="J110" s="3" t="s">
-        <v>237</v>
       </c>
       <c r="K110" s="3" t="s">
         <v>48</v>
@@ -8399,7 +8411,7 @@
         <v>132.334</v>
       </c>
       <c r="P110" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q110" s="13"/>
     </row>
@@ -8407,11 +8419,18 @@
   <autoFilter ref="A1:P110" xr:uid="{D4F60670-F158-4C9B-93E8-D52D53F4A8E3}">
     <filterColumn colId="7">
       <filters>
-        <filter val="ボウモア蒸溜所"/>
+        <filter val="ダリュイン蒸溜所"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="16">
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="B13:B14"/>
     <mergeCell ref="N13:N14"/>
     <mergeCell ref="O13:O14"/>
     <mergeCell ref="P13:P14"/>
@@ -8421,13 +8440,6 @@
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="L13:L14"/>
     <mergeCell ref="M13:M14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="B13:B14"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8458,16 +8470,16 @@
   <sheetData>
     <row r="1" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>11</v>
@@ -8482,7 +8494,7 @@
         <v>14</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -8493,16 +8505,16 @@
         <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G2" s="5">
         <v>57.302</v>
@@ -8511,7 +8523,7 @@
         <v>-6.3559999999999999</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -8522,16 +8534,16 @@
         <v>32</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G3" s="5">
         <v>55.63</v>
@@ -8540,27 +8552,27 @@
         <v>-6.1929999999999996</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G4" s="5">
         <v>57.484999999999999</v>
@@ -8569,27 +8581,27 @@
         <v>-3.2080000000000002</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G5" s="5">
         <v>55.756</v>
@@ -8598,27 +8610,27 @@
         <v>-6.2889999999999997</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>358</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>361</v>
       </c>
       <c r="G6" s="5">
         <v>55.991</v>
@@ -8627,27 +8639,27 @@
         <v>-3.827</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>366</v>
-      </c>
       <c r="F7" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G7" s="5">
         <v>55.424999999999997</v>
@@ -8656,27 +8668,27 @@
         <v>-5.609</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G8" s="5">
         <v>55.878</v>
@@ -8685,27 +8697,27 @@
         <v>-6.125</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>375</v>
-      </c>
       <c r="F9" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G9" s="5">
         <v>56.624000000000002</v>
@@ -8714,27 +8726,27 @@
         <v>-3.85</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>380</v>
-      </c>
       <c r="F10" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G10" s="5">
         <v>55.640999999999998</v>
@@ -8743,27 +8755,27 @@
         <v>-6.109</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G11" s="5">
         <v>58.968000000000004</v>
@@ -8772,27 +8784,27 @@
         <v>-2.956</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>390</v>
-      </c>
       <c r="F12" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G12" s="5">
         <v>37.398000000000003</v>
@@ -8801,27 +8813,27 @@
         <v>140.36000000000001</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G13" s="5">
         <v>57.451999999999998</v>
@@ -8830,27 +8842,27 @@
         <v>-3.3769999999999998</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G14" s="5">
         <v>56.835999999999999</v>
@@ -8859,27 +8871,27 @@
         <v>-5.0739999999999998</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G15" s="5">
         <v>57.545999999999999</v>
@@ -8888,27 +8900,27 @@
         <v>-3.048</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G16" s="5">
         <v>57.444000000000003</v>
@@ -8917,27 +8929,27 @@
         <v>-3.1280000000000001</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G17" s="5">
         <v>56.704000000000001</v>
@@ -8946,27 +8958,27 @@
         <v>-3.7330000000000001</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G18" s="5">
         <v>55.853999999999999</v>
@@ -8975,27 +8987,27 @@
         <v>-6.1079999999999997</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G19" s="5">
         <v>56.847000000000001</v>
@@ -9004,27 +9016,27 @@
         <v>-2.5880000000000001</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G20" s="5">
         <v>57.427</v>
@@ -9033,27 +9045,27 @@
         <v>-3.3130000000000002</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G21" s="5">
         <v>57.646999999999998</v>
@@ -9062,27 +9074,27 @@
         <v>-3.2930000000000001</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G22" s="5">
         <v>55.78</v>
@@ -9091,27 +9103,27 @@
         <v>-6.4329999999999998</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G23" s="5">
         <v>57.533000000000001</v>
@@ -9120,27 +9132,27 @@
         <v>-3.206</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G24" s="5">
         <v>57.343000000000004</v>
@@ -9149,27 +9161,27 @@
         <v>-3.3380000000000001</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>439</v>
-      </c>
       <c r="F25" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G25" s="5">
         <v>34.890999999999998</v>
@@ -9178,27 +9190,27 @@
         <v>135.67500000000001</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G26" s="5">
         <v>35.988999999999997</v>
@@ -9207,27 +9219,27 @@
         <v>139.072</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G27" s="5">
         <v>35.773000000000003</v>
@@ -9236,27 +9248,27 @@
         <v>137.93700000000001</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>105</v>
-      </c>
       <c r="C28" s="5" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G28" s="5">
         <v>35.380000000000003</v>
@@ -9265,27 +9277,27 @@
         <v>136.274</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>455</v>
-      </c>
       <c r="F29" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G29" s="5">
         <v>36.637999999999998</v>
@@ -9294,27 +9306,27 @@
         <v>136.964</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="E30" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>461</v>
-      </c>
       <c r="F30" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G30" s="5">
         <v>53.338000000000001</v>
@@ -9323,27 +9335,27 @@
         <v>-6.2779999999999996</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="E31" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>467</v>
-      </c>
       <c r="F31" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G31" s="5">
         <v>63.040999999999997</v>
@@ -9352,27 +9364,27 @@
         <v>17.739000000000001</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G32" s="5">
         <v>57.649000000000001</v>
@@ -9381,27 +9393,27 @@
         <v>-3.64</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="F33" s="5" t="s">
         <v>473</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>476</v>
       </c>
       <c r="G33" s="5">
         <v>36.347999999999999</v>
@@ -9410,27 +9422,27 @@
         <v>138.596</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="147.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G34" s="5">
         <v>56.94</v>
@@ -9439,27 +9451,27 @@
         <v>-4.2370000000000001</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G35" s="5">
         <v>43.052</v>
@@ -9468,27 +9480,27 @@
         <v>144.84299999999999</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G36" s="5">
         <v>55.640999999999998</v>
@@ -9497,27 +9509,27 @@
         <v>-6.109</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G37" s="5">
         <v>58.968000000000004</v>
@@ -9526,27 +9538,27 @@
         <v>-2.956</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G38" s="5">
         <v>57.484999999999999</v>
@@ -9555,27 +9567,27 @@
         <v>-3.2080000000000002</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G39" s="5">
         <v>53.338000000000001</v>
@@ -9584,27 +9596,27 @@
         <v>-6.2779999999999996</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G40" s="5">
         <v>31.454000000000001</v>
@@ -9613,27 +9625,27 @@
         <v>130.46100000000001</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="E41" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>504</v>
-      </c>
       <c r="F41" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G41" s="5">
         <v>35.823999999999998</v>
@@ -9642,27 +9654,27 @@
         <v>138.43600000000001</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>509</v>
-      </c>
       <c r="F42" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G42" s="5">
         <v>43.177999999999997</v>
@@ -9671,27 +9683,27 @@
         <v>140.76599999999999</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="E43" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>514</v>
-      </c>
       <c r="F43" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G43" s="5">
         <v>38.445999999999998</v>
@@ -9700,27 +9712,27 @@
         <v>140.88300000000001</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G44" s="5">
         <v>36.320999999999998</v>
@@ -9729,27 +9741,27 @@
         <v>138.44999999999999</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>523</v>
-      </c>
       <c r="F45" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G45" s="5">
         <v>35.768999999999998</v>
@@ -9758,27 +9770,27 @@
         <v>139.125</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G46" s="5">
         <v>35.302999999999997</v>
@@ -9787,27 +9799,27 @@
         <v>138.95400000000001</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="E47" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>532</v>
-      </c>
       <c r="F47" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G47" s="5">
         <v>35.036999999999999</v>
@@ -9816,27 +9828,27 @@
         <v>136.82900000000001</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>514</v>
-      </c>
       <c r="F48" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G48" s="5">
         <v>38.445999999999998</v>
@@ -9845,27 +9857,27 @@
         <v>140.88300000000001</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="E49" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>537</v>
-      </c>
       <c r="F49" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G49" s="5">
         <v>34.652999999999999</v>
@@ -9874,27 +9886,27 @@
         <v>134.989</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G50" s="5">
         <v>35.773000000000003</v>
@@ -9903,27 +9915,27 @@
         <v>137.93700000000001</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G51" s="5">
         <v>31.672999999999998</v>
@@ -9932,7 +9944,7 @@
         <v>130.279</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
   </sheetData>
@@ -9942,20 +9954,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6ff6e2ba-ab06-4ac9-b2c7-449843b7cb08" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6ff6e2ba-ab06-4ac9-b2c7-449843b7cb08" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10141,14 +10153,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B963C0D-E7E9-44EF-8AEB-EF3D573F3F67}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{987E6F6F-1448-40F2-A1EC-D5FD1FE7DC5E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="6ff6e2ba-ab06-4ac9-b2c7-449843b7cb08"/>
@@ -10160,6 +10164,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B963C0D-E7E9-44EF-8AEB-EF3D573F3F67}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/whisky_database.xlsx
+++ b/whisky_database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\新藤駿介(ShindoShunsuke)\Documents\GitHub\whisky-sommelier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D3D904-820E-4289-8E45-CAFD108A5C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF384340-CE3E-46B9-A717-4AB566685E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{A2419164-9416-4CEB-A64A-CE2C95D250D1}"/>
   </bookViews>
@@ -730,12 +730,6 @@
     <t>GLENFARCLAS11年</t>
   </si>
   <si>
-    <t>KARUIZAWA25 maits　軽井沢</t>
-  </si>
-  <si>
-    <t>軽井沢25年は非常に希少な日本のウイスキーで、深みと個性が際立っています。豊かなドライフルーツ、ダークチョコレート、古樹のオークの風味が、オリエンタルスパイス、オレンジピール、わずかな香木の香りと絶妙にバランスしています。口当たりにはシェリーの影響、ドライアプリコット、控えめなスモークが感じられ、サンダルウッドと繊細な旨味を伴う長く複雑な余韻が特徴です。</t>
-  </si>
-  <si>
     <t>KARUIZAWA25</t>
   </si>
   <si>
@@ -772,18 +766,12 @@
     <t>このタムデュー2006-2022ヴィンテージは、豊かなシェリーの影響を持ち、ドライフルーツ、ダークチョコレート、温かいスパイスの風味が特徴です。レーズン、イチジク、オレンジの皮の香りに、オークタンニン、バニラ、生姜のヒントが加わります。フィニッシュは長く、シナモンとナツメグの温かみがあります。</t>
   </si>
   <si>
-    <t>IchirosMWR</t>
-  </si>
-  <si>
     <t>イチローズモルト ワールドリナウンド（推測）は、ドライフルーツ、蜂蜜、軽いオークの複雑な層を持つプレミアム日本ウイスキーです。キャラメルの甘さ、穏やかなスパイス、微妙な花の香りのバランスが絶妙で、日本の職人技を象徴する滑らかで余韻の長い後味が特徴です。</t>
   </si>
   <si>
     <t>ICHIROSMWR</t>
   </si>
   <si>
-    <t>IchirosWWR</t>
-  </si>
-  <si>
     <t>イチローズ WWR（ワールド・ウイスキー・レビュー）は、秩父蒸留所の希少な日本のシングルモルトです。蜂蜜、果樹園の果実、そして穏やかなオークスパイスの複雑なプロファイルが特徴。口当たりはバニラ、キャラメル、微かな柑橘類の層が広がり、白胡椒のヒントと軽い煙の香りが感じられます。エレガントなバランスと余韻の長い温かさで締めくくられます。</t>
   </si>
   <si>
@@ -931,9 +919,6 @@
     <t>ポートワインの影響による豊かで複雑な風味。イチゴやラズベリーなどの甘い赤い果実が、はちみつ、バニラ、クルミと混ざり合います。口当たりには熟したプラム、オレンジの皮、スパイシーなオークの風味があり、ダークチョコレートと穏やかなオークスパイスのヒントを残す長い余韻へと続きます。</t>
   </si>
   <si>
-    <t>YUZA游佐2022ウィスキー</t>
-  </si>
-  <si>
     <t xml:space="preserve">Japanese </t>
   </si>
   <si>
@@ -967,9 +952,6 @@
     <t>山崎10年は製造終了した日本のシングルモルトで、蜂蜜、バニラ、果樹園の果実の優雅な風味が特徴です。オークスパイス、軽やかな柑橘類、花の要素がバランスよく調和し、水楢樽特有の白檀のキャラクターがほのかに感じられます。余韻は中程度で、優しい甘さと繊細なスパイスが残ります。</t>
   </si>
   <si>
-    <t>秩父第二蒸留所　ウィスキー</t>
-  </si>
-  <si>
     <t>秩父第二蒸留所からのこのウイスキーは、果樹園の果実と蜂蜜の甘さが穏やかなオークのスパイスとバランスよく調和しています。青りんご、洋梨、バニラの風味に、シナモンとホワイトペッパーのニュアンスが加わります。フィニッシュでは、ナツメグの微かな香りと軽い花の香りを伴った、繊細な麦芽の特徴が現れます。</t>
   </si>
   <si>
@@ -1004,9 +986,6 @@
   </si>
   <si>
     <t>ダルウィニー30年</t>
-  </si>
-  <si>
-    <t>厚岸小暑2024　　ウィスキー</t>
   </si>
   <si>
     <t>厚岸小暑2024は北海道の厚岸蒸留所による季節限定ウイスキーです。繊細な花の香りと軽やかな蜂蜜の甘さ、柑橘類のニュアンス、そして穏やかな樽のスパイスが調和しています。海に近い蒸留所ならではの海風の影響で、わずかな塩気と海藻のヒントが感じられ、厚岸特有の洗練された清々しいフィニッシュが特徴です。</t>
@@ -1105,27 +1084,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>樱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>尾4年2020</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>2020年の4年熟成の日本のウイスキーで、名前（</t>
     </r>
     <r>
@@ -2265,12 +2223,75 @@
     <t>DAILUAINE JAMAICAN RUM10年2012-2022</t>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>秩父第二蒸留所　ウィスキー</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>樱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>尾 4年 2020-2023年　1st fill IPA CASK</t>
+    </r>
+    <rPh sb="15" eb="16">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Ichiros Wine Wood Reserve</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>YUZA 游佐 Second Edition 2022年</t>
+    <rPh sb="27" eb="28">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>厚岸　小暑　2024年</t>
+    <rPh sb="10" eb="11">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Ichiros  Mizunara Wood Reserve</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>KARUIZAWA　25malts　軽井沢</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>軽井沢25maltsは、２５以上のモルトのブレンデッドで、非常に希少な日本のウイスキーで、深みと個性が際立っています。豊かなドライフルーツ、ダークチョコレート、古樹のオークの風味が、オリエンタルスパイス、オレンジピール、わずかな香木の香りと絶妙にバランスしています。口当たりにはシェリーの影響、ドライアプリコット、控えめなスモークが感じられ、サンダルウッドと繊細な旨味を伴う長く複雑な余韻が特徴です。</t>
+    <rPh sb="14" eb="16">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2343,6 +2364,20 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2414,7 +2449,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2457,14 +2492,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2803,9 +2841,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Q110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q112" sqref="Q112"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F119" sqref="F119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2879,7 +2917,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -2911,16 +2949,16 @@
         <v>23</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N2" s="12">
         <v>57.302</v>
@@ -2929,7 +2967,7 @@
         <v>-6.3559999999999999</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="Q2" s="13"/>
     </row>
@@ -2962,16 +3000,16 @@
         <v>32</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="N3" s="12">
         <v>55.63</v>
@@ -2980,7 +3018,7 @@
         <v>-6.1929999999999996</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="Q3" s="13"/>
     </row>
@@ -3007,22 +3045,22 @@
         <v>35</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>37</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N4" s="12">
         <v>57.484999999999999</v>
@@ -3031,7 +3069,7 @@
         <v>-3.2080000000000002</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="Q4" s="13"/>
     </row>
@@ -3040,7 +3078,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>17</v>
@@ -3058,22 +3096,22 @@
         <v>42</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N5" s="12">
         <v>55.756</v>
@@ -3082,7 +3120,7 @@
         <v>-6.2889999999999997</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="Q5" s="13">
         <v>50.2</v>
@@ -3111,22 +3149,22 @@
         <v>46</v>
       </c>
       <c r="H6" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="K6" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="I6" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>341</v>
-      </c>
       <c r="L6" s="12" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="N6" s="12">
         <v>55.991</v>
@@ -3135,7 +3173,7 @@
         <v>-3.827</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="Q6" s="13"/>
     </row>
@@ -3195,22 +3233,22 @@
         <v>55</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N8" s="12">
         <v>55.424999999999997</v>
@@ -3219,7 +3257,7 @@
         <v>-5.609</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="Q8" s="13"/>
     </row>
@@ -3246,22 +3284,22 @@
         <v>58</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N9" s="12">
         <v>55.878</v>
@@ -3270,7 +3308,7 @@
         <v>-6.125</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="Q9" s="13">
         <v>40</v>
@@ -3299,22 +3337,22 @@
         <v>59</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N10" s="12">
         <v>56.624000000000002</v>
@@ -3323,7 +3361,7 @@
         <v>-3.85</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="Q10" s="13"/>
     </row>
@@ -3350,22 +3388,22 @@
         <v>64</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N11" s="12">
         <v>55.640999999999998</v>
@@ -3374,7 +3412,7 @@
         <v>-6.109</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="Q11" s="13"/>
     </row>
@@ -3401,22 +3439,22 @@
         <v>65</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N12" s="12">
         <v>58.968000000000004</v>
@@ -3425,78 +3463,78 @@
         <v>-2.956</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="Q12" s="13"/>
     </row>
     <row r="13" spans="1:17" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="14">
+      <c r="A13" s="15">
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="14" t="s">
+      <c r="C13" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="14" t="s">
-        <v>648</v>
-      </c>
-      <c r="G13" s="15" t="s">
+      <c r="F13" s="15" t="s">
+        <v>640</v>
+      </c>
+      <c r="G13" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="H13" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="I13" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="J13" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L13" s="15">
         <v>1830</v>
       </c>
-      <c r="M13" s="14" t="s">
+      <c r="M13" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="N13" s="14">
+      <c r="N13" s="15">
         <v>57.302</v>
       </c>
-      <c r="O13" s="14">
+      <c r="O13" s="15">
         <v>-6.3559999999999999</v>
       </c>
-      <c r="P13" s="14" t="s">
-        <v>335</v>
+      <c r="P13" s="15" t="s">
+        <v>327</v>
       </c>
       <c r="Q13" s="13"/>
     </row>
     <row r="14" spans="1:17" ht="48.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="14"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
       <c r="Q14" s="13"/>
     </row>
     <row r="15" spans="1:17" ht="79.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -3522,22 +3560,22 @@
         <v>71</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N15" s="12">
         <v>55.640999999999998</v>
@@ -3546,7 +3584,7 @@
         <v>-6.109</v>
       </c>
       <c r="P15" s="12" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="Q15" s="13"/>
     </row>
@@ -3573,22 +3611,22 @@
         <v>76</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N16" s="12">
         <v>37.398000000000003</v>
@@ -3597,7 +3635,7 @@
         <v>140.36000000000001</v>
       </c>
       <c r="P16" s="12" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="Q16" s="13"/>
     </row>
@@ -3624,22 +3662,22 @@
         <v>77</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N17" s="12">
         <v>58.968000000000004</v>
@@ -3648,7 +3686,7 @@
         <v>-2.956</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="Q17" s="13"/>
     </row>
@@ -3657,7 +3695,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>17</v>
@@ -3669,28 +3707,28 @@
         <v>19</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="I18" s="12" t="s">
         <v>37</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N18" s="12">
         <v>57.484999999999999</v>
@@ -3699,13 +3737,13 @@
         <v>-3.2080000000000002</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="Q18" s="13">
         <v>48.1</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -3728,22 +3766,22 @@
         <v>79</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N19" s="12">
         <v>57.451999999999998</v>
@@ -3752,11 +3790,11 @@
         <v>-3.3769999999999998</v>
       </c>
       <c r="P19" s="12" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="Q19" s="13"/>
     </row>
-    <row r="20" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -3779,22 +3817,22 @@
         <v>81</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N20" s="12">
         <v>57.451999999999998</v>
@@ -3803,7 +3841,7 @@
         <v>-3.3769999999999998</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="Q20" s="13"/>
     </row>
@@ -3881,22 +3919,22 @@
         <v>89</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N22" s="12">
         <v>56.835999999999999</v>
@@ -3905,7 +3943,7 @@
         <v>-5.0739999999999998</v>
       </c>
       <c r="P22" s="12" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="Q22" s="13"/>
     </row>
@@ -3932,22 +3970,22 @@
         <v>90</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N23" s="12">
         <v>58.968000000000004</v>
@@ -3956,7 +3994,7 @@
         <v>-2.956</v>
       </c>
       <c r="P23" s="12" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="Q23" s="13"/>
     </row>
@@ -3965,7 +4003,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>17</v>
@@ -3977,28 +4015,28 @@
         <v>93</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>94</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N24" s="12">
         <v>63.002000000000002</v>
@@ -4007,7 +4045,7 @@
         <v>17.798999999999999</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="Q24" s="13">
         <v>64.900000000000006</v>
@@ -4018,7 +4056,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>17</v>
@@ -4036,22 +4074,22 @@
         <v>96</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N25" s="12">
         <v>57.649000000000001</v>
@@ -4060,7 +4098,7 @@
         <v>-3.64</v>
       </c>
       <c r="P25" s="12" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="Q25" s="13">
         <v>58.7</v>
@@ -4089,22 +4127,22 @@
         <v>99</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="M26" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N26" s="12">
         <v>55.78</v>
@@ -4113,7 +4151,7 @@
         <v>-6.4329999999999998</v>
       </c>
       <c r="P26" s="12" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="Q26" s="13"/>
     </row>
@@ -4191,22 +4229,22 @@
         <v>109</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N28" s="12">
         <v>57.444000000000003</v>
@@ -4215,7 +4253,7 @@
         <v>-3.1280000000000001</v>
       </c>
       <c r="P28" s="12" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="Q28" s="13"/>
     </row>
@@ -4242,22 +4280,22 @@
         <v>112</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="M29" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N29" s="12">
         <v>57.444000000000003</v>
@@ -4266,7 +4304,7 @@
         <v>-3.1280000000000001</v>
       </c>
       <c r="P29" s="12" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="Q29" s="13"/>
     </row>
@@ -4275,7 +4313,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>17</v>
@@ -4287,28 +4325,28 @@
         <v>82</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>113</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N30" s="12">
         <v>57.545999999999999</v>
@@ -4317,7 +4355,7 @@
         <v>-3.048</v>
       </c>
       <c r="P30" s="12" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="Q30" s="13"/>
     </row>
@@ -4344,22 +4382,22 @@
         <v>116</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="I31" s="12" t="s">
         <v>37</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="M31" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N31" s="12">
         <v>57.484999999999999</v>
@@ -4368,7 +4406,7 @@
         <v>-3.2080000000000002</v>
       </c>
       <c r="P31" s="12" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="Q31" s="13"/>
     </row>
@@ -4377,7 +4415,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>17</v>
@@ -4389,28 +4427,28 @@
         <v>118</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>119</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="M32" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N32" s="12">
         <v>53.338000000000001</v>
@@ -4419,7 +4457,7 @@
         <v>-6.2779999999999996</v>
       </c>
       <c r="P32" s="12" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="Q32" s="13">
         <v>62.5</v>
@@ -4448,22 +4486,22 @@
         <v>119</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="L33" s="12" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="M33" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N33" s="12">
         <v>53.338000000000001</v>
@@ -4472,7 +4510,7 @@
         <v>-6.2779999999999996</v>
       </c>
       <c r="P33" s="12" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="Q33" s="13"/>
     </row>
@@ -4499,22 +4537,22 @@
         <v>126</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L34" s="12" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="M34" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N34" s="12">
         <v>58.023000000000003</v>
@@ -4523,7 +4561,7 @@
         <v>-3.867</v>
       </c>
       <c r="P34" s="12" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="Q34" s="13"/>
     </row>
@@ -4550,22 +4588,22 @@
         <v>129</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L35" s="12" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="M35" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N35" s="12">
         <v>57.337000000000003</v>
@@ -4574,7 +4612,7 @@
         <v>-2.3149999999999999</v>
       </c>
       <c r="P35" s="12" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="Q35" s="13"/>
     </row>
@@ -4601,22 +4639,22 @@
         <v>132</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L36" s="12" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="M36" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N36" s="12">
         <v>57.337000000000003</v>
@@ -4625,7 +4663,7 @@
         <v>-2.3149999999999999</v>
       </c>
       <c r="P36" s="12" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="Q36" s="13"/>
     </row>
@@ -4634,7 +4672,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>17</v>
@@ -4646,28 +4684,28 @@
         <v>60</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="G37" s="8" t="s">
         <v>133</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L37" s="12" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="M37" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N37" s="12">
         <v>56.704000000000001</v>
@@ -4676,7 +4714,7 @@
         <v>-3.7330000000000001</v>
       </c>
       <c r="P37" s="12" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="Q37" s="13">
         <v>55.5</v>
@@ -4687,7 +4725,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>17</v>
@@ -4705,22 +4743,22 @@
         <v>134</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L38" s="12" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="M38" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N38" s="12">
         <v>55.756</v>
@@ -4729,7 +4767,7 @@
         <v>-6.2889999999999997</v>
       </c>
       <c r="P38" s="12" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="Q38" s="13">
         <v>46</v>
@@ -4752,28 +4790,28 @@
         <v>137</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="G39" s="8" t="s">
         <v>138</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L39" s="12" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="M39" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N39" s="12">
         <v>55.756</v>
@@ -4782,11 +4820,11 @@
         <v>-6.2889999999999997</v>
       </c>
       <c r="P39" s="12" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="Q39" s="13"/>
     </row>
-    <row r="40" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -4809,22 +4847,22 @@
         <v>139</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="L40" s="12" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="M40" s="12" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="N40" s="12">
         <v>36.347999999999999</v>
@@ -4833,7 +4871,7 @@
         <v>138.596</v>
       </c>
       <c r="P40" s="12" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="Q40" s="13"/>
     </row>
@@ -4842,7 +4880,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>17</v>
@@ -4860,22 +4898,22 @@
         <v>142</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L41" s="12" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="M41" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N41" s="12">
         <v>55.853999999999999</v>
@@ -4884,7 +4922,7 @@
         <v>-6.1079999999999997</v>
       </c>
       <c r="P41" s="12" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="Q41" s="13">
         <v>54.1</v>
@@ -4895,7 +4933,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>17</v>
@@ -4907,28 +4945,28 @@
         <v>124</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>143</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L42" s="12" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="M42" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N42" s="12">
         <v>56.847000000000001</v>
@@ -4937,7 +4975,7 @@
         <v>-2.5880000000000001</v>
       </c>
       <c r="P42" s="12" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="Q42" s="13"/>
     </row>
@@ -4946,7 +4984,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>17</v>
@@ -4958,28 +4996,28 @@
         <v>82</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="G43" s="8" t="s">
         <v>144</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L43" s="12" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="M43" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N43" s="12">
         <v>57.427</v>
@@ -4988,7 +5026,7 @@
         <v>-3.3130000000000002</v>
       </c>
       <c r="P43" s="12" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="Q43" s="13">
         <v>58.7</v>
@@ -5050,22 +5088,22 @@
         <v>151</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L45" s="12" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="M45" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N45" s="12">
         <v>57.646999999999998</v>
@@ -5074,7 +5112,7 @@
         <v>-3.2930000000000001</v>
       </c>
       <c r="P45" s="12" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="Q45" s="13"/>
     </row>
@@ -5095,28 +5133,28 @@
         <v>28</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>99</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="I46" s="12" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="K46" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L46" s="12" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="M46" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N46" s="12">
         <v>55.78</v>
@@ -5125,7 +5163,7 @@
         <v>-6.4329999999999998</v>
       </c>
       <c r="P46" s="12" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="Q46" s="13">
         <v>50</v>
@@ -5136,7 +5174,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>17</v>
@@ -5148,7 +5186,7 @@
         <v>19</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="G47" s="8" t="s">
         <v>153</v>
@@ -5187,7 +5225,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>17</v>
@@ -5205,22 +5243,22 @@
         <v>99</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="J48" s="12" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L48" s="12" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="M48" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N48" s="12">
         <v>55.78</v>
@@ -5229,7 +5267,7 @@
         <v>-6.4329999999999998</v>
       </c>
       <c r="P48" s="12" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="Q48" s="13">
         <v>55.7</v>
@@ -5258,22 +5296,22 @@
         <v>161</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L49" s="12" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="M49" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N49" s="12">
         <v>56.847000000000001</v>
@@ -5282,7 +5320,7 @@
         <v>-2.5880000000000001</v>
       </c>
       <c r="P49" s="12" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="Q49" s="13"/>
     </row>
@@ -5309,22 +5347,22 @@
         <v>164</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="I50" s="12" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="J50" s="12" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L50" s="12" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="M50" s="12" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="N50" s="12">
         <v>57.683999999999997</v>
@@ -5333,7 +5371,7 @@
         <v>-2.5649999999999999</v>
       </c>
       <c r="P50" s="12" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="Q50" s="13"/>
     </row>
@@ -5411,22 +5449,22 @@
         <v>171</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="J52" s="12" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L52" s="12" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="M52" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N52" s="12">
         <v>55.424999999999997</v>
@@ -5435,7 +5473,7 @@
         <v>-5.609</v>
       </c>
       <c r="P52" s="12" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="Q52" s="13"/>
     </row>
@@ -5444,7 +5482,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>17</v>
@@ -5462,22 +5500,22 @@
         <v>142</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L53" s="12" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="M53" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N53" s="12">
         <v>55.853999999999999</v>
@@ -5486,7 +5524,7 @@
         <v>-6.1079999999999997</v>
       </c>
       <c r="P53" s="12" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="Q53" s="13"/>
     </row>
@@ -5513,22 +5551,22 @@
         <v>173</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L54" s="12" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="M54" s="12" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="N54" s="12">
         <v>55.767000000000003</v>
@@ -5537,16 +5575,16 @@
         <v>-6.3620000000000001</v>
       </c>
       <c r="P54" s="12" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="Q54" s="13"/>
     </row>
-    <row r="55" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="3">
         <v>53</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>17</v>
@@ -5564,22 +5602,22 @@
         <v>175</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L55" s="12" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="M55" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N55" s="12">
         <v>57.451999999999998</v>
@@ -5588,7 +5626,7 @@
         <v>-3.3769999999999998</v>
       </c>
       <c r="P55" s="12" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="Q55" s="13">
         <v>57.3</v>
@@ -5599,7 +5637,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>17</v>
@@ -5617,22 +5655,22 @@
         <v>177</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="I56" s="12" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="J56" s="12" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="K56" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L56" s="12" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="M56" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N56" s="12">
         <v>57.533000000000001</v>
@@ -5641,7 +5679,7 @@
         <v>-3.206</v>
       </c>
       <c r="P56" s="12" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="Q56" s="13">
         <v>58.1</v>
@@ -5652,7 +5690,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>17</v>
@@ -5670,22 +5708,22 @@
         <v>179</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="J57" s="12" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="K57" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L57" s="12" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="M57" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N57" s="12">
         <v>57.343000000000004</v>
@@ -5694,7 +5732,7 @@
         <v>-3.3380000000000001</v>
       </c>
       <c r="P57" s="12" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="Q57" s="13">
         <v>58.3</v>
@@ -5723,22 +5761,22 @@
         <v>183</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="J58" s="12" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="K58" s="12" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="L58" s="12" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="M58" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N58" s="12">
         <v>35.988999999999997</v>
@@ -5747,7 +5785,7 @@
         <v>139.072</v>
       </c>
       <c r="P58" s="12" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="Q58" s="13"/>
     </row>
@@ -5774,22 +5812,22 @@
         <v>186</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="J59" s="12" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="K59" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L59" s="12" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="M59" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N59" s="12">
         <v>58.968000000000004</v>
@@ -5798,7 +5836,7 @@
         <v>-2.956</v>
       </c>
       <c r="P59" s="12" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="Q59" s="13"/>
     </row>
@@ -5825,22 +5863,22 @@
         <v>187</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="J60" s="12" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="K60" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L60" s="12" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="M60" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N60" s="12">
         <v>55.640999999999998</v>
@@ -5849,7 +5887,7 @@
         <v>-6.109</v>
       </c>
       <c r="P60" s="12" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="Q60" s="13"/>
     </row>
@@ -5858,7 +5896,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>17</v>
@@ -5870,28 +5908,28 @@
         <v>82</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="G61" s="8" t="s">
         <v>86</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="I61" s="12" t="s">
         <v>37</v>
       </c>
       <c r="J61" s="12" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="K61" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L61" s="12" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="M61" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N61" s="12">
         <v>57.484999999999999</v>
@@ -5900,7 +5938,7 @@
         <v>-3.2080000000000002</v>
       </c>
       <c r="P61" s="12" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="Q61" s="13">
         <v>40</v>
@@ -5911,7 +5949,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>17</v>
@@ -5929,22 +5967,22 @@
         <v>190</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="J62" s="12" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="K62" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L62" s="12" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="M62" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N62" s="12">
         <v>56.835999999999999</v>
@@ -5953,7 +5991,7 @@
         <v>-5.0739999999999998</v>
       </c>
       <c r="P62" s="12" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="Q62" s="13">
         <v>40</v>
@@ -5982,22 +6020,22 @@
         <v>194</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="I63" s="12" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="J63" s="12" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="K63" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L63" s="12" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="M63" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N63" s="12">
         <v>55.832999999999998</v>
@@ -6006,7 +6044,7 @@
         <v>-5.9509999999999996</v>
       </c>
       <c r="P63" s="12" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="Q63" s="13">
         <v>60.7</v>
@@ -6035,22 +6073,22 @@
         <v>198</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="J64" s="12" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="K64" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L64" s="12" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="M64" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N64" s="12">
         <v>56.701999999999998</v>
@@ -6059,7 +6097,7 @@
         <v>-3.702</v>
       </c>
       <c r="P64" s="12" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="Q64" s="13"/>
     </row>
@@ -6086,22 +6124,22 @@
         <v>199</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="I65" s="12" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="J65" s="12" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="K65" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L65" s="12" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="M65" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N65" s="12">
         <v>55.424999999999997</v>
@@ -6110,7 +6148,7 @@
         <v>-5.609</v>
       </c>
       <c r="P65" s="12" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="Q65" s="13"/>
     </row>
@@ -6137,22 +6175,22 @@
         <v>203</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="J66" s="12" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="K66" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L66" s="12" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="M66" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N66" s="12">
         <v>56.622999999999998</v>
@@ -6161,7 +6199,7 @@
         <v>-6.07</v>
       </c>
       <c r="P66" s="12" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="Q66" s="13"/>
     </row>
@@ -6170,7 +6208,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>17</v>
@@ -6188,22 +6226,22 @@
         <v>204</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="J67" s="12" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="K67" s="12" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="L67" s="12" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="M67" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N67" s="12">
         <v>35.988999999999997</v>
@@ -6212,7 +6250,7 @@
         <v>139.072</v>
       </c>
       <c r="P67" s="12" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="Q67" s="13">
         <v>48</v>
@@ -6241,22 +6279,22 @@
         <v>208</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="I68" s="12" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="J68" s="12" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="K68" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L68" s="12" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="M68" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N68" s="12">
         <v>57.646999999999998</v>
@@ -6265,7 +6303,7 @@
         <v>-3.2930000000000001</v>
       </c>
       <c r="P68" s="12" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="Q68" s="13"/>
     </row>
@@ -6292,22 +6330,22 @@
         <v>164</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="I69" s="12" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="J69" s="12" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="K69" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L69" s="12" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="M69" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N69" s="12">
         <v>57.551000000000002</v>
@@ -6316,7 +6354,7 @@
         <v>-4.4340000000000002</v>
       </c>
       <c r="P69" s="12" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="Q69" s="13"/>
     </row>
@@ -6325,7 +6363,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>17</v>
@@ -6343,22 +6381,22 @@
         <v>142</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="J70" s="12" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="K70" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L70" s="12" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="M70" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N70" s="12">
         <v>55.853999999999999</v>
@@ -6367,7 +6405,7 @@
         <v>-6.1079999999999997</v>
       </c>
       <c r="P70" s="12" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="Q70" s="13">
         <v>43</v>
@@ -6396,22 +6434,22 @@
         <v>212</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="J71" s="12" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="K71" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L71" s="12" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="M71" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N71" s="12">
         <v>57.444000000000003</v>
@@ -6420,7 +6458,7 @@
         <v>-3.1280000000000001</v>
       </c>
       <c r="P71" s="12" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="Q71" s="13"/>
     </row>
@@ -6447,22 +6485,22 @@
         <v>216</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="I72" s="12" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="J72" s="12" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="K72" s="12" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="L72" s="12" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="M72" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N72" s="12">
         <v>34.890999999999998</v>
@@ -6471,7 +6509,7 @@
         <v>135.67500000000001</v>
       </c>
       <c r="P72" s="12" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="Q72" s="13"/>
     </row>
@@ -6498,22 +6536,22 @@
         <v>219</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="I73" s="12" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="J73" s="12" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="K73" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L73" s="12" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="M73" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N73" s="12">
         <v>58.968000000000004</v>
@@ -6522,7 +6560,7 @@
         <v>-2.956</v>
       </c>
       <c r="P73" s="12" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="Q73" s="13"/>
     </row>
@@ -6549,22 +6587,22 @@
         <v>99</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="I74" s="12" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="J74" s="12" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="K74" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L74" s="12" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="M74" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N74" s="12">
         <v>55.78</v>
@@ -6573,11 +6611,11 @@
         <v>-6.4329999999999998</v>
       </c>
       <c r="P74" s="12" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="Q74" s="13"/>
     </row>
-    <row r="75" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A75" s="3">
         <v>73</v>
       </c>
@@ -6600,22 +6638,22 @@
         <v>224</v>
       </c>
       <c r="H75" s="12" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="I75" s="12" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="J75" s="12" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="K75" s="12" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="L75" s="12" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="M75" s="12" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="N75" s="12">
         <v>36.347999999999999</v>
@@ -6624,7 +6662,7 @@
         <v>138.596</v>
       </c>
       <c r="P75" s="12" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="Q75" s="13"/>
     </row>
@@ -6633,7 +6671,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>17</v>
@@ -6645,28 +6683,28 @@
         <v>19</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="G76" s="8" t="s">
         <v>99</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="I76" s="12" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="J76" s="12" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="K76" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L76" s="12" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="M76" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N76" s="12">
         <v>55.78</v>
@@ -6675,7 +6713,7 @@
         <v>-6.4329999999999998</v>
       </c>
       <c r="P76" s="12" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="Q76" s="13">
         <v>50</v>
@@ -6704,22 +6742,22 @@
         <v>228</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="I77" s="12" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="J77" s="12" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="K77" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L77" s="12" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="M77" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N77" s="12">
         <v>57.427</v>
@@ -6728,16 +6766,16 @@
         <v>-3.3130000000000002</v>
       </c>
       <c r="P77" s="12" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="Q77" s="13"/>
     </row>
-    <row r="78" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A78" s="3">
         <v>76</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>229</v>
+        <v>657</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>17</v>
@@ -6749,28 +6787,28 @@
         <v>74</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>230</v>
+        <v>658</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H78" s="12" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="I78" s="12" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="J78" s="12" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="K78" s="12" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="L78" s="12" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="M78" s="12" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="N78" s="12">
         <v>36.347999999999999</v>
@@ -6779,16 +6817,16 @@
         <v>138.596</v>
       </c>
       <c r="P78" s="12" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="Q78" s="13"/>
     </row>
-    <row r="79" spans="1:17" ht="48" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A79" s="3">
         <v>77</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>17</v>
@@ -6800,19 +6838,19 @@
         <v>166</v>
       </c>
       <c r="F79" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="H79" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="G79" s="8" t="s">
+      <c r="I79" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="H79" s="3" t="s">
+      <c r="J79" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J79" s="3" t="s">
-        <v>236</v>
       </c>
       <c r="K79" s="3" t="s">
         <v>48</v>
@@ -6830,7 +6868,7 @@
         <v>132.334</v>
       </c>
       <c r="P79" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="Q79" s="13"/>
     </row>
@@ -6839,7 +6877,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>17</v>
@@ -6851,28 +6889,28 @@
         <v>60</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="I80" s="12" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="J80" s="12" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="K80" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L80" s="12" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="M80" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N80" s="12">
         <v>57.52</v>
@@ -6881,7 +6919,7 @@
         <v>-4.0469999999999997</v>
       </c>
       <c r="P80" s="12" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="Q80" s="13"/>
     </row>
@@ -6890,7 +6928,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>17</v>
@@ -6902,28 +6940,28 @@
         <v>82</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="I81" s="12" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="J81" s="12" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="K81" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L81" s="12" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="M81" s="12" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="N81" s="12">
         <v>57.438000000000002</v>
@@ -6932,7 +6970,7 @@
         <v>-3.3460000000000001</v>
       </c>
       <c r="P81" s="12" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="Q81" s="13"/>
     </row>
@@ -6941,7 +6979,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>243</v>
+        <v>656</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>17</v>
@@ -6953,28 +6991,28 @@
         <v>166</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="I82" s="12" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="J82" s="12" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="K82" s="12" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="L82" s="12" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="M82" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N82" s="12">
         <v>35.988999999999997</v>
@@ -6983,16 +7021,18 @@
         <v>139.072</v>
       </c>
       <c r="P82" s="12" t="s">
-        <v>441</v>
-      </c>
-      <c r="Q82" s="13"/>
+        <v>433</v>
+      </c>
+      <c r="Q82" s="13">
+        <v>46</v>
+      </c>
     </row>
     <row r="83" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A83" s="3">
         <v>81</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>246</v>
+        <v>653</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>17</v>
@@ -7004,28 +7044,28 @@
         <v>74</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="I83" s="12" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="J83" s="12" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="K83" s="12" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="L83" s="12" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="M83" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N83" s="12">
         <v>35.988999999999997</v>
@@ -7034,16 +7074,18 @@
         <v>139.072</v>
       </c>
       <c r="P83" s="12" t="s">
-        <v>441</v>
-      </c>
-      <c r="Q83" s="13"/>
+        <v>433</v>
+      </c>
+      <c r="Q83" s="13">
+        <v>46</v>
+      </c>
     </row>
     <row r="84" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A84" s="3">
         <v>82</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>17</v>
@@ -7055,28 +7097,28 @@
         <v>74</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="I84" s="12" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="J84" s="12" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="K84" s="12" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="L84" s="12" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="M84" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N84" s="12">
         <v>35.988999999999997</v>
@@ -7085,16 +7127,16 @@
         <v>139.072</v>
       </c>
       <c r="P84" s="12" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="Q84" s="13"/>
     </row>
-    <row r="85" spans="1:17" ht="79.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:17" ht="78.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A85" s="3">
         <v>83</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>17</v>
@@ -7106,19 +7148,19 @@
         <v>74</v>
       </c>
       <c r="F85" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="J85" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="G85" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="H85" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="I85" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="J85" s="3" t="s">
-        <v>256</v>
       </c>
       <c r="K85" s="3" t="s">
         <v>48</v>
@@ -7127,7 +7169,7 @@
         <v>1985</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="N85" s="3">
         <v>35.899000000000001</v>
@@ -7136,16 +7178,16 @@
         <v>137.94200000000001</v>
       </c>
       <c r="P85" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="Q85" s="13"/>
     </row>
-    <row r="86" spans="1:17" ht="48" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A86" s="3">
         <v>84</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>17</v>
@@ -7157,16 +7199,16 @@
         <v>19</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="J86" s="3" t="s">
         <v>38</v>
@@ -7187,16 +7229,16 @@
         <v>-3.1179999999999999</v>
       </c>
       <c r="P86" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Q86" s="13"/>
     </row>
-    <row r="87" spans="1:17" ht="79.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:17" ht="78.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A87" s="3">
         <v>85</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>17</v>
@@ -7208,10 +7250,10 @@
         <v>82</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
@@ -7231,7 +7273,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>17</v>
@@ -7240,31 +7282,31 @@
         <v>25</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="I88" s="12" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="J88" s="12" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="K88" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L88" s="12" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="M88" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N88" s="12">
         <v>57.688000000000002</v>
@@ -7273,16 +7315,16 @@
         <v>-4.1680000000000001</v>
       </c>
       <c r="P88" s="12" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="Q88" s="13"/>
     </row>
-    <row r="89" spans="1:17" ht="48" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A89" s="3">
         <v>87</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>17</v>
@@ -7294,19 +7336,19 @@
         <v>74</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G89" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="I89" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="H89" s="3" t="s">
+      <c r="J89" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>236</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>48</v>
@@ -7324,7 +7366,7 @@
         <v>132.334</v>
       </c>
       <c r="P89" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="Q89" s="13"/>
     </row>
@@ -7333,7 +7375,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>17</v>
@@ -7345,28 +7387,28 @@
         <v>74</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H90" s="12" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="I90" s="12" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="J90" s="12" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="K90" s="12" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="L90" s="12" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="M90" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N90" s="12">
         <v>37.398000000000003</v>
@@ -7375,7 +7417,7 @@
         <v>140.36000000000001</v>
       </c>
       <c r="P90" s="12" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="Q90" s="13"/>
     </row>
@@ -7384,7 +7426,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>17</v>
@@ -7396,28 +7438,28 @@
         <v>121</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H91" s="12" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="I91" s="12" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="J91" s="12" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="K91" s="12" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="L91" s="12" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="M91" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N91" s="12">
         <v>53.338000000000001</v>
@@ -7426,16 +7468,16 @@
         <v>-6.2779999999999996</v>
       </c>
       <c r="P91" s="12" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="Q91" s="13"/>
     </row>
-    <row r="92" spans="1:17" ht="48" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A92" s="3">
         <v>90</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>17</v>
@@ -7447,7 +7489,7 @@
         <v>74</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G92" s="8" t="s">
         <v>102</v>
@@ -7486,7 +7528,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>17</v>
@@ -7498,28 +7540,28 @@
         <v>82</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H93" s="12" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="I93" s="12" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="J93" s="12" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="K93" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L93" s="12" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="M93" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N93" s="12">
         <v>57.253</v>
@@ -7528,7 +7570,7 @@
         <v>-3.3780000000000001</v>
       </c>
       <c r="P93" s="12" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="Q93" s="13">
         <v>54.8</v>
@@ -7539,7 +7581,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>17</v>
@@ -7551,28 +7593,28 @@
         <v>60</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="I94" s="12" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="J94" s="12" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="K94" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L94" s="12" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="M94" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N94" s="12">
         <v>57.756</v>
@@ -7581,7 +7623,7 @@
         <v>-4.2229999999999999</v>
       </c>
       <c r="P94" s="12" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="Q94" s="13">
         <v>52.1</v>
@@ -7592,7 +7634,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>17</v>
@@ -7604,28 +7646,28 @@
         <v>82</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="I95" s="12" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="J95" s="12" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="K95" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L95" s="12" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="M95" s="12" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="N95" s="12">
         <v>57.453000000000003</v>
@@ -7634,7 +7676,7 @@
         <v>-3.1160000000000001</v>
       </c>
       <c r="P95" s="12" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="Q95" s="13">
         <v>51.4</v>
@@ -7645,7 +7687,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>17</v>
@@ -7657,28 +7699,28 @@
         <v>28</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H96" s="12" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="I96" s="12" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="J96" s="12" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="K96" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L96" s="12" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="M96" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N96" s="12">
         <v>55.640999999999998</v>
@@ -7687,7 +7729,7 @@
         <v>-6.109</v>
       </c>
       <c r="P96" s="12" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="Q96" s="13"/>
     </row>
@@ -7696,7 +7738,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>17</v>
@@ -7708,28 +7750,28 @@
         <v>19</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H97" s="12" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="I97" s="12" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="J97" s="12" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="K97" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L97" s="12" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="M97" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N97" s="12">
         <v>57.826000000000001</v>
@@ -7738,7 +7780,7 @@
         <v>-4.0789999999999997</v>
       </c>
       <c r="P97" s="12" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="Q97" s="13">
         <v>43</v>
@@ -7749,7 +7791,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>17</v>
@@ -7761,28 +7803,28 @@
         <v>60</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H98" s="12" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="I98" s="12" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="J98" s="12" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="K98" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L98" s="12" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="M98" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N98" s="12">
         <v>57.52</v>
@@ -7791,18 +7833,18 @@
         <v>-4.0469999999999997</v>
       </c>
       <c r="P98" s="12" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="Q98" s="13">
         <v>58.1</v>
       </c>
     </row>
-    <row r="99" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A99" s="3">
         <v>97</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>17</v>
@@ -7811,31 +7853,31 @@
         <v>25</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H99" s="12" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="I99" s="12" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="J99" s="12" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="K99" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L99" s="12" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="M99" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N99" s="12">
         <v>57.451999999999998</v>
@@ -7844,7 +7886,7 @@
         <v>-3.3769999999999998</v>
       </c>
       <c r="P99" s="12" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="Q99" s="13">
         <v>59.6</v>
@@ -7855,7 +7897,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>17</v>
@@ -7867,28 +7909,28 @@
         <v>19</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H100" s="12" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="I100" s="12" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="J100" s="12" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="K100" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L100" s="12" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="M100" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N100" s="12">
         <v>57.826000000000001</v>
@@ -7897,7 +7939,7 @@
         <v>-4.0789999999999997</v>
       </c>
       <c r="P100" s="12" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="Q100" s="13"/>
     </row>
@@ -7906,7 +7948,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>296</v>
+        <v>654</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>17</v>
@@ -7915,22 +7957,22 @@
         <v>48</v>
       </c>
       <c r="E101" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="G101" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="J101" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="G101" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>302</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>48</v>
@@ -7948,16 +7990,18 @@
         <v>139.90799999999999</v>
       </c>
       <c r="P101" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q101" s="13"/>
+        <v>298</v>
+      </c>
+      <c r="Q101" s="13">
+        <v>62</v>
+      </c>
     </row>
     <row r="102" spans="1:17" ht="182.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A102" s="3">
         <v>100</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>17</v>
@@ -7969,28 +8013,28 @@
         <v>74</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H102" s="12" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="I102" s="12" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="J102" s="12" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="K102" s="12" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="L102" s="12" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="M102" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N102" s="12">
         <v>34.652999999999999</v>
@@ -7999,7 +8043,7 @@
         <v>134.989</v>
       </c>
       <c r="P102" s="12" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="Q102" s="13">
         <v>50</v>
@@ -8010,7 +8054,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>17</v>
@@ -8022,28 +8066,28 @@
         <v>74</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="G103" s="8" t="s">
         <v>216</v>
       </c>
       <c r="H103" s="12" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="I103" s="12" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="J103" s="12" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="K103" s="12" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="L103" s="12" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="M103" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N103" s="12">
         <v>34.890999999999998</v>
@@ -8052,7 +8096,7 @@
         <v>135.67500000000001</v>
       </c>
       <c r="P103" s="12" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="Q103" s="13"/>
     </row>
@@ -8061,7 +8105,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>308</v>
+        <v>651</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>17</v>
@@ -8073,28 +8117,28 @@
         <v>74</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="H104" s="12" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="I104" s="12" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="J104" s="12" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="K104" s="12" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="L104" s="12" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="M104" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N104" s="12">
         <v>35.988999999999997</v>
@@ -8103,16 +8147,18 @@
         <v>139.072</v>
       </c>
       <c r="P104" s="12" t="s">
-        <v>441</v>
-      </c>
-      <c r="Q104" s="13"/>
+        <v>433</v>
+      </c>
+      <c r="Q104" s="13">
+        <v>55</v>
+      </c>
     </row>
     <row r="105" spans="1:17" ht="78.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A105" s="3">
         <v>103</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>17</v>
@@ -8124,19 +8170,19 @@
         <v>74</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K105" s="3" t="s">
         <v>48</v>
@@ -8145,7 +8191,7 @@
         <v>1985</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="N105" s="3">
         <v>35.899000000000001</v>
@@ -8154,7 +8200,7 @@
         <v>137.94200000000001</v>
       </c>
       <c r="P105" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="Q105" s="13">
         <v>48</v>
@@ -8165,7 +8211,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>17</v>
@@ -8174,22 +8220,22 @@
         <v>48</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K106" s="3" t="s">
         <v>48</v>
@@ -8198,7 +8244,7 @@
         <v>1985</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="N106" s="3">
         <v>35.899000000000001</v>
@@ -8207,7 +8253,7 @@
         <v>137.94200000000001</v>
       </c>
       <c r="P106" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="Q106" s="13"/>
     </row>
@@ -8216,7 +8262,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>17</v>
@@ -8225,31 +8271,31 @@
         <v>48</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="H107" s="12" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="I107" s="12" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="J107" s="12" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="K107" s="12" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="L107" s="12" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="M107" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N107" s="12">
         <v>36.637999999999998</v>
@@ -8258,7 +8304,7 @@
         <v>136.964</v>
       </c>
       <c r="P107" s="12" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="Q107" s="13"/>
     </row>
@@ -8267,7 +8313,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>17</v>
@@ -8279,28 +8325,28 @@
         <v>19</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="H108" s="12" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="I108" s="12" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="J108" s="12" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="K108" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L108" s="12" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="M108" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N108" s="12">
         <v>56.94</v>
@@ -8309,7 +8355,7 @@
         <v>-4.2370000000000001</v>
       </c>
       <c r="P108" s="12" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="Q108" s="13"/>
     </row>
@@ -8318,7 +8364,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>321</v>
+        <v>655</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>17</v>
@@ -8330,28 +8376,28 @@
         <v>74</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="H109" s="12" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="I109" s="12" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="J109" s="12" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="K109" s="12" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="L109" s="12" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="M109" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N109" s="12">
         <v>43.052</v>
@@ -8360,16 +8406,18 @@
         <v>144.84299999999999</v>
       </c>
       <c r="P109" s="12" t="s">
-        <v>482</v>
-      </c>
-      <c r="Q109" s="13"/>
+        <v>474</v>
+      </c>
+      <c r="Q109" s="13">
+        <v>55</v>
+      </c>
     </row>
     <row r="110" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A110" s="3">
         <v>108</v>
       </c>
-      <c r="B110" s="3" t="s">
-        <v>330</v>
+      <c r="B110" s="17" t="s">
+        <v>652</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>17</v>
@@ -8381,19 +8429,19 @@
         <v>74</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="G110" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="I110" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="H110" s="3" t="s">
+      <c r="J110" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="I110" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J110" s="3" t="s">
-        <v>236</v>
       </c>
       <c r="K110" s="3" t="s">
         <v>48</v>
@@ -8411,26 +8459,21 @@
         <v>132.334</v>
       </c>
       <c r="P110" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q110" s="13"/>
+        <v>235</v>
+      </c>
+      <c r="Q110" s="13">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:P110" xr:uid="{D4F60670-F158-4C9B-93E8-D52D53F4A8E3}">
     <filterColumn colId="7">
       <filters>
-        <filter val="ダリュイン蒸溜所"/>
+        <filter val="軽井沢蒸溜所"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="16">
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="B13:B14"/>
     <mergeCell ref="N13:N14"/>
     <mergeCell ref="O13:O14"/>
     <mergeCell ref="P13:P14"/>
@@ -8440,6 +8483,13 @@
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="L13:L14"/>
     <mergeCell ref="M13:M14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="B13:B14"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8470,16 +8520,16 @@
   <sheetData>
     <row r="1" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>11</v>
@@ -8494,7 +8544,7 @@
         <v>14</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -8505,16 +8555,16 @@
         <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G2" s="5">
         <v>57.302</v>
@@ -8523,7 +8573,7 @@
         <v>-6.3559999999999999</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -8534,16 +8584,16 @@
         <v>32</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="G3" s="5">
         <v>55.63</v>
@@ -8552,27 +8602,27 @@
         <v>-6.1929999999999996</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G4" s="5">
         <v>57.484999999999999</v>
@@ -8581,27 +8631,27 @@
         <v>-3.2080000000000002</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G5" s="5">
         <v>55.756</v>
@@ -8610,27 +8660,27 @@
         <v>-6.2889999999999997</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>341</v>
-      </c>
       <c r="E6" s="5" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="G6" s="5">
         <v>55.991</v>
@@ -8639,27 +8689,27 @@
         <v>-3.827</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G7" s="5">
         <v>55.424999999999997</v>
@@ -8668,27 +8718,27 @@
         <v>-5.609</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G8" s="5">
         <v>55.878</v>
@@ -8697,27 +8747,27 @@
         <v>-6.125</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G9" s="5">
         <v>56.624000000000002</v>
@@ -8726,27 +8776,27 @@
         <v>-3.85</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G10" s="5">
         <v>55.640999999999998</v>
@@ -8755,27 +8805,27 @@
         <v>-6.109</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G11" s="5">
         <v>58.968000000000004</v>
@@ -8784,27 +8834,27 @@
         <v>-2.956</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G12" s="5">
         <v>37.398000000000003</v>
@@ -8813,27 +8863,27 @@
         <v>140.36000000000001</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G13" s="5">
         <v>57.451999999999998</v>
@@ -8842,27 +8892,27 @@
         <v>-3.3769999999999998</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G14" s="5">
         <v>56.835999999999999</v>
@@ -8871,27 +8921,27 @@
         <v>-5.0739999999999998</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G15" s="5">
         <v>57.545999999999999</v>
@@ -8900,27 +8950,27 @@
         <v>-3.048</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G16" s="5">
         <v>57.444000000000003</v>
@@ -8929,27 +8979,27 @@
         <v>-3.1280000000000001</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G17" s="5">
         <v>56.704000000000001</v>
@@ -8958,27 +9008,27 @@
         <v>-3.7330000000000001</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G18" s="5">
         <v>55.853999999999999</v>
@@ -8987,27 +9037,27 @@
         <v>-6.1079999999999997</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G19" s="5">
         <v>56.847000000000001</v>
@@ -9016,27 +9066,27 @@
         <v>-2.5880000000000001</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G20" s="5">
         <v>57.427</v>
@@ -9045,27 +9095,27 @@
         <v>-3.3130000000000002</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G21" s="5">
         <v>57.646999999999998</v>
@@ -9074,27 +9124,27 @@
         <v>-3.2930000000000001</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G22" s="5">
         <v>55.78</v>
@@ -9103,27 +9153,27 @@
         <v>-6.4329999999999998</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G23" s="5">
         <v>57.533000000000001</v>
@@ -9132,27 +9182,27 @@
         <v>-3.206</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G24" s="5">
         <v>57.343000000000004</v>
@@ -9161,27 +9211,27 @@
         <v>-3.3380000000000001</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G25" s="5">
         <v>34.890999999999998</v>
@@ -9190,27 +9240,27 @@
         <v>135.67500000000001</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G26" s="5">
         <v>35.988999999999997</v>
@@ -9219,27 +9269,27 @@
         <v>139.072</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G27" s="5">
         <v>35.773000000000003</v>
@@ -9248,7 +9298,7 @@
         <v>137.93700000000001</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -9259,16 +9309,16 @@
         <v>104</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G28" s="5">
         <v>35.380000000000003</v>
@@ -9277,27 +9327,27 @@
         <v>136.274</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G29" s="5">
         <v>36.637999999999998</v>
@@ -9306,27 +9356,27 @@
         <v>136.964</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G30" s="5">
         <v>53.338000000000001</v>
@@ -9335,27 +9385,27 @@
         <v>-6.2779999999999996</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G31" s="5">
         <v>63.040999999999997</v>
@@ -9364,27 +9414,27 @@
         <v>17.739000000000001</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G32" s="5">
         <v>57.649000000000001</v>
@@ -9393,27 +9443,27 @@
         <v>-3.64</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="G33" s="5">
         <v>36.347999999999999</v>
@@ -9422,27 +9472,27 @@
         <v>138.596</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="147.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G34" s="5">
         <v>56.94</v>
@@ -9451,27 +9501,27 @@
         <v>-4.2370000000000001</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G35" s="5">
         <v>43.052</v>
@@ -9480,27 +9530,27 @@
         <v>144.84299999999999</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G36" s="5">
         <v>55.640999999999998</v>
@@ -9509,27 +9559,27 @@
         <v>-6.109</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G37" s="5">
         <v>58.968000000000004</v>
@@ -9538,7 +9588,7 @@
         <v>-2.956</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -9546,19 +9596,19 @@
         <v>116</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G38" s="5">
         <v>57.484999999999999</v>
@@ -9567,27 +9617,27 @@
         <v>-3.2080000000000002</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G39" s="5">
         <v>53.338000000000001</v>
@@ -9596,27 +9646,27 @@
         <v>-6.2779999999999996</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G40" s="5">
         <v>31.454000000000001</v>
@@ -9625,27 +9675,27 @@
         <v>130.46100000000001</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G41" s="5">
         <v>35.823999999999998</v>
@@ -9654,27 +9704,27 @@
         <v>138.43600000000001</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G42" s="5">
         <v>43.177999999999997</v>
@@ -9683,27 +9733,27 @@
         <v>140.76599999999999</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G43" s="5">
         <v>38.445999999999998</v>
@@ -9712,27 +9762,27 @@
         <v>140.88300000000001</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G44" s="5">
         <v>36.320999999999998</v>
@@ -9741,27 +9791,27 @@
         <v>138.44999999999999</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G45" s="5">
         <v>35.768999999999998</v>
@@ -9770,27 +9820,27 @@
         <v>139.125</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G46" s="5">
         <v>35.302999999999997</v>
@@ -9799,27 +9849,27 @@
         <v>138.95400000000001</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G47" s="5">
         <v>35.036999999999999</v>
@@ -9828,27 +9878,27 @@
         <v>136.82900000000001</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G48" s="5">
         <v>38.445999999999998</v>
@@ -9857,27 +9907,27 @@
         <v>140.88300000000001</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G49" s="5">
         <v>34.652999999999999</v>
@@ -9886,27 +9936,27 @@
         <v>134.989</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G50" s="5">
         <v>35.773000000000003</v>
@@ -9915,27 +9965,27 @@
         <v>137.93700000000001</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G51" s="5">
         <v>31.672999999999998</v>
@@ -9944,7 +9994,7 @@
         <v>130.279</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -9954,20 +10004,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6ff6e2ba-ab06-4ac9-b2c7-449843b7cb08" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6ff6e2ba-ab06-4ac9-b2c7-449843b7cb08" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10153,6 +10203,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B963C0D-E7E9-44EF-8AEB-EF3D573F3F67}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{987E6F6F-1448-40F2-A1EC-D5FD1FE7DC5E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="6ff6e2ba-ab06-4ac9-b2c7-449843b7cb08"/>
@@ -10164,14 +10222,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B963C0D-E7E9-44EF-8AEB-EF3D573F3F67}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/whisky_database.xlsx
+++ b/whisky_database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\新藤駿介(ShindoShunsuke)\Documents\GitHub\whisky-sommelier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF384340-CE3E-46B9-A717-4AB566685E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A9F7B5-17DC-442E-BA65-51DFC7A29920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{A2419164-9416-4CEB-A64A-CE2C95D250D1}"/>
   </bookViews>
@@ -859,9 +859,6 @@
     <t>このティーリング18年（2005-2023）は、ドライフルーツ、蜂蜜、トーストしたオークの豊かな層を提供します。口当たりはバニラ、ダークチョコレート、ベーキングスパイスとトロピカルフルーツの複雑な風味が広がります。長い余韻では、温かみのあるオークスパイス、キャラメル化した砂糖、そして絶妙な深みを持つ微かな革の風味が続きます。</t>
   </si>
   <si>
-    <t>NAGAHAMA長浜シングルモルト2019-2022</t>
-  </si>
-  <si>
     <t>長浜蒸留所の若いシングルモルトで、青りんごと洋梨の鮮やかな果実味に、バニラと軽いオークのニュアンスが感じられます。口当たりは穏やかな麦芽の甘さとかすかなスパイス、柑橘類の皮の風味がバランスよく広がります。クリーンな余韻にはハチミツと軽い花の香りが残ります。</t>
   </si>
   <si>
@@ -2284,6 +2281,10 @@
     <rPh sb="14" eb="16">
       <t>イジョウ</t>
     </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>NAGAHAMA 長浜シングルモルト2019-2022 KOVAL four grain cask</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -2492,17 +2493,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2838,12 +2839,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F60670-F158-4C9B-93E8-D52D53F4A8E3}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F119" sqref="F119"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U63" sqref="U63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2917,10 +2917,10 @@
         <v>15</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2949,16 +2949,16 @@
         <v>23</v>
       </c>
       <c r="J2" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="L2" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="L2" s="12" t="s">
-        <v>334</v>
-      </c>
       <c r="M2" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N2" s="12">
         <v>57.302</v>
@@ -2967,11 +2967,11 @@
         <v>-6.3559999999999999</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Q2" s="13"/>
     </row>
-    <row r="3" spans="1:17" ht="99.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" ht="99.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3000,16 +3000,16 @@
         <v>32</v>
       </c>
       <c r="J3" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L3" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="K3" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="L3" s="12" t="s">
+      <c r="M3" s="12" t="s">
         <v>337</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>338</v>
       </c>
       <c r="N3" s="12">
         <v>55.63</v>
@@ -3018,11 +3018,11 @@
         <v>-6.1929999999999996</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Q3" s="13"/>
     </row>
-    <row r="4" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" ht="83.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3045,22 +3045,22 @@
         <v>35</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>37</v>
       </c>
       <c r="J4" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L4" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="K4" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>342</v>
-      </c>
       <c r="M4" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N4" s="12">
         <v>57.484999999999999</v>
@@ -3069,16 +3069,16 @@
         <v>-3.2080000000000002</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Q4" s="13"/>
     </row>
-    <row r="5" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>17</v>
@@ -3096,22 +3096,22 @@
         <v>42</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I5" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L5" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="J5" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>345</v>
-      </c>
       <c r="M5" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N5" s="12">
         <v>55.756</v>
@@ -3120,13 +3120,13 @@
         <v>-6.2889999999999997</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Q5" s="13">
         <v>50.2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" ht="83.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -3149,22 +3149,22 @@
         <v>46</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I6" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="J6" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="K6" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L6" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="K6" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="L6" s="12" t="s">
+      <c r="M6" s="12" t="s">
         <v>349</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>350</v>
       </c>
       <c r="N6" s="12">
         <v>55.991</v>
@@ -3173,11 +3173,11 @@
         <v>-3.827</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Q6" s="13"/>
     </row>
-    <row r="7" spans="1:17" ht="32.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" ht="32.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3210,7 +3210,7 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="13"/>
     </row>
-    <row r="8" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3233,22 +3233,22 @@
         <v>55</v>
       </c>
       <c r="H8" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="I8" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="J8" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="K8" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L8" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="K8" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>355</v>
-      </c>
       <c r="M8" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N8" s="12">
         <v>55.424999999999997</v>
@@ -3257,11 +3257,11 @@
         <v>-5.609</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Q8" s="13"/>
     </row>
-    <row r="9" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" ht="83.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -3284,22 +3284,22 @@
         <v>58</v>
       </c>
       <c r="H9" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="I9" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="J9" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L9" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="J9" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>359</v>
-      </c>
       <c r="M9" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N9" s="12">
         <v>55.878</v>
@@ -3308,13 +3308,13 @@
         <v>-6.125</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Q9" s="13">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -3337,22 +3337,22 @@
         <v>59</v>
       </c>
       <c r="H10" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="I10" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="J10" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="K10" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L10" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="K10" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>364</v>
-      </c>
       <c r="M10" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N10" s="12">
         <v>56.624000000000002</v>
@@ -3361,11 +3361,11 @@
         <v>-3.85</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="Q10" s="13"/>
     </row>
-    <row r="11" spans="1:17" ht="50.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" ht="50.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -3388,22 +3388,22 @@
         <v>64</v>
       </c>
       <c r="H11" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="I11" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="J11" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="K11" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L11" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="K11" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>369</v>
-      </c>
       <c r="M11" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N11" s="12">
         <v>55.640999999999998</v>
@@ -3412,11 +3412,11 @@
         <v>-6.109</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Q11" s="13"/>
     </row>
-    <row r="12" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -3439,22 +3439,22 @@
         <v>65</v>
       </c>
       <c r="H12" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="I12" s="12" t="s">
         <v>478</v>
       </c>
-      <c r="I12" s="12" t="s">
-        <v>479</v>
-      </c>
       <c r="J12" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N12" s="12">
         <v>58.968000000000004</v>
@@ -3463,15 +3463,15 @@
         <v>-2.956</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="Q12" s="13"/>
     </row>
-    <row r="13" spans="1:17" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="15">
         <v>12</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="17" t="s">
         <v>68</v>
       </c>
       <c r="C13" s="15" t="s">
@@ -3484,9 +3484,9 @@
         <v>19</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>640</v>
-      </c>
-      <c r="G13" s="14" t="s">
+        <v>639</v>
+      </c>
+      <c r="G13" s="16" t="s">
         <v>70</v>
       </c>
       <c r="H13" s="15" t="s">
@@ -3514,18 +3514,18 @@
         <v>-6.3559999999999999</v>
       </c>
       <c r="P13" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q13" s="13"/>
     </row>
-    <row r="14" spans="1:17" ht="48.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
-      <c r="G14" s="14"/>
+      <c r="G14" s="16"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
@@ -3537,7 +3537,7 @@
       <c r="P14" s="15"/>
       <c r="Q14" s="13"/>
     </row>
-    <row r="15" spans="1:17" ht="79.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" ht="79.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -3560,22 +3560,22 @@
         <v>71</v>
       </c>
       <c r="H15" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="I15" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="J15" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="K15" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L15" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="K15" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>369</v>
-      </c>
       <c r="M15" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N15" s="12">
         <v>55.640999999999998</v>
@@ -3584,11 +3584,11 @@
         <v>-6.109</v>
       </c>
       <c r="P15" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Q15" s="13"/>
     </row>
-    <row r="16" spans="1:17" ht="105.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" ht="105.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -3611,22 +3611,22 @@
         <v>76</v>
       </c>
       <c r="H16" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="I16" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="J16" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="K16" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="L16" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="L16" s="12" t="s">
-        <v>379</v>
-      </c>
       <c r="M16" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N16" s="12">
         <v>37.398000000000003</v>
@@ -3635,11 +3635,11 @@
         <v>140.36000000000001</v>
       </c>
       <c r="P16" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="Q16" s="13"/>
     </row>
-    <row r="17" spans="1:17" ht="79.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:17" ht="79.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -3662,22 +3662,22 @@
         <v>77</v>
       </c>
       <c r="H17" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="I17" s="12" t="s">
         <v>478</v>
       </c>
-      <c r="I17" s="12" t="s">
-        <v>479</v>
-      </c>
       <c r="J17" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N17" s="12">
         <v>58.968000000000004</v>
@@ -3686,16 +3686,16 @@
         <v>-2.956</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="Q17" s="13"/>
     </row>
-    <row r="18" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:17" ht="83.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>17</v>
@@ -3707,28 +3707,28 @@
         <v>19</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I18" s="12" t="s">
         <v>37</v>
       </c>
       <c r="J18" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L18" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="K18" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>342</v>
-      </c>
       <c r="M18" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N18" s="12">
         <v>57.484999999999999</v>
@@ -3737,13 +3737,13 @@
         <v>-3.2080000000000002</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Q18" s="13">
         <v>48.1</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -3766,22 +3766,22 @@
         <v>79</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I19" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L19" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="J19" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="K19" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>382</v>
-      </c>
       <c r="M19" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N19" s="12">
         <v>57.451999999999998</v>
@@ -3790,11 +3790,11 @@
         <v>-3.3769999999999998</v>
       </c>
       <c r="P19" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="Q19" s="13"/>
     </row>
-    <row r="20" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -3817,22 +3817,22 @@
         <v>81</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I20" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L20" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="J20" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>382</v>
-      </c>
       <c r="M20" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N20" s="12">
         <v>57.451999999999998</v>
@@ -3841,11 +3841,11 @@
         <v>-3.3769999999999998</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="Q20" s="13"/>
     </row>
-    <row r="21" spans="1:17" ht="48" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:17" ht="48" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -3896,7 +3896,7 @@
       </c>
       <c r="Q21" s="13"/>
     </row>
-    <row r="22" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -3919,22 +3919,22 @@
         <v>89</v>
       </c>
       <c r="H22" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="I22" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="I22" s="12" t="s">
+      <c r="J22" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="J22" s="12" t="s">
-        <v>386</v>
-      </c>
       <c r="K22" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N22" s="12">
         <v>56.835999999999999</v>
@@ -3943,11 +3943,11 @@
         <v>-5.0739999999999998</v>
       </c>
       <c r="P22" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q22" s="13"/>
     </row>
-    <row r="23" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:17" ht="83.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -3970,22 +3970,22 @@
         <v>90</v>
       </c>
       <c r="H23" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="I23" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="I23" s="12" t="s">
+      <c r="J23" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="J23" s="12" t="s">
-        <v>373</v>
-      </c>
       <c r="K23" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N23" s="12">
         <v>58.968000000000004</v>
@@ -3994,16 +3994,16 @@
         <v>-2.956</v>
       </c>
       <c r="P23" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="Q23" s="13"/>
     </row>
-    <row r="24" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:17" ht="83.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="3">
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>17</v>
@@ -4015,28 +4015,28 @@
         <v>93</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>94</v>
       </c>
       <c r="H24" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="I24" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="I24" s="12" t="s">
-        <v>453</v>
-      </c>
       <c r="J24" s="12" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K24" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="L24" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="L24" s="12" t="s">
-        <v>456</v>
-      </c>
       <c r="M24" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N24" s="12">
         <v>63.002000000000002</v>
@@ -4045,18 +4045,18 @@
         <v>17.798999999999999</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="Q24" s="13">
         <v>64.900000000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="3">
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>17</v>
@@ -4074,22 +4074,22 @@
         <v>96</v>
       </c>
       <c r="H25" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="I25" s="12" t="s">
         <v>458</v>
       </c>
-      <c r="I25" s="12" t="s">
-        <v>459</v>
-      </c>
       <c r="J25" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N25" s="12">
         <v>57.649000000000001</v>
@@ -4098,13 +4098,13 @@
         <v>-3.64</v>
       </c>
       <c r="P25" s="12" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="Q25" s="13">
         <v>58.7</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -4127,22 +4127,22 @@
         <v>99</v>
       </c>
       <c r="H26" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="I26" s="12" t="s">
         <v>414</v>
       </c>
-      <c r="I26" s="12" t="s">
+      <c r="J26" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L26" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="J26" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="K26" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="L26" s="12" t="s">
-        <v>416</v>
-      </c>
       <c r="M26" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N26" s="12">
         <v>55.78</v>
@@ -4151,11 +4151,11 @@
         <v>-6.4329999999999998</v>
       </c>
       <c r="P26" s="12" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q26" s="13"/>
     </row>
-    <row r="27" spans="1:17" ht="48" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:17" ht="48" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -4206,7 +4206,7 @@
       </c>
       <c r="Q27" s="13"/>
     </row>
-    <row r="28" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -4229,22 +4229,22 @@
         <v>109</v>
       </c>
       <c r="H28" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="I28" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="I28" s="12" t="s">
+      <c r="J28" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L28" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="J28" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="K28" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="L28" s="12" t="s">
-        <v>393</v>
-      </c>
       <c r="M28" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N28" s="12">
         <v>57.444000000000003</v>
@@ -4253,11 +4253,11 @@
         <v>-3.1280000000000001</v>
       </c>
       <c r="P28" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="Q28" s="13"/>
     </row>
-    <row r="29" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -4280,22 +4280,22 @@
         <v>112</v>
       </c>
       <c r="H29" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="I29" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="I29" s="12" t="s">
+      <c r="J29" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L29" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="J29" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="K29" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="L29" s="12" t="s">
-        <v>393</v>
-      </c>
       <c r="M29" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N29" s="12">
         <v>57.444000000000003</v>
@@ -4304,16 +4304,16 @@
         <v>-3.1280000000000001</v>
       </c>
       <c r="P29" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="Q29" s="13"/>
     </row>
-    <row r="30" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="3">
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>17</v>
@@ -4325,28 +4325,28 @@
         <v>82</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>113</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I30" s="12" t="s">
         <v>259</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N30" s="12">
         <v>57.545999999999999</v>
@@ -4355,11 +4355,11 @@
         <v>-3.048</v>
       </c>
       <c r="P30" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Q30" s="13"/>
     </row>
-    <row r="31" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:17" ht="83.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -4382,22 +4382,22 @@
         <v>116</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I31" s="12" t="s">
         <v>37</v>
       </c>
       <c r="J31" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L31" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="K31" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="L31" s="12" t="s">
-        <v>342</v>
-      </c>
       <c r="M31" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N31" s="12">
         <v>57.484999999999999</v>
@@ -4406,16 +4406,16 @@
         <v>-3.2080000000000002</v>
       </c>
       <c r="P31" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Q31" s="13"/>
     </row>
-    <row r="32" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:17" ht="83.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="3">
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>17</v>
@@ -4427,28 +4427,28 @@
         <v>118</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>119</v>
       </c>
       <c r="H32" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="I32" s="12" t="s">
         <v>446</v>
       </c>
-      <c r="I32" s="12" t="s">
+      <c r="J32" s="12" t="s">
         <v>447</v>
       </c>
-      <c r="J32" s="12" t="s">
+      <c r="K32" s="12" t="s">
         <v>448</v>
       </c>
-      <c r="K32" s="12" t="s">
+      <c r="L32" s="12" t="s">
         <v>449</v>
       </c>
-      <c r="L32" s="12" t="s">
-        <v>450</v>
-      </c>
       <c r="M32" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N32" s="12">
         <v>53.338000000000001</v>
@@ -4457,13 +4457,13 @@
         <v>-6.2779999999999996</v>
       </c>
       <c r="P32" s="12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Q32" s="13">
         <v>62.5</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:17" ht="83.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -4486,22 +4486,22 @@
         <v>119</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J33" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="K33" s="12" t="s">
         <v>448</v>
       </c>
-      <c r="K33" s="12" t="s">
+      <c r="L33" s="12" t="s">
         <v>449</v>
       </c>
-      <c r="L33" s="12" t="s">
-        <v>450</v>
-      </c>
       <c r="M33" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N33" s="12">
         <v>53.338000000000001</v>
@@ -4510,11 +4510,11 @@
         <v>-6.2779999999999996</v>
       </c>
       <c r="P33" s="12" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="Q33" s="13"/>
     </row>
-    <row r="34" spans="1:17" ht="132.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:17" ht="132.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -4537,22 +4537,22 @@
         <v>126</v>
       </c>
       <c r="H34" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="I34" s="12" t="s">
         <v>542</v>
       </c>
-      <c r="I34" s="12" t="s">
+      <c r="J34" s="12" t="s">
         <v>543</v>
       </c>
-      <c r="J34" s="12" t="s">
+      <c r="K34" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L34" s="12" t="s">
         <v>544</v>
       </c>
-      <c r="K34" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="L34" s="12" t="s">
-        <v>545</v>
-      </c>
       <c r="M34" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N34" s="12">
         <v>58.023000000000003</v>
@@ -4561,11 +4561,11 @@
         <v>-3.867</v>
       </c>
       <c r="P34" s="12" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="Q34" s="13"/>
     </row>
-    <row r="35" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:17" ht="83.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -4588,22 +4588,22 @@
         <v>129</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I35" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L35" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="J35" s="12" t="s">
-        <v>404</v>
-      </c>
-      <c r="K35" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="L35" s="12" t="s">
-        <v>548</v>
-      </c>
       <c r="M35" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N35" s="12">
         <v>57.337000000000003</v>
@@ -4612,11 +4612,11 @@
         <v>-2.3149999999999999</v>
       </c>
       <c r="P35" s="12" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="Q35" s="13"/>
     </row>
-    <row r="36" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:17" ht="83.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -4639,22 +4639,22 @@
         <v>132</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I36" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L36" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="J36" s="12" t="s">
-        <v>404</v>
-      </c>
-      <c r="K36" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="L36" s="12" t="s">
-        <v>548</v>
-      </c>
       <c r="M36" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N36" s="12">
         <v>57.337000000000003</v>
@@ -4663,16 +4663,16 @@
         <v>-2.3149999999999999</v>
       </c>
       <c r="P36" s="12" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="Q36" s="13"/>
     </row>
-    <row r="37" spans="1:17" ht="84.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:17" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="3">
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>17</v>
@@ -4684,28 +4684,28 @@
         <v>60</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G37" s="8" t="s">
         <v>133</v>
       </c>
       <c r="H37" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="I37" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="I37" s="12" t="s">
-        <v>396</v>
-      </c>
       <c r="J37" s="12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L37" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M37" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N37" s="12">
         <v>56.704000000000001</v>
@@ -4714,18 +4714,18 @@
         <v>-3.7330000000000001</v>
       </c>
       <c r="P37" s="12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Q37" s="13">
         <v>55.5</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="84.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:17" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="3">
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>17</v>
@@ -4743,22 +4743,22 @@
         <v>134</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I38" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L38" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="J38" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="K38" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="L38" s="12" t="s">
-        <v>345</v>
-      </c>
       <c r="M38" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N38" s="12">
         <v>55.756</v>
@@ -4767,13 +4767,13 @@
         <v>-6.2889999999999997</v>
       </c>
       <c r="P38" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Q38" s="13">
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="79.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:17" ht="79.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -4790,28 +4790,28 @@
         <v>137</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G39" s="8" t="s">
         <v>138</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I39" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="K39" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L39" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="J39" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="K39" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="L39" s="12" t="s">
-        <v>345</v>
-      </c>
       <c r="M39" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N39" s="12">
         <v>55.756</v>
@@ -4820,7 +4820,7 @@
         <v>-6.2889999999999997</v>
       </c>
       <c r="P39" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Q39" s="13"/>
     </row>
@@ -4847,22 +4847,22 @@
         <v>139</v>
       </c>
       <c r="H40" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="I40" s="12" t="s">
         <v>461</v>
       </c>
-      <c r="I40" s="12" t="s">
+      <c r="J40" s="12" t="s">
         <v>462</v>
       </c>
-      <c r="J40" s="12" t="s">
+      <c r="K40" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="L40" s="12" t="s">
         <v>463</v>
       </c>
-      <c r="K40" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="L40" s="12" t="s">
+      <c r="M40" s="12" t="s">
         <v>464</v>
-      </c>
-      <c r="M40" s="12" t="s">
-        <v>465</v>
       </c>
       <c r="N40" s="12">
         <v>36.347999999999999</v>
@@ -4871,16 +4871,16 @@
         <v>138.596</v>
       </c>
       <c r="P40" s="12" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q40" s="13"/>
     </row>
-    <row r="41" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="3">
         <v>39</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>17</v>
@@ -4898,22 +4898,22 @@
         <v>142</v>
       </c>
       <c r="H41" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="I41" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="I41" s="12" t="s">
+      <c r="J41" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="K41" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L41" s="12" t="s">
         <v>399</v>
       </c>
-      <c r="J41" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="K41" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="L41" s="12" t="s">
-        <v>400</v>
-      </c>
       <c r="M41" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N41" s="12">
         <v>55.853999999999999</v>
@@ -4922,18 +4922,18 @@
         <v>-6.1079999999999997</v>
       </c>
       <c r="P41" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Q41" s="13">
         <v>54.1</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="3">
         <v>40</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>17</v>
@@ -4945,28 +4945,28 @@
         <v>124</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>143</v>
       </c>
       <c r="H42" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="I42" s="12" t="s">
         <v>402</v>
       </c>
-      <c r="I42" s="12" t="s">
+      <c r="J42" s="12" t="s">
         <v>403</v>
       </c>
-      <c r="J42" s="12" t="s">
-        <v>404</v>
-      </c>
       <c r="K42" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L42" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M42" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N42" s="12">
         <v>56.847000000000001</v>
@@ -4975,16 +4975,16 @@
         <v>-2.5880000000000001</v>
       </c>
       <c r="P42" s="12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="Q42" s="13"/>
     </row>
-    <row r="43" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A43" s="3">
         <v>41</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>17</v>
@@ -4996,28 +4996,28 @@
         <v>82</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G43" s="8" t="s">
         <v>144</v>
       </c>
       <c r="H43" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="I43" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="I43" s="12" t="s">
+      <c r="J43" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="K43" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L43" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J43" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="K43" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="L43" s="12" t="s">
-        <v>408</v>
-      </c>
       <c r="M43" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N43" s="12">
         <v>57.427</v>
@@ -5026,13 +5026,13 @@
         <v>-3.3130000000000002</v>
       </c>
       <c r="P43" s="12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Q43" s="13">
         <v>58.7</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="79.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:17" ht="79.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -5065,7 +5065,7 @@
       <c r="P44" s="3"/>
       <c r="Q44" s="13"/>
     </row>
-    <row r="45" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -5088,22 +5088,22 @@
         <v>151</v>
       </c>
       <c r="H45" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="I45" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="I45" s="12" t="s">
+      <c r="J45" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="K45" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L45" s="12" t="s">
         <v>411</v>
       </c>
-      <c r="J45" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="K45" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="L45" s="12" t="s">
-        <v>412</v>
-      </c>
       <c r="M45" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N45" s="12">
         <v>57.646999999999998</v>
@@ -5112,11 +5112,11 @@
         <v>-3.2930000000000001</v>
       </c>
       <c r="P45" s="12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="Q45" s="13"/>
     </row>
-    <row r="46" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -5133,28 +5133,28 @@
         <v>28</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>99</v>
       </c>
       <c r="H46" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="I46" s="12" t="s">
         <v>414</v>
       </c>
-      <c r="I46" s="12" t="s">
+      <c r="J46" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="K46" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L46" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="J46" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="K46" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="L46" s="12" t="s">
-        <v>416</v>
-      </c>
       <c r="M46" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N46" s="12">
         <v>55.78</v>
@@ -5163,18 +5163,18 @@
         <v>-6.4329999999999998</v>
       </c>
       <c r="P46" s="12" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q46" s="13">
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="48" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:17" ht="48" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A47" s="3">
         <v>45</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>17</v>
@@ -5186,7 +5186,7 @@
         <v>19</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G47" s="8" t="s">
         <v>153</v>
@@ -5220,12 +5220,12 @@
       </c>
       <c r="Q47" s="13"/>
     </row>
-    <row r="48" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A48" s="3">
         <v>46</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>17</v>
@@ -5243,22 +5243,22 @@
         <v>99</v>
       </c>
       <c r="H48" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="I48" s="12" t="s">
         <v>414</v>
       </c>
-      <c r="I48" s="12" t="s">
+      <c r="J48" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="K48" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L48" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="J48" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="K48" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="L48" s="12" t="s">
-        <v>416</v>
-      </c>
       <c r="M48" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N48" s="12">
         <v>55.78</v>
@@ -5267,13 +5267,13 @@
         <v>-6.4329999999999998</v>
       </c>
       <c r="P48" s="12" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q48" s="13">
         <v>55.7</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A49" s="3">
         <v>47</v>
       </c>
@@ -5296,22 +5296,22 @@
         <v>161</v>
       </c>
       <c r="H49" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="I49" s="12" t="s">
         <v>402</v>
       </c>
-      <c r="I49" s="12" t="s">
+      <c r="J49" s="12" t="s">
         <v>403</v>
       </c>
-      <c r="J49" s="12" t="s">
-        <v>404</v>
-      </c>
       <c r="K49" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L49" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M49" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N49" s="12">
         <v>56.847000000000001</v>
@@ -5320,11 +5320,11 @@
         <v>-2.5880000000000001</v>
       </c>
       <c r="P49" s="12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="Q49" s="13"/>
     </row>
-    <row r="50" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:17" ht="83.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A50" s="3">
         <v>48</v>
       </c>
@@ -5347,22 +5347,22 @@
         <v>164</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I50" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="J50" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="K50" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L50" s="12" t="s">
         <v>550</v>
       </c>
-      <c r="J50" s="12" t="s">
-        <v>404</v>
-      </c>
-      <c r="K50" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="L50" s="12" t="s">
+      <c r="M50" s="12" t="s">
         <v>551</v>
-      </c>
-      <c r="M50" s="12" t="s">
-        <v>552</v>
       </c>
       <c r="N50" s="12">
         <v>57.683999999999997</v>
@@ -5371,11 +5371,11 @@
         <v>-2.5649999999999999</v>
       </c>
       <c r="P50" s="12" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="Q50" s="13"/>
     </row>
-    <row r="51" spans="1:17" ht="48" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:17" ht="48" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A51" s="3">
         <v>49</v>
       </c>
@@ -5426,7 +5426,7 @@
       </c>
       <c r="Q51" s="13"/>
     </row>
-    <row r="52" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A52" s="3">
         <v>50</v>
       </c>
@@ -5449,22 +5449,22 @@
         <v>171</v>
       </c>
       <c r="H52" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="I52" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="I52" s="12" t="s">
+      <c r="J52" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="J52" s="12" t="s">
+      <c r="K52" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L52" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="K52" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="L52" s="12" t="s">
-        <v>355</v>
-      </c>
       <c r="M52" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N52" s="12">
         <v>55.424999999999997</v>
@@ -5473,16 +5473,16 @@
         <v>-5.609</v>
       </c>
       <c r="P52" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Q52" s="13"/>
     </row>
-    <row r="53" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A53" s="3">
         <v>51</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>17</v>
@@ -5500,22 +5500,22 @@
         <v>142</v>
       </c>
       <c r="H53" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="I53" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="I53" s="12" t="s">
+      <c r="J53" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="K53" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L53" s="12" t="s">
         <v>399</v>
       </c>
-      <c r="J53" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="K53" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="L53" s="12" t="s">
-        <v>400</v>
-      </c>
       <c r="M53" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N53" s="12">
         <v>55.853999999999999</v>
@@ -5524,11 +5524,11 @@
         <v>-6.1079999999999997</v>
       </c>
       <c r="P53" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Q53" s="13"/>
     </row>
-    <row r="54" spans="1:17" ht="79.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:17" ht="79.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A54" s="3">
         <v>52</v>
       </c>
@@ -5551,22 +5551,22 @@
         <v>173</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I54" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="J54" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="K54" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L54" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="M54" s="12" t="s">
         <v>553</v>
-      </c>
-      <c r="J54" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="K54" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="L54" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="M54" s="12" t="s">
-        <v>554</v>
       </c>
       <c r="N54" s="12">
         <v>55.767000000000003</v>
@@ -5575,16 +5575,16 @@
         <v>-6.3620000000000001</v>
       </c>
       <c r="P54" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="Q54" s="13"/>
     </row>
-    <row r="55" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="3">
         <v>53</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>17</v>
@@ -5602,22 +5602,22 @@
         <v>175</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I55" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="J55" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="K55" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L55" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="J55" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="K55" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="L55" s="12" t="s">
-        <v>382</v>
-      </c>
       <c r="M55" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N55" s="12">
         <v>57.451999999999998</v>
@@ -5626,18 +5626,18 @@
         <v>-3.3769999999999998</v>
       </c>
       <c r="P55" s="12" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="Q55" s="13">
         <v>57.3</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A56" s="3">
         <v>54</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>17</v>
@@ -5655,22 +5655,22 @@
         <v>177</v>
       </c>
       <c r="H56" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="I56" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="I56" s="12" t="s">
+      <c r="J56" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="K56" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L56" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="J56" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="K56" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="L56" s="12" t="s">
-        <v>420</v>
-      </c>
       <c r="M56" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N56" s="12">
         <v>57.533000000000001</v>
@@ -5679,18 +5679,18 @@
         <v>-3.206</v>
       </c>
       <c r="P56" s="12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="Q56" s="13">
         <v>58.1</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:17" ht="83.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A57" s="3">
         <v>55</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>17</v>
@@ -5708,22 +5708,22 @@
         <v>179</v>
       </c>
       <c r="H57" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="I57" s="12" t="s">
         <v>422</v>
       </c>
-      <c r="I57" s="12" t="s">
-        <v>423</v>
-      </c>
       <c r="J57" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="K57" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L57" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="K57" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="L57" s="12" t="s">
-        <v>342</v>
-      </c>
       <c r="M57" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N57" s="12">
         <v>57.343000000000004</v>
@@ -5732,13 +5732,13 @@
         <v>-3.3380000000000001</v>
       </c>
       <c r="P57" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Q57" s="13">
         <v>58.3</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A58" s="3">
         <v>56</v>
       </c>
@@ -5761,22 +5761,22 @@
         <v>183</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I58" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="J58" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="J58" s="12" t="s">
+      <c r="K58" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="L58" s="12" t="s">
         <v>431</v>
       </c>
-      <c r="K58" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="L58" s="12" t="s">
-        <v>432</v>
-      </c>
       <c r="M58" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N58" s="12">
         <v>35.988999999999997</v>
@@ -5785,11 +5785,11 @@
         <v>139.072</v>
       </c>
       <c r="P58" s="12" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Q58" s="13"/>
     </row>
-    <row r="59" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A59" s="3">
         <v>57</v>
       </c>
@@ -5812,22 +5812,22 @@
         <v>186</v>
       </c>
       <c r="H59" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="I59" s="12" t="s">
         <v>478</v>
       </c>
-      <c r="I59" s="12" t="s">
-        <v>479</v>
-      </c>
       <c r="J59" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K59" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L59" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M59" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N59" s="12">
         <v>58.968000000000004</v>
@@ -5836,11 +5836,11 @@
         <v>-2.956</v>
       </c>
       <c r="P59" s="12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="Q59" s="13"/>
     </row>
-    <row r="60" spans="1:17" ht="50.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:17" ht="50.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A60" s="3">
         <v>58</v>
       </c>
@@ -5863,22 +5863,22 @@
         <v>187</v>
       </c>
       <c r="H60" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="I60" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="I60" s="12" t="s">
+      <c r="J60" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="J60" s="12" t="s">
+      <c r="K60" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L60" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="K60" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="L60" s="12" t="s">
-        <v>369</v>
-      </c>
       <c r="M60" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N60" s="12">
         <v>55.640999999999998</v>
@@ -5887,16 +5887,16 @@
         <v>-6.109</v>
       </c>
       <c r="P60" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Q60" s="13"/>
     </row>
-    <row r="61" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:17" ht="83.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A61" s="3">
         <v>59</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>17</v>
@@ -5908,28 +5908,28 @@
         <v>82</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G61" s="8" t="s">
         <v>86</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I61" s="12" t="s">
         <v>37</v>
       </c>
       <c r="J61" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="K61" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L61" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="K61" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="L61" s="12" t="s">
-        <v>342</v>
-      </c>
       <c r="M61" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N61" s="12">
         <v>57.484999999999999</v>
@@ -5938,18 +5938,18 @@
         <v>-3.2080000000000002</v>
       </c>
       <c r="P61" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Q61" s="13">
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A62" s="3">
         <v>60</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>17</v>
@@ -5967,22 +5967,22 @@
         <v>190</v>
       </c>
       <c r="H62" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="I62" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="I62" s="12" t="s">
+      <c r="J62" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="J62" s="12" t="s">
-        <v>386</v>
-      </c>
       <c r="K62" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L62" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M62" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N62" s="12">
         <v>56.835999999999999</v>
@@ -5991,13 +5991,13 @@
         <v>-5.0739999999999998</v>
       </c>
       <c r="P62" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q62" s="13">
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="99.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:17" ht="99.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A63" s="3">
         <v>61</v>
       </c>
@@ -6020,22 +6020,22 @@
         <v>194</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="I63" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="J63" s="12" t="s">
         <v>562</v>
       </c>
-      <c r="J63" s="12" t="s">
+      <c r="K63" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L63" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="K63" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="L63" s="12" t="s">
-        <v>564</v>
-      </c>
       <c r="M63" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N63" s="12">
         <v>55.832999999999998</v>
@@ -6044,13 +6044,13 @@
         <v>-5.9509999999999996</v>
       </c>
       <c r="P63" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="Q63" s="13">
         <v>60.7</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="99.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:17" ht="99.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A64" s="3">
         <v>62</v>
       </c>
@@ -6073,22 +6073,22 @@
         <v>198</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="J64" s="12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K64" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L64" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M64" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N64" s="12">
         <v>56.701999999999998</v>
@@ -6097,11 +6097,11 @@
         <v>-3.702</v>
       </c>
       <c r="P64" s="12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="Q64" s="13"/>
     </row>
-    <row r="65" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A65" s="3">
         <v>63</v>
       </c>
@@ -6124,22 +6124,22 @@
         <v>199</v>
       </c>
       <c r="H65" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="I65" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="I65" s="12" t="s">
+      <c r="J65" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="J65" s="12" t="s">
+      <c r="K65" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L65" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="K65" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="L65" s="12" t="s">
-        <v>355</v>
-      </c>
       <c r="M65" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N65" s="12">
         <v>55.424999999999997</v>
@@ -6148,11 +6148,11 @@
         <v>-5.609</v>
       </c>
       <c r="P65" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Q65" s="13"/>
     </row>
-    <row r="66" spans="1:17" ht="99.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:17" ht="99.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A66" s="3">
         <v>64</v>
       </c>
@@ -6175,22 +6175,22 @@
         <v>203</v>
       </c>
       <c r="H66" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="I66" s="12" t="s">
         <v>577</v>
       </c>
-      <c r="I66" s="12" t="s">
+      <c r="J66" s="12" t="s">
         <v>578</v>
       </c>
-      <c r="J66" s="12" t="s">
-        <v>579</v>
-      </c>
       <c r="K66" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L66" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M66" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N66" s="12">
         <v>56.622999999999998</v>
@@ -6199,16 +6199,18 @@
         <v>-6.07</v>
       </c>
       <c r="P66" s="12" t="s">
-        <v>580</v>
-      </c>
-      <c r="Q66" s="13"/>
-    </row>
-    <row r="67" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>579</v>
+      </c>
+      <c r="Q66" s="13">
+        <v>63.3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A67" s="3">
         <v>65</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>17</v>
@@ -6226,22 +6228,22 @@
         <v>204</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I67" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="J67" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="J67" s="12" t="s">
+      <c r="K67" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="L67" s="12" t="s">
         <v>431</v>
       </c>
-      <c r="K67" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="L67" s="12" t="s">
-        <v>432</v>
-      </c>
       <c r="M67" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N67" s="12">
         <v>35.988999999999997</v>
@@ -6250,13 +6252,13 @@
         <v>139.072</v>
       </c>
       <c r="P67" s="12" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Q67" s="13">
         <v>48</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A68" s="3">
         <v>66</v>
       </c>
@@ -6279,22 +6281,22 @@
         <v>208</v>
       </c>
       <c r="H68" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="I68" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="I68" s="12" t="s">
+      <c r="J68" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="K68" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L68" s="12" t="s">
         <v>411</v>
       </c>
-      <c r="J68" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="K68" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="L68" s="12" t="s">
-        <v>412</v>
-      </c>
       <c r="M68" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N68" s="12">
         <v>57.646999999999998</v>
@@ -6303,11 +6305,11 @@
         <v>-3.2930000000000001</v>
       </c>
       <c r="P68" s="12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="Q68" s="13"/>
     </row>
-    <row r="69" spans="1:17" ht="99.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:17" ht="99.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A69" s="3">
         <v>67</v>
       </c>
@@ -6330,22 +6332,22 @@
         <v>164</v>
       </c>
       <c r="H69" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="I69" s="12" t="s">
         <v>573</v>
       </c>
-      <c r="I69" s="12" t="s">
+      <c r="J69" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="K69" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L69" s="12" t="s">
         <v>574</v>
       </c>
-      <c r="J69" s="12" t="s">
-        <v>544</v>
-      </c>
-      <c r="K69" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="L69" s="12" t="s">
-        <v>575</v>
-      </c>
       <c r="M69" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N69" s="12">
         <v>57.551000000000002</v>
@@ -6354,16 +6356,16 @@
         <v>-4.4340000000000002</v>
       </c>
       <c r="P69" s="12" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="Q69" s="13"/>
     </row>
-    <row r="70" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A70" s="3">
         <v>68</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>17</v>
@@ -6381,22 +6383,22 @@
         <v>142</v>
       </c>
       <c r="H70" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="I70" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="I70" s="12" t="s">
+      <c r="J70" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="K70" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L70" s="12" t="s">
         <v>399</v>
       </c>
-      <c r="J70" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="K70" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="L70" s="12" t="s">
-        <v>400</v>
-      </c>
       <c r="M70" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N70" s="12">
         <v>55.853999999999999</v>
@@ -6405,13 +6407,13 @@
         <v>-6.1079999999999997</v>
       </c>
       <c r="P70" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Q70" s="13">
         <v>43</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="99.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:17" ht="99.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A71" s="3">
         <v>69</v>
       </c>
@@ -6434,22 +6436,22 @@
         <v>212</v>
       </c>
       <c r="H71" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="I71" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="I71" s="12" t="s">
+      <c r="J71" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="K71" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L71" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="J71" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="K71" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="L71" s="12" t="s">
-        <v>393</v>
-      </c>
       <c r="M71" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N71" s="12">
         <v>57.444000000000003</v>
@@ -6458,11 +6460,11 @@
         <v>-3.1280000000000001</v>
       </c>
       <c r="P71" s="12" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="Q71" s="13"/>
     </row>
-    <row r="72" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A72" s="3">
         <v>70</v>
       </c>
@@ -6485,22 +6487,22 @@
         <v>216</v>
       </c>
       <c r="H72" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="I72" s="12" t="s">
         <v>425</v>
       </c>
-      <c r="I72" s="12" t="s">
+      <c r="J72" s="12" t="s">
         <v>426</v>
       </c>
-      <c r="J72" s="12" t="s">
+      <c r="K72" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="L72" s="12" t="s">
         <v>427</v>
       </c>
-      <c r="K72" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="L72" s="12" t="s">
-        <v>428</v>
-      </c>
       <c r="M72" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N72" s="12">
         <v>34.890999999999998</v>
@@ -6509,11 +6511,11 @@
         <v>135.67500000000001</v>
       </c>
       <c r="P72" s="12" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="Q72" s="13"/>
     </row>
-    <row r="73" spans="1:17" ht="99.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:17" ht="99.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A73" s="3">
         <v>71</v>
       </c>
@@ -6536,22 +6538,22 @@
         <v>219</v>
       </c>
       <c r="H73" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="I73" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="I73" s="12" t="s">
+      <c r="J73" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="J73" s="12" t="s">
-        <v>373</v>
-      </c>
       <c r="K73" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L73" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M73" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N73" s="12">
         <v>58.968000000000004</v>
@@ -6560,11 +6562,11 @@
         <v>-2.956</v>
       </c>
       <c r="P73" s="12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="Q73" s="13"/>
     </row>
-    <row r="74" spans="1:17" ht="99.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:17" ht="99.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A74" s="3">
         <v>72</v>
       </c>
@@ -6587,22 +6589,22 @@
         <v>99</v>
       </c>
       <c r="H74" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="I74" s="12" t="s">
         <v>414</v>
       </c>
-      <c r="I74" s="12" t="s">
+      <c r="J74" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="K74" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L74" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="J74" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="K74" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="L74" s="12" t="s">
-        <v>416</v>
-      </c>
       <c r="M74" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N74" s="12">
         <v>55.78</v>
@@ -6611,7 +6613,7 @@
         <v>-6.4329999999999998</v>
       </c>
       <c r="P74" s="12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="Q74" s="13"/>
     </row>
@@ -6638,22 +6640,22 @@
         <v>224</v>
       </c>
       <c r="H75" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="I75" s="12" t="s">
         <v>461</v>
       </c>
-      <c r="I75" s="12" t="s">
+      <c r="J75" s="12" t="s">
         <v>462</v>
       </c>
-      <c r="J75" s="12" t="s">
+      <c r="K75" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="L75" s="12" t="s">
         <v>463</v>
       </c>
-      <c r="K75" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="L75" s="12" t="s">
+      <c r="M75" s="12" t="s">
         <v>464</v>
-      </c>
-      <c r="M75" s="12" t="s">
-        <v>465</v>
       </c>
       <c r="N75" s="12">
         <v>36.347999999999999</v>
@@ -6662,16 +6664,16 @@
         <v>138.596</v>
       </c>
       <c r="P75" s="12" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q75" s="13"/>
     </row>
-    <row r="76" spans="1:17" ht="99.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:17" ht="99.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A76" s="3">
         <v>74</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>17</v>
@@ -6683,28 +6685,28 @@
         <v>19</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G76" s="8" t="s">
         <v>99</v>
       </c>
       <c r="H76" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="I76" s="12" t="s">
         <v>414</v>
       </c>
-      <c r="I76" s="12" t="s">
+      <c r="J76" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="K76" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L76" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="J76" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="K76" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="L76" s="12" t="s">
-        <v>416</v>
-      </c>
       <c r="M76" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N76" s="12">
         <v>55.78</v>
@@ -6713,13 +6715,13 @@
         <v>-6.4329999999999998</v>
       </c>
       <c r="P76" s="12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="Q76" s="13">
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="99.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:17" ht="99.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A77" s="3">
         <v>75</v>
       </c>
@@ -6742,22 +6744,22 @@
         <v>228</v>
       </c>
       <c r="H77" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="I77" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="I77" s="12" t="s">
+      <c r="J77" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="K77" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L77" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J77" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="K77" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="L77" s="12" t="s">
-        <v>408</v>
-      </c>
       <c r="M77" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N77" s="12">
         <v>57.427</v>
@@ -6766,7 +6768,7 @@
         <v>-3.3130000000000002</v>
       </c>
       <c r="P77" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="Q77" s="13"/>
     </row>
@@ -6775,7 +6777,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>17</v>
@@ -6787,28 +6789,28 @@
         <v>74</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G78" s="8" t="s">
         <v>229</v>
       </c>
       <c r="H78" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="I78" s="12" t="s">
         <v>461</v>
       </c>
-      <c r="I78" s="12" t="s">
+      <c r="J78" s="12" t="s">
         <v>462</v>
       </c>
-      <c r="J78" s="12" t="s">
+      <c r="K78" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="L78" s="12" t="s">
         <v>463</v>
       </c>
-      <c r="K78" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="L78" s="12" t="s">
+      <c r="M78" s="12" t="s">
         <v>464</v>
-      </c>
-      <c r="M78" s="12" t="s">
-        <v>465</v>
       </c>
       <c r="N78" s="12">
         <v>36.347999999999999</v>
@@ -6817,16 +6819,16 @@
         <v>138.596</v>
       </c>
       <c r="P78" s="12" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q78" s="13"/>
     </row>
-    <row r="79" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:17" ht="48" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A79" s="3">
         <v>77</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>17</v>
@@ -6872,7 +6874,7 @@
       </c>
       <c r="Q79" s="13"/>
     </row>
-    <row r="80" spans="1:17" ht="99.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:17" ht="99.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A80" s="3">
         <v>78</v>
       </c>
@@ -6895,22 +6897,22 @@
         <v>238</v>
       </c>
       <c r="H80" s="12" t="s">
+        <v>589</v>
+      </c>
+      <c r="I80" s="12" t="s">
         <v>590</v>
       </c>
-      <c r="I80" s="12" t="s">
+      <c r="J80" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="K80" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L80" s="12" t="s">
         <v>591</v>
       </c>
-      <c r="J80" s="12" t="s">
-        <v>544</v>
-      </c>
-      <c r="K80" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="L80" s="12" t="s">
-        <v>592</v>
-      </c>
       <c r="M80" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N80" s="12">
         <v>57.52</v>
@@ -6919,11 +6921,11 @@
         <v>-4.0469999999999997</v>
       </c>
       <c r="P80" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="Q80" s="13"/>
     </row>
-    <row r="81" spans="1:17" ht="99.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:17" ht="99.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A81" s="3">
         <v>79</v>
       </c>
@@ -6946,22 +6948,22 @@
         <v>239</v>
       </c>
       <c r="H81" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="I81" s="12" t="s">
         <v>586</v>
       </c>
-      <c r="I81" s="12" t="s">
+      <c r="J81" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="K81" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L81" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="M81" s="12" t="s">
         <v>587</v>
-      </c>
-      <c r="J81" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="K81" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="L81" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="M81" s="12" t="s">
-        <v>588</v>
       </c>
       <c r="N81" s="12">
         <v>57.438000000000002</v>
@@ -6970,16 +6972,16 @@
         <v>-3.3460000000000001</v>
       </c>
       <c r="P81" s="12" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="Q81" s="13"/>
     </row>
-    <row r="82" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A82" s="3">
         <v>80</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>17</v>
@@ -6997,22 +6999,22 @@
         <v>242</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I82" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="J82" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="J82" s="12" t="s">
+      <c r="K82" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="L82" s="12" t="s">
         <v>431</v>
       </c>
-      <c r="K82" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="L82" s="12" t="s">
-        <v>432</v>
-      </c>
       <c r="M82" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N82" s="12">
         <v>35.988999999999997</v>
@@ -7021,18 +7023,18 @@
         <v>139.072</v>
       </c>
       <c r="P82" s="12" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Q82" s="13">
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A83" s="3">
         <v>81</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>17</v>
@@ -7050,22 +7052,22 @@
         <v>244</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I83" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="J83" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="J83" s="12" t="s">
+      <c r="K83" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="L83" s="12" t="s">
         <v>431</v>
       </c>
-      <c r="K83" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="L83" s="12" t="s">
-        <v>432</v>
-      </c>
       <c r="M83" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N83" s="12">
         <v>35.988999999999997</v>
@@ -7074,13 +7076,13 @@
         <v>139.072</v>
       </c>
       <c r="P83" s="12" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Q83" s="13">
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A84" s="3">
         <v>82</v>
       </c>
@@ -7103,22 +7105,22 @@
         <v>247</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I84" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="J84" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="J84" s="12" t="s">
+      <c r="K84" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="L84" s="12" t="s">
         <v>431</v>
       </c>
-      <c r="K84" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="L84" s="12" t="s">
-        <v>432</v>
-      </c>
       <c r="M84" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N84" s="12">
         <v>35.988999999999997</v>
@@ -7127,16 +7129,16 @@
         <v>139.072</v>
       </c>
       <c r="P84" s="12" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Q84" s="13"/>
     </row>
-    <row r="85" spans="1:17" ht="78.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:17" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A85" s="3">
         <v>83</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>17</v>
@@ -7182,7 +7184,7 @@
       </c>
       <c r="Q85" s="13"/>
     </row>
-    <row r="86" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A86" s="3">
         <v>84</v>
       </c>
@@ -7233,12 +7235,12 @@
       </c>
       <c r="Q86" s="13"/>
     </row>
-    <row r="87" spans="1:17" ht="78.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:17" ht="79.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A87" s="3">
         <v>85</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>17</v>
@@ -7250,7 +7252,7 @@
         <v>82</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G87" s="8" t="s">
         <v>261</v>
@@ -7268,7 +7270,7 @@
         <v>57.9</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="116.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:17" ht="116.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A88" s="3">
         <v>86</v>
       </c>
@@ -7291,22 +7293,22 @@
         <v>265</v>
       </c>
       <c r="H88" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="I88" s="12" t="s">
         <v>582</v>
       </c>
-      <c r="I88" s="12" t="s">
+      <c r="J88" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="K88" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L88" s="12" t="s">
         <v>583</v>
       </c>
-      <c r="J88" s="12" t="s">
-        <v>544</v>
-      </c>
-      <c r="K88" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="L88" s="12" t="s">
-        <v>584</v>
-      </c>
       <c r="M88" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N88" s="12">
         <v>57.688000000000002</v>
@@ -7315,11 +7317,11 @@
         <v>-4.1680000000000001</v>
       </c>
       <c r="P88" s="12" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="Q88" s="13"/>
     </row>
-    <row r="89" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:17" ht="48" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A89" s="3">
         <v>87</v>
       </c>
@@ -7370,7 +7372,7 @@
       </c>
       <c r="Q89" s="13"/>
     </row>
-    <row r="90" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:17" ht="83.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A90" s="3">
         <v>88</v>
       </c>
@@ -7393,22 +7395,22 @@
         <v>268</v>
       </c>
       <c r="H90" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="I90" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="I90" s="12" t="s">
+      <c r="J90" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="J90" s="12" t="s">
+      <c r="K90" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="K90" s="12" t="s">
+      <c r="L90" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="L90" s="12" t="s">
-        <v>379</v>
-      </c>
       <c r="M90" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N90" s="12">
         <v>37.398000000000003</v>
@@ -7417,11 +7419,11 @@
         <v>140.36000000000001</v>
       </c>
       <c r="P90" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="Q90" s="13"/>
     </row>
-    <row r="91" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:17" ht="83.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A91" s="3">
         <v>89</v>
       </c>
@@ -7444,22 +7446,22 @@
         <v>270</v>
       </c>
       <c r="H91" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="I91" s="12" t="s">
         <v>446</v>
       </c>
-      <c r="I91" s="12" t="s">
+      <c r="J91" s="12" t="s">
         <v>447</v>
       </c>
-      <c r="J91" s="12" t="s">
+      <c r="K91" s="12" t="s">
         <v>448</v>
       </c>
-      <c r="K91" s="12" t="s">
+      <c r="L91" s="12" t="s">
         <v>449</v>
       </c>
-      <c r="L91" s="12" t="s">
-        <v>450</v>
-      </c>
       <c r="M91" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N91" s="12">
         <v>53.338000000000001</v>
@@ -7468,16 +7470,16 @@
         <v>-6.2779999999999996</v>
       </c>
       <c r="P91" s="12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Q91" s="13"/>
     </row>
-    <row r="92" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:17" ht="48" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A92" s="3">
         <v>90</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>272</v>
+        <v>658</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>17</v>
@@ -7489,7 +7491,7 @@
         <v>74</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G92" s="8" t="s">
         <v>102</v>
@@ -7521,14 +7523,16 @@
       <c r="P92" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="Q92" s="13"/>
-    </row>
-    <row r="93" spans="1:17" ht="116.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="Q92" s="13">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" ht="116.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A93" s="3">
         <v>91</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>17</v>
@@ -7540,28 +7544,28 @@
         <v>82</v>
       </c>
       <c r="F93" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="G93" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="G93" s="8" t="s">
-        <v>275</v>
-      </c>
       <c r="H93" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="I93" s="12" t="s">
         <v>608</v>
       </c>
-      <c r="I93" s="12" t="s">
+      <c r="J93" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="K93" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L93" s="12" t="s">
         <v>609</v>
       </c>
-      <c r="J93" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="K93" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="L93" s="12" t="s">
-        <v>610</v>
-      </c>
       <c r="M93" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N93" s="12">
         <v>57.253</v>
@@ -7570,18 +7574,18 @@
         <v>-3.3780000000000001</v>
       </c>
       <c r="P93" s="12" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="Q93" s="13">
         <v>54.8</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="116.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:17" ht="116.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A94" s="3">
         <v>92</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>17</v>
@@ -7593,28 +7597,28 @@
         <v>60</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H94" s="12" t="s">
+        <v>603</v>
+      </c>
+      <c r="I94" s="12" t="s">
         <v>604</v>
       </c>
-      <c r="I94" s="12" t="s">
+      <c r="J94" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="K94" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L94" s="12" t="s">
         <v>605</v>
       </c>
-      <c r="J94" s="12" t="s">
-        <v>544</v>
-      </c>
-      <c r="K94" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="L94" s="12" t="s">
-        <v>606</v>
-      </c>
       <c r="M94" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N94" s="12">
         <v>57.756</v>
@@ -7623,18 +7627,18 @@
         <v>-4.2229999999999999</v>
       </c>
       <c r="P94" s="12" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="Q94" s="13">
         <v>52.1</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="116.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:17" ht="116.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A95" s="3">
         <v>93</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>17</v>
@@ -7646,28 +7650,28 @@
         <v>82</v>
       </c>
       <c r="F95" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="G95" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="G95" s="8" t="s">
-        <v>280</v>
-      </c>
       <c r="H95" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="I95" s="12" t="s">
         <v>599</v>
       </c>
-      <c r="I95" s="12" t="s">
+      <c r="J95" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="K95" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L95" s="12" t="s">
         <v>600</v>
       </c>
-      <c r="J95" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="K95" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="L95" s="12" t="s">
+      <c r="M95" s="12" t="s">
         <v>601</v>
-      </c>
-      <c r="M95" s="12" t="s">
-        <v>602</v>
       </c>
       <c r="N95" s="12">
         <v>57.453000000000003</v>
@@ -7676,18 +7680,18 @@
         <v>-3.1160000000000001</v>
       </c>
       <c r="P95" s="12" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="Q95" s="13">
         <v>51.4</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="50.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:17" ht="50.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A96" s="3">
         <v>94</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>17</v>
@@ -7699,28 +7703,28 @@
         <v>28</v>
       </c>
       <c r="F96" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="G96" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="G96" s="8" t="s">
-        <v>283</v>
-      </c>
       <c r="H96" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="I96" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="I96" s="12" t="s">
+      <c r="J96" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="J96" s="12" t="s">
+      <c r="K96" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L96" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="K96" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="L96" s="12" t="s">
-        <v>369</v>
-      </c>
       <c r="M96" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N96" s="12">
         <v>55.640999999999998</v>
@@ -7729,16 +7733,16 @@
         <v>-6.109</v>
       </c>
       <c r="P96" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Q96" s="13"/>
     </row>
-    <row r="97" spans="1:17" ht="116.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:17" ht="116.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A97" s="3">
         <v>95</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>17</v>
@@ -7750,28 +7754,28 @@
         <v>19</v>
       </c>
       <c r="F97" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="G97" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="G97" s="8" t="s">
-        <v>285</v>
-      </c>
       <c r="H97" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="I97" s="12" t="s">
         <v>595</v>
       </c>
-      <c r="I97" s="12" t="s">
+      <c r="J97" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="K97" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L97" s="12" t="s">
         <v>596</v>
       </c>
-      <c r="J97" s="12" t="s">
-        <v>544</v>
-      </c>
-      <c r="K97" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="L97" s="12" t="s">
-        <v>597</v>
-      </c>
       <c r="M97" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N97" s="12">
         <v>57.826000000000001</v>
@@ -7780,18 +7784,18 @@
         <v>-4.0789999999999997</v>
       </c>
       <c r="P97" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Q97" s="13">
         <v>43</v>
       </c>
     </row>
-    <row r="98" spans="1:17" ht="99.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:17" ht="99.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A98" s="3">
         <v>96</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>17</v>
@@ -7803,28 +7807,28 @@
         <v>60</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G98" s="8" t="s">
         <v>238</v>
       </c>
       <c r="H98" s="12" t="s">
+        <v>589</v>
+      </c>
+      <c r="I98" s="12" t="s">
         <v>590</v>
       </c>
-      <c r="I98" s="12" t="s">
+      <c r="J98" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="K98" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L98" s="12" t="s">
         <v>591</v>
       </c>
-      <c r="J98" s="12" t="s">
-        <v>544</v>
-      </c>
-      <c r="K98" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="L98" s="12" t="s">
-        <v>592</v>
-      </c>
       <c r="M98" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N98" s="12">
         <v>57.52</v>
@@ -7833,18 +7837,18 @@
         <v>-4.0469999999999997</v>
       </c>
       <c r="P98" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="Q98" s="13">
         <v>58.1</v>
       </c>
     </row>
-    <row r="99" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A99" s="3">
         <v>97</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>17</v>
@@ -7853,31 +7857,31 @@
         <v>25</v>
       </c>
       <c r="E99" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="F99" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="F99" s="3" t="s">
+      <c r="G99" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="G99" s="8" t="s">
-        <v>289</v>
-      </c>
       <c r="H99" s="12" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I99" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="J99" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="K99" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L99" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="J99" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="K99" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="L99" s="12" t="s">
-        <v>382</v>
-      </c>
       <c r="M99" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N99" s="12">
         <v>57.451999999999998</v>
@@ -7886,18 +7890,18 @@
         <v>-3.3769999999999998</v>
       </c>
       <c r="P99" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="Q99" s="13">
         <v>59.6</v>
       </c>
     </row>
-    <row r="100" spans="1:17" ht="116.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:17" ht="116.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A100" s="3">
         <v>98</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>17</v>
@@ -7909,28 +7913,28 @@
         <v>19</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H100" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="I100" s="12" t="s">
         <v>595</v>
       </c>
-      <c r="I100" s="12" t="s">
+      <c r="J100" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="K100" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L100" s="12" t="s">
         <v>596</v>
       </c>
-      <c r="J100" s="12" t="s">
-        <v>544</v>
-      </c>
-      <c r="K100" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="L100" s="12" t="s">
-        <v>597</v>
-      </c>
       <c r="M100" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N100" s="12">
         <v>57.826000000000001</v>
@@ -7939,16 +7943,16 @@
         <v>-4.0789999999999997</v>
       </c>
       <c r="P100" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Q100" s="13"/>
     </row>
-    <row r="101" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:17" ht="48" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A101" s="3">
         <v>99</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>17</v>
@@ -7957,22 +7961,22 @@
         <v>48</v>
       </c>
       <c r="E101" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="F101" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="F101" s="3" t="s">
+      <c r="G101" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="G101" s="8" t="s">
+      <c r="H101" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="H101" s="3" t="s">
+      <c r="I101" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="I101" s="3" t="s">
+      <c r="J101" s="3" t="s">
         <v>296</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>297</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>48</v>
@@ -7990,18 +7994,18 @@
         <v>139.90799999999999</v>
       </c>
       <c r="P101" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q101" s="13">
         <v>62</v>
       </c>
     </row>
-    <row r="102" spans="1:17" ht="182.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:17" ht="182.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A102" s="3">
         <v>100</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>17</v>
@@ -8013,28 +8017,28 @@
         <v>74</v>
       </c>
       <c r="F102" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="G102" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="G102" s="8" t="s">
-        <v>300</v>
-      </c>
       <c r="H102" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="I102" s="12" t="s">
         <v>523</v>
       </c>
-      <c r="I102" s="12" t="s">
+      <c r="J102" s="12" t="s">
         <v>524</v>
       </c>
-      <c r="J102" s="12" t="s">
+      <c r="K102" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="L102" s="12" t="s">
         <v>525</v>
       </c>
-      <c r="K102" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="L102" s="12" t="s">
-        <v>526</v>
-      </c>
       <c r="M102" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N102" s="12">
         <v>34.652999999999999</v>
@@ -8043,18 +8047,18 @@
         <v>134.989</v>
       </c>
       <c r="P102" s="12" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Q102" s="13">
         <v>50</v>
       </c>
     </row>
-    <row r="103" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A103" s="3">
         <v>101</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>17</v>
@@ -8066,28 +8070,28 @@
         <v>74</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G103" s="8" t="s">
         <v>216</v>
       </c>
       <c r="H103" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="I103" s="12" t="s">
         <v>425</v>
       </c>
-      <c r="I103" s="12" t="s">
+      <c r="J103" s="12" t="s">
         <v>426</v>
       </c>
-      <c r="J103" s="12" t="s">
+      <c r="K103" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="L103" s="12" t="s">
         <v>427</v>
       </c>
-      <c r="K103" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="L103" s="12" t="s">
-        <v>428</v>
-      </c>
       <c r="M103" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N103" s="12">
         <v>34.890999999999998</v>
@@ -8096,16 +8100,16 @@
         <v>135.67500000000001</v>
       </c>
       <c r="P103" s="12" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="Q103" s="13"/>
     </row>
-    <row r="104" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A104" s="3">
         <v>102</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>17</v>
@@ -8117,28 +8121,28 @@
         <v>74</v>
       </c>
       <c r="F104" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="G104" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="G104" s="8" t="s">
-        <v>304</v>
-      </c>
       <c r="H104" s="12" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I104" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="J104" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="J104" s="12" t="s">
+      <c r="K104" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="L104" s="12" t="s">
         <v>431</v>
       </c>
-      <c r="K104" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="L104" s="12" t="s">
-        <v>432</v>
-      </c>
       <c r="M104" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N104" s="12">
         <v>35.988999999999997</v>
@@ -8147,18 +8151,18 @@
         <v>139.072</v>
       </c>
       <c r="P104" s="12" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Q104" s="13">
         <v>55</v>
       </c>
     </row>
-    <row r="105" spans="1:17" ht="78.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:17" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A105" s="3">
         <v>103</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>17</v>
@@ -8170,10 +8174,10 @@
         <v>74</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H105" s="3" t="s">
         <v>250</v>
@@ -8206,12 +8210,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="106" spans="1:17" ht="78.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:17" ht="79.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A106" s="3">
         <v>104</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>17</v>
@@ -8220,10 +8224,10 @@
         <v>48</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G106" s="8" t="s">
         <v>249</v>
@@ -8257,12 +8261,12 @@
       </c>
       <c r="Q106" s="13"/>
     </row>
-    <row r="107" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A107" s="3">
         <v>105</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>17</v>
@@ -8271,31 +8275,31 @@
         <v>48</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F107" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="G107" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="G107" s="8" t="s">
-        <v>311</v>
-      </c>
       <c r="H107" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="I107" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="I107" s="12" t="s">
+      <c r="J107" s="12" t="s">
         <v>442</v>
       </c>
-      <c r="J107" s="12" t="s">
+      <c r="K107" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="L107" s="12" t="s">
         <v>443</v>
       </c>
-      <c r="K107" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="L107" s="12" t="s">
-        <v>444</v>
-      </c>
       <c r="M107" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N107" s="12">
         <v>36.637999999999998</v>
@@ -8304,16 +8308,16 @@
         <v>136.964</v>
       </c>
       <c r="P107" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="Q107" s="13"/>
     </row>
-    <row r="108" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:17" ht="83.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A108" s="3">
         <v>106</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>17</v>
@@ -8325,28 +8329,28 @@
         <v>19</v>
       </c>
       <c r="F108" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="G108" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="G108" s="8" t="s">
-        <v>314</v>
-      </c>
       <c r="H108" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="I108" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="I108" s="12" t="s">
+      <c r="J108" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="K108" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L108" s="12" t="s">
         <v>468</v>
       </c>
-      <c r="J108" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="K108" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="L108" s="12" t="s">
-        <v>469</v>
-      </c>
       <c r="M108" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N108" s="12">
         <v>56.94</v>
@@ -8355,16 +8359,16 @@
         <v>-4.2370000000000001</v>
       </c>
       <c r="P108" s="12" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="Q108" s="13"/>
     </row>
-    <row r="109" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A109" s="3">
         <v>107</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>17</v>
@@ -8376,28 +8380,28 @@
         <v>74</v>
       </c>
       <c r="F109" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="G109" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="G109" s="8" t="s">
+      <c r="H109" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="H109" s="12" t="s">
+      <c r="I109" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="I109" s="12" t="s">
-        <v>318</v>
-      </c>
       <c r="J109" s="12" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="K109" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L109" s="12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="M109" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N109" s="12">
         <v>43.052</v>
@@ -8406,18 +8410,18 @@
         <v>144.84299999999999</v>
       </c>
       <c r="P109" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Q109" s="13">
         <v>55</v>
       </c>
     </row>
-    <row r="110" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A110" s="3">
         <v>108</v>
       </c>
-      <c r="B110" s="17" t="s">
-        <v>652</v>
+      <c r="B110" s="14" t="s">
+        <v>651</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>17</v>
@@ -8429,7 +8433,7 @@
         <v>74</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G110" s="8" t="s">
         <v>231</v>
@@ -8466,14 +8470,15 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P110" xr:uid="{D4F60670-F158-4C9B-93E8-D52D53F4A8E3}">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="軽井沢蒸溜所"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:P110" xr:uid="{D4F60670-F158-4C9B-93E8-D52D53F4A8E3}"/>
   <mergeCells count="16">
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="B13:B14"/>
     <mergeCell ref="N13:N14"/>
     <mergeCell ref="O13:O14"/>
     <mergeCell ref="P13:P14"/>
@@ -8483,13 +8488,6 @@
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="L13:L14"/>
     <mergeCell ref="M13:M14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="B13:B14"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8520,16 +8518,16 @@
   <sheetData>
     <row r="1" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>328</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>329</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>11</v>
@@ -8544,7 +8542,7 @@
         <v>14</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -8555,16 +8553,16 @@
         <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>334</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G2" s="5">
         <v>57.302</v>
@@ -8573,7 +8571,7 @@
         <v>-6.3559999999999999</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -8584,16 +8582,16 @@
         <v>32</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>337</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>338</v>
       </c>
       <c r="G3" s="5">
         <v>55.63</v>
@@ -8602,27 +8600,27 @@
         <v>-6.1929999999999996</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>342</v>
-      </c>
       <c r="F4" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G4" s="5">
         <v>57.484999999999999</v>
@@ -8631,27 +8629,27 @@
         <v>-3.2080000000000002</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>345</v>
-      </c>
       <c r="F5" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G5" s="5">
         <v>55.756</v>
@@ -8660,27 +8658,27 @@
         <v>-6.2889999999999997</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>349</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>350</v>
       </c>
       <c r="G6" s="5">
         <v>55.991</v>
@@ -8689,27 +8687,27 @@
         <v>-3.827</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>355</v>
-      </c>
       <c r="F7" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G7" s="5">
         <v>55.424999999999997</v>
@@ -8718,27 +8716,27 @@
         <v>-5.609</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>359</v>
-      </c>
       <c r="F8" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G8" s="5">
         <v>55.878</v>
@@ -8747,27 +8745,27 @@
         <v>-6.125</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>364</v>
-      </c>
       <c r="F9" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G9" s="5">
         <v>56.624000000000002</v>
@@ -8776,27 +8774,27 @@
         <v>-3.85</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>369</v>
-      </c>
       <c r="F10" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G10" s="5">
         <v>55.640999999999998</v>
@@ -8805,27 +8803,27 @@
         <v>-6.109</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>373</v>
-      </c>
       <c r="D11" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G11" s="5">
         <v>58.968000000000004</v>
@@ -8834,27 +8832,27 @@
         <v>-2.956</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>379</v>
-      </c>
       <c r="F12" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G12" s="5">
         <v>37.398000000000003</v>
@@ -8863,27 +8861,27 @@
         <v>140.36000000000001</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>382</v>
-      </c>
       <c r="F13" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G13" s="5">
         <v>57.451999999999998</v>
@@ -8892,27 +8890,27 @@
         <v>-3.3769999999999998</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>386</v>
-      </c>
       <c r="D14" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G14" s="5">
         <v>56.835999999999999</v>
@@ -8921,27 +8919,27 @@
         <v>-5.0739999999999998</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>259</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G15" s="5">
         <v>57.545999999999999</v>
@@ -8950,27 +8948,27 @@
         <v>-3.048</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C16" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>393</v>
-      </c>
       <c r="F16" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G16" s="5">
         <v>57.444000000000003</v>
@@ -8979,27 +8977,27 @@
         <v>-3.1280000000000001</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>396</v>
-      </c>
       <c r="C17" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G17" s="5">
         <v>56.704000000000001</v>
@@ -9008,27 +9006,27 @@
         <v>-3.7330000000000001</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="C18" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>400</v>
-      </c>
       <c r="F18" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G18" s="5">
         <v>55.853999999999999</v>
@@ -9037,27 +9035,27 @@
         <v>-6.1079999999999997</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>404</v>
-      </c>
       <c r="D19" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G19" s="5">
         <v>56.847000000000001</v>
@@ -9066,27 +9064,27 @@
         <v>-2.5880000000000001</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="C20" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>408</v>
-      </c>
       <c r="F20" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G20" s="5">
         <v>57.427</v>
@@ -9095,27 +9093,27 @@
         <v>-3.3130000000000002</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="C21" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>412</v>
-      </c>
       <c r="F21" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G21" s="5">
         <v>57.646999999999998</v>
@@ -9124,27 +9122,27 @@
         <v>-3.2930000000000001</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="C22" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>416</v>
-      </c>
       <c r="F22" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G22" s="5">
         <v>55.78</v>
@@ -9153,27 +9151,27 @@
         <v>-6.4329999999999998</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="C23" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>420</v>
-      </c>
       <c r="F23" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G23" s="5">
         <v>57.533000000000001</v>
@@ -9182,27 +9180,27 @@
         <v>-3.206</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>423</v>
-      </c>
       <c r="C24" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>342</v>
-      </c>
       <c r="F24" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G24" s="5">
         <v>57.343000000000004</v>
@@ -9211,27 +9209,27 @@
         <v>-3.3380000000000001</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="D25" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>428</v>
-      </c>
       <c r="F25" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G25" s="5">
         <v>34.890999999999998</v>
@@ -9240,27 +9238,27 @@
         <v>135.67500000000001</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="D26" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>432</v>
-      </c>
       <c r="F26" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G26" s="5">
         <v>35.988999999999997</v>
@@ -9269,27 +9267,27 @@
         <v>139.072</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>251</v>
       </c>
       <c r="C27" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>436</v>
-      </c>
       <c r="F27" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G27" s="5">
         <v>35.773000000000003</v>
@@ -9298,7 +9296,7 @@
         <v>137.93700000000001</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -9309,16 +9307,16 @@
         <v>104</v>
       </c>
       <c r="C28" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>439</v>
-      </c>
       <c r="F28" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G28" s="5">
         <v>35.380000000000003</v>
@@ -9327,27 +9325,27 @@
         <v>136.274</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="D29" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>444</v>
-      </c>
       <c r="F29" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G29" s="5">
         <v>36.637999999999998</v>
@@ -9356,27 +9354,27 @@
         <v>136.964</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="D30" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="E30" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>450</v>
-      </c>
       <c r="F30" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G30" s="5">
         <v>53.338000000000001</v>
@@ -9385,27 +9383,27 @@
         <v>-6.2779999999999996</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="C31" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="E31" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>456</v>
-      </c>
       <c r="F31" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G31" s="5">
         <v>63.040999999999997</v>
@@ -9414,27 +9412,27 @@
         <v>17.739000000000001</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>459</v>
-      </c>
       <c r="C32" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G32" s="5">
         <v>57.649000000000001</v>
@@ -9443,27 +9441,27 @@
         <v>-3.64</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="D33" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="E33" s="5" t="s">
+      <c r="F33" s="5" t="s">
         <v>464</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>465</v>
       </c>
       <c r="G33" s="5">
         <v>36.347999999999999</v>
@@ -9472,27 +9470,27 @@
         <v>138.596</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="147.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="C34" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>469</v>
-      </c>
       <c r="F34" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G34" s="5">
         <v>56.94</v>
@@ -9501,27 +9499,27 @@
         <v>-4.2370000000000001</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>318</v>
-      </c>
       <c r="C35" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G35" s="5">
         <v>43.052</v>
@@ -9530,27 +9528,27 @@
         <v>144.84299999999999</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>476</v>
-      </c>
       <c r="C36" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>369</v>
-      </c>
       <c r="F36" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G36" s="5">
         <v>55.640999999999998</v>
@@ -9559,27 +9557,27 @@
         <v>-6.109</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>479</v>
-      </c>
       <c r="C37" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G37" s="5">
         <v>58.968000000000004</v>
@@ -9588,7 +9586,7 @@
         <v>-2.956</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -9596,19 +9594,19 @@
         <v>116</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C38" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="E38" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>342</v>
-      </c>
       <c r="F38" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G38" s="5">
         <v>57.484999999999999</v>
@@ -9617,27 +9615,27 @@
         <v>-3.2080000000000002</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>484</v>
-      </c>
       <c r="C39" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="E39" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>450</v>
-      </c>
       <c r="F39" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G39" s="5">
         <v>53.338000000000001</v>
@@ -9646,27 +9644,27 @@
         <v>-6.2779999999999996</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="C40" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>488</v>
-      </c>
       <c r="D40" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G40" s="5">
         <v>31.454000000000001</v>
@@ -9675,27 +9673,27 @@
         <v>130.46100000000001</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="C41" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="D41" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="E41" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>493</v>
-      </c>
       <c r="F41" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G41" s="5">
         <v>35.823999999999998</v>
@@ -9704,27 +9702,27 @@
         <v>138.43600000000001</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="C42" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="D42" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>498</v>
-      </c>
       <c r="F42" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G42" s="5">
         <v>43.177999999999997</v>
@@ -9733,27 +9731,27 @@
         <v>140.76599999999999</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="C43" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="D43" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="E43" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="D43" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>503</v>
-      </c>
       <c r="F43" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G43" s="5">
         <v>38.445999999999998</v>
@@ -9762,27 +9760,27 @@
         <v>140.88300000000001</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="C44" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>507</v>
-      </c>
       <c r="F44" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G44" s="5">
         <v>36.320999999999998</v>
@@ -9791,27 +9789,27 @@
         <v>138.44999999999999</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="C45" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="D45" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="D45" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>512</v>
-      </c>
       <c r="F45" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G45" s="5">
         <v>35.768999999999998</v>
@@ -9820,27 +9818,27 @@
         <v>139.125</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="C46" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>516</v>
-      </c>
       <c r="D46" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G46" s="5">
         <v>35.302999999999997</v>
@@ -9849,27 +9847,27 @@
         <v>138.95400000000001</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="C47" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="D47" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="E47" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="D47" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>521</v>
-      </c>
       <c r="F47" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G47" s="5">
         <v>35.036999999999999</v>
@@ -9878,27 +9876,27 @@
         <v>136.82900000000001</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="C48" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="D48" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="D48" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>503</v>
-      </c>
       <c r="F48" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G48" s="5">
         <v>38.445999999999998</v>
@@ -9907,27 +9905,27 @@
         <v>140.88300000000001</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="C49" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="D49" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="E49" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="D49" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>526</v>
-      </c>
       <c r="F49" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G49" s="5">
         <v>34.652999999999999</v>
@@ -9936,27 +9934,27 @@
         <v>134.989</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>529</v>
-      </c>
       <c r="C50" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="E50" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="D50" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>436</v>
-      </c>
       <c r="F50" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G50" s="5">
         <v>35.773000000000003</v>
@@ -9965,27 +9963,27 @@
         <v>137.93700000000001</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="C51" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="E51" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>533</v>
-      </c>
       <c r="F51" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G51" s="5">
         <v>31.672999999999998</v>
@@ -9994,7 +9992,7 @@
         <v>130.279</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>
@@ -10004,20 +10002,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6ff6e2ba-ab06-4ac9-b2c7-449843b7cb08" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6ff6e2ba-ab06-4ac9-b2c7-449843b7cb08" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10203,14 +10201,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B963C0D-E7E9-44EF-8AEB-EF3D573F3F67}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{987E6F6F-1448-40F2-A1EC-D5FD1FE7DC5E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="6ff6e2ba-ab06-4ac9-b2c7-449843b7cb08"/>
@@ -10222,6 +10212,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B963C0D-E7E9-44EF-8AEB-EF3D573F3F67}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/whisky_database.xlsx
+++ b/whisky_database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\新藤駿介(ShindoShunsuke)\Documents\GitHub\whisky-sommelier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A9F7B5-17DC-442E-BA65-51DFC7A29920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F16FAA-8871-432A-ACF3-22BA16B28320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{A2419164-9416-4CEB-A64A-CE2C95D250D1}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="666">
   <si>
     <t>番号</t>
   </si>
@@ -124,9 +124,6 @@
     <t>アクティブ</t>
   </si>
   <si>
-    <t>ポートエレン　２５年　one of only bottles</t>
-  </si>
-  <si>
     <t xml:space="preserve">Islay Single Malt  </t>
   </si>
   <si>
@@ -172,9 +169,6 @@
     <t>ボウモア</t>
   </si>
   <si>
-    <t>ローズバンク　1990年　イエコーン</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lowland Single Malt  </t>
   </si>
   <si>
@@ -247,9 +241,6 @@
     <t>オークニー諸島のハイランドパーク蒸留所と思われる、この18年熟成のウイスキー（2000年-2018年）は、ヘザーハニーの甘さ、穏やかなピート煙、海の塩気のバランスが絶妙です。ドライフルーツ、ウィンタースパイス、オレンジピールの豊かな風味が、オークとトフィーのニュアンスを持つ長く温かい余韻を引き立てます。</t>
   </si>
   <si>
-    <t>TALISKER　11年</t>
-  </si>
-  <si>
     <t>Scotland Isle of Skye</t>
   </si>
   <si>
@@ -304,9 +295,6 @@
     <t>MACALLAN</t>
   </si>
   <si>
-    <t>BEN NEVIS2009-2021 11年</t>
-  </si>
-  <si>
     <t>このベン・ネヴィス11年は、特徴的な油分を持つ力強い風味を提供します。トロピカルフルーツ、蜂蜜、モルトビスケットのノートが、アーシーなスパイスと微かな海岸の塩気とバランスよく調和しています。口当たりはリッチなトフィー、果樹園のフルーツ、控えめなオークの風味があり、長く温かみのある余韻が続きます。</t>
   </si>
   <si>
@@ -364,9 +352,6 @@
     <t>滋賀県長浜市に2016年に設立された日本最小クラスの蒸留所。「一醸一樽」（1回の仕込みで1樽分のウイスキーを作る）をスローガンにした少量生産が特徴。長濱浪漫ビールが創業20周年の記念事業として開設し、築100年以上の白壁土蔵を改装した施設でクラフトビールとウイスキーを製造。琵琶湖と伊吹山の風土を反映した個性的なウイスキーを生産しています。</t>
   </si>
   <si>
-    <t>Morttlach 13年2007-2020</t>
-  </si>
-  <si>
     <t>このモートラック13年（2007-2020）は、ダークフルーツ、チョコレート、スパイスのノートを持つリッチなシェリーの影響を提供します。口当たりは、ドライフルーツ、ナツメグ、そして微かな硫黄の香りと共に、モートラック特有の「肉感的な」キャラクターを届けます。余韻は長く、オークスパイス、レザー、そしてダークチョコレートのタッチが感じられます。</t>
   </si>
   <si>
@@ -385,9 +370,6 @@
     <t>GLENTAUCHERS11年2011-2023</t>
   </si>
   <si>
-    <t>東京浪漫シークレット（マッカラン）　24年</t>
-  </si>
-  <si>
     <t>東京浪漫シークレットシリーズ向けにボトリングされたこの24年熟成のマッカランは、レーズンやイチジクなどのドライフルーツの豊かな層に、はちみつ、バニラ、オークスパイスが調和しています。口当たりにはシェリーの影響が感じられ、チョコレート、オレンジの皮、穏やかなオークタンニンの風味があり、生姜とナツメグのヒントを伴う長く温かみのある余韻へと続きます。</t>
   </si>
   <si>
@@ -412,9 +394,6 @@
     <t>2012年から2020年まで熟成されたヴィンテージのアイリッシュウイスキー。豊かな蜂蜜とバニラの風味が、果樹園のフルーツとスパイスのバランスを取っています。おそらく元バーボン樽での8年間の熟成により、オークの影響、トフィーの甘さ、そしてコショウと乾燥フルーツのヒントを含む温かく長続きするフィニッシュを持つ複雑なプロファイルが生まれています。</t>
   </si>
   <si>
-    <t>クライヌリッシュ１８年　1997ー2022</t>
-  </si>
-  <si>
     <t xml:space="preserve">Highland Single Malt  </t>
   </si>
   <si>
@@ -424,18 +403,9 @@
     <t>クライヌリッシュ１８年</t>
   </si>
   <si>
-    <t>glengarioch 14年2008</t>
-  </si>
-  <si>
-    <t>グレンギリー 14年 2008は、バランスの取れたプロファイルを持ち、果樹園の果実、蜂蜜、バニラの甘さが特徴です。大麦、優しいスパイス、そしてヒースの微かな香りが中心の風味を補完します。フィニッシュは中長で、心地よいオークの影響と、エレガントに残る微妙な麦芽の風味があります。</t>
-  </si>
-  <si>
     <t>GLENGARIOCH</t>
   </si>
   <si>
-    <t>GlenGarioch18年　1994-2013</t>
-  </si>
-  <si>
     <t>グレンギリー18年（1994-2013）は、蜂蜜のようなモルト、果樹園の果実、バニラクリームの豊かなプロファイルを提供します。口当たりはヘザーハニー、トーストしたオーク、柑橘系の皮のヒントを含む微妙なスパイスを明らかにします。余韻は長く、穏やかなオークタンニン、ドライフルーツ、そしてハイランドヘザーの風味が感じられます。</t>
   </si>
   <si>
@@ -520,27 +490,18 @@
     <t>2013年蒸留、2021年ボトリングのキルホーマン。アイラ島特有のピート香りと海の塩気が特徴的で、甘い大麦の風味とシトラスの皮の爽やかさが調和しています。8年間の熟成により、バニラ、トフィー、ドライフルーツの複雑さが加わり、長く温かい余韻には炭化したオークと持続する煙の香りが残ります。</t>
   </si>
   <si>
-    <t>Old FETTERCAIRN　８０年代</t>
-  </si>
-  <si>
     <t>1980年代のオールド・フェッターケアンは、トロピカルフルーツ、蜂蜜、ローストナッツの特徴的なハイランドの個性を提供します。口当たりにはバニラ、トフィー、微妙なスパイスと柑橘類の皮のヒントが現れます。オークと穏やかな麦芽の風味が構造を与え、温かみのある中程度の長さの余韻と残る甘さへと導きます。</t>
   </si>
   <si>
     <t>OLD</t>
   </si>
   <si>
-    <t>GLEN　GLASSAUGH　1973</t>
-  </si>
-  <si>
     <t>グレングラッサ（正しいスペル）の希少な1973年ヴィンテージは、ドライフルーツ、蜂蜜、オークスパイスの層が織りなす卓越した深みを提供します。トフィーとバニラの豊かな風味が、かすかな海の影響、レザー、アンティークウッドと調和しています。長期熟成により、長く温かみのある余韻を持つ驚くべき複雑さが生まれています。</t>
   </si>
   <si>
     <t>GLEN</t>
   </si>
   <si>
-    <t>NAGAHAMA乾杯会</t>
-  </si>
-  <si>
     <t xml:space="preserve">Japanese Malt </t>
   </si>
   <si>
@@ -586,9 +547,6 @@
     <t>このグレンリベット20年（2003-2023）は、熟した果実の風味、蜂蜜、バニラの優雅な層が特徴で、微かなオークスパイスが調和しています。口当たりはリッチなトフィー、ドライフルーツ、優しいナツメグにほのかな柑橘系の風味が感じられます。フィニッシュは長く温かみがあり、甘いモルトと繊細な花の香りが余韻を残します。</t>
   </si>
   <si>
-    <t>秩父2016-2021　イチローズモルト</t>
-  </si>
-  <si>
     <t>秩父2016-2021 イチローズモルトは、ドライフルーツ、蜂蜜、オークスパイスの複雑な香りを提供します。口当たりはアプリコット、バニラ、穏やかなスパイスの層が広がり、水楢樽の影響がわずかに感じられます。フィニッシュは長く、かすかな煙、キャラメル、秩父蒸留所の洗練されたスタイルに特徴的な繊細な花のキャラクターが残ります。</t>
   </si>
   <si>
@@ -670,9 +628,6 @@
     <t>LINKWOOD13年</t>
   </si>
   <si>
-    <t>GLEN ORD2009-2023</t>
-  </si>
-  <si>
     <t>グレン・オード2009-2023（14年熟成）は、リンゴや洋ナシなどの豊かな果樹園の果実の風味に、ハチミツの甘さとバニラが調和しています。オークスパイス、シナモン、軽いショウガの風味が微かなモルト感とともに広がります。フィニッシュは中長で、穏やかなオークタンニンと乾燥果実のニュアンスが残ります。</t>
   </si>
   <si>
@@ -685,18 +640,12 @@
     <t>モートラック2023は、蒸留所の特徴である肉のような風味を持つ豊かで力強い味わいを提供します。ドライフルーツ、ダークチョコレート、温かみのあるスパイスがオークタンニンとバランスよく調和しています。フィニッシュは長く複雑で、モートラックの特徴である革、タバコ、微妙な硫黄のニュアンスが感じられます。</t>
   </si>
   <si>
-    <t>山崎蒸留所樽出原酒58度大阪50周年</t>
-  </si>
-  <si>
     <t>大阪50周年を記念した山崎の特別な樽出し原酒（アルコール度数58%）。豊かな樽の影響により、凝縮された乾燥果実、蜂蜜、スパイスの風味が特徴。高アルコール度数がオレンジマーマレード、ダークチョコレート、シナモン、トーストしたオークの濃厚な味わいをもたらし、長く温かみのある余韻が続きます。</t>
   </si>
   <si>
     <t>YAMAZAKI</t>
   </si>
   <si>
-    <t xml:space="preserve">HIGHLAND PARK1986-2006 </t>
-  </si>
-  <si>
     <t>1986年から2006年まで熟成された20年物のハイランドパーク。豊かな蜂蜜、ヒース、オレンジピールの風味が穏やかなピートスモークと調和しています。ドライフルーツ、トフィー、微かな海の特徴が層をなし、シナモンとナツメグのヒントが長く温かい余韻へと導きます。</t>
   </si>
   <si>
@@ -709,9 +658,6 @@
     <t>キルホーマン2022リリースは、力強いピート煙、海の塩気、柑橘系のノートを持つ、蒸留所の特徴的なアイラスタイルを示しています。バニラ、果樹園の果実、蜂蜜の甘さの層が、薬草的なピート、黒胡椒、ヨードのタッチとバランスよく調和しています。フィニッシュは長く、煙の余韻、甘い大麦、微妙な樽のスパイスが続きます。</t>
   </si>
   <si>
-    <t>軽井沢100%malt</t>
-  </si>
-  <si>
     <t>軽井沢100%モルトは、豊かな複雑さで知られる希少な日本のウイスキーです。ドライフルーツ、ダークチョコレート、控えめなオークスパイスの風味が特徴です。口当たりはシェリーの影響を受け、レーズン、オレンジピール、日本のオークの微かな風味が感じられます。余韻は長く、穏やかな煙とスパイスが残ります。</t>
   </si>
   <si>
@@ -751,9 +697,6 @@
     <t>広島県廿日市市に2018年に設立されたクラフト蒸留所。1918年に創業した中国醸造が100年の歴史を記念して開設し、長年受け継いできた蒸留技術を活かしています。広島湾に隣接し潮の香りが漂う環境で、モルトウイスキーとジン両方の製造を行い、広島産の素材を活かした製品開発に取り組んでいます。</t>
   </si>
   <si>
-    <t>Royal Brackla2011-2021</t>
-  </si>
-  <si>
     <t>ロイヤル・ブラックラ 2011-2021は、洗練された風味を持ち、果樹園のフルーツ、バニラ、蜂蜜の甘さが特徴です。麦芽の麦とオークのスパイスに、柑橘類の皮と乾燥フルーツのヒントが加わります。フィニッシュではナツメグ、シナモン、わずかな革の風味と穏やかなオークタンニンが現れます。</t>
   </si>
   <si>
@@ -829,9 +772,6 @@
     <t>SPEYSIDE</t>
   </si>
   <si>
-    <t>Invergoroon 1972-2021 49年</t>
-  </si>
-  <si>
     <t xml:space="preserve">Single Grain  </t>
   </si>
   <si>
@@ -941,9 +881,6 @@
   </si>
   <si>
     <t>明石</t>
-  </si>
-  <si>
-    <t xml:space="preserve">山崎10年 </t>
   </si>
   <si>
     <t>山崎10年は製造終了した日本のシングルモルトで、蜂蜜、バニラ、果樹園の果実の優雅な風味が特徴です。オークスパイス、軽やかな柑橘類、花の要素がバランスよく調和し、水楢樽特有の白檀のキャラクターがほのかに感じられます。余韻は中程度で、優しい甘さと繊細なスパイスが残ります。</t>
@@ -2285,6 +2222,142 @@
   </si>
   <si>
     <t>NAGAHAMA 長浜シングルモルト2019-2022 KOVAL four grain cask</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>安積 J'S BAR PRIVATE CASK2017－2022</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ORKNEY ハイランドパーク The City Life 2000-2018</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>軽井沢 100%malt OCEAN WHISKY</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>GLENGARIOCH グレンギリー 2008 14年 Silence bar 35周年</t>
+    <rPh sb="22" eb="23">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シュウネン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>グレンギリー 14年 2008は、バランスの取れたプロファイルを持ち、果樹園の果実、蜂蜜、バニラの甘さが特徴です。大麦、優しいスパイス、そしてヒースの微かな香りが中心の風味を補完します。フィニッシュは中長で、心地よいオークの影響と、エレガントに残る微妙な麦芽の風味があります。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ポートエレン 25年　one of only bottles</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>GlenGarioch18年　1994-2013</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ローズバンク　1990年　イエコーン Natural Mal Selection</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>HIGHLAND PARK 1986-2006 PREMIERS CHOICE</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Royal Brackla2011-2021 Once upon a time…</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ORKNEY 22年（ハイランドパーク）1999-2021 ART SESSION</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>BEN NEVIS 2009-2021 11年 Don't be trapped by design</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>TALISKER　11年 OLD PARTICULAR</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>山崎蒸留所樽出原酒 大阪広告協会 58度大阪50周年</t>
+    <rPh sb="10" eb="12">
+      <t>オオサカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウコク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キョウカイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>GLEN　GLASSAUGH 1973年 THE FAMILY SILVER</t>
+    <rPh sb="19" eb="20">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>NAGAHAMA 乾杯会</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>GLEN ORD2009-2023 信濃屋</t>
+    <rPh sb="18" eb="21">
+      <t>シナノヤ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>DAILUAINE　23年1997-2021　ART SESSION</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Invergoroon 1972-2021 49年　MALTBARN</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>東京浪漫シークレット（マッカラン）　24年</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>秩父2016-2021　イチローズモルト　祭ブレンデッド</t>
+    <rPh sb="21" eb="22">
+      <t>マツ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ｓ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Morttlach 13年2007-2020 HEPBURN'S CHOICE</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>クライヌリッシュ 18年　1997ー2022 アデルフィ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ASTER11年BRUICHLADDICH2012 TASTER</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>DAILUAINE10年2011-2021 FINEST WHISKY BERLIN</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>山崎10年 オフィシャル</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Old FETTERCAIRN　80年代</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -2496,10 +2569,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2839,11 +2912,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F60670-F158-4C9B-93E8-D52D53F4A8E3}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U63" sqref="U63"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2917,10 +2991,10 @@
         <v>15</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2949,16 +3023,16 @@
         <v>23</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N2" s="12">
         <v>57.302</v>
@@ -2967,16 +3041,16 @@
         <v>-6.3559999999999999</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="Q2" s="13"/>
     </row>
-    <row r="3" spans="1:17" ht="99.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" ht="99.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>27</v>
+        <v>643</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>17</v>
@@ -2985,31 +3059,31 @@
         <v>25</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="I3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="12" t="s">
-        <v>32</v>
-      </c>
       <c r="J3" s="12" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="N3" s="12">
         <v>55.63</v>
@@ -3018,16 +3092,18 @@
         <v>-6.1929999999999996</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q3" s="13"/>
-    </row>
-    <row r="4" spans="1:17" ht="83.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>317</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>56.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>17</v>
@@ -3039,28 +3115,28 @@
         <v>19</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="H4" s="12" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N4" s="12">
         <v>57.484999999999999</v>
@@ -3069,49 +3145,49 @@
         <v>-3.2080000000000002</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="Q4" s="13"/>
     </row>
-    <row r="5" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>646</v>
+        <v>625</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="H5" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="L5" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="I5" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>344</v>
-      </c>
       <c r="M5" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N5" s="12">
         <v>55.756</v>
@@ -3120,18 +3196,18 @@
         <v>-6.2889999999999997</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="Q5" s="13">
         <v>50.2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="83.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>43</v>
+        <v>645</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>17</v>
@@ -3140,31 +3216,31 @@
         <v>25</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>46</v>
-      </c>
       <c r="H6" s="12" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="N6" s="12">
         <v>55.991</v>
@@ -3173,31 +3249,33 @@
         <v>-3.827</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q6" s="13"/>
-    </row>
-    <row r="7" spans="1:17" ht="32.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>329</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>52.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="32.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="G7" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>51</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -3208,14 +3286,16 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
-      <c r="Q7" s="13"/>
-    </row>
-    <row r="8" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="Q7" s="13">
+        <v>42.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>17</v>
@@ -3224,31 +3304,31 @@
         <v>25</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>55</v>
-      </c>
       <c r="H8" s="12" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N8" s="12">
         <v>55.424999999999997</v>
@@ -3257,49 +3337,49 @@
         <v>-5.609</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="Q8" s="13"/>
     </row>
-    <row r="9" spans="1:17" ht="83.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N9" s="12">
         <v>55.878</v>
@@ -3308,18 +3388,18 @@
         <v>-6.125</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="Q9" s="13">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>17</v>
@@ -3328,31 +3408,31 @@
         <v>25</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N10" s="12">
         <v>56.624000000000002</v>
@@ -3361,49 +3441,49 @@
         <v>-3.85</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>364</v>
+        <v>343</v>
       </c>
       <c r="Q10" s="13"/>
     </row>
-    <row r="11" spans="1:17" ht="50.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" ht="50.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N11" s="12">
         <v>55.640999999999998</v>
@@ -3412,49 +3492,49 @@
         <v>-6.109</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="Q11" s="13"/>
     </row>
-    <row r="12" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>65</v>
+        <v>639</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>477</v>
+        <v>456</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N12" s="12">
         <v>58.968000000000004</v>
@@ -3463,119 +3543,123 @@
         <v>-2.956</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>479</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A13" s="15">
+        <v>458</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>51.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="16">
         <v>12</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="15" t="s">
+        <v>650</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="15" t="s">
-        <v>639</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="15" t="s">
+      <c r="F13" s="16" t="s">
+        <v>618</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="J13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="L13" s="15">
+      <c r="L13" s="16">
         <v>1830</v>
       </c>
-      <c r="M13" s="15" t="s">
+      <c r="M13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="N13" s="15">
+      <c r="N13" s="16">
         <v>57.302</v>
       </c>
-      <c r="O13" s="15">
+      <c r="O13" s="16">
         <v>-6.3559999999999999</v>
       </c>
-      <c r="P13" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" spans="1:17" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="15"/>
+      <c r="P13" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>53.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="16"/>
       <c r="B14" s="17"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
       <c r="Q14" s="13"/>
     </row>
-    <row r="15" spans="1:17" ht="79.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" ht="79.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N15" s="12">
         <v>55.640999999999998</v>
@@ -3584,49 +3668,49 @@
         <v>-6.109</v>
       </c>
       <c r="P15" s="12" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="Q15" s="13"/>
     </row>
-    <row r="16" spans="1:17" ht="105.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" ht="105.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
         <v>14</v>
       </c>
       <c r="B16" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>76</v>
-      </c>
       <c r="H16" s="12" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N16" s="12">
         <v>37.398000000000003</v>
@@ -3635,49 +3719,49 @@
         <v>140.36000000000001</v>
       </c>
       <c r="P16" s="12" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="Q16" s="13"/>
     </row>
-    <row r="17" spans="1:17" ht="79.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:17" ht="79.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>77</v>
+        <v>648</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>477</v>
+        <v>456</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N17" s="12">
         <v>58.968000000000004</v>
@@ -3686,16 +3770,18 @@
         <v>-2.956</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>479</v>
-      </c>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" spans="1:17" ht="83.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>458</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>640</v>
+        <v>619</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>17</v>
@@ -3707,28 +3793,28 @@
         <v>19</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>641</v>
+        <v>620</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>534</v>
+        <v>513</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N18" s="12">
         <v>57.484999999999999</v>
@@ -3737,18 +3823,18 @@
         <v>-3.2080000000000002</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="Q18" s="13">
         <v>48.1</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>79</v>
+        <v>655</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>17</v>
@@ -3760,28 +3846,28 @@
         <v>19</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>470</v>
+        <v>449</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N19" s="12">
         <v>57.451999999999998</v>
@@ -3790,16 +3876,18 @@
         <v>-3.3769999999999998</v>
       </c>
       <c r="P19" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>361</v>
+      </c>
+      <c r="Q19" s="13">
+        <v>50.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>81</v>
+        <v>663</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>17</v>
@@ -3808,31 +3896,31 @@
         <v>25</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>470</v>
+        <v>449</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N20" s="12">
         <v>57.451999999999998</v>
@@ -3841,16 +3929,18 @@
         <v>-3.3769999999999998</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q20" s="13"/>
-    </row>
-    <row r="21" spans="1:17" ht="48" thickBot="1" x14ac:dyDescent="0.45">
+        <v>361</v>
+      </c>
+      <c r="Q20" s="13">
+        <v>52.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="48" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>17</v>
@@ -3862,19 +3952,19 @@
         <v>19</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>25</v>
@@ -3892,16 +3982,16 @@
         <v>-3.2080000000000002</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q21" s="13"/>
     </row>
-    <row r="22" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>87</v>
+        <v>649</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>17</v>
@@ -3913,28 +4003,28 @@
         <v>19</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N22" s="12">
         <v>56.835999999999999</v>
@@ -3943,49 +4033,51 @@
         <v>-5.0739999999999998</v>
       </c>
       <c r="P22" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" spans="1:17" ht="83.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>365</v>
+      </c>
+      <c r="Q22" s="13">
+        <v>64.099999999999994</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N23" s="12">
         <v>58.968000000000004</v>
@@ -3994,49 +4086,49 @@
         <v>-2.956</v>
       </c>
       <c r="P23" s="12" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="Q23" s="13"/>
     </row>
-    <row r="24" spans="1:17" ht="83.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="3">
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>644</v>
+        <v>623</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>645</v>
+        <v>624</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>452</v>
+        <v>431</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>539</v>
+        <v>518</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>454</v>
+        <v>433</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>455</v>
+        <v>434</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N24" s="12">
         <v>63.002000000000002</v>
@@ -4045,18 +4137,18 @@
         <v>17.798999999999999</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="Q24" s="13">
         <v>64.900000000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="3">
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>648</v>
+        <v>627</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>17</v>
@@ -4065,31 +4157,31 @@
         <v>25</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>458</v>
+        <v>437</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N25" s="12">
         <v>57.649000000000001</v>
@@ -4098,51 +4190,51 @@
         <v>-3.64</v>
       </c>
       <c r="P25" s="12" t="s">
-        <v>459</v>
+        <v>438</v>
       </c>
       <c r="Q25" s="13">
         <v>58.7</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="3">
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="M26" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N26" s="12">
         <v>55.78</v>
@@ -4151,43 +4243,43 @@
         <v>-6.4329999999999998</v>
       </c>
       <c r="P26" s="12" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="Q26" s="13"/>
     </row>
-    <row r="27" spans="1:17" ht="48" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:17" ht="48" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="3">
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I27" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F27" s="3" t="s">
+      <c r="J27" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G27" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="K27" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L27" s="3">
         <v>2016</v>
@@ -4202,16 +4294,16 @@
         <v>136.26400000000001</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="Q27" s="13"/>
     </row>
-    <row r="28" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="3">
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>107</v>
+        <v>660</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>17</v>
@@ -4220,31 +4312,31 @@
         <v>25</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N28" s="12">
         <v>57.444000000000003</v>
@@ -4253,16 +4345,18 @@
         <v>-3.1280000000000001</v>
       </c>
       <c r="P28" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>372</v>
+      </c>
+      <c r="Q28" s="13">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="3">
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>17</v>
@@ -4271,31 +4365,31 @@
         <v>25</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="M29" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N29" s="12">
         <v>57.444000000000003</v>
@@ -4304,16 +4398,16 @@
         <v>-3.1280000000000001</v>
       </c>
       <c r="P29" s="12" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="Q29" s="13"/>
     </row>
-    <row r="30" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="3">
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>629</v>
+        <v>608</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>17</v>
@@ -4322,31 +4416,31 @@
         <v>25</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>630</v>
+        <v>609</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N30" s="12">
         <v>57.545999999999999</v>
@@ -4355,16 +4449,16 @@
         <v>-3.048</v>
       </c>
       <c r="P30" s="12" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="Q30" s="13"/>
     </row>
-    <row r="31" spans="1:17" ht="83.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="3">
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>114</v>
+        <v>657</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>17</v>
@@ -4376,28 +4470,28 @@
         <v>19</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="M31" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N31" s="12">
         <v>57.484999999999999</v>
@@ -4406,49 +4500,51 @@
         <v>-3.2080000000000002</v>
       </c>
       <c r="P31" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" spans="1:17" ht="83.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>321</v>
+      </c>
+      <c r="Q31" s="13">
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="3">
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>631</v>
+        <v>610</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>632</v>
+        <v>611</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>445</v>
+        <v>424</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="M32" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N32" s="12">
         <v>53.338000000000001</v>
@@ -4457,51 +4553,51 @@
         <v>-6.2779999999999996</v>
       </c>
       <c r="P32" s="12" t="s">
-        <v>450</v>
+        <v>429</v>
       </c>
       <c r="Q32" s="13">
         <v>62.5</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="83.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="3">
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>483</v>
+        <v>462</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="L33" s="12" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="M33" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N33" s="12">
         <v>53.338000000000001</v>
@@ -4510,16 +4606,16 @@
         <v>-6.2779999999999996</v>
       </c>
       <c r="P33" s="12" t="s">
-        <v>484</v>
+        <v>463</v>
       </c>
       <c r="Q33" s="13"/>
     </row>
-    <row r="34" spans="1:17" ht="132.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:17" ht="132.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="3">
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>123</v>
+        <v>661</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>17</v>
@@ -4528,31 +4624,31 @@
         <v>25</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>542</v>
+        <v>521</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>543</v>
+        <v>522</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L34" s="12" t="s">
-        <v>544</v>
+        <v>523</v>
       </c>
       <c r="M34" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N34" s="12">
         <v>58.023000000000003</v>
@@ -4561,16 +4657,18 @@
         <v>-3.867</v>
       </c>
       <c r="P34" s="12" t="s">
-        <v>545</v>
-      </c>
-      <c r="Q34" s="13"/>
-    </row>
-    <row r="35" spans="1:17" ht="83.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>524</v>
+      </c>
+      <c r="Q34" s="13">
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="3">
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>127</v>
+        <v>641</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>17</v>
@@ -4579,31 +4677,31 @@
         <v>25</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>128</v>
+        <v>642</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>546</v>
+        <v>525</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L35" s="12" t="s">
-        <v>547</v>
+        <v>526</v>
       </c>
       <c r="M35" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N35" s="12">
         <v>57.337000000000003</v>
@@ -4612,16 +4710,16 @@
         <v>-2.3149999999999999</v>
       </c>
       <c r="P35" s="12" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="Q35" s="13"/>
     </row>
-    <row r="36" spans="1:17" ht="83.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="3">
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>130</v>
+        <v>644</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>17</v>
@@ -4630,31 +4728,31 @@
         <v>25</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>546</v>
+        <v>525</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L36" s="12" t="s">
-        <v>547</v>
+        <v>526</v>
       </c>
       <c r="M36" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N36" s="12">
         <v>57.337000000000003</v>
@@ -4663,16 +4761,18 @@
         <v>-2.3149999999999999</v>
       </c>
       <c r="P36" s="12" t="s">
-        <v>548</v>
-      </c>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" spans="1:17" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>527</v>
+      </c>
+      <c r="Q36" s="13">
+        <v>63.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="84.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="3">
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>615</v>
+        <v>594</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>17</v>
@@ -4681,31 +4781,31 @@
         <v>25</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>616</v>
+        <v>595</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L37" s="12" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="M37" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N37" s="12">
         <v>56.704000000000001</v>
@@ -4714,51 +4814,51 @@
         <v>-3.7330000000000001</v>
       </c>
       <c r="P37" s="12" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="Q37" s="13">
         <v>55.5</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:17" ht="84.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="3">
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>618</v>
+        <v>597</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="H38" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="L38" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="I38" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="J38" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="K38" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="L38" s="12" t="s">
-        <v>344</v>
-      </c>
       <c r="M38" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N38" s="12">
         <v>55.756</v>
@@ -4767,51 +4867,51 @@
         <v>-6.2889999999999997</v>
       </c>
       <c r="P38" s="12" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="Q38" s="13">
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="79.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:17" ht="79.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="3">
         <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>535</v>
+        <v>514</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="H39" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="K39" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="L39" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="I39" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="J39" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="K39" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="L39" s="12" t="s">
-        <v>344</v>
-      </c>
       <c r="M39" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N39" s="12">
         <v>55.756</v>
@@ -4820,49 +4920,49 @@
         <v>-6.2889999999999997</v>
       </c>
       <c r="P39" s="12" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="Q39" s="13"/>
     </row>
-    <row r="40" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="3">
         <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>460</v>
+        <v>439</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>461</v>
+        <v>440</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>462</v>
+        <v>441</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="L40" s="12" t="s">
-        <v>463</v>
+        <v>442</v>
       </c>
       <c r="M40" s="12" t="s">
-        <v>464</v>
+        <v>443</v>
       </c>
       <c r="N40" s="12">
         <v>36.347999999999999</v>
@@ -4871,16 +4971,16 @@
         <v>138.596</v>
       </c>
       <c r="P40" s="12" t="s">
-        <v>465</v>
+        <v>444</v>
       </c>
       <c r="Q40" s="13"/>
     </row>
-    <row r="41" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="3">
         <v>39</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>613</v>
+        <v>592</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>17</v>
@@ -4889,31 +4989,31 @@
         <v>25</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L41" s="12" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="M41" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N41" s="12">
         <v>55.853999999999999</v>
@@ -4922,7 +5022,7 @@
         <v>-6.1079999999999997</v>
       </c>
       <c r="P41" s="12" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="Q41" s="13">
         <v>54.1</v>
@@ -4933,7 +5033,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>537</v>
+        <v>516</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>17</v>
@@ -4942,31 +5042,31 @@
         <v>25</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>538</v>
+        <v>517</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L42" s="12" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="M42" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N42" s="12">
         <v>56.847000000000001</v>
@@ -4975,16 +5075,16 @@
         <v>-2.5880000000000001</v>
       </c>
       <c r="P42" s="12" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="Q42" s="13"/>
     </row>
-    <row r="43" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A43" s="3">
         <v>41</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>633</v>
+        <v>612</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>17</v>
@@ -4993,31 +5093,31 @@
         <v>25</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>634</v>
+        <v>613</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L43" s="12" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="M43" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N43" s="12">
         <v>57.427</v>
@@ -5026,33 +5126,33 @@
         <v>-3.3130000000000002</v>
       </c>
       <c r="P43" s="12" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="Q43" s="13">
         <v>58.7</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="79.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:17" ht="79.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="3">
         <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -5065,12 +5165,12 @@
       <c r="P44" s="3"/>
       <c r="Q44" s="13"/>
     </row>
-    <row r="45" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A45" s="3">
         <v>43</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>17</v>
@@ -5079,31 +5179,31 @@
         <v>25</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L45" s="12" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="M45" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N45" s="12">
         <v>57.646999999999998</v>
@@ -5112,49 +5212,49 @@
         <v>-3.2930000000000001</v>
       </c>
       <c r="P45" s="12" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="Q45" s="13"/>
     </row>
-    <row r="46" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A46" s="3">
         <v>44</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>612</v>
+        <v>591</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="I46" s="12" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="K46" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L46" s="12" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="M46" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N46" s="12">
         <v>55.78</v>
@@ -5163,45 +5263,45 @@
         <v>-6.4329999999999998</v>
       </c>
       <c r="P46" s="12" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="Q46" s="13">
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="48" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:17" ht="48" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A47" s="3">
         <v>45</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L47" s="3">
         <v>2016</v>
@@ -5216,16 +5316,16 @@
         <v>130.32300000000001</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="Q47" s="13"/>
     </row>
-    <row r="48" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A48" s="3">
         <v>46</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>17</v>
@@ -5234,31 +5334,31 @@
         <v>25</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="J48" s="12" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L48" s="12" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="M48" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N48" s="12">
         <v>55.78</v>
@@ -5267,7 +5367,7 @@
         <v>-6.4329999999999998</v>
       </c>
       <c r="P48" s="12" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="Q48" s="13">
         <v>55.7</v>
@@ -5278,7 +5378,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>159</v>
+        <v>665</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>17</v>
@@ -5287,31 +5387,31 @@
         <v>25</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L49" s="12" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="M49" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N49" s="12">
         <v>56.847000000000001</v>
@@ -5320,16 +5420,18 @@
         <v>-2.5880000000000001</v>
       </c>
       <c r="P49" s="12" t="s">
-        <v>404</v>
-      </c>
-      <c r="Q49" s="13"/>
-    </row>
-    <row r="50" spans="1:17" ht="83.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>383</v>
+      </c>
+      <c r="Q49" s="13">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A50" s="3">
         <v>48</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>162</v>
+        <v>652</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>17</v>
@@ -5341,28 +5443,28 @@
         <v>19</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="I50" s="12" t="s">
-        <v>549</v>
+        <v>528</v>
       </c>
       <c r="J50" s="12" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L50" s="12" t="s">
-        <v>550</v>
+        <v>529</v>
       </c>
       <c r="M50" s="12" t="s">
-        <v>551</v>
+        <v>530</v>
       </c>
       <c r="N50" s="12">
         <v>57.683999999999997</v>
@@ -5371,43 +5473,45 @@
         <v>-2.5649999999999999</v>
       </c>
       <c r="P50" s="12" t="s">
-        <v>555</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" spans="1:17" ht="48" thickBot="1" x14ac:dyDescent="0.45">
+        <v>534</v>
+      </c>
+      <c r="Q50" s="13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A51" s="3">
         <v>49</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>165</v>
+        <v>653</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L51" s="3">
         <v>2016</v>
@@ -5422,16 +5526,18 @@
         <v>136.26400000000001</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q51" s="13"/>
-    </row>
-    <row r="52" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>102</v>
+      </c>
+      <c r="Q51" s="13">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A52" s="3">
         <v>50</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>17</v>
@@ -5440,31 +5546,31 @@
         <v>25</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="J52" s="12" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L52" s="12" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="M52" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N52" s="12">
         <v>55.424999999999997</v>
@@ -5473,49 +5579,49 @@
         <v>-5.609</v>
       </c>
       <c r="P52" s="12" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="Q52" s="13"/>
     </row>
-    <row r="53" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A53" s="3">
         <v>51</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>614</v>
+        <v>593</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L53" s="12" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="M53" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N53" s="12">
         <v>55.853999999999999</v>
@@ -5524,49 +5630,49 @@
         <v>-6.1079999999999997</v>
       </c>
       <c r="P53" s="12" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="Q53" s="13"/>
     </row>
-    <row r="54" spans="1:17" ht="79.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:17" ht="79.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A54" s="3">
         <v>52</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>173</v>
+        <v>662</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>556</v>
+        <v>535</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>552</v>
+        <v>531</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L54" s="12" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="M54" s="12" t="s">
-        <v>553</v>
+        <v>532</v>
       </c>
       <c r="N54" s="12">
         <v>55.767000000000003</v>
@@ -5575,16 +5681,18 @@
         <v>-6.3620000000000001</v>
       </c>
       <c r="P54" s="12" t="s">
-        <v>558</v>
-      </c>
-      <c r="Q54" s="13"/>
-    </row>
-    <row r="55" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>537</v>
+      </c>
+      <c r="Q54" s="13">
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="3">
         <v>53</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>625</v>
+        <v>604</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>17</v>
@@ -5593,31 +5701,31 @@
         <v>25</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>559</v>
+        <v>538</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L55" s="12" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="M55" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N55" s="12">
         <v>57.451999999999998</v>
@@ -5626,18 +5734,18 @@
         <v>-3.3769999999999998</v>
       </c>
       <c r="P55" s="12" t="s">
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="Q55" s="13">
         <v>57.3</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A56" s="3">
         <v>54</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>17</v>
@@ -5646,31 +5754,31 @@
         <v>25</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="I56" s="12" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="J56" s="12" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="K56" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L56" s="12" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="M56" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N56" s="12">
         <v>57.533000000000001</v>
@@ -5679,18 +5787,18 @@
         <v>-3.206</v>
       </c>
       <c r="P56" s="12" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="Q56" s="13">
         <v>58.1</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="83.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A57" s="3">
         <v>55</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>638</v>
+        <v>617</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>17</v>
@@ -5699,31 +5807,31 @@
         <v>25</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="J57" s="12" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="K57" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L57" s="12" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="M57" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N57" s="12">
         <v>57.343000000000004</v>
@@ -5732,51 +5840,51 @@
         <v>-3.3380000000000001</v>
       </c>
       <c r="P57" s="12" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="Q57" s="13">
         <v>58.3</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A58" s="3">
         <v>56</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>181</v>
+        <v>658</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>471</v>
+        <v>450</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="J58" s="12" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="K58" s="12" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="L58" s="12" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="M58" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N58" s="12">
         <v>35.988999999999997</v>
@@ -5785,49 +5893,51 @@
         <v>139.072</v>
       </c>
       <c r="P58" s="12" t="s">
-        <v>432</v>
-      </c>
-      <c r="Q58" s="13"/>
-    </row>
-    <row r="59" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>411</v>
+      </c>
+      <c r="Q58" s="13">
+        <v>62.7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A59" s="3">
         <v>57</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>477</v>
+        <v>456</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="J59" s="12" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="K59" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L59" s="12" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="M59" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N59" s="12">
         <v>58.968000000000004</v>
@@ -5836,49 +5946,49 @@
         <v>-2.956</v>
       </c>
       <c r="P59" s="12" t="s">
-        <v>479</v>
+        <v>458</v>
       </c>
       <c r="Q59" s="13"/>
     </row>
-    <row r="60" spans="1:17" ht="50.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:17" ht="50.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A60" s="3">
         <v>58</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="J60" s="12" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="K60" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L60" s="12" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="M60" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N60" s="12">
         <v>55.640999999999998</v>
@@ -5887,16 +5997,16 @@
         <v>-6.109</v>
       </c>
       <c r="P60" s="12" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="Q60" s="13"/>
     </row>
-    <row r="61" spans="1:17" ht="83.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A61" s="3">
         <v>59</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>621</v>
+        <v>600</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>17</v>
@@ -5905,31 +6015,31 @@
         <v>25</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J61" s="12" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="K61" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L61" s="12" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="M61" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N61" s="12">
         <v>57.484999999999999</v>
@@ -5938,18 +6048,18 @@
         <v>-3.2080000000000002</v>
       </c>
       <c r="P61" s="12" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="Q61" s="13">
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A62" s="3">
         <v>60</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>17</v>
@@ -5958,31 +6068,31 @@
         <v>25</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="J62" s="12" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="K62" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L62" s="12" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="M62" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N62" s="12">
         <v>56.835999999999999</v>
@@ -5991,51 +6101,51 @@
         <v>-5.0739999999999998</v>
       </c>
       <c r="P62" s="12" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="Q62" s="13">
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="99.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:17" ht="99.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A63" s="3">
         <v>61</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>564</v>
+        <v>543</v>
       </c>
       <c r="I63" s="12" t="s">
-        <v>561</v>
+        <v>540</v>
       </c>
       <c r="J63" s="12" t="s">
-        <v>562</v>
+        <v>541</v>
       </c>
       <c r="K63" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L63" s="12" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
       <c r="M63" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N63" s="12">
         <v>55.832999999999998</v>
@@ -6044,18 +6154,18 @@
         <v>-5.9509999999999996</v>
       </c>
       <c r="P63" s="12" t="s">
-        <v>565</v>
+        <v>544</v>
       </c>
       <c r="Q63" s="13">
         <v>60.7</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="99.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:17" ht="99.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A64" s="3">
         <v>62</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>17</v>
@@ -6064,31 +6174,31 @@
         <v>25</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>567</v>
+        <v>546</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>566</v>
+        <v>545</v>
       </c>
       <c r="J64" s="12" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="K64" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L64" s="12" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="M64" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N64" s="12">
         <v>56.701999999999998</v>
@@ -6097,16 +6207,16 @@
         <v>-3.702</v>
       </c>
       <c r="P64" s="12" t="s">
-        <v>568</v>
+        <v>547</v>
       </c>
       <c r="Q64" s="13"/>
     </row>
-    <row r="65" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A65" s="3">
         <v>63</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>17</v>
@@ -6115,31 +6225,31 @@
         <v>25</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="I65" s="12" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="J65" s="12" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="K65" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L65" s="12" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="M65" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N65" s="12">
         <v>55.424999999999997</v>
@@ -6148,16 +6258,16 @@
         <v>-5.609</v>
       </c>
       <c r="P65" s="12" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="Q65" s="13"/>
     </row>
-    <row r="66" spans="1:17" ht="99.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:17" ht="99.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A66" s="3">
         <v>64</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>17</v>
@@ -6169,28 +6279,28 @@
         <v>19</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>577</v>
+        <v>556</v>
       </c>
       <c r="J66" s="12" t="s">
-        <v>578</v>
+        <v>557</v>
       </c>
       <c r="K66" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L66" s="12" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="M66" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N66" s="12">
         <v>56.622999999999998</v>
@@ -6199,51 +6309,51 @@
         <v>-6.07</v>
       </c>
       <c r="P66" s="12" t="s">
-        <v>579</v>
+        <v>558</v>
       </c>
       <c r="Q66" s="13">
         <v>63.3</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A67" s="3">
         <v>65</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>617</v>
+        <v>596</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>471</v>
+        <v>450</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="J67" s="12" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="K67" s="12" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="L67" s="12" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="M67" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N67" s="12">
         <v>35.988999999999997</v>
@@ -6252,18 +6362,18 @@
         <v>139.072</v>
       </c>
       <c r="P67" s="12" t="s">
-        <v>432</v>
-      </c>
-      <c r="Q67" s="13">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>411</v>
+      </c>
+      <c r="Q67" s="13" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A68" s="3">
         <v>66</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>17</v>
@@ -6272,31 +6382,31 @@
         <v>25</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="I68" s="12" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="J68" s="12" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="K68" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L68" s="12" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="M68" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N68" s="12">
         <v>57.646999999999998</v>
@@ -6305,16 +6415,16 @@
         <v>-3.2930000000000001</v>
       </c>
       <c r="P68" s="12" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="Q68" s="13"/>
     </row>
-    <row r="69" spans="1:17" ht="99.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:17" ht="99.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A69" s="3">
         <v>67</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>209</v>
+        <v>654</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>17</v>
@@ -6326,28 +6436,28 @@
         <v>19</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>572</v>
+        <v>551</v>
       </c>
       <c r="I69" s="12" t="s">
-        <v>573</v>
+        <v>552</v>
       </c>
       <c r="J69" s="12" t="s">
-        <v>543</v>
+        <v>522</v>
       </c>
       <c r="K69" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L69" s="12" t="s">
-        <v>574</v>
+        <v>553</v>
       </c>
       <c r="M69" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N69" s="12">
         <v>57.551000000000002</v>
@@ -6356,49 +6466,51 @@
         <v>-4.4340000000000002</v>
       </c>
       <c r="P69" s="12" t="s">
-        <v>575</v>
-      </c>
-      <c r="Q69" s="13"/>
-    </row>
-    <row r="70" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>554</v>
+      </c>
+      <c r="Q69" s="13">
+        <v>55.3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A70" s="3">
         <v>68</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>636</v>
+        <v>615</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="J70" s="12" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="K70" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L70" s="12" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="M70" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N70" s="12">
         <v>55.853999999999999</v>
@@ -6407,18 +6519,18 @@
         <v>-6.1079999999999997</v>
       </c>
       <c r="P70" s="12" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="Q70" s="13">
         <v>43</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="99.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:17" ht="99.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A71" s="3">
         <v>69</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>17</v>
@@ -6427,31 +6539,31 @@
         <v>25</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="J71" s="12" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="K71" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L71" s="12" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="M71" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N71" s="12">
         <v>57.444000000000003</v>
@@ -6460,49 +6572,49 @@
         <v>-3.1280000000000001</v>
       </c>
       <c r="P71" s="12" t="s">
-        <v>571</v>
+        <v>550</v>
       </c>
       <c r="Q71" s="13"/>
     </row>
-    <row r="72" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A72" s="3">
         <v>70</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>214</v>
+        <v>651</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="I72" s="12" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="J72" s="12" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="K72" s="12" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="L72" s="12" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="M72" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N72" s="12">
         <v>34.890999999999998</v>
@@ -6511,16 +6623,18 @@
         <v>135.67500000000001</v>
       </c>
       <c r="P72" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="Q72" s="13"/>
-    </row>
-    <row r="73" spans="1:17" ht="99.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>407</v>
+      </c>
+      <c r="Q72" s="13">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" ht="99.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A73" s="3">
         <v>71</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>217</v>
+        <v>646</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>17</v>
@@ -6529,31 +6643,31 @@
         <v>25</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="I73" s="12" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="J73" s="12" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="K73" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L73" s="12" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="M73" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N73" s="12">
         <v>58.968000000000004</v>
@@ -6562,49 +6676,51 @@
         <v>-2.956</v>
       </c>
       <c r="P73" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="Q73" s="13"/>
-    </row>
-    <row r="74" spans="1:17" ht="99.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>549</v>
+      </c>
+      <c r="Q73" s="13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" ht="99.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A74" s="3">
         <v>72</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="I74" s="12" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="J74" s="12" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="K74" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L74" s="12" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="M74" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N74" s="12">
         <v>55.78</v>
@@ -6613,49 +6729,49 @@
         <v>-6.4329999999999998</v>
       </c>
       <c r="P74" s="12" t="s">
-        <v>569</v>
+        <v>548</v>
       </c>
       <c r="Q74" s="13"/>
     </row>
-    <row r="75" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A75" s="3">
         <v>73</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>222</v>
+        <v>640</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="H75" s="12" t="s">
-        <v>460</v>
+        <v>439</v>
       </c>
       <c r="I75" s="12" t="s">
-        <v>461</v>
+        <v>440</v>
       </c>
       <c r="J75" s="12" t="s">
-        <v>462</v>
+        <v>441</v>
       </c>
       <c r="K75" s="12" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="L75" s="12" t="s">
-        <v>463</v>
+        <v>442</v>
       </c>
       <c r="M75" s="12" t="s">
-        <v>464</v>
+        <v>443</v>
       </c>
       <c r="N75" s="12">
         <v>36.347999999999999</v>
@@ -6664,49 +6780,51 @@
         <v>138.596</v>
       </c>
       <c r="P75" s="12" t="s">
-        <v>465</v>
-      </c>
-      <c r="Q75" s="13"/>
-    </row>
-    <row r="76" spans="1:17" ht="99.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>444</v>
+      </c>
+      <c r="Q75" s="13">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" ht="99.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A76" s="3">
         <v>74</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>626</v>
+        <v>605</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>627</v>
+        <v>606</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="I76" s="12" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="J76" s="12" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="K76" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L76" s="12" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="M76" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N76" s="12">
         <v>55.78</v>
@@ -6715,51 +6833,51 @@
         <v>-6.4329999999999998</v>
       </c>
       <c r="P76" s="12" t="s">
-        <v>569</v>
+        <v>548</v>
       </c>
       <c r="Q76" s="13">
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="99.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:17" ht="99.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A77" s="3">
         <v>75</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="I77" s="12" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="J77" s="12" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="K77" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L77" s="12" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="M77" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N77" s="12">
         <v>57.427</v>
@@ -6768,49 +6886,49 @@
         <v>-3.3130000000000002</v>
       </c>
       <c r="P77" s="12" t="s">
-        <v>593</v>
+        <v>572</v>
       </c>
       <c r="Q77" s="13"/>
     </row>
-    <row r="78" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A78" s="3">
         <v>76</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>656</v>
+        <v>635</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>657</v>
+        <v>636</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="H78" s="12" t="s">
-        <v>460</v>
+        <v>439</v>
       </c>
       <c r="I78" s="12" t="s">
-        <v>461</v>
+        <v>440</v>
       </c>
       <c r="J78" s="12" t="s">
-        <v>462</v>
+        <v>441</v>
       </c>
       <c r="K78" s="12" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="L78" s="12" t="s">
-        <v>463</v>
+        <v>442</v>
       </c>
       <c r="M78" s="12" t="s">
-        <v>464</v>
+        <v>443</v>
       </c>
       <c r="N78" s="12">
         <v>36.347999999999999</v>
@@ -6819,43 +6937,43 @@
         <v>138.596</v>
       </c>
       <c r="P78" s="12" t="s">
-        <v>465</v>
+        <v>444</v>
       </c>
       <c r="Q78" s="13"/>
     </row>
-    <row r="79" spans="1:17" ht="48" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A79" s="3">
         <v>77</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L79" s="3">
         <v>2018</v>
@@ -6870,16 +6988,16 @@
         <v>132.334</v>
       </c>
       <c r="P79" s="3" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="Q79" s="13"/>
     </row>
-    <row r="80" spans="1:17" ht="99.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:17" ht="99.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A80" s="3">
         <v>78</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>236</v>
+        <v>647</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>17</v>
@@ -6888,31 +7006,31 @@
         <v>25</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>589</v>
+        <v>568</v>
       </c>
       <c r="I80" s="12" t="s">
-        <v>590</v>
+        <v>569</v>
       </c>
       <c r="J80" s="12" t="s">
-        <v>543</v>
+        <v>522</v>
       </c>
       <c r="K80" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L80" s="12" t="s">
-        <v>591</v>
+        <v>570</v>
       </c>
       <c r="M80" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N80" s="12">
         <v>57.52</v>
@@ -6921,16 +7039,18 @@
         <v>-4.0469999999999997</v>
       </c>
       <c r="P80" s="12" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q80" s="13"/>
-    </row>
-    <row r="81" spans="1:17" ht="99.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>571</v>
+      </c>
+      <c r="Q80" s="13">
+        <v>51.7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" ht="99.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A81" s="3">
         <v>79</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>17</v>
@@ -6939,31 +7059,31 @@
         <v>25</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>585</v>
+        <v>564</v>
       </c>
       <c r="I81" s="12" t="s">
-        <v>586</v>
+        <v>565</v>
       </c>
       <c r="J81" s="12" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="K81" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L81" s="12" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="M81" s="12" t="s">
-        <v>587</v>
+        <v>566</v>
       </c>
       <c r="N81" s="12">
         <v>57.438000000000002</v>
@@ -6972,49 +7092,49 @@
         <v>-3.3460000000000001</v>
       </c>
       <c r="P81" s="12" t="s">
-        <v>588</v>
+        <v>567</v>
       </c>
       <c r="Q81" s="13"/>
     </row>
-    <row r="82" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A82" s="3">
         <v>80</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>471</v>
+        <v>450</v>
       </c>
       <c r="I82" s="12" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="J82" s="12" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="K82" s="12" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="L82" s="12" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="M82" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N82" s="12">
         <v>35.988999999999997</v>
@@ -7023,51 +7143,51 @@
         <v>139.072</v>
       </c>
       <c r="P82" s="12" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="Q82" s="13">
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A83" s="3">
         <v>81</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>652</v>
+        <v>631</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>471</v>
+        <v>450</v>
       </c>
       <c r="I83" s="12" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="J83" s="12" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="K83" s="12" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="L83" s="12" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="M83" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N83" s="12">
         <v>35.988999999999997</v>
@@ -7076,51 +7196,51 @@
         <v>139.072</v>
       </c>
       <c r="P83" s="12" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="Q83" s="13">
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A84" s="3">
         <v>82</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>471</v>
+        <v>450</v>
       </c>
       <c r="I84" s="12" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="J84" s="12" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="K84" s="12" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="L84" s="12" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="M84" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N84" s="12">
         <v>35.988999999999997</v>
@@ -7129,49 +7249,49 @@
         <v>139.072</v>
       </c>
       <c r="P84" s="12" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="Q84" s="13"/>
     </row>
-    <row r="85" spans="1:17" ht="78.75" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:17" ht="78.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A85" s="3">
         <v>83</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L85" s="3">
         <v>1985</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="N85" s="3">
         <v>35.899000000000001</v>
@@ -7180,40 +7300,40 @@
         <v>137.94200000000001</v>
       </c>
       <c r="P85" s="3" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="Q85" s="13"/>
     </row>
-    <row r="86" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A86" s="3">
         <v>84</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K86" s="3" t="s">
         <v>25</v>
@@ -7231,16 +7351,16 @@
         <v>-3.1179999999999999</v>
       </c>
       <c r="P86" s="3" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="Q86" s="13"/>
     </row>
-    <row r="87" spans="1:17" ht="79.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:17" ht="78.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A87" s="3">
         <v>85</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>623</v>
+        <v>602</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>17</v>
@@ -7249,13 +7369,13 @@
         <v>25</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>580</v>
+        <v>559</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
@@ -7270,12 +7390,12 @@
         <v>57.9</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="116.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:17" ht="116.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A88" s="3">
         <v>86</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>262</v>
+        <v>656</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>17</v>
@@ -7284,31 +7404,31 @@
         <v>25</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>581</v>
+        <v>560</v>
       </c>
       <c r="I88" s="12" t="s">
-        <v>582</v>
+        <v>561</v>
       </c>
       <c r="J88" s="12" t="s">
-        <v>543</v>
+        <v>522</v>
       </c>
       <c r="K88" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L88" s="12" t="s">
-        <v>583</v>
+        <v>562</v>
       </c>
       <c r="M88" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N88" s="12">
         <v>57.688000000000002</v>
@@ -7317,43 +7437,45 @@
         <v>-4.1680000000000001</v>
       </c>
       <c r="P88" s="12" t="s">
-        <v>584</v>
-      </c>
-      <c r="Q88" s="13"/>
-    </row>
-    <row r="89" spans="1:17" ht="48" thickBot="1" x14ac:dyDescent="0.45">
+        <v>563</v>
+      </c>
+      <c r="Q88" s="13">
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A89" s="3">
         <v>87</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L89" s="3">
         <v>2018</v>
@@ -7368,49 +7490,49 @@
         <v>132.334</v>
       </c>
       <c r="P89" s="3" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="Q89" s="13"/>
     </row>
-    <row r="90" spans="1:17" ht="83.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A90" s="3">
         <v>88</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>268</v>
+        <v>638</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="H90" s="12" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="I90" s="12" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="J90" s="12" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="K90" s="12" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="L90" s="12" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="M90" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N90" s="12">
         <v>37.398000000000003</v>
@@ -7419,49 +7541,51 @@
         <v>140.36000000000001</v>
       </c>
       <c r="P90" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q90" s="13"/>
-    </row>
-    <row r="91" spans="1:17" ht="83.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>358</v>
+      </c>
+      <c r="Q90" s="13">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A91" s="3">
         <v>89</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="H91" s="12" t="s">
-        <v>445</v>
+        <v>424</v>
       </c>
       <c r="I91" s="12" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
       <c r="J91" s="12" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
       <c r="K91" s="12" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="L91" s="12" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="M91" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N91" s="12">
         <v>53.338000000000001</v>
@@ -7470,43 +7594,43 @@
         <v>-6.2779999999999996</v>
       </c>
       <c r="P91" s="12" t="s">
-        <v>450</v>
+        <v>429</v>
       </c>
       <c r="Q91" s="13"/>
     </row>
-    <row r="92" spans="1:17" ht="48" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A92" s="3">
         <v>90</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>658</v>
+        <v>637</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L92" s="3">
         <v>2016</v>
@@ -7521,18 +7645,18 @@
         <v>136.26400000000001</v>
       </c>
       <c r="P92" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="Q92" s="13">
         <v>57</v>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="116.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:17" ht="116.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A93" s="3">
         <v>91</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>647</v>
+        <v>626</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>17</v>
@@ -7541,31 +7665,31 @@
         <v>25</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="H93" s="12" t="s">
-        <v>607</v>
+        <v>586</v>
       </c>
       <c r="I93" s="12" t="s">
-        <v>608</v>
+        <v>587</v>
       </c>
       <c r="J93" s="12" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="K93" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L93" s="12" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="M93" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N93" s="12">
         <v>57.253</v>
@@ -7574,18 +7698,18 @@
         <v>-3.3780000000000001</v>
       </c>
       <c r="P93" s="12" t="s">
-        <v>610</v>
+        <v>589</v>
       </c>
       <c r="Q93" s="13">
         <v>54.8</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="116.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:17" ht="116.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A94" s="3">
         <v>92</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>17</v>
@@ -7594,31 +7718,31 @@
         <v>25</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>635</v>
+        <v>614</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="I94" s="12" t="s">
-        <v>604</v>
+        <v>583</v>
       </c>
       <c r="J94" s="12" t="s">
-        <v>543</v>
+        <v>522</v>
       </c>
       <c r="K94" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L94" s="12" t="s">
-        <v>605</v>
+        <v>584</v>
       </c>
       <c r="M94" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N94" s="12">
         <v>57.756</v>
@@ -7627,18 +7751,18 @@
         <v>-4.2229999999999999</v>
       </c>
       <c r="P94" s="12" t="s">
-        <v>606</v>
+        <v>585</v>
       </c>
       <c r="Q94" s="13">
         <v>52.1</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="116.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:17" ht="116.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A95" s="3">
         <v>93</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>17</v>
@@ -7647,31 +7771,31 @@
         <v>25</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="I95" s="12" t="s">
-        <v>599</v>
+        <v>578</v>
       </c>
       <c r="J95" s="12" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="K95" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L95" s="12" t="s">
-        <v>600</v>
+        <v>579</v>
       </c>
       <c r="M95" s="12" t="s">
-        <v>601</v>
+        <v>580</v>
       </c>
       <c r="N95" s="12">
         <v>57.453000000000003</v>
@@ -7680,18 +7804,18 @@
         <v>-3.1160000000000001</v>
       </c>
       <c r="P95" s="12" t="s">
-        <v>602</v>
+        <v>581</v>
       </c>
       <c r="Q95" s="13">
         <v>51.4</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="50.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:17" ht="50.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A96" s="3">
         <v>94</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>17</v>
@@ -7700,31 +7824,31 @@
         <v>25</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="H96" s="12" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="I96" s="12" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="J96" s="12" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="K96" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L96" s="12" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="M96" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N96" s="12">
         <v>55.640999999999998</v>
@@ -7733,16 +7857,16 @@
         <v>-6.109</v>
       </c>
       <c r="P96" s="12" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="Q96" s="13"/>
     </row>
-    <row r="97" spans="1:17" ht="116.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:17" ht="116.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A97" s="3">
         <v>95</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>624</v>
+        <v>603</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>17</v>
@@ -7754,28 +7878,28 @@
         <v>19</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="H97" s="12" t="s">
-        <v>594</v>
+        <v>573</v>
       </c>
       <c r="I97" s="12" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="J97" s="12" t="s">
-        <v>543</v>
+        <v>522</v>
       </c>
       <c r="K97" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L97" s="12" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="M97" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N97" s="12">
         <v>57.826000000000001</v>
@@ -7784,18 +7908,18 @@
         <v>-4.0789999999999997</v>
       </c>
       <c r="P97" s="12" t="s">
-        <v>597</v>
+        <v>576</v>
       </c>
       <c r="Q97" s="13">
         <v>43</v>
       </c>
     </row>
-    <row r="98" spans="1:17" ht="99.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:17" ht="99.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A98" s="3">
         <v>96</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>637</v>
+        <v>616</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>17</v>
@@ -7804,31 +7928,31 @@
         <v>25</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="H98" s="12" t="s">
-        <v>589</v>
+        <v>568</v>
       </c>
       <c r="I98" s="12" t="s">
-        <v>590</v>
+        <v>569</v>
       </c>
       <c r="J98" s="12" t="s">
-        <v>543</v>
+        <v>522</v>
       </c>
       <c r="K98" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L98" s="12" t="s">
-        <v>591</v>
+        <v>570</v>
       </c>
       <c r="M98" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N98" s="12">
         <v>57.52</v>
@@ -7837,18 +7961,18 @@
         <v>-4.0469999999999997</v>
       </c>
       <c r="P98" s="12" t="s">
-        <v>592</v>
+        <v>571</v>
       </c>
       <c r="Q98" s="13">
         <v>58.1</v>
       </c>
     </row>
-    <row r="99" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A99" s="3">
         <v>97</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>649</v>
+        <v>628</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>17</v>
@@ -7857,31 +7981,31 @@
         <v>25</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="H99" s="12" t="s">
-        <v>470</v>
+        <v>449</v>
       </c>
       <c r="I99" s="12" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="J99" s="12" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="K99" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L99" s="12" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="M99" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N99" s="12">
         <v>57.451999999999998</v>
@@ -7890,18 +8014,18 @@
         <v>-3.3769999999999998</v>
       </c>
       <c r="P99" s="12" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="Q99" s="13">
         <v>59.6</v>
       </c>
     </row>
-    <row r="100" spans="1:17" ht="116.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:17" ht="116.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A100" s="3">
         <v>98</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>17</v>
@@ -7913,28 +8037,28 @@
         <v>19</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="H100" s="12" t="s">
-        <v>594</v>
+        <v>573</v>
       </c>
       <c r="I100" s="12" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="J100" s="12" t="s">
-        <v>543</v>
+        <v>522</v>
       </c>
       <c r="K100" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L100" s="12" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="M100" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N100" s="12">
         <v>57.826000000000001</v>
@@ -7943,43 +8067,43 @@
         <v>-4.0789999999999997</v>
       </c>
       <c r="P100" s="12" t="s">
-        <v>597</v>
+        <v>576</v>
       </c>
       <c r="Q100" s="13"/>
     </row>
-    <row r="101" spans="1:17" ht="48" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A101" s="3">
         <v>99</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>653</v>
+        <v>632</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L101" s="3">
         <v>2018</v>
@@ -7994,51 +8118,51 @@
         <v>139.90799999999999</v>
       </c>
       <c r="P101" s="3" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="Q101" s="13">
         <v>62</v>
       </c>
     </row>
-    <row r="102" spans="1:17" ht="182.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:17" ht="182.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A102" s="3">
         <v>100</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>628</v>
+        <v>607</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="H102" s="12" t="s">
-        <v>522</v>
+        <v>501</v>
       </c>
       <c r="I102" s="12" t="s">
-        <v>523</v>
+        <v>502</v>
       </c>
       <c r="J102" s="12" t="s">
-        <v>524</v>
+        <v>503</v>
       </c>
       <c r="K102" s="12" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="L102" s="12" t="s">
-        <v>525</v>
+        <v>504</v>
       </c>
       <c r="M102" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N102" s="12">
         <v>34.652999999999999</v>
@@ -8047,51 +8171,51 @@
         <v>134.989</v>
       </c>
       <c r="P102" s="12" t="s">
-        <v>526</v>
+        <v>505</v>
       </c>
       <c r="Q102" s="13">
         <v>50</v>
       </c>
     </row>
-    <row r="103" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A103" s="3">
         <v>101</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>300</v>
+        <v>664</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="H103" s="12" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="I103" s="12" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="J103" s="12" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="K103" s="12" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="L103" s="12" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="M103" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N103" s="12">
         <v>34.890999999999998</v>
@@ -8100,49 +8224,51 @@
         <v>135.67500000000001</v>
       </c>
       <c r="P103" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="Q103" s="13"/>
-    </row>
-    <row r="104" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>407</v>
+      </c>
+      <c r="Q103" s="13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A104" s="3">
         <v>102</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>650</v>
+        <v>629</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="H104" s="12" t="s">
-        <v>471</v>
+        <v>450</v>
       </c>
       <c r="I104" s="12" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="J104" s="12" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="K104" s="12" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="L104" s="12" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="M104" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N104" s="12">
         <v>35.988999999999997</v>
@@ -8151,51 +8277,51 @@
         <v>139.072</v>
       </c>
       <c r="P104" s="12" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="Q104" s="13">
         <v>55</v>
       </c>
     </row>
-    <row r="105" spans="1:17" ht="78.75" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:17" ht="78.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A105" s="3">
         <v>103</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>642</v>
+        <v>621</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L105" s="3">
         <v>1985</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="N105" s="3">
         <v>35.899000000000001</v>
@@ -8204,51 +8330,51 @@
         <v>137.94200000000001</v>
       </c>
       <c r="P105" s="3" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="Q105" s="13">
         <v>48</v>
       </c>
     </row>
-    <row r="106" spans="1:17" ht="79.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:17" ht="78.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A106" s="3">
         <v>104</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L106" s="3">
         <v>1985</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="N106" s="3">
         <v>35.899000000000001</v>
@@ -8257,49 +8383,49 @@
         <v>137.94200000000001</v>
       </c>
       <c r="P106" s="3" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="Q106" s="13"/>
     </row>
-    <row r="107" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A107" s="3">
         <v>105</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="H107" s="12" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="I107" s="12" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="J107" s="12" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="K107" s="12" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="L107" s="12" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
       <c r="M107" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N107" s="12">
         <v>36.637999999999998</v>
@@ -8308,16 +8434,16 @@
         <v>136.964</v>
       </c>
       <c r="P107" s="12" t="s">
-        <v>444</v>
+        <v>423</v>
       </c>
       <c r="Q107" s="13"/>
     </row>
-    <row r="108" spans="1:17" ht="83.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A108" s="3">
         <v>106</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>17</v>
@@ -8329,28 +8455,28 @@
         <v>19</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="H108" s="12" t="s">
-        <v>466</v>
+        <v>445</v>
       </c>
       <c r="I108" s="12" t="s">
-        <v>467</v>
+        <v>446</v>
       </c>
       <c r="J108" s="12" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="K108" s="12" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L108" s="12" t="s">
-        <v>468</v>
+        <v>447</v>
       </c>
       <c r="M108" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N108" s="12">
         <v>56.94</v>
@@ -8359,49 +8485,49 @@
         <v>-4.2370000000000001</v>
       </c>
       <c r="P108" s="12" t="s">
-        <v>469</v>
+        <v>448</v>
       </c>
       <c r="Q108" s="13"/>
     </row>
-    <row r="109" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A109" s="3">
         <v>107</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>654</v>
+        <v>633</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="H109" s="12" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="I109" s="12" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="J109" s="12" t="s">
-        <v>472</v>
+        <v>451</v>
       </c>
       <c r="K109" s="12" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="L109" s="12" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="M109" s="12" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="N109" s="12">
         <v>43.052</v>
@@ -8410,45 +8536,45 @@
         <v>144.84299999999999</v>
       </c>
       <c r="P109" s="12" t="s">
-        <v>473</v>
+        <v>452</v>
       </c>
       <c r="Q109" s="13">
         <v>55</v>
       </c>
     </row>
-    <row r="110" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A110" s="3">
         <v>108</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>651</v>
+        <v>630</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L110" s="3">
         <v>2018</v>
@@ -8463,22 +8589,21 @@
         <v>132.334</v>
       </c>
       <c r="P110" s="3" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="Q110" s="13">
         <v>62</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P110" xr:uid="{D4F60670-F158-4C9B-93E8-D52D53F4A8E3}"/>
+  <autoFilter ref="A1:P110" xr:uid="{D4F60670-F158-4C9B-93E8-D52D53F4A8E3}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="フェッターケアン蒸溜所"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="16">
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="B13:B14"/>
     <mergeCell ref="N13:N14"/>
     <mergeCell ref="O13:O14"/>
     <mergeCell ref="P13:P14"/>
@@ -8488,6 +8613,13 @@
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="L13:L14"/>
     <mergeCell ref="M13:M14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="B13:B14"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8518,16 +8650,16 @@
   <sheetData>
     <row r="1" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>11</v>
@@ -8542,7 +8674,7 @@
         <v>14</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -8553,16 +8685,16 @@
         <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="G2" s="5">
         <v>57.302</v>
@@ -8571,27 +8703,27 @@
         <v>-6.3559999999999999</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="C3" s="5" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="G3" s="5">
         <v>55.63</v>
@@ -8600,27 +8732,27 @@
         <v>-6.1929999999999996</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="G4" s="5">
         <v>57.484999999999999</v>
@@ -8629,27 +8761,27 @@
         <v>-3.2080000000000002</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>344</v>
-      </c>
       <c r="F5" s="5" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="G5" s="5">
         <v>55.756</v>
@@ -8658,27 +8790,27 @@
         <v>-6.2889999999999997</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="G6" s="5">
         <v>55.991</v>
@@ -8687,27 +8819,27 @@
         <v>-3.827</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="G7" s="5">
         <v>55.424999999999997</v>
@@ -8716,27 +8848,27 @@
         <v>-5.609</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="G8" s="5">
         <v>55.878</v>
@@ -8745,27 +8877,27 @@
         <v>-6.125</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="G9" s="5">
         <v>56.624000000000002</v>
@@ -8774,27 +8906,27 @@
         <v>-3.85</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>364</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="G10" s="5">
         <v>55.640999999999998</v>
@@ -8803,27 +8935,27 @@
         <v>-6.109</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="G11" s="5">
         <v>58.968000000000004</v>
@@ -8832,27 +8964,27 @@
         <v>-2.956</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="G12" s="5">
         <v>37.398000000000003</v>
@@ -8861,27 +8993,27 @@
         <v>140.36000000000001</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>470</v>
+        <v>449</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="G13" s="5">
         <v>57.451999999999998</v>
@@ -8890,27 +9022,27 @@
         <v>-3.3769999999999998</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="G14" s="5">
         <v>56.835999999999999</v>
@@ -8919,27 +9051,27 @@
         <v>-5.0739999999999998</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="G15" s="5">
         <v>57.545999999999999</v>
@@ -8948,27 +9080,27 @@
         <v>-3.048</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="G16" s="5">
         <v>57.444000000000003</v>
@@ -8977,27 +9109,27 @@
         <v>-3.1280000000000001</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="G17" s="5">
         <v>56.704000000000001</v>
@@ -9006,27 +9138,27 @@
         <v>-3.7330000000000001</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="G18" s="5">
         <v>55.853999999999999</v>
@@ -9035,27 +9167,27 @@
         <v>-6.1079999999999997</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="G19" s="5">
         <v>56.847000000000001</v>
@@ -9064,27 +9196,27 @@
         <v>-2.5880000000000001</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="G20" s="5">
         <v>57.427</v>
@@ -9093,27 +9225,27 @@
         <v>-3.3130000000000002</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="G21" s="5">
         <v>57.646999999999998</v>
@@ -9122,27 +9254,27 @@
         <v>-3.2930000000000001</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="G22" s="5">
         <v>55.78</v>
@@ -9151,27 +9283,27 @@
         <v>-6.4329999999999998</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="G23" s="5">
         <v>57.533000000000001</v>
@@ -9180,27 +9312,27 @@
         <v>-3.206</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="G24" s="5">
         <v>57.343000000000004</v>
@@ -9209,27 +9341,27 @@
         <v>-3.3380000000000001</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="G25" s="5">
         <v>34.890999999999998</v>
@@ -9238,27 +9370,27 @@
         <v>135.67500000000001</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
-        <v>471</v>
+        <v>450</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="G26" s="5">
         <v>35.988999999999997</v>
@@ -9267,27 +9399,27 @@
         <v>139.072</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>433</v>
+        <v>412</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="G27" s="5">
         <v>35.773000000000003</v>
@@ -9296,27 +9428,27 @@
         <v>137.93700000000001</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="G28" s="5">
         <v>35.380000000000003</v>
@@ -9325,27 +9457,27 @@
         <v>136.274</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="G29" s="5">
         <v>36.637999999999998</v>
@@ -9354,27 +9486,27 @@
         <v>136.964</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>444</v>
+        <v>423</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
-        <v>445</v>
+        <v>424</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="G30" s="5">
         <v>53.338000000000001</v>
@@ -9383,27 +9515,27 @@
         <v>-6.2779999999999996</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>450</v>
+        <v>429</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>452</v>
+        <v>431</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>453</v>
+        <v>432</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>454</v>
+        <v>433</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>455</v>
+        <v>434</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="G31" s="5">
         <v>63.040999999999997</v>
@@ -9412,27 +9544,27 @@
         <v>17.739000000000001</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>458</v>
+        <v>437</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="G32" s="5">
         <v>57.649000000000001</v>
@@ -9441,27 +9573,27 @@
         <v>-3.64</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>459</v>
+        <v>438</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
-        <v>460</v>
+        <v>439</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>461</v>
+        <v>440</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>462</v>
+        <v>441</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>463</v>
+        <v>442</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>464</v>
+        <v>443</v>
       </c>
       <c r="G33" s="5">
         <v>36.347999999999999</v>
@@ -9470,27 +9602,27 @@
         <v>138.596</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>465</v>
+        <v>444</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="147.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
-        <v>466</v>
+        <v>445</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>467</v>
+        <v>446</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>468</v>
+        <v>447</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="G34" s="5">
         <v>56.94</v>
@@ -9499,27 +9631,27 @@
         <v>-4.2370000000000001</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>469</v>
+        <v>448</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>472</v>
+        <v>451</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="G35" s="5">
         <v>43.052</v>
@@ -9528,27 +9660,27 @@
         <v>144.84299999999999</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>473</v>
+        <v>452</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
-        <v>474</v>
+        <v>453</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>475</v>
+        <v>454</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="G36" s="5">
         <v>55.640999999999998</v>
@@ -9557,27 +9689,27 @@
         <v>-6.109</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>476</v>
+        <v>455</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
-        <v>477</v>
+        <v>456</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="G37" s="5">
         <v>58.968000000000004</v>
@@ -9586,27 +9718,27 @@
         <v>-2.956</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>479</v>
+        <v>458</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="G38" s="5">
         <v>57.484999999999999</v>
@@ -9615,27 +9747,27 @@
         <v>-3.2080000000000002</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>481</v>
+        <v>460</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
-        <v>482</v>
+        <v>461</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>483</v>
+        <v>462</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="G39" s="5">
         <v>53.338000000000001</v>
@@ -9644,27 +9776,27 @@
         <v>-6.2779999999999996</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>484</v>
+        <v>463</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
-        <v>485</v>
+        <v>464</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>486</v>
+        <v>465</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>487</v>
+        <v>466</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="G40" s="5">
         <v>31.454000000000001</v>
@@ -9673,27 +9805,27 @@
         <v>130.46100000000001</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>488</v>
+        <v>467</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
-        <v>489</v>
+        <v>468</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>491</v>
+        <v>470</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>492</v>
+        <v>471</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="G41" s="5">
         <v>35.823999999999998</v>
@@ -9702,27 +9834,27 @@
         <v>138.43600000000001</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>493</v>
+        <v>472</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
-        <v>494</v>
+        <v>473</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>495</v>
+        <v>474</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>496</v>
+        <v>475</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>497</v>
+        <v>476</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="G42" s="5">
         <v>43.177999999999997</v>
@@ -9731,27 +9863,27 @@
         <v>140.76599999999999</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
-        <v>499</v>
+        <v>478</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>500</v>
+        <v>479</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>501</v>
+        <v>480</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>502</v>
+        <v>481</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="G43" s="5">
         <v>38.445999999999998</v>
@@ -9760,27 +9892,27 @@
         <v>140.88300000000001</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>503</v>
+        <v>482</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
-        <v>504</v>
+        <v>483</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>505</v>
+        <v>484</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>462</v>
+        <v>441</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>506</v>
+        <v>485</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="G44" s="5">
         <v>36.320999999999998</v>
@@ -9789,27 +9921,27 @@
         <v>138.44999999999999</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>507</v>
+        <v>486</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
-        <v>508</v>
+        <v>487</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>509</v>
+        <v>488</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>510</v>
+        <v>489</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>511</v>
+        <v>490</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="G45" s="5">
         <v>35.768999999999998</v>
@@ -9818,27 +9950,27 @@
         <v>139.125</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>512</v>
+        <v>491</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
-        <v>513</v>
+        <v>492</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>515</v>
+        <v>494</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>492</v>
+        <v>471</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="G46" s="5">
         <v>35.302999999999997</v>
@@ -9847,27 +9979,27 @@
         <v>138.95400000000001</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>516</v>
+        <v>495</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
-        <v>517</v>
+        <v>496</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>518</v>
+        <v>497</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>519</v>
+        <v>498</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>520</v>
+        <v>499</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="G47" s="5">
         <v>35.036999999999999</v>
@@ -9876,27 +10008,27 @@
         <v>136.82900000000001</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>521</v>
+        <v>500</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
-        <v>499</v>
+        <v>478</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>500</v>
+        <v>479</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>501</v>
+        <v>480</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>502</v>
+        <v>481</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="G48" s="5">
         <v>38.445999999999998</v>
@@ -9905,27 +10037,27 @@
         <v>140.88300000000001</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>503</v>
+        <v>482</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
-        <v>522</v>
+        <v>501</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>523</v>
+        <v>502</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>524</v>
+        <v>503</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>525</v>
+        <v>504</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="G49" s="5">
         <v>34.652999999999999</v>
@@ -9934,27 +10066,27 @@
         <v>134.989</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>526</v>
+        <v>505</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
-        <v>527</v>
+        <v>506</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>528</v>
+        <v>507</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="G50" s="5">
         <v>35.773000000000003</v>
@@ -9963,27 +10095,27 @@
         <v>137.93700000000001</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>529</v>
+        <v>508</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
-        <v>530</v>
+        <v>509</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>487</v>
+        <v>466</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>532</v>
+        <v>511</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="G51" s="5">
         <v>31.672999999999998</v>
@@ -9992,7 +10124,7 @@
         <v>130.279</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>533</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>
@@ -10002,20 +10134,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6ff6e2ba-ab06-4ac9-b2c7-449843b7cb08" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6ff6e2ba-ab06-4ac9-b2c7-449843b7cb08" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10201,6 +10333,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B963C0D-E7E9-44EF-8AEB-EF3D573F3F67}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{987E6F6F-1448-40F2-A1EC-D5FD1FE7DC5E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="6ff6e2ba-ab06-4ac9-b2c7-449843b7cb08"/>
@@ -10212,14 +10352,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B963C0D-E7E9-44EF-8AEB-EF3D573F3F67}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/whisky_database.xlsx
+++ b/whisky_database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\新藤駿介(ShindoShunsuke)\Documents\GitHub\whisky-sommelier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F16FAA-8871-432A-ACF3-22BA16B28320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB53D2A-0851-4C0D-9D44-4905D4FF72BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{A2419164-9416-4CEB-A64A-CE2C95D250D1}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$110</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$111</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$H$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="669">
   <si>
     <t>番号</t>
   </si>
@@ -331,9 +331,6 @@
     <t>KILCHOMAN</t>
   </si>
   <si>
-    <t>長濱INAZUMA2021</t>
-  </si>
-  <si>
     <t>長濱INAZUMA2021は、トロピカルフルーツ、蜂蜜、柑橘類の皮の鮮やかな香りが特徴の限定リリース日本ウイスキーです。口当たりはバニラ、トーストしたオーク、穏やかなスパイスに海塩のヒントが感じられます。バランスの取れた甘さと、エレガントに残る微かなスモーキーな余韻で締めくくられます。</t>
   </si>
   <si>
@@ -358,9 +355,6 @@
     <t>MORTTLACH</t>
   </si>
   <si>
-    <t>Mortlach 14年2007ー2021</t>
-  </si>
-  <si>
     <t>モートラック14年（2007-2021）は、蒸留所特有の肉感的な風味が特徴の豊かで力強いプロファイルを提供します。ドライフルーツ、ダークチョコレート、スパイシーなオークの風味に、レザーやタバコのニュアンスが感じられます。フィニッシュでは、かすかな硫黄のノートがスイートモルトとバランスよく調和し、余韻が長く続きます。</t>
   </si>
   <si>
@@ -385,9 +379,6 @@
     <t>TEELING</t>
   </si>
   <si>
-    <t>Teeling 2012-2020</t>
-  </si>
-  <si>
     <t xml:space="preserve">Irish Single Malt </t>
   </si>
   <si>
@@ -508,9 +499,6 @@
     <t>「NAGAHAMA乾杯会」は滋賀県の長浜浪漫ビールが製造するクラフトビールと思われます。日本のクラフトビール醸造の特徴である、バランスの取れた味わい、控えめな麦芽の甘み、適度なホップの風味、そしてクリーンな発酵が特徴でしょう。名前から、集まりの場での乾杯用に設計されたビールであることが示唆されます。</t>
   </si>
   <si>
-    <t>ADELPHI Springbank 22年1998-2021</t>
-  </si>
-  <si>
     <t xml:space="preserve">Campbeltown Single Malt </t>
   </si>
   <si>
@@ -719,9 +707,6 @@
   </si>
   <si>
     <t>ICHIROSWWR</t>
-  </si>
-  <si>
-    <t>IchirosDD</t>
   </si>
   <si>
     <t>イチローズモルトDDは、有名なイチローズモルトシリーズの限定リリースと思われます。果樹園の果実、蜂蜜、軽いオーク、微妙なスパイスのバランスの取れた風味が特徴。日本のウイスキーに特有の精密さと洗練さを持ち、ミディアムからロングフィニッシュと繊細な複雑さを備えています。</t>
@@ -979,41 +964,6 @@
         <charset val="128"/>
       </rPr>
       <t>の5周年記念ボトル（2018-2021）は、繊細な米の香りにりんごや梨のニュアンスが調和した風味が特徴です。口当たりはクリーンでミディアムドライ、控えめな旨味と優しい甘みを持ち、高級日本酒特有の滑らかで上品な余韻が楽しめます。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>樱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>尾2020-2023</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>MARS The YA屋久</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>岛</t>
     </r>
   </si>
   <si>
@@ -2333,10 +2283,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ｓ</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>Morttlach 13年2007-2020 HEPBURN'S CHOICE</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -2358,6 +2304,93 @@
   </si>
   <si>
     <t>Old FETTERCAIRN　80年代</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>軽井沢 12年</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>MARS The Y.A. 屋久</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>岛</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Mortlach 14年 2007ー2021 HEPBURN'S CHOICE</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>山崎純真</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマザキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジュンシン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>山崎蒸溜所</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマザキ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>樱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>尾 2020-2023 BOTTLED EXCLUSIVE</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>IchirosDD</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ABERFELDY18年 1999 EXEPTIONAL ポートカスク</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>長濱INAZUMA2021</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ADELPHI Springbank 22年1998-2021</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Teeling 2012-2020　信濃屋</t>
+    <rPh sb="18" eb="21">
+      <t>シナノヤ</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -2569,10 +2602,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2913,11 +2946,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F60670-F158-4C9B-93E8-D52D53F4A8E3}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q110"/>
+  <dimension ref="A1:Q111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q91" sqref="Q91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2991,7 +3024,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -3023,16 +3056,16 @@
         <v>23</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N2" s="12">
         <v>57.302</v>
@@ -3041,16 +3074,18 @@
         <v>-6.3559999999999999</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q2" s="13"/>
+        <v>306</v>
+      </c>
+      <c r="Q2" s="13">
+        <v>49.1</v>
+      </c>
     </row>
     <row r="3" spans="1:17" ht="99.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>17</v>
@@ -3074,16 +3109,16 @@
         <v>31</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="N3" s="12">
         <v>55.63</v>
@@ -3092,7 +3127,7 @@
         <v>-6.1929999999999996</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="Q3" s="13">
         <v>56.2</v>
@@ -3121,22 +3156,22 @@
         <v>34</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>36</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N4" s="12">
         <v>57.484999999999999</v>
@@ -3145,16 +3180,18 @@
         <v>-3.2080000000000002</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q4" s="13"/>
+        <v>314</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>45</v>
+      </c>
     </row>
     <row r="5" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>17</v>
@@ -3172,22 +3209,22 @@
         <v>41</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N5" s="12">
         <v>55.756</v>
@@ -3196,7 +3233,7 @@
         <v>-6.2889999999999997</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="Q5" s="13">
         <v>50.2</v>
@@ -3207,7 +3244,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>17</v>
@@ -3225,22 +3262,22 @@
         <v>44</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="N6" s="12">
         <v>55.991</v>
@@ -3249,7 +3286,7 @@
         <v>-3.827</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="Q6" s="13">
         <v>52.9</v>
@@ -3313,22 +3350,22 @@
         <v>53</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N8" s="12">
         <v>55.424999999999997</v>
@@ -3337,7 +3374,7 @@
         <v>-5.609</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="Q8" s="13"/>
     </row>
@@ -3364,22 +3401,22 @@
         <v>56</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N9" s="12">
         <v>55.878</v>
@@ -3388,7 +3425,7 @@
         <v>-6.125</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="Q9" s="13">
         <v>40</v>
@@ -3399,7 +3436,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>57</v>
+        <v>665</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>17</v>
@@ -3417,22 +3454,22 @@
         <v>57</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N10" s="12">
         <v>56.624000000000002</v>
@@ -3441,9 +3478,11 @@
         <v>-3.85</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q10" s="13"/>
+        <v>336</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>43</v>
+      </c>
     </row>
     <row r="11" spans="1:17" ht="50.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
@@ -3468,22 +3507,22 @@
         <v>62</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N11" s="12">
         <v>55.640999999999998</v>
@@ -3492,7 +3531,7 @@
         <v>-6.109</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="Q11" s="13"/>
     </row>
@@ -3501,7 +3540,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>17</v>
@@ -3519,22 +3558,22 @@
         <v>63</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N12" s="12">
         <v>58.968000000000004</v>
@@ -3543,82 +3582,82 @@
         <v>-2.956</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="Q12" s="13">
         <v>51.7</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="16">
+      <c r="A13" s="15">
         <v>12</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>650</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="16" t="s">
+        <v>643</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="16" t="s">
-        <v>618</v>
-      </c>
-      <c r="G13" s="15" t="s">
+      <c r="F13" s="15" t="s">
+        <v>611</v>
+      </c>
+      <c r="G13" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="I13" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="16" t="s">
+      <c r="J13" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="16" t="s">
+      <c r="K13" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="L13" s="16">
+      <c r="L13" s="15">
         <v>1830</v>
       </c>
-      <c r="M13" s="16" t="s">
+      <c r="M13" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="N13" s="16">
+      <c r="N13" s="15">
         <v>57.302</v>
       </c>
-      <c r="O13" s="16">
+      <c r="O13" s="15">
         <v>-6.3559999999999999</v>
       </c>
-      <c r="P13" s="16" t="s">
-        <v>305</v>
+      <c r="P13" s="15" t="s">
+        <v>298</v>
       </c>
       <c r="Q13" s="13">
         <v>53.2</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="16"/>
+    <row r="14" spans="1:17" ht="48.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="15"/>
       <c r="B14" s="17"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
       <c r="Q14" s="13"/>
     </row>
     <row r="15" spans="1:17" ht="79.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -3644,22 +3683,22 @@
         <v>68</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N15" s="12">
         <v>55.640999999999998</v>
@@ -3668,7 +3707,7 @@
         <v>-6.109</v>
       </c>
       <c r="P15" s="12" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="Q15" s="13"/>
     </row>
@@ -3695,22 +3734,22 @@
         <v>73</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N16" s="12">
         <v>37.398000000000003</v>
@@ -3719,7 +3758,7 @@
         <v>140.36000000000001</v>
       </c>
       <c r="P16" s="12" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="Q16" s="13"/>
     </row>
@@ -3728,7 +3767,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>17</v>
@@ -3746,22 +3785,22 @@
         <v>74</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N17" s="12">
         <v>58.968000000000004</v>
@@ -3770,7 +3809,7 @@
         <v>-2.956</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="Q17" s="13">
         <v>49.7</v>
@@ -3781,7 +3820,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>17</v>
@@ -3793,28 +3832,28 @@
         <v>19</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="I18" s="12" t="s">
         <v>36</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N18" s="12">
         <v>57.484999999999999</v>
@@ -3823,7 +3862,7 @@
         <v>-3.2080000000000002</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q18" s="13">
         <v>48.1</v>
@@ -3834,7 +3873,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>17</v>
@@ -3852,22 +3891,22 @@
         <v>76</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N19" s="12">
         <v>57.451999999999998</v>
@@ -3876,7 +3915,7 @@
         <v>-3.3769999999999998</v>
       </c>
       <c r="P19" s="12" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="Q19" s="13">
         <v>50.9</v>
@@ -3887,7 +3926,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>17</v>
@@ -3905,22 +3944,22 @@
         <v>78</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N20" s="12">
         <v>57.451999999999998</v>
@@ -3929,7 +3968,7 @@
         <v>-3.3769999999999998</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="Q20" s="13">
         <v>52.3</v>
@@ -3991,7 +4030,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>17</v>
@@ -4009,22 +4048,22 @@
         <v>85</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N22" s="12">
         <v>56.835999999999999</v>
@@ -4033,7 +4072,7 @@
         <v>-5.0739999999999998</v>
       </c>
       <c r="P22" s="12" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="Q22" s="13">
         <v>64.099999999999994</v>
@@ -4062,22 +4101,22 @@
         <v>86</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N23" s="12">
         <v>58.968000000000004</v>
@@ -4086,7 +4125,7 @@
         <v>-2.956</v>
       </c>
       <c r="P23" s="12" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="Q23" s="13"/>
     </row>
@@ -4095,7 +4134,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>17</v>
@@ -4107,28 +4146,28 @@
         <v>89</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>90</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N24" s="12">
         <v>63.002000000000002</v>
@@ -4137,7 +4176,7 @@
         <v>17.798999999999999</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="Q24" s="13">
         <v>64.900000000000006</v>
@@ -4148,7 +4187,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>17</v>
@@ -4166,22 +4205,22 @@
         <v>92</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N25" s="12">
         <v>57.649000000000001</v>
@@ -4190,7 +4229,7 @@
         <v>-3.64</v>
       </c>
       <c r="P25" s="12" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="Q25" s="13">
         <v>58.7</v>
@@ -4219,22 +4258,22 @@
         <v>95</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="M26" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N26" s="12">
         <v>55.78</v>
@@ -4243,7 +4282,7 @@
         <v>-6.4329999999999998</v>
       </c>
       <c r="P26" s="12" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="Q26" s="13"/>
     </row>
@@ -4252,7 +4291,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>96</v>
+        <v>666</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>17</v>
@@ -4264,19 +4303,19 @@
         <v>71</v>
       </c>
       <c r="F27" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G27" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="H27" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="I27" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="J27" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>46</v>
@@ -4294,16 +4333,18 @@
         <v>136.26400000000001</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q27" s="13"/>
+        <v>101</v>
+      </c>
+      <c r="Q27" s="13">
+        <v>47</v>
+      </c>
     </row>
     <row r="28" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="3">
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>17</v>
@@ -4315,28 +4356,28 @@
         <v>79</v>
       </c>
       <c r="F28" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="G28" s="8" t="s">
-        <v>104</v>
-      </c>
       <c r="H28" s="12" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N28" s="12">
         <v>57.444000000000003</v>
@@ -4345,7 +4386,7 @@
         <v>-3.1280000000000001</v>
       </c>
       <c r="P28" s="12" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="Q28" s="13">
         <v>46</v>
@@ -4356,7 +4397,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>105</v>
+        <v>660</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>17</v>
@@ -4368,28 +4409,28 @@
         <v>79</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="M29" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N29" s="12">
         <v>57.444000000000003</v>
@@ -4398,16 +4439,18 @@
         <v>-3.1280000000000001</v>
       </c>
       <c r="P29" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q29" s="13"/>
+        <v>365</v>
+      </c>
+      <c r="Q29" s="13">
+        <v>52.9</v>
+      </c>
     </row>
     <row r="30" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="3">
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>17</v>
@@ -4419,28 +4462,28 @@
         <v>79</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N30" s="12">
         <v>57.545999999999999</v>
@@ -4449,7 +4492,7 @@
         <v>-3.048</v>
       </c>
       <c r="P30" s="12" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="Q30" s="13"/>
     </row>
@@ -4458,7 +4501,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>17</v>
@@ -4470,28 +4513,28 @@
         <v>19</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="I31" s="12" t="s">
         <v>36</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="M31" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N31" s="12">
         <v>57.484999999999999</v>
@@ -4500,51 +4543,51 @@
         <v>-3.2080000000000002</v>
       </c>
       <c r="P31" s="12" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q31" s="13">
         <v>50.5</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:17" ht="83.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="3">
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D32" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="G32" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>113</v>
-      </c>
       <c r="H32" s="12" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="M32" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N32" s="12">
         <v>53.338000000000001</v>
@@ -4553,51 +4596,51 @@
         <v>-6.2779999999999996</v>
       </c>
       <c r="P32" s="12" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="Q32" s="13">
         <v>62.5</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:17" ht="83.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="3">
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>114</v>
+        <v>668</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D33" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G33" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>113</v>
-      </c>
       <c r="H33" s="12" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="L33" s="12" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="M33" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N33" s="12">
         <v>53.338000000000001</v>
@@ -4606,16 +4649,18 @@
         <v>-6.2779999999999996</v>
       </c>
       <c r="P33" s="12" t="s">
-        <v>463</v>
-      </c>
-      <c r="Q33" s="13"/>
+        <v>456</v>
+      </c>
+      <c r="Q33" s="13">
+        <v>62</v>
+      </c>
     </row>
     <row r="34" spans="1:17" ht="132.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="3">
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>17</v>
@@ -4624,31 +4669,31 @@
         <v>25</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L34" s="12" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="M34" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N34" s="12">
         <v>58.023000000000003</v>
@@ -4657,7 +4702,7 @@
         <v>-3.867</v>
       </c>
       <c r="P34" s="12" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="Q34" s="13">
         <v>55.5</v>
@@ -4668,7 +4713,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>17</v>
@@ -4677,31 +4722,31 @@
         <v>25</v>
       </c>
       <c r="E35" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="G35" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>120</v>
-      </c>
       <c r="H35" s="12" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L35" s="12" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="M35" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N35" s="12">
         <v>57.337000000000003</v>
@@ -4710,7 +4755,7 @@
         <v>-2.3149999999999999</v>
       </c>
       <c r="P35" s="12" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="Q35" s="13"/>
     </row>
@@ -4719,7 +4764,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>17</v>
@@ -4731,28 +4776,28 @@
         <v>58</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L36" s="12" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="M36" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N36" s="12">
         <v>57.337000000000003</v>
@@ -4761,7 +4806,7 @@
         <v>-2.3149999999999999</v>
       </c>
       <c r="P36" s="12" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="Q36" s="13">
         <v>63.6</v>
@@ -4772,7 +4817,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>17</v>
@@ -4784,28 +4829,28 @@
         <v>58</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L37" s="12" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="M37" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N37" s="12">
         <v>56.704000000000001</v>
@@ -4814,7 +4859,7 @@
         <v>-3.7330000000000001</v>
       </c>
       <c r="P37" s="12" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="Q37" s="13">
         <v>55.5</v>
@@ -4825,7 +4870,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>17</v>
@@ -4837,28 +4882,28 @@
         <v>19</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L38" s="12" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="M38" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N38" s="12">
         <v>55.756</v>
@@ -4867,7 +4912,7 @@
         <v>-6.2889999999999997</v>
       </c>
       <c r="P38" s="12" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="Q38" s="13">
         <v>46</v>
@@ -4878,7 +4923,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>17</v>
@@ -4887,31 +4932,31 @@
         <v>39</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L39" s="12" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="M39" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N39" s="12">
         <v>55.756</v>
@@ -4920,7 +4965,7 @@
         <v>-6.2889999999999997</v>
       </c>
       <c r="P39" s="12" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="Q39" s="13"/>
     </row>
@@ -4929,7 +4974,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>129</v>
+        <v>658</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>17</v>
@@ -4941,28 +4986,28 @@
         <v>71</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="L40" s="12" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="M40" s="12" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="N40" s="12">
         <v>36.347999999999999</v>
@@ -4971,7 +5016,7 @@
         <v>138.596</v>
       </c>
       <c r="P40" s="12" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="Q40" s="13"/>
     </row>
@@ -4980,7 +5025,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>17</v>
@@ -4992,28 +5037,28 @@
         <v>27</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L41" s="12" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="M41" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N41" s="12">
         <v>55.853999999999999</v>
@@ -5022,18 +5067,18 @@
         <v>-6.1079999999999997</v>
       </c>
       <c r="P41" s="12" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="Q41" s="13">
         <v>54.1</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="3">
         <v>40</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>17</v>
@@ -5042,31 +5087,31 @@
         <v>25</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L42" s="12" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="M42" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N42" s="12">
         <v>56.847000000000001</v>
@@ -5075,7 +5120,7 @@
         <v>-2.5880000000000001</v>
       </c>
       <c r="P42" s="12" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="Q42" s="13"/>
     </row>
@@ -5084,7 +5129,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>17</v>
@@ -5096,28 +5141,28 @@
         <v>79</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L43" s="12" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="M43" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N43" s="12">
         <v>57.427</v>
@@ -5126,7 +5171,7 @@
         <v>-3.3130000000000002</v>
       </c>
       <c r="P43" s="12" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="Q43" s="13">
         <v>58.7</v>
@@ -5137,7 +5182,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>17</v>
@@ -5146,13 +5191,13 @@
         <v>46</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -5170,7 +5215,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>17</v>
@@ -5182,28 +5227,28 @@
         <v>79</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L45" s="12" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="M45" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N45" s="12">
         <v>57.646999999999998</v>
@@ -5212,7 +5257,7 @@
         <v>-3.2930000000000001</v>
       </c>
       <c r="P45" s="12" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="Q45" s="13"/>
     </row>
@@ -5221,7 +5266,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>17</v>
@@ -5233,28 +5278,28 @@
         <v>27</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>95</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="I46" s="12" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="K46" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L46" s="12" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="M46" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N46" s="12">
         <v>55.78</v>
@@ -5263,7 +5308,7 @@
         <v>-6.4329999999999998</v>
       </c>
       <c r="P46" s="12" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="Q46" s="13">
         <v>50</v>
@@ -5274,7 +5319,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>17</v>
@@ -5286,19 +5331,19 @@
         <v>19</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G47" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="J47" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>46</v>
@@ -5316,7 +5361,7 @@
         <v>130.32300000000001</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q47" s="13"/>
     </row>
@@ -5325,7 +5370,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>17</v>
@@ -5337,28 +5382,28 @@
         <v>27</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>95</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="J48" s="12" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L48" s="12" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="M48" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N48" s="12">
         <v>55.78</v>
@@ -5367,18 +5412,18 @@
         <v>-6.4329999999999998</v>
       </c>
       <c r="P48" s="12" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="Q48" s="13">
         <v>55.7</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A49" s="3">
         <v>47</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>17</v>
@@ -5387,31 +5432,31 @@
         <v>25</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L49" s="12" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="M49" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N49" s="12">
         <v>56.847000000000001</v>
@@ -5420,7 +5465,7 @@
         <v>-2.5880000000000001</v>
       </c>
       <c r="P49" s="12" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="Q49" s="13">
         <v>43</v>
@@ -5431,7 +5476,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>17</v>
@@ -5443,28 +5488,28 @@
         <v>19</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="I50" s="12" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="J50" s="12" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L50" s="12" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="M50" s="12" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="N50" s="12">
         <v>57.683999999999997</v>
@@ -5473,18 +5518,18 @@
         <v>-2.5649999999999999</v>
       </c>
       <c r="P50" s="12" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="Q50" s="13">
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:17" ht="48" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A51" s="3">
         <v>49</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>17</v>
@@ -5493,22 +5538,22 @@
         <v>46</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G51" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H51" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="I51" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="I51" s="3" t="s">
+      <c r="J51" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="K51" s="3" t="s">
         <v>46</v>
@@ -5526,7 +5571,7 @@
         <v>136.26400000000001</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q51" s="13">
         <v>58</v>
@@ -5537,7 +5582,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>155</v>
+        <v>667</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>17</v>
@@ -5546,31 +5591,31 @@
         <v>25</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="J52" s="12" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L52" s="12" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="M52" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N52" s="12">
         <v>55.424999999999997</v>
@@ -5579,16 +5624,18 @@
         <v>-5.609</v>
       </c>
       <c r="P52" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q52" s="13"/>
+        <v>327</v>
+      </c>
+      <c r="Q52" s="13">
+        <v>46.3</v>
+      </c>
     </row>
     <row r="53" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A53" s="3">
         <v>51</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>17</v>
@@ -5600,28 +5647,28 @@
         <v>19</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L53" s="12" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="M53" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N53" s="12">
         <v>55.853999999999999</v>
@@ -5630,7 +5677,7 @@
         <v>-6.1079999999999997</v>
       </c>
       <c r="P53" s="12" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="Q53" s="13"/>
     </row>
@@ -5639,7 +5686,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>17</v>
@@ -5651,28 +5698,28 @@
         <v>19</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L54" s="12" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="M54" s="12" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="N54" s="12">
         <v>55.767000000000003</v>
@@ -5681,7 +5728,7 @@
         <v>-6.3620000000000001</v>
       </c>
       <c r="P54" s="12" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="Q54" s="13">
         <v>52.4</v>
@@ -5692,7 +5739,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>17</v>
@@ -5704,28 +5751,28 @@
         <v>79</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L55" s="12" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="M55" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N55" s="12">
         <v>57.451999999999998</v>
@@ -5734,7 +5781,7 @@
         <v>-3.3769999999999998</v>
       </c>
       <c r="P55" s="12" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="Q55" s="13">
         <v>57.3</v>
@@ -5745,7 +5792,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>17</v>
@@ -5757,28 +5804,28 @@
         <v>79</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="I56" s="12" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="J56" s="12" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="K56" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L56" s="12" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="M56" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N56" s="12">
         <v>57.533000000000001</v>
@@ -5787,7 +5834,7 @@
         <v>-3.206</v>
       </c>
       <c r="P56" s="12" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="Q56" s="13">
         <v>58.1</v>
@@ -5798,7 +5845,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>17</v>
@@ -5810,28 +5857,28 @@
         <v>79</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="J57" s="12" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="K57" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L57" s="12" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="M57" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N57" s="12">
         <v>57.343000000000004</v>
@@ -5840,7 +5887,7 @@
         <v>-3.3380000000000001</v>
       </c>
       <c r="P57" s="12" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="Q57" s="13">
         <v>58.3</v>
@@ -5851,7 +5898,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>17</v>
@@ -5863,28 +5910,28 @@
         <v>71</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="J58" s="12" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="K58" s="12" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="L58" s="12" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="M58" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N58" s="12">
         <v>35.988999999999997</v>
@@ -5893,10 +5940,10 @@
         <v>139.072</v>
       </c>
       <c r="P58" s="12" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="Q58" s="13">
-        <v>62.7</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5904,7 +5951,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>17</v>
@@ -5916,28 +5963,28 @@
         <v>19</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="J59" s="12" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="K59" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L59" s="12" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="M59" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N59" s="12">
         <v>58.968000000000004</v>
@@ -5946,7 +5993,7 @@
         <v>-2.956</v>
       </c>
       <c r="P59" s="12" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="Q59" s="13"/>
     </row>
@@ -5955,7 +6002,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>17</v>
@@ -5967,28 +6014,28 @@
         <v>19</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="J60" s="12" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="K60" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L60" s="12" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="M60" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N60" s="12">
         <v>55.640999999999998</v>
@@ -5997,7 +6044,7 @@
         <v>-6.109</v>
       </c>
       <c r="P60" s="12" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="Q60" s="13"/>
     </row>
@@ -6006,7 +6053,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>17</v>
@@ -6018,28 +6065,28 @@
         <v>79</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="G61" s="8" t="s">
         <v>83</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="I61" s="12" t="s">
         <v>36</v>
       </c>
       <c r="J61" s="12" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="K61" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L61" s="12" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="M61" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N61" s="12">
         <v>57.484999999999999</v>
@@ -6048,7 +6095,7 @@
         <v>-3.2080000000000002</v>
       </c>
       <c r="P61" s="12" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q61" s="13">
         <v>40</v>
@@ -6059,7 +6106,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>17</v>
@@ -6071,28 +6118,28 @@
         <v>79</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="J62" s="12" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="K62" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L62" s="12" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="M62" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N62" s="12">
         <v>56.835999999999999</v>
@@ -6101,7 +6148,7 @@
         <v>-5.0739999999999998</v>
       </c>
       <c r="P62" s="12" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="Q62" s="13">
         <v>40</v>
@@ -6112,40 +6159,40 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="I63" s="12" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="J63" s="12" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="K63" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L63" s="12" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="M63" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N63" s="12">
         <v>55.832999999999998</v>
@@ -6154,7 +6201,7 @@
         <v>-5.9509999999999996</v>
       </c>
       <c r="P63" s="12" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="Q63" s="13">
         <v>60.7</v>
@@ -6165,7 +6212,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>17</v>
@@ -6174,31 +6221,31 @@
         <v>25</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="J64" s="12" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="K64" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L64" s="12" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="M64" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N64" s="12">
         <v>56.701999999999998</v>
@@ -6207,7 +6254,7 @@
         <v>-3.702</v>
       </c>
       <c r="P64" s="12" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="Q64" s="13"/>
     </row>
@@ -6216,7 +6263,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>17</v>
@@ -6225,31 +6272,31 @@
         <v>25</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="I65" s="12" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="J65" s="12" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="K65" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L65" s="12" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="M65" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N65" s="12">
         <v>55.424999999999997</v>
@@ -6258,7 +6305,7 @@
         <v>-5.609</v>
       </c>
       <c r="P65" s="12" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="Q65" s="13"/>
     </row>
@@ -6267,7 +6314,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>17</v>
@@ -6279,28 +6326,28 @@
         <v>19</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="J66" s="12" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="K66" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L66" s="12" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="M66" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N66" s="12">
         <v>56.622999999999998</v>
@@ -6309,7 +6356,7 @@
         <v>-6.07</v>
       </c>
       <c r="P66" s="12" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="Q66" s="13">
         <v>63.3</v>
@@ -6320,7 +6367,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>17</v>
@@ -6332,28 +6379,28 @@
         <v>71</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="J67" s="12" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="K67" s="12" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="L67" s="12" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="M67" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N67" s="12">
         <v>35.988999999999997</v>
@@ -6362,18 +6409,16 @@
         <v>139.072</v>
       </c>
       <c r="P67" s="12" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q67" s="13" t="s">
-        <v>659</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="Q67" s="13"/>
     </row>
     <row r="68" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A68" s="3">
         <v>66</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>17</v>
@@ -6385,28 +6430,28 @@
         <v>79</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="I68" s="12" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="J68" s="12" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="K68" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L68" s="12" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="M68" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N68" s="12">
         <v>57.646999999999998</v>
@@ -6415,7 +6460,7 @@
         <v>-3.2930000000000001</v>
       </c>
       <c r="P68" s="12" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="Q68" s="13"/>
     </row>
@@ -6424,7 +6469,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>17</v>
@@ -6436,28 +6481,28 @@
         <v>19</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="I69" s="12" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="J69" s="12" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="K69" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L69" s="12" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="M69" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N69" s="12">
         <v>57.551000000000002</v>
@@ -6466,7 +6511,7 @@
         <v>-4.4340000000000002</v>
       </c>
       <c r="P69" s="12" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="Q69" s="13">
         <v>55.3</v>
@@ -6477,7 +6522,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>17</v>
@@ -6489,28 +6534,28 @@
         <v>19</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="J70" s="12" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="K70" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L70" s="12" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="M70" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N70" s="12">
         <v>55.853999999999999</v>
@@ -6519,7 +6564,7 @@
         <v>-6.1079999999999997</v>
       </c>
       <c r="P70" s="12" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="Q70" s="13">
         <v>43</v>
@@ -6530,7 +6575,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>17</v>
@@ -6542,28 +6587,28 @@
         <v>79</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="J71" s="12" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="K71" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L71" s="12" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="M71" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N71" s="12">
         <v>57.444000000000003</v>
@@ -6572,7 +6617,7 @@
         <v>-3.1280000000000001</v>
       </c>
       <c r="P71" s="12" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="Q71" s="13"/>
     </row>
@@ -6581,7 +6626,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>17</v>
@@ -6593,28 +6638,28 @@
         <v>71</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="I72" s="12" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="J72" s="12" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="K72" s="12" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="L72" s="12" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="M72" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N72" s="12">
         <v>34.890999999999998</v>
@@ -6623,7 +6668,7 @@
         <v>135.67500000000001</v>
       </c>
       <c r="P72" s="12" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="Q72" s="13">
         <v>58</v>
@@ -6634,7 +6679,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>17</v>
@@ -6643,31 +6688,31 @@
         <v>25</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="I73" s="12" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="J73" s="12" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="K73" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L73" s="12" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="M73" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N73" s="12">
         <v>58.968000000000004</v>
@@ -6676,7 +6721,7 @@
         <v>-2.956</v>
       </c>
       <c r="P73" s="12" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="Q73" s="13">
         <v>40</v>
@@ -6687,7 +6732,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>17</v>
@@ -6699,28 +6744,28 @@
         <v>19</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G74" s="8" t="s">
         <v>95</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="I74" s="12" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="J74" s="12" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="K74" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L74" s="12" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="M74" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N74" s="12">
         <v>55.78</v>
@@ -6729,7 +6774,7 @@
         <v>-6.4329999999999998</v>
       </c>
       <c r="P74" s="12" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="Q74" s="13"/>
     </row>
@@ -6738,7 +6783,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>17</v>
@@ -6750,28 +6795,28 @@
         <v>71</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H75" s="12" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="I75" s="12" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="J75" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="K75" s="12" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="L75" s="12" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="M75" s="12" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="N75" s="12">
         <v>36.347999999999999</v>
@@ -6780,7 +6825,7 @@
         <v>138.596</v>
       </c>
       <c r="P75" s="12" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="Q75" s="13">
         <v>43</v>
@@ -6791,7 +6836,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>17</v>
@@ -6803,28 +6848,28 @@
         <v>19</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="G76" s="8" t="s">
         <v>95</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="I76" s="12" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="J76" s="12" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="K76" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L76" s="12" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="M76" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N76" s="12">
         <v>55.78</v>
@@ -6833,7 +6878,7 @@
         <v>-6.4329999999999998</v>
       </c>
       <c r="P76" s="12" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="Q76" s="13">
         <v>50</v>
@@ -6844,40 +6889,40 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="I77" s="12" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="J77" s="12" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="K77" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L77" s="12" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="M77" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N77" s="12">
         <v>57.427</v>
@@ -6886,16 +6931,18 @@
         <v>-3.3130000000000002</v>
       </c>
       <c r="P77" s="12" t="s">
-        <v>572</v>
-      </c>
-      <c r="Q77" s="13"/>
+        <v>565</v>
+      </c>
+      <c r="Q77" s="13">
+        <v>59.2</v>
+      </c>
     </row>
     <row r="78" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A78" s="3">
         <v>76</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>17</v>
@@ -6907,28 +6954,28 @@
         <v>71</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H78" s="12" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="I78" s="12" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="J78" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="K78" s="12" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="L78" s="12" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="M78" s="12" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="N78" s="12">
         <v>36.347999999999999</v>
@@ -6937,16 +6984,16 @@
         <v>138.596</v>
       </c>
       <c r="P78" s="12" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="Q78" s="13"/>
     </row>
-    <row r="79" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:17" ht="48" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A79" s="3">
         <v>77</v>
       </c>
-      <c r="B79" s="3" t="s">
-        <v>299</v>
+      <c r="B79" s="14" t="s">
+        <v>663</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>17</v>
@@ -6955,22 +7002,22 @@
         <v>46</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F79" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="J79" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="G79" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="J79" s="3" t="s">
-        <v>216</v>
       </c>
       <c r="K79" s="3" t="s">
         <v>46</v>
@@ -6988,16 +7035,18 @@
         <v>132.334</v>
       </c>
       <c r="P79" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q79" s="13"/>
+        <v>213</v>
+      </c>
+      <c r="Q79" s="13">
+        <v>63</v>
+      </c>
     </row>
     <row r="80" spans="1:17" ht="99.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A80" s="3">
         <v>78</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>17</v>
@@ -7009,28 +7058,28 @@
         <v>58</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="I80" s="12" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="J80" s="12" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="K80" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L80" s="12" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="M80" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N80" s="12">
         <v>57.52</v>
@@ -7039,7 +7088,7 @@
         <v>-4.0469999999999997</v>
       </c>
       <c r="P80" s="12" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="Q80" s="13">
         <v>51.7</v>
@@ -7050,7 +7099,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>17</v>
@@ -7062,28 +7111,28 @@
         <v>79</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="I81" s="12" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="J81" s="12" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="K81" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L81" s="12" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="M81" s="12" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="N81" s="12">
         <v>57.438000000000002</v>
@@ -7092,7 +7141,7 @@
         <v>-3.3460000000000001</v>
       </c>
       <c r="P81" s="12" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="Q81" s="13"/>
     </row>
@@ -7101,7 +7150,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>17</v>
@@ -7110,31 +7159,31 @@
         <v>46</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="I82" s="12" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="J82" s="12" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="K82" s="12" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="L82" s="12" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="M82" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N82" s="12">
         <v>35.988999999999997</v>
@@ -7143,7 +7192,7 @@
         <v>139.072</v>
       </c>
       <c r="P82" s="12" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="Q82" s="13">
         <v>46</v>
@@ -7154,7 +7203,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>17</v>
@@ -7166,28 +7215,28 @@
         <v>71</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="I83" s="12" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="J83" s="12" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="K83" s="12" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="L83" s="12" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="M83" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N83" s="12">
         <v>35.988999999999997</v>
@@ -7196,7 +7245,7 @@
         <v>139.072</v>
       </c>
       <c r="P83" s="12" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="Q83" s="13">
         <v>46</v>
@@ -7207,7 +7256,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>226</v>
+        <v>664</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>17</v>
@@ -7219,28 +7268,28 @@
         <v>71</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="I84" s="12" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="J84" s="12" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="K84" s="12" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="L84" s="12" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="M84" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N84" s="12">
         <v>35.988999999999997</v>
@@ -7249,16 +7298,16 @@
         <v>139.072</v>
       </c>
       <c r="P84" s="12" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="Q84" s="13"/>
     </row>
-    <row r="85" spans="1:17" ht="78.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:17" ht="79.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A85" s="3">
         <v>83</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>300</v>
+        <v>659</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>17</v>
@@ -7270,19 +7319,19 @@
         <v>71</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="K85" s="3" t="s">
         <v>46</v>
@@ -7291,7 +7340,7 @@
         <v>1985</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="N85" s="3">
         <v>35.899000000000001</v>
@@ -7300,37 +7349,39 @@
         <v>137.94200000000001</v>
       </c>
       <c r="P85" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q85" s="13"/>
-    </row>
-    <row r="86" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
+        <v>230</v>
+      </c>
+      <c r="Q85" s="13">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" ht="48" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A86" s="3">
         <v>84</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="J86" s="3" t="s">
         <v>37</v>
@@ -7351,16 +7402,16 @@
         <v>-3.1179999999999999</v>
       </c>
       <c r="P86" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="Q86" s="13"/>
     </row>
-    <row r="87" spans="1:17" ht="78.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:17" ht="79.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A87" s="3">
         <v>85</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>17</v>
@@ -7372,10 +7423,10 @@
         <v>79</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
@@ -7395,7 +7446,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>17</v>
@@ -7404,31 +7455,31 @@
         <v>25</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="I88" s="12" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="J88" s="12" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="K88" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L88" s="12" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="M88" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N88" s="12">
         <v>57.688000000000002</v>
@@ -7437,18 +7488,18 @@
         <v>-4.1680000000000001</v>
       </c>
       <c r="P88" s="12" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="Q88" s="13">
         <v>44.4</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:17" ht="48" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A89" s="3">
         <v>87</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>17</v>
@@ -7460,19 +7511,19 @@
         <v>71</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>46</v>
@@ -7490,7 +7541,7 @@
         <v>132.334</v>
       </c>
       <c r="P89" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="Q89" s="13"/>
     </row>
@@ -7499,7 +7550,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>17</v>
@@ -7511,28 +7562,28 @@
         <v>71</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="H90" s="12" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="I90" s="12" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="J90" s="12" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="K90" s="12" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="L90" s="12" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="M90" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N90" s="12">
         <v>37.398000000000003</v>
@@ -7541,51 +7592,51 @@
         <v>140.36000000000001</v>
       </c>
       <c r="P90" s="12" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="Q90" s="13">
         <v>62</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:17" ht="83.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A91" s="3">
         <v>89</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="H91" s="12" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="I91" s="12" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="J91" s="12" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="K91" s="12" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="L91" s="12" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="M91" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N91" s="12">
         <v>53.338000000000001</v>
@@ -7594,7 +7645,7 @@
         <v>-6.2779999999999996</v>
       </c>
       <c r="P91" s="12" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="Q91" s="13"/>
     </row>
@@ -7603,7 +7654,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>17</v>
@@ -7615,19 +7666,19 @@
         <v>71</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G92" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H92" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H92" s="3" t="s">
+      <c r="I92" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="I92" s="3" t="s">
+      <c r="J92" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="J92" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="K92" s="3" t="s">
         <v>46</v>
@@ -7645,7 +7696,7 @@
         <v>136.26400000000001</v>
       </c>
       <c r="P92" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q92" s="13">
         <v>57</v>
@@ -7656,7 +7707,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>17</v>
@@ -7668,28 +7719,28 @@
         <v>79</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="H93" s="12" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="I93" s="12" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="J93" s="12" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="K93" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L93" s="12" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="M93" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N93" s="12">
         <v>57.253</v>
@@ -7698,7 +7749,7 @@
         <v>-3.3780000000000001</v>
       </c>
       <c r="P93" s="12" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="Q93" s="13">
         <v>54.8</v>
@@ -7709,7 +7760,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>17</v>
@@ -7721,28 +7772,28 @@
         <v>58</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="I94" s="12" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="J94" s="12" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="K94" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L94" s="12" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="M94" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N94" s="12">
         <v>57.756</v>
@@ -7751,7 +7802,7 @@
         <v>-4.2229999999999999</v>
       </c>
       <c r="P94" s="12" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="Q94" s="13">
         <v>52.1</v>
@@ -7762,7 +7813,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>17</v>
@@ -7774,28 +7825,28 @@
         <v>79</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="I95" s="12" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="J95" s="12" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="K95" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L95" s="12" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="M95" s="12" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="N95" s="12">
         <v>57.453000000000003</v>
@@ -7804,7 +7855,7 @@
         <v>-3.1160000000000001</v>
       </c>
       <c r="P95" s="12" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="Q95" s="13">
         <v>51.4</v>
@@ -7815,7 +7866,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>17</v>
@@ -7827,28 +7878,28 @@
         <v>27</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="H96" s="12" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="I96" s="12" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="J96" s="12" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="K96" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L96" s="12" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="M96" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N96" s="12">
         <v>55.640999999999998</v>
@@ -7857,7 +7908,7 @@
         <v>-6.109</v>
       </c>
       <c r="P96" s="12" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="Q96" s="13"/>
     </row>
@@ -7866,7 +7917,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>17</v>
@@ -7878,28 +7929,28 @@
         <v>19</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H97" s="12" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="I97" s="12" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="J97" s="12" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="K97" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L97" s="12" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="M97" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N97" s="12">
         <v>57.826000000000001</v>
@@ -7908,7 +7959,7 @@
         <v>-4.0789999999999997</v>
       </c>
       <c r="P97" s="12" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="Q97" s="13">
         <v>43</v>
@@ -7919,7 +7970,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>17</v>
@@ -7931,28 +7982,28 @@
         <v>58</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H98" s="12" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="I98" s="12" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="J98" s="12" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="K98" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L98" s="12" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="M98" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N98" s="12">
         <v>57.52</v>
@@ -7961,7 +8012,7 @@
         <v>-4.0469999999999997</v>
       </c>
       <c r="P98" s="12" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="Q98" s="13">
         <v>58.1</v>
@@ -7972,7 +8023,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>17</v>
@@ -7981,31 +8032,31 @@
         <v>25</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H99" s="12" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="I99" s="12" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="J99" s="12" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="K99" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L99" s="12" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="M99" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N99" s="12">
         <v>57.451999999999998</v>
@@ -8014,7 +8065,7 @@
         <v>-3.3769999999999998</v>
       </c>
       <c r="P99" s="12" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="Q99" s="13">
         <v>59.6</v>
@@ -8025,7 +8076,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>17</v>
@@ -8037,28 +8088,28 @@
         <v>19</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H100" s="12" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="I100" s="12" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="J100" s="12" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="K100" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L100" s="12" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="M100" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N100" s="12">
         <v>57.826000000000001</v>
@@ -8067,16 +8118,18 @@
         <v>-4.0789999999999997</v>
       </c>
       <c r="P100" s="12" t="s">
-        <v>576</v>
-      </c>
-      <c r="Q100" s="13"/>
+        <v>569</v>
+      </c>
+      <c r="Q100" s="13">
+        <v>43</v>
+      </c>
     </row>
     <row r="101" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A101" s="3">
         <v>99</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>17</v>
@@ -8085,22 +8138,22 @@
         <v>46</v>
       </c>
       <c r="E101" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="G101" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="J101" s="3" t="s">
         <v>271</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="G101" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>276</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>46</v>
@@ -8118,7 +8171,7 @@
         <v>139.90799999999999</v>
       </c>
       <c r="P101" s="3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="Q101" s="13">
         <v>62</v>
@@ -8129,7 +8182,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>17</v>
@@ -8141,28 +8194,28 @@
         <v>71</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="H102" s="12" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="I102" s="12" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="J102" s="12" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="K102" s="12" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="L102" s="12" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="M102" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N102" s="12">
         <v>34.652999999999999</v>
@@ -8171,7 +8224,7 @@
         <v>134.989</v>
       </c>
       <c r="P102" s="12" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="Q102" s="13">
         <v>50</v>
@@ -8182,7 +8235,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>17</v>
@@ -8194,28 +8247,28 @@
         <v>71</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H103" s="12" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="I103" s="12" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="J103" s="12" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="K103" s="12" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="L103" s="12" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="M103" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N103" s="12">
         <v>34.890999999999998</v>
@@ -8224,7 +8277,7 @@
         <v>135.67500000000001</v>
       </c>
       <c r="P103" s="12" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="Q103" s="13">
         <v>40</v>
@@ -8235,7 +8288,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>17</v>
@@ -8247,28 +8300,28 @@
         <v>71</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="H104" s="12" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="I104" s="12" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="J104" s="12" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="K104" s="12" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="L104" s="12" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="M104" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N104" s="12">
         <v>35.988999999999997</v>
@@ -8277,7 +8330,7 @@
         <v>139.072</v>
       </c>
       <c r="P104" s="12" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="Q104" s="13">
         <v>55</v>
@@ -8288,7 +8341,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>17</v>
@@ -8300,19 +8353,19 @@
         <v>71</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="K105" s="3" t="s">
         <v>46</v>
@@ -8321,7 +8374,7 @@
         <v>1985</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="N105" s="3">
         <v>35.899000000000001</v>
@@ -8330,7 +8383,7 @@
         <v>137.94200000000001</v>
       </c>
       <c r="P105" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="Q105" s="13">
         <v>48</v>
@@ -8341,7 +8394,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>17</v>
@@ -8350,22 +8403,22 @@
         <v>46</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="K106" s="3" t="s">
         <v>46</v>
@@ -8374,7 +8427,7 @@
         <v>1985</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="N106" s="3">
         <v>35.899000000000001</v>
@@ -8383,7 +8436,7 @@
         <v>137.94200000000001</v>
       </c>
       <c r="P106" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="Q106" s="13"/>
     </row>
@@ -8392,7 +8445,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>17</v>
@@ -8401,31 +8454,31 @@
         <v>46</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="H107" s="12" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="I107" s="12" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="J107" s="12" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="K107" s="12" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="L107" s="12" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="M107" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N107" s="12">
         <v>36.637999999999998</v>
@@ -8434,7 +8487,7 @@
         <v>136.964</v>
       </c>
       <c r="P107" s="12" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="Q107" s="13"/>
     </row>
@@ -8443,7 +8496,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>17</v>
@@ -8455,28 +8508,28 @@
         <v>19</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="H108" s="12" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="I108" s="12" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="J108" s="12" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="K108" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L108" s="12" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="M108" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N108" s="12">
         <v>56.94</v>
@@ -8485,7 +8538,7 @@
         <v>-4.2370000000000001</v>
       </c>
       <c r="P108" s="12" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="Q108" s="13"/>
     </row>
@@ -8494,7 +8547,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>17</v>
@@ -8506,28 +8559,28 @@
         <v>71</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="H109" s="12" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="I109" s="12" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="J109" s="12" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="K109" s="12" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="L109" s="12" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="M109" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N109" s="12">
         <v>43.052</v>
@@ -8536,7 +8589,7 @@
         <v>144.84299999999999</v>
       </c>
       <c r="P109" s="12" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="Q109" s="13">
         <v>55</v>
@@ -8547,7 +8600,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>17</v>
@@ -8559,19 +8612,19 @@
         <v>71</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="K110" s="3" t="s">
         <v>46</v>
@@ -8589,21 +8642,52 @@
         <v>132.334</v>
       </c>
       <c r="P110" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="Q110" s="13">
         <v>62</v>
       </c>
     </row>
+    <row r="111" spans="1:17" ht="37.5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="Q111" s="1">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:P110" xr:uid="{D4F60670-F158-4C9B-93E8-D52D53F4A8E3}">
+  <autoFilter ref="A1:P111" xr:uid="{D4F60670-F158-4C9B-93E8-D52D53F4A8E3}">
     <filterColumn colId="7">
       <filters>
-        <filter val="フェッターケアン蒸溜所"/>
+        <filter val="ティーリング蒸留所"/>
+        <filter val="ティーリング蒸溜所"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="16">
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="B13:B14"/>
     <mergeCell ref="N13:N14"/>
     <mergeCell ref="O13:O14"/>
     <mergeCell ref="P13:P14"/>
@@ -8613,13 +8697,6 @@
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="L13:L14"/>
     <mergeCell ref="M13:M14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="B13:B14"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8650,16 +8727,16 @@
   <sheetData>
     <row r="1" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>11</v>
@@ -8674,7 +8751,7 @@
         <v>14</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -8685,16 +8762,16 @@
         <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G2" s="5">
         <v>57.302</v>
@@ -8703,7 +8780,7 @@
         <v>-6.3559999999999999</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -8714,16 +8791,16 @@
         <v>31</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="G3" s="5">
         <v>55.63</v>
@@ -8732,27 +8809,27 @@
         <v>-6.1929999999999996</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G4" s="5">
         <v>57.484999999999999</v>
@@ -8761,27 +8838,27 @@
         <v>-3.2080000000000002</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G5" s="5">
         <v>55.756</v>
@@ -8790,27 +8867,27 @@
         <v>-6.2889999999999997</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G6" s="5">
         <v>55.991</v>
@@ -8819,27 +8896,27 @@
         <v>-3.827</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G7" s="5">
         <v>55.424999999999997</v>
@@ -8848,27 +8925,27 @@
         <v>-5.609</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G8" s="5">
         <v>55.878</v>
@@ -8877,27 +8954,27 @@
         <v>-6.125</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G9" s="5">
         <v>56.624000000000002</v>
@@ -8906,27 +8983,27 @@
         <v>-3.85</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G10" s="5">
         <v>55.640999999999998</v>
@@ -8935,27 +9012,27 @@
         <v>-6.109</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G11" s="5">
         <v>58.968000000000004</v>
@@ -8964,27 +9041,27 @@
         <v>-2.956</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G12" s="5">
         <v>37.398000000000003</v>
@@ -8993,27 +9070,27 @@
         <v>140.36000000000001</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G13" s="5">
         <v>57.451999999999998</v>
@@ -9022,27 +9099,27 @@
         <v>-3.3769999999999998</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G14" s="5">
         <v>56.835999999999999</v>
@@ -9051,27 +9128,27 @@
         <v>-5.0739999999999998</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G15" s="5">
         <v>57.545999999999999</v>
@@ -9080,27 +9157,27 @@
         <v>-3.048</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G16" s="5">
         <v>57.444000000000003</v>
@@ -9109,27 +9186,27 @@
         <v>-3.1280000000000001</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G17" s="5">
         <v>56.704000000000001</v>
@@ -9138,27 +9215,27 @@
         <v>-3.7330000000000001</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G18" s="5">
         <v>55.853999999999999</v>
@@ -9167,27 +9244,27 @@
         <v>-6.1079999999999997</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G19" s="5">
         <v>56.847000000000001</v>
@@ -9196,27 +9273,27 @@
         <v>-2.5880000000000001</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G20" s="5">
         <v>57.427</v>
@@ -9225,27 +9302,27 @@
         <v>-3.3130000000000002</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G21" s="5">
         <v>57.646999999999998</v>
@@ -9254,27 +9331,27 @@
         <v>-3.2930000000000001</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G22" s="5">
         <v>55.78</v>
@@ -9283,27 +9360,27 @@
         <v>-6.4329999999999998</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G23" s="5">
         <v>57.533000000000001</v>
@@ -9312,27 +9389,27 @@
         <v>-3.206</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G24" s="5">
         <v>57.343000000000004</v>
@@ -9341,27 +9418,27 @@
         <v>-3.3380000000000001</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G25" s="5">
         <v>34.890999999999998</v>
@@ -9370,27 +9447,27 @@
         <v>135.67500000000001</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G26" s="5">
         <v>35.988999999999997</v>
@@ -9399,27 +9476,27 @@
         <v>139.072</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G27" s="5">
         <v>35.773000000000003</v>
@@ -9428,27 +9505,27 @@
         <v>137.93700000000001</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>100</v>
-      </c>
       <c r="C28" s="5" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G28" s="5">
         <v>35.380000000000003</v>
@@ -9457,27 +9534,27 @@
         <v>136.274</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G29" s="5">
         <v>36.637999999999998</v>
@@ -9486,27 +9563,27 @@
         <v>136.964</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G30" s="5">
         <v>53.338000000000001</v>
@@ -9515,27 +9592,27 @@
         <v>-6.2779999999999996</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G31" s="5">
         <v>63.040999999999997</v>
@@ -9544,27 +9621,27 @@
         <v>17.739000000000001</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G32" s="5">
         <v>57.649000000000001</v>
@@ -9573,27 +9650,27 @@
         <v>-3.64</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="G33" s="5">
         <v>36.347999999999999</v>
@@ -9602,27 +9679,27 @@
         <v>138.596</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="147.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G34" s="5">
         <v>56.94</v>
@@ -9631,27 +9708,27 @@
         <v>-4.2370000000000001</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G35" s="5">
         <v>43.052</v>
@@ -9660,27 +9737,27 @@
         <v>144.84299999999999</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G36" s="5">
         <v>55.640999999999998</v>
@@ -9689,27 +9766,27 @@
         <v>-6.109</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G37" s="5">
         <v>58.968000000000004</v>
@@ -9718,27 +9795,27 @@
         <v>-2.956</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G38" s="5">
         <v>57.484999999999999</v>
@@ -9747,27 +9824,27 @@
         <v>-3.2080000000000002</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G39" s="5">
         <v>53.338000000000001</v>
@@ -9776,27 +9853,27 @@
         <v>-6.2779999999999996</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G40" s="5">
         <v>31.454000000000001</v>
@@ -9805,27 +9882,27 @@
         <v>130.46100000000001</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G41" s="5">
         <v>35.823999999999998</v>
@@ -9834,27 +9911,27 @@
         <v>138.43600000000001</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G42" s="5">
         <v>43.177999999999997</v>
@@ -9863,27 +9940,27 @@
         <v>140.76599999999999</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G43" s="5">
         <v>38.445999999999998</v>
@@ -9892,27 +9969,27 @@
         <v>140.88300000000001</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G44" s="5">
         <v>36.320999999999998</v>
@@ -9921,27 +9998,27 @@
         <v>138.44999999999999</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G45" s="5">
         <v>35.768999999999998</v>
@@ -9950,27 +10027,27 @@
         <v>139.125</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G46" s="5">
         <v>35.302999999999997</v>
@@ -9979,27 +10056,27 @@
         <v>138.95400000000001</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G47" s="5">
         <v>35.036999999999999</v>
@@ -10008,27 +10085,27 @@
         <v>136.82900000000001</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G48" s="5">
         <v>38.445999999999998</v>
@@ -10037,27 +10114,27 @@
         <v>140.88300000000001</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G49" s="5">
         <v>34.652999999999999</v>
@@ -10066,27 +10143,27 @@
         <v>134.989</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G50" s="5">
         <v>35.773000000000003</v>
@@ -10095,27 +10172,27 @@
         <v>137.93700000000001</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G51" s="5">
         <v>31.672999999999998</v>
@@ -10124,7 +10201,7 @@
         <v>130.279</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -10134,20 +10211,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6ff6e2ba-ab06-4ac9-b2c7-449843b7cb08" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6ff6e2ba-ab06-4ac9-b2c7-449843b7cb08" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10333,14 +10410,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B963C0D-E7E9-44EF-8AEB-EF3D573F3F67}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{987E6F6F-1448-40F2-A1EC-D5FD1FE7DC5E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="6ff6e2ba-ab06-4ac9-b2c7-449843b7cb08"/>
@@ -10352,6 +10421,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B963C0D-E7E9-44EF-8AEB-EF3D573F3F67}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/whisky_database.xlsx
+++ b/whisky_database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\新藤駿介(ShindoShunsuke)\Documents\GitHub\whisky-sommelier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB53D2A-0851-4C0D-9D44-4905D4FF72BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC6BC70-1E7D-4E55-AEE0-E74E65C81686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{A2419164-9416-4CEB-A64A-CE2C95D250D1}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$111</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$H$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="670">
   <si>
     <t>番号</t>
   </si>
@@ -91,9 +91,6 @@
     <t>蒸留所説明</t>
   </si>
   <si>
-    <t>タリスカー　44年　オフィシャルボトル</t>
-  </si>
-  <si>
     <t>Whiskey</t>
   </si>
   <si>
@@ -380,9 +377,6 @@
   </si>
   <si>
     <t xml:space="preserve">Irish Single Malt </t>
-  </si>
-  <si>
-    <t>2012年から2020年まで熟成されたヴィンテージのアイリッシュウイスキー。豊かな蜂蜜とバニラの風味が、果樹園のフルーツとスパイスのバランスを取っています。おそらく元バーボン樽での8年間の熟成により、オークの影響、トフィーの甘さ、そしてコショウと乾燥フルーツのヒントを含む温かく長続きするフィニッシュを持つ複雑なプロファイルが生まれています。</t>
   </si>
   <si>
     <t xml:space="preserve">Highland Single Malt  </t>
@@ -2391,6 +2385,18 @@
     <rPh sb="18" eb="21">
       <t>シナノヤ</t>
     </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>タリスカー　44年　オフィシャルボトル</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>2012年から2020年まで熟成されたヴィンテージのアイリッシュウイスキー。豊かな蜂蜜とバニラの風味が、果樹園のフルーツとスパイスのバランスを取っています。おそらく元バーボン樽での8年間の熟成により、オークの影響、トフィーの甘さ、そしてコショウと乾燥フルーツのヒントを含む温かく長続きするフィニッシュを持つ複雑なプロファイルが生まれています。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>MORTLACH 2023 HEPBURN'S CHOICE</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -2602,10 +2608,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2948,9 +2954,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Q111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q91" sqref="Q91"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3024,7 +3030,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -3032,40 +3038,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>667</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>23</v>
-      </c>
       <c r="J2" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L2" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="K2" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>305</v>
-      </c>
       <c r="M2" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N2" s="12">
         <v>57.302</v>
@@ -3074,7 +3080,7 @@
         <v>-6.3559999999999999</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Q2" s="13">
         <v>49.1</v>
@@ -3085,40 +3091,40 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="I3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="12" t="s">
-        <v>31</v>
-      </c>
       <c r="J3" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="M3" s="12" t="s">
         <v>307</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>309</v>
       </c>
       <c r="N3" s="12">
         <v>55.63</v>
@@ -3127,7 +3133,7 @@
         <v>-6.1929999999999996</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="Q3" s="13">
         <v>56.2</v>
@@ -3138,40 +3144,40 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>34</v>
-      </c>
       <c r="H4" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L4" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="I4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>313</v>
-      </c>
       <c r="M4" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N4" s="12">
         <v>57.484999999999999</v>
@@ -3180,7 +3186,7 @@
         <v>-3.2080000000000002</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="Q4" s="13">
         <v>45</v>
@@ -3191,40 +3197,40 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="H5" s="12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N5" s="12">
         <v>55.756</v>
@@ -3233,7 +3239,7 @@
         <v>-6.2889999999999997</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="Q5" s="13">
         <v>50.2</v>
@@ -3244,40 +3250,40 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="H6" s="12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I6" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L6" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="M6" s="12" t="s">
         <v>319</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>321</v>
       </c>
       <c r="N6" s="12">
         <v>55.991</v>
@@ -3286,7 +3292,7 @@
         <v>-3.827</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="Q6" s="13">
         <v>52.9</v>
@@ -3297,22 +3303,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>49</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -3332,40 +3338,40 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="H8" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="J8" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="K8" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L8" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="J8" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>326</v>
-      </c>
       <c r="M8" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N8" s="12">
         <v>55.424999999999997</v>
@@ -3374,7 +3380,7 @@
         <v>-5.609</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="Q8" s="13"/>
     </row>
@@ -3383,40 +3389,40 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>56</v>
-      </c>
       <c r="H9" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L9" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="I9" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>330</v>
-      </c>
       <c r="M9" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N9" s="12">
         <v>55.878</v>
@@ -3425,7 +3431,7 @@
         <v>-6.125</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="Q9" s="13">
         <v>40</v>
@@ -3436,40 +3442,40 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="G10" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H10" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="J10" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="K10" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L10" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="J10" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>335</v>
-      </c>
       <c r="M10" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N10" s="12">
         <v>56.624000000000002</v>
@@ -3478,7 +3484,7 @@
         <v>-3.85</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="Q10" s="13">
         <v>43</v>
@@ -3489,40 +3495,40 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>62</v>
-      </c>
       <c r="H11" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="J11" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="K11" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L11" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="J11" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>340</v>
-      </c>
       <c r="M11" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N11" s="12">
         <v>55.640999999999998</v>
@@ -3531,7 +3537,7 @@
         <v>-6.109</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="Q11" s="13"/>
     </row>
@@ -3540,40 +3546,40 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="G12" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N12" s="12">
         <v>58.968000000000004</v>
@@ -3582,82 +3588,82 @@
         <v>-2.956</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="Q12" s="13">
         <v>51.7</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="15">
+      <c r="A13" s="16">
         <v>12</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>643</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="15" t="s">
+        <v>641</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>609</v>
+      </c>
+      <c r="G13" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>611</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="J13" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="K13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="L13" s="16">
+        <v>1830</v>
+      </c>
+      <c r="M13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="L13" s="15">
-        <v>1830</v>
-      </c>
-      <c r="M13" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="N13" s="15">
+      <c r="N13" s="16">
         <v>57.302</v>
       </c>
-      <c r="O13" s="15">
+      <c r="O13" s="16">
         <v>-6.3559999999999999</v>
       </c>
-      <c r="P13" s="15" t="s">
-        <v>298</v>
+      <c r="P13" s="16" t="s">
+        <v>296</v>
       </c>
       <c r="Q13" s="13">
         <v>53.2</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="48.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="15"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="17"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
       <c r="Q14" s="13"/>
     </row>
     <row r="15" spans="1:17" ht="79.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -3665,40 +3671,40 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="G15" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H15" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="J15" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="K15" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L15" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="J15" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>340</v>
-      </c>
       <c r="M15" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N15" s="12">
         <v>55.640999999999998</v>
@@ -3707,7 +3713,7 @@
         <v>-6.109</v>
       </c>
       <c r="P15" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="Q15" s="13"/>
     </row>
@@ -3716,40 +3722,40 @@
         <v>14</v>
       </c>
       <c r="B16" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G16" s="8" t="s">
-        <v>73</v>
-      </c>
       <c r="H16" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="J16" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="K16" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="L16" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="K16" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>350</v>
-      </c>
       <c r="M16" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N16" s="12">
         <v>37.398000000000003</v>
@@ -3758,7 +3764,7 @@
         <v>140.36000000000001</v>
       </c>
       <c r="P16" s="12" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="Q16" s="13"/>
     </row>
@@ -3767,40 +3773,40 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N17" s="12">
         <v>58.968000000000004</v>
@@ -3809,7 +3815,7 @@
         <v>-2.956</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="Q17" s="13">
         <v>49.7</v>
@@ -3820,40 +3826,40 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="H18" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L18" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="I18" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>313</v>
-      </c>
       <c r="M18" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N18" s="12">
         <v>57.484999999999999</v>
@@ -3862,7 +3868,7 @@
         <v>-3.2080000000000002</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="Q18" s="13">
         <v>48.1</v>
@@ -3873,40 +3879,40 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N19" s="12">
         <v>57.451999999999998</v>
@@ -3915,7 +3921,7 @@
         <v>-3.3769999999999998</v>
       </c>
       <c r="P19" s="12" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="Q19" s="13">
         <v>50.9</v>
@@ -3926,40 +3932,40 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="G20" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N20" s="12">
         <v>57.451999999999998</v>
@@ -3968,7 +3974,7 @@
         <v>-3.3769999999999998</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="Q20" s="13">
         <v>52.3</v>
@@ -3979,40 +3985,40 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="G21" s="8" t="s">
-        <v>83</v>
-      </c>
       <c r="H21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="K21" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L21" s="3">
         <v>1824</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N21" s="3">
         <v>57.484000000000002</v>
@@ -4021,7 +4027,7 @@
         <v>-3.2080000000000002</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q21" s="13"/>
     </row>
@@ -4030,40 +4036,40 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G22" s="8" t="s">
-        <v>85</v>
-      </c>
       <c r="H22" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="J22" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="I22" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>357</v>
-      </c>
       <c r="K22" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N22" s="12">
         <v>56.835999999999999</v>
@@ -4072,7 +4078,7 @@
         <v>-5.0739999999999998</v>
       </c>
       <c r="P22" s="12" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="Q22" s="13">
         <v>64.099999999999994</v>
@@ -4083,40 +4089,40 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="G23" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H23" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="J23" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="I23" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="J23" s="12" t="s">
-        <v>344</v>
-      </c>
       <c r="K23" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N23" s="12">
         <v>58.968000000000004</v>
@@ -4125,7 +4131,7 @@
         <v>-2.956</v>
       </c>
       <c r="P23" s="12" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="Q23" s="13"/>
     </row>
@@ -4134,40 +4140,40 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="G24" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>90</v>
-      </c>
       <c r="H24" s="12" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I24" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="K24" s="12" t="s">
         <v>424</v>
       </c>
-      <c r="J24" s="12" t="s">
-        <v>511</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>426</v>
-      </c>
       <c r="L24" s="12" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N24" s="12">
         <v>63.002000000000002</v>
@@ -4176,7 +4182,7 @@
         <v>17.798999999999999</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="Q24" s="13">
         <v>64.900000000000006</v>
@@ -4187,40 +4193,40 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F25" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="G25" s="8" t="s">
-        <v>92</v>
-      </c>
       <c r="H25" s="12" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N25" s="12">
         <v>57.649000000000001</v>
@@ -4229,7 +4235,7 @@
         <v>-3.64</v>
       </c>
       <c r="P25" s="12" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="Q25" s="13">
         <v>58.7</v>
@@ -4240,40 +4246,40 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="3" t="s">
+      <c r="G26" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G26" s="8" t="s">
-        <v>95</v>
-      </c>
       <c r="H26" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L26" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="I26" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="K26" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="L26" s="12" t="s">
-        <v>387</v>
-      </c>
       <c r="M26" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N26" s="12">
         <v>55.78</v>
@@ -4282,7 +4288,7 @@
         <v>-6.4329999999999998</v>
       </c>
       <c r="P26" s="12" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="Q26" s="13"/>
     </row>
@@ -4291,40 +4297,40 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F27" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G27" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="H27" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="I27" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="J27" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="K27" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L27" s="3">
         <v>2016</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N27" s="3">
         <v>35.381</v>
@@ -4333,7 +4339,7 @@
         <v>136.26400000000001</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q27" s="13">
         <v>47</v>
@@ -4344,40 +4350,40 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F28" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G28" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G28" s="8" t="s">
-        <v>103</v>
-      </c>
       <c r="H28" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L28" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="I28" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="K28" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="L28" s="12" t="s">
-        <v>364</v>
-      </c>
       <c r="M28" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N28" s="12">
         <v>57.444000000000003</v>
@@ -4386,7 +4392,7 @@
         <v>-3.1280000000000001</v>
       </c>
       <c r="P28" s="12" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="Q28" s="13">
         <v>46</v>
@@ -4397,40 +4403,40 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F29" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G29" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="G29" s="8" t="s">
-        <v>105</v>
-      </c>
       <c r="H29" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L29" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="I29" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="J29" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="K29" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="L29" s="12" t="s">
-        <v>364</v>
-      </c>
       <c r="M29" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N29" s="12">
         <v>57.444000000000003</v>
@@ -4439,7 +4445,7 @@
         <v>-3.1280000000000001</v>
       </c>
       <c r="P29" s="12" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="Q29" s="13">
         <v>52.9</v>
@@ -4450,40 +4456,40 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N30" s="12">
         <v>57.545999999999999</v>
@@ -4492,7 +4498,7 @@
         <v>-3.048</v>
       </c>
       <c r="P30" s="12" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="Q30" s="13"/>
     </row>
@@ -4501,40 +4507,40 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F31" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G31" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="G31" s="8" t="s">
-        <v>108</v>
-      </c>
       <c r="H31" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L31" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="I31" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="J31" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="L31" s="12" t="s">
-        <v>313</v>
-      </c>
       <c r="M31" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N31" s="12">
         <v>57.484999999999999</v>
@@ -4543,51 +4549,51 @@
         <v>-3.2080000000000002</v>
       </c>
       <c r="P31" s="12" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="Q31" s="13">
         <v>50.5</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="83.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="3">
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D32" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="F32" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="G32" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="H32" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="J32" s="12" t="s">
         <v>417</v>
       </c>
-      <c r="I32" s="12" t="s">
+      <c r="K32" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="J32" s="12" t="s">
+      <c r="L32" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="K32" s="12" t="s">
-        <v>420</v>
-      </c>
-      <c r="L32" s="12" t="s">
-        <v>421</v>
-      </c>
       <c r="M32" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N32" s="12">
         <v>53.338000000000001</v>
@@ -4596,51 +4602,51 @@
         <v>-6.2779999999999996</v>
       </c>
       <c r="P32" s="12" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="Q32" s="13">
         <v>62.5</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="83.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="3">
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="G33" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="J33" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="L33" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="K33" s="12" t="s">
-        <v>420</v>
-      </c>
-      <c r="L33" s="12" t="s">
-        <v>421</v>
-      </c>
       <c r="M33" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N33" s="12">
         <v>53.338000000000001</v>
@@ -4649,7 +4655,7 @@
         <v>-6.2779999999999996</v>
       </c>
       <c r="P33" s="12" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="Q33" s="13">
         <v>62</v>
@@ -4660,40 +4666,40 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E34" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G34" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>116</v>
-      </c>
       <c r="H34" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="J34" s="12" t="s">
         <v>513</v>
       </c>
-      <c r="I34" s="12" t="s">
+      <c r="K34" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L34" s="12" t="s">
         <v>514</v>
       </c>
-      <c r="J34" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="K34" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="L34" s="12" t="s">
-        <v>516</v>
-      </c>
       <c r="M34" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N34" s="12">
         <v>58.023000000000003</v>
@@ -4702,7 +4708,7 @@
         <v>-3.867</v>
       </c>
       <c r="P34" s="12" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="Q34" s="13">
         <v>55.5</v>
@@ -4713,40 +4719,40 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L35" s="12" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="M35" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N35" s="12">
         <v>57.337000000000003</v>
@@ -4755,7 +4761,7 @@
         <v>-2.3149999999999999</v>
       </c>
       <c r="P35" s="12" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="Q35" s="13"/>
     </row>
@@ -4764,40 +4770,40 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L36" s="12" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="M36" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N36" s="12">
         <v>57.337000000000003</v>
@@ -4806,7 +4812,7 @@
         <v>-2.3149999999999999</v>
       </c>
       <c r="P36" s="12" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="Q36" s="13">
         <v>63.6</v>
@@ -4817,40 +4823,40 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L37" s="12" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M37" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N37" s="12">
         <v>56.704000000000001</v>
@@ -4859,7 +4865,7 @@
         <v>-3.7330000000000001</v>
       </c>
       <c r="P37" s="12" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="Q37" s="13">
         <v>55.5</v>
@@ -4870,40 +4876,40 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L38" s="12" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M38" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N38" s="12">
         <v>55.756</v>
@@ -4912,7 +4918,7 @@
         <v>-6.2889999999999997</v>
       </c>
       <c r="P38" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="Q38" s="13">
         <v>46</v>
@@ -4923,40 +4929,40 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="G39" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>125</v>
-      </c>
       <c r="H39" s="12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L39" s="12" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M39" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N39" s="12">
         <v>55.756</v>
@@ -4965,7 +4971,7 @@
         <v>-6.2889999999999997</v>
       </c>
       <c r="P39" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="Q39" s="13"/>
     </row>
@@ -4974,40 +4980,40 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H40" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="J40" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="I40" s="12" t="s">
+      <c r="K40" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="L40" s="12" t="s">
         <v>433</v>
       </c>
-      <c r="J40" s="12" t="s">
+      <c r="M40" s="12" t="s">
         <v>434</v>
-      </c>
-      <c r="K40" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="L40" s="12" t="s">
-        <v>435</v>
-      </c>
-      <c r="M40" s="12" t="s">
-        <v>436</v>
       </c>
       <c r="N40" s="12">
         <v>36.347999999999999</v>
@@ -5016,7 +5022,7 @@
         <v>138.596</v>
       </c>
       <c r="P40" s="12" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="Q40" s="13"/>
     </row>
@@ -5025,40 +5031,40 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H41" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="J41" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="K41" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L41" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="I41" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="J41" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="K41" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="L41" s="12" t="s">
-        <v>371</v>
-      </c>
       <c r="M41" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N41" s="12">
         <v>55.853999999999999</v>
@@ -5067,7 +5073,7 @@
         <v>-6.1079999999999997</v>
       </c>
       <c r="P41" s="12" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="Q41" s="13">
         <v>54.1</v>
@@ -5078,40 +5084,40 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H42" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="J42" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="I42" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="J42" s="12" t="s">
-        <v>375</v>
-      </c>
       <c r="K42" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L42" s="12" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="M42" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N42" s="12">
         <v>56.847000000000001</v>
@@ -5120,7 +5126,7 @@
         <v>-2.5880000000000001</v>
       </c>
       <c r="P42" s="12" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="Q42" s="13"/>
     </row>
@@ -5129,40 +5135,40 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H43" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="J43" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="K43" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L43" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="I43" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="J43" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="K43" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="L43" s="12" t="s">
-        <v>379</v>
-      </c>
       <c r="M43" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N43" s="12">
         <v>57.427</v>
@@ -5171,7 +5177,7 @@
         <v>-3.3130000000000002</v>
       </c>
       <c r="P43" s="12" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="Q43" s="13">
         <v>58.7</v>
@@ -5182,22 +5188,22 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E44" s="3" t="s">
+      <c r="G44" s="8" t="s">
         <v>133</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>135</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -5215,40 +5221,40 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G45" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>138</v>
-      </c>
       <c r="H45" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="J45" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="K45" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L45" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="I45" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="J45" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="K45" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="L45" s="12" t="s">
-        <v>383</v>
-      </c>
       <c r="M45" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N45" s="12">
         <v>57.646999999999998</v>
@@ -5257,7 +5263,7 @@
         <v>-3.2930000000000001</v>
       </c>
       <c r="P45" s="12" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="Q45" s="13"/>
     </row>
@@ -5266,40 +5272,40 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H46" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="J46" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="K46" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L46" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="I46" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="J46" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="K46" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="L46" s="12" t="s">
-        <v>387</v>
-      </c>
       <c r="M46" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N46" s="12">
         <v>55.78</v>
@@ -5308,7 +5314,7 @@
         <v>-6.4329999999999998</v>
       </c>
       <c r="P46" s="12" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="Q46" s="13">
         <v>50</v>
@@ -5319,40 +5325,40 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G47" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I47" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="J47" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>143</v>
-      </c>
       <c r="K47" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L47" s="3">
         <v>2016</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N47" s="3">
         <v>31.396000000000001</v>
@@ -5361,7 +5367,7 @@
         <v>130.32300000000001</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Q47" s="13"/>
     </row>
@@ -5370,40 +5376,40 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H48" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="J48" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="K48" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L48" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="I48" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="J48" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="K48" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="L48" s="12" t="s">
-        <v>387</v>
-      </c>
       <c r="M48" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N48" s="12">
         <v>55.78</v>
@@ -5412,7 +5418,7 @@
         <v>-6.4329999999999998</v>
       </c>
       <c r="P48" s="12" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="Q48" s="13">
         <v>55.7</v>
@@ -5423,40 +5429,40 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H49" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="J49" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="I49" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="J49" s="12" t="s">
-        <v>375</v>
-      </c>
       <c r="K49" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L49" s="12" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="M49" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N49" s="12">
         <v>56.847000000000001</v>
@@ -5465,7 +5471,7 @@
         <v>-2.5880000000000001</v>
       </c>
       <c r="P49" s="12" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="Q49" s="13">
         <v>43</v>
@@ -5476,40 +5482,40 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="I50" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="J50" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="K50" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L50" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="M50" s="12" t="s">
         <v>521</v>
-      </c>
-      <c r="J50" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="K50" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="L50" s="12" t="s">
-        <v>522</v>
-      </c>
-      <c r="M50" s="12" t="s">
-        <v>523</v>
       </c>
       <c r="N50" s="12">
         <v>57.683999999999997</v>
@@ -5518,7 +5524,7 @@
         <v>-2.5649999999999999</v>
       </c>
       <c r="P50" s="12" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="Q50" s="13">
         <v>40</v>
@@ -5529,40 +5535,40 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G51" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H51" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="I51" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="I51" s="3" t="s">
+      <c r="J51" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="J51" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="K51" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L51" s="3">
         <v>2016</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N51" s="3">
         <v>35.381</v>
@@ -5571,7 +5577,7 @@
         <v>136.26400000000001</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q51" s="13">
         <v>58</v>
@@ -5582,40 +5588,40 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E52" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G52" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>154</v>
-      </c>
       <c r="H52" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="I52" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="J52" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="I52" s="12" t="s">
+      <c r="K52" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L52" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="J52" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="K52" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="L52" s="12" t="s">
-        <v>326</v>
-      </c>
       <c r="M52" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N52" s="12">
         <v>55.424999999999997</v>
@@ -5624,7 +5630,7 @@
         <v>-5.609</v>
       </c>
       <c r="P52" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="Q52" s="13">
         <v>46.3</v>
@@ -5635,40 +5641,40 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H53" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="I53" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="J53" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="K53" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L53" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="I53" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="J53" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="K53" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="L53" s="12" t="s">
-        <v>371</v>
-      </c>
       <c r="M53" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N53" s="12">
         <v>55.853999999999999</v>
@@ -5677,7 +5683,7 @@
         <v>-6.1079999999999997</v>
       </c>
       <c r="P53" s="12" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="Q53" s="13"/>
     </row>
@@ -5686,40 +5692,40 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L54" s="12" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="M54" s="12" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="N54" s="12">
         <v>55.767000000000003</v>
@@ -5728,7 +5734,7 @@
         <v>-6.3620000000000001</v>
       </c>
       <c r="P54" s="12" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="Q54" s="13">
         <v>52.4</v>
@@ -5739,40 +5745,40 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L55" s="12" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="M55" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N55" s="12">
         <v>57.451999999999998</v>
@@ -5781,7 +5787,7 @@
         <v>-3.3769999999999998</v>
       </c>
       <c r="P55" s="12" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="Q55" s="13">
         <v>57.3</v>
@@ -5792,40 +5798,40 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H56" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="I56" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="J56" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="K56" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L56" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="I56" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="J56" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="K56" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="L56" s="12" t="s">
-        <v>391</v>
-      </c>
       <c r="M56" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N56" s="12">
         <v>57.533000000000001</v>
@@ -5834,7 +5840,7 @@
         <v>-3.206</v>
       </c>
       <c r="P56" s="12" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="Q56" s="13">
         <v>58.1</v>
@@ -5845,40 +5851,40 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="J57" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K57" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L57" s="12" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="M57" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N57" s="12">
         <v>57.343000000000004</v>
@@ -5887,7 +5893,7 @@
         <v>-3.3380000000000001</v>
       </c>
       <c r="P57" s="12" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="Q57" s="13">
         <v>58.3</v>
@@ -5898,40 +5904,40 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="I58" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="J58" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="K58" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="L58" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="J58" s="12" t="s">
-        <v>402</v>
-      </c>
-      <c r="K58" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="L58" s="12" t="s">
-        <v>403</v>
-      </c>
       <c r="M58" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N58" s="12">
         <v>35.988999999999997</v>
@@ -5940,7 +5946,7 @@
         <v>139.072</v>
       </c>
       <c r="P58" s="12" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q58" s="13">
         <v>62</v>
@@ -5951,40 +5957,40 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G59" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>168</v>
-      </c>
       <c r="H59" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="J59" s="12" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K59" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L59" s="12" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M59" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N59" s="12">
         <v>58.968000000000004</v>
@@ -5993,7 +5999,7 @@
         <v>-2.956</v>
       </c>
       <c r="P59" s="12" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="Q59" s="13"/>
     </row>
@@ -6002,40 +6008,40 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H60" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="I60" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="J60" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="I60" s="12" t="s">
+      <c r="K60" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L60" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="J60" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="K60" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="L60" s="12" t="s">
-        <v>340</v>
-      </c>
       <c r="M60" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N60" s="12">
         <v>55.640999999999998</v>
@@ -6044,7 +6050,7 @@
         <v>-6.109</v>
       </c>
       <c r="P60" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="Q60" s="13"/>
     </row>
@@ -6053,40 +6059,40 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H61" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="I61" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J61" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="K61" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L61" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="I61" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="J61" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="K61" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="L61" s="12" t="s">
-        <v>313</v>
-      </c>
       <c r="M61" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N61" s="12">
         <v>57.484999999999999</v>
@@ -6095,7 +6101,7 @@
         <v>-3.2080000000000002</v>
       </c>
       <c r="P61" s="12" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="Q61" s="13">
         <v>40</v>
@@ -6106,40 +6112,40 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H62" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="I62" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="J62" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="I62" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="J62" s="12" t="s">
-        <v>357</v>
-      </c>
       <c r="K62" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L62" s="12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M62" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N62" s="12">
         <v>56.835999999999999</v>
@@ -6148,7 +6154,7 @@
         <v>-5.0739999999999998</v>
       </c>
       <c r="P62" s="12" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="Q62" s="13">
         <v>40</v>
@@ -6159,40 +6165,40 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D63" s="3" t="s">
+      <c r="G63" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="E63" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G63" s="8" t="s">
-        <v>176</v>
-      </c>
       <c r="H63" s="12" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I63" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="J63" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="K63" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L63" s="12" t="s">
         <v>533</v>
       </c>
-      <c r="J63" s="12" t="s">
-        <v>534</v>
-      </c>
-      <c r="K63" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="L63" s="12" t="s">
-        <v>535</v>
-      </c>
       <c r="M63" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N63" s="12">
         <v>55.832999999999998</v>
@@ -6201,7 +6207,7 @@
         <v>-5.9509999999999996</v>
       </c>
       <c r="P63" s="12" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="Q63" s="13">
         <v>60.7</v>
@@ -6212,40 +6218,40 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F64" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E64" s="3" t="s">
+      <c r="G64" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="F64" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G64" s="8" t="s">
-        <v>180</v>
-      </c>
       <c r="H64" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="J64" s="12" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K64" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L64" s="12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M64" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N64" s="12">
         <v>56.701999999999998</v>
@@ -6254,7 +6260,7 @@
         <v>-3.702</v>
       </c>
       <c r="P64" s="12" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="Q64" s="13"/>
     </row>
@@ -6263,40 +6269,40 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H65" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="I65" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="J65" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="I65" s="12" t="s">
+      <c r="K65" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L65" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="J65" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="K65" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="L65" s="12" t="s">
-        <v>326</v>
-      </c>
       <c r="M65" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N65" s="12">
         <v>55.424999999999997</v>
@@ -6305,7 +6311,7 @@
         <v>-5.609</v>
       </c>
       <c r="P65" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="Q65" s="13"/>
     </row>
@@ -6314,40 +6320,40 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G66" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G66" s="8" t="s">
-        <v>185</v>
-      </c>
       <c r="H66" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="I66" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="J66" s="12" t="s">
         <v>548</v>
       </c>
-      <c r="I66" s="12" t="s">
-        <v>549</v>
-      </c>
-      <c r="J66" s="12" t="s">
-        <v>550</v>
-      </c>
       <c r="K66" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L66" s="12" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M66" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N66" s="12">
         <v>56.622999999999998</v>
@@ -6356,7 +6362,7 @@
         <v>-6.07</v>
       </c>
       <c r="P66" s="12" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="Q66" s="13">
         <v>63.3</v>
@@ -6367,40 +6373,40 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="I67" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="J67" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="K67" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="L67" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="J67" s="12" t="s">
-        <v>402</v>
-      </c>
-      <c r="K67" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="L67" s="12" t="s">
-        <v>403</v>
-      </c>
       <c r="M67" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N67" s="12">
         <v>35.988999999999997</v>
@@ -6409,7 +6415,7 @@
         <v>139.072</v>
       </c>
       <c r="P67" s="12" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q67" s="13"/>
     </row>
@@ -6418,40 +6424,40 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G68" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="G68" s="8" t="s">
-        <v>190</v>
-      </c>
       <c r="H68" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="I68" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="J68" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="K68" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L68" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="I68" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="J68" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="K68" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="L68" s="12" t="s">
-        <v>383</v>
-      </c>
       <c r="M68" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N68" s="12">
         <v>57.646999999999998</v>
@@ -6460,7 +6466,7 @@
         <v>-3.2930000000000001</v>
       </c>
       <c r="P68" s="12" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="Q68" s="13"/>
     </row>
@@ -6469,40 +6475,40 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H69" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="I69" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="J69" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="K69" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L69" s="12" t="s">
         <v>544</v>
       </c>
-      <c r="I69" s="12" t="s">
-        <v>545</v>
-      </c>
-      <c r="J69" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="K69" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="L69" s="12" t="s">
-        <v>546</v>
-      </c>
       <c r="M69" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N69" s="12">
         <v>57.551000000000002</v>
@@ -6511,7 +6517,7 @@
         <v>-4.4340000000000002</v>
       </c>
       <c r="P69" s="12" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="Q69" s="13">
         <v>55.3</v>
@@ -6522,40 +6528,40 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H70" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="I70" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="J70" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="K70" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L70" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="I70" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="J70" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="K70" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="L70" s="12" t="s">
-        <v>371</v>
-      </c>
       <c r="M70" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N70" s="12">
         <v>55.853999999999999</v>
@@ -6564,7 +6570,7 @@
         <v>-6.1079999999999997</v>
       </c>
       <c r="P70" s="12" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="Q70" s="13">
         <v>43</v>
@@ -6575,40 +6581,40 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>193</v>
+        <v>669</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H71" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="I71" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="J71" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="K71" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L71" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="I71" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="J71" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="K71" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="L71" s="12" t="s">
-        <v>364</v>
-      </c>
       <c r="M71" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N71" s="12">
         <v>57.444000000000003</v>
@@ -6617,7 +6623,7 @@
         <v>-3.1280000000000001</v>
       </c>
       <c r="P71" s="12" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="Q71" s="13"/>
     </row>
@@ -6626,40 +6632,40 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H72" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="I72" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="J72" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="I72" s="12" t="s">
+      <c r="K72" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="L72" s="12" t="s">
         <v>397</v>
       </c>
-      <c r="J72" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="K72" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="L72" s="12" t="s">
-        <v>399</v>
-      </c>
       <c r="M72" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N72" s="12">
         <v>34.890999999999998</v>
@@ -6668,7 +6674,7 @@
         <v>135.67500000000001</v>
       </c>
       <c r="P72" s="12" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="Q72" s="13">
         <v>58</v>
@@ -6679,40 +6685,40 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H73" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="I73" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="J73" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="I73" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="J73" s="12" t="s">
-        <v>344</v>
-      </c>
       <c r="K73" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L73" s="12" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M73" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N73" s="12">
         <v>58.968000000000004</v>
@@ -6721,7 +6727,7 @@
         <v>-2.956</v>
       </c>
       <c r="P73" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="Q73" s="13">
         <v>40</v>
@@ -6732,40 +6738,40 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H74" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="I74" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="J74" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="K74" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L74" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="I74" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="J74" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="K74" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="L74" s="12" t="s">
-        <v>387</v>
-      </c>
       <c r="M74" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N74" s="12">
         <v>55.78</v>
@@ -6774,7 +6780,7 @@
         <v>-6.4329999999999998</v>
       </c>
       <c r="P74" s="12" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="Q74" s="13"/>
     </row>
@@ -6783,40 +6789,40 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H75" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="I75" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="J75" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="I75" s="12" t="s">
+      <c r="K75" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="L75" s="12" t="s">
         <v>433</v>
       </c>
-      <c r="J75" s="12" t="s">
+      <c r="M75" s="12" t="s">
         <v>434</v>
-      </c>
-      <c r="K75" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="L75" s="12" t="s">
-        <v>435</v>
-      </c>
-      <c r="M75" s="12" t="s">
-        <v>436</v>
       </c>
       <c r="N75" s="12">
         <v>36.347999999999999</v>
@@ -6825,7 +6831,7 @@
         <v>138.596</v>
       </c>
       <c r="P75" s="12" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="Q75" s="13">
         <v>43</v>
@@ -6836,40 +6842,40 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H76" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="I76" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="J76" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="K76" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L76" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="I76" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="J76" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="K76" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="L76" s="12" t="s">
-        <v>387</v>
-      </c>
       <c r="M76" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N76" s="12">
         <v>55.78</v>
@@ -6878,7 +6884,7 @@
         <v>-6.4329999999999998</v>
       </c>
       <c r="P76" s="12" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="Q76" s="13">
         <v>50</v>
@@ -6889,40 +6895,40 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F77" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D77" s="3" t="s">
+      <c r="G77" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="E77" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="G77" s="8" t="s">
-        <v>206</v>
-      </c>
       <c r="H77" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="I77" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="J77" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="K77" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L77" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="I77" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="J77" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="K77" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="L77" s="12" t="s">
-        <v>379</v>
-      </c>
       <c r="M77" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N77" s="12">
         <v>57.427</v>
@@ -6931,7 +6937,7 @@
         <v>-3.3130000000000002</v>
       </c>
       <c r="P77" s="12" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="Q77" s="13">
         <v>59.2</v>
@@ -6942,40 +6948,40 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H78" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="I78" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="J78" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="I78" s="12" t="s">
+      <c r="K78" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="L78" s="12" t="s">
         <v>433</v>
       </c>
-      <c r="J78" s="12" t="s">
+      <c r="M78" s="12" t="s">
         <v>434</v>
-      </c>
-      <c r="K78" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="L78" s="12" t="s">
-        <v>435</v>
-      </c>
-      <c r="M78" s="12" t="s">
-        <v>436</v>
       </c>
       <c r="N78" s="12">
         <v>36.347999999999999</v>
@@ -6984,7 +6990,7 @@
         <v>138.596</v>
       </c>
       <c r="P78" s="12" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="Q78" s="13"/>
     </row>
@@ -6993,40 +6999,40 @@
         <v>77</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F79" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="H79" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="G79" s="8" t="s">
+      <c r="I79" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="H79" s="3" t="s">
+      <c r="J79" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="I79" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="J79" s="3" t="s">
-        <v>212</v>
-      </c>
       <c r="K79" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L79" s="3">
         <v>2018</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N79" s="3">
         <v>34.371000000000002</v>
@@ -7035,7 +7041,7 @@
         <v>132.334</v>
       </c>
       <c r="P79" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Q79" s="13">
         <v>63</v>
@@ -7046,40 +7052,40 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H80" s="12" t="s">
+        <v>559</v>
+      </c>
+      <c r="I80" s="12" t="s">
+        <v>560</v>
+      </c>
+      <c r="J80" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="K80" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L80" s="12" t="s">
         <v>561</v>
       </c>
-      <c r="I80" s="12" t="s">
-        <v>562</v>
-      </c>
-      <c r="J80" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="K80" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="L80" s="12" t="s">
-        <v>563</v>
-      </c>
       <c r="M80" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N80" s="12">
         <v>57.52</v>
@@ -7088,7 +7094,7 @@
         <v>-4.0469999999999997</v>
       </c>
       <c r="P80" s="12" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="Q80" s="13">
         <v>51.7</v>
@@ -7099,40 +7105,40 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H81" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="I81" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="J81" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="K81" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L81" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="M81" s="12" t="s">
         <v>557</v>
-      </c>
-      <c r="I81" s="12" t="s">
-        <v>558</v>
-      </c>
-      <c r="J81" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="K81" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="L81" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="M81" s="12" t="s">
-        <v>559</v>
       </c>
       <c r="N81" s="12">
         <v>57.438000000000002</v>
@@ -7141,7 +7147,7 @@
         <v>-3.3460000000000001</v>
       </c>
       <c r="P81" s="12" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="Q81" s="13"/>
     </row>
@@ -7150,40 +7156,40 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="I82" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="J82" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="K82" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="L82" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="J82" s="12" t="s">
-        <v>402</v>
-      </c>
-      <c r="K82" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="L82" s="12" t="s">
-        <v>403</v>
-      </c>
       <c r="M82" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N82" s="12">
         <v>35.988999999999997</v>
@@ -7192,7 +7198,7 @@
         <v>139.072</v>
       </c>
       <c r="P82" s="12" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q82" s="13">
         <v>46</v>
@@ -7203,40 +7209,40 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="I83" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="J83" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="K83" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="L83" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="J83" s="12" t="s">
-        <v>402</v>
-      </c>
-      <c r="K83" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="L83" s="12" t="s">
-        <v>403</v>
-      </c>
       <c r="M83" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N83" s="12">
         <v>35.988999999999997</v>
@@ -7245,7 +7251,7 @@
         <v>139.072</v>
       </c>
       <c r="P83" s="12" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q83" s="13">
         <v>46</v>
@@ -7256,40 +7262,40 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="I84" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="J84" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="K84" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="L84" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="J84" s="12" t="s">
-        <v>402</v>
-      </c>
-      <c r="K84" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="L84" s="12" t="s">
-        <v>403</v>
-      </c>
       <c r="M84" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N84" s="12">
         <v>35.988999999999997</v>
@@ -7298,7 +7304,7 @@
         <v>139.072</v>
       </c>
       <c r="P84" s="12" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q84" s="13"/>
     </row>
@@ -7307,40 +7313,40 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F85" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="H85" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="G85" s="8" t="s">
+      <c r="I85" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="H85" s="3" t="s">
+      <c r="J85" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="I85" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="J85" s="3" t="s">
-        <v>228</v>
-      </c>
       <c r="K85" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L85" s="3">
         <v>1985</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="N85" s="3">
         <v>35.899000000000001</v>
@@ -7349,7 +7355,7 @@
         <v>137.94200000000001</v>
       </c>
       <c r="P85" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="Q85" s="13">
         <v>51</v>
@@ -7360,40 +7366,40 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G86" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F86" s="3" t="s">
+      <c r="H86" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="G86" s="8" t="s">
+      <c r="I86" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="H86" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="I86" s="3" t="s">
-        <v>235</v>
-      </c>
       <c r="J86" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L86" s="3">
         <v>1898</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N86" s="3">
         <v>57.555999999999997</v>
@@ -7402,7 +7408,7 @@
         <v>-3.1179999999999999</v>
       </c>
       <c r="P86" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="Q86" s="13"/>
     </row>
@@ -7411,22 +7417,22 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
@@ -7446,40 +7452,40 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E88" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G88" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="F88" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="G88" s="8" t="s">
-        <v>240</v>
-      </c>
       <c r="H88" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="I88" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="J88" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="K88" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L88" s="12" t="s">
         <v>553</v>
       </c>
-      <c r="I88" s="12" t="s">
-        <v>554</v>
-      </c>
-      <c r="J88" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="K88" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="L88" s="12" t="s">
-        <v>555</v>
-      </c>
       <c r="M88" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N88" s="12">
         <v>57.688000000000002</v>
@@ -7488,7 +7494,7 @@
         <v>-4.1680000000000001</v>
       </c>
       <c r="P88" s="12" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="Q88" s="13">
         <v>44.4</v>
@@ -7499,40 +7505,40 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G89" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="I89" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="H89" s="3" t="s">
+      <c r="J89" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>212</v>
-      </c>
       <c r="K89" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L89" s="3">
         <v>2018</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N89" s="3">
         <v>34.371000000000002</v>
@@ -7541,7 +7547,7 @@
         <v>132.334</v>
       </c>
       <c r="P89" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Q89" s="13"/>
     </row>
@@ -7550,40 +7556,40 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H90" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="I90" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="J90" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="I90" s="12" t="s">
+      <c r="K90" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="J90" s="12" t="s">
+      <c r="L90" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="K90" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="L90" s="12" t="s">
-        <v>350</v>
-      </c>
       <c r="M90" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N90" s="12">
         <v>37.398000000000003</v>
@@ -7592,51 +7598,51 @@
         <v>140.36000000000001</v>
       </c>
       <c r="P90" s="12" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="Q90" s="13">
         <v>62</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="83.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A91" s="3">
         <v>89</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H91" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="I91" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="J91" s="12" t="s">
         <v>417</v>
       </c>
-      <c r="I91" s="12" t="s">
+      <c r="K91" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="J91" s="12" t="s">
+      <c r="L91" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="K91" s="12" t="s">
-        <v>420</v>
-      </c>
-      <c r="L91" s="12" t="s">
-        <v>421</v>
-      </c>
       <c r="M91" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N91" s="12">
         <v>53.338000000000001</v>
@@ -7645,49 +7651,49 @@
         <v>-6.2779999999999996</v>
       </c>
       <c r="P91" s="12" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="Q91" s="13"/>
     </row>
-    <row r="92" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:17" ht="48" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A92" s="3">
         <v>90</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G92" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H92" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="H92" s="3" t="s">
+      <c r="I92" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="I92" s="3" t="s">
+      <c r="J92" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="J92" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="K92" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L92" s="3">
         <v>2016</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N92" s="3">
         <v>35.381</v>
@@ -7696,51 +7702,51 @@
         <v>136.26400000000001</v>
       </c>
       <c r="P92" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q92" s="13">
         <v>57</v>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="116.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:17" ht="116.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A93" s="3">
         <v>91</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H93" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="I93" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="J93" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="K93" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L93" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="I93" s="12" t="s">
-        <v>580</v>
-      </c>
-      <c r="J93" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="K93" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="L93" s="12" t="s">
-        <v>581</v>
-      </c>
       <c r="M93" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N93" s="12">
         <v>57.253</v>
@@ -7749,7 +7755,7 @@
         <v>-3.3780000000000001</v>
       </c>
       <c r="P93" s="12" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="Q93" s="13">
         <v>54.8</v>
@@ -7760,40 +7766,40 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H94" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="I94" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="J94" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="K94" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L94" s="12" t="s">
         <v>575</v>
       </c>
-      <c r="I94" s="12" t="s">
-        <v>576</v>
-      </c>
-      <c r="J94" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="K94" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="L94" s="12" t="s">
-        <v>577</v>
-      </c>
       <c r="M94" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N94" s="12">
         <v>57.756</v>
@@ -7802,7 +7808,7 @@
         <v>-4.2229999999999999</v>
       </c>
       <c r="P94" s="12" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="Q94" s="13">
         <v>52.1</v>
@@ -7813,40 +7819,40 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="G95" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="C95" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="G95" s="8" t="s">
-        <v>254</v>
-      </c>
       <c r="H95" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="I95" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="J95" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="K95" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L95" s="12" t="s">
         <v>570</v>
       </c>
-      <c r="I95" s="12" t="s">
+      <c r="M95" s="12" t="s">
         <v>571</v>
-      </c>
-      <c r="J95" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="K95" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="L95" s="12" t="s">
-        <v>572</v>
-      </c>
-      <c r="M95" s="12" t="s">
-        <v>573</v>
       </c>
       <c r="N95" s="12">
         <v>57.453000000000003</v>
@@ -7855,7 +7861,7 @@
         <v>-3.1160000000000001</v>
       </c>
       <c r="P95" s="12" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="Q95" s="13">
         <v>51.4</v>
@@ -7866,40 +7872,40 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="G96" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="C96" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="G96" s="8" t="s">
-        <v>257</v>
-      </c>
       <c r="H96" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="I96" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="J96" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="I96" s="12" t="s">
+      <c r="K96" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L96" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="J96" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="K96" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="L96" s="12" t="s">
-        <v>340</v>
-      </c>
       <c r="M96" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N96" s="12">
         <v>55.640999999999998</v>
@@ -7908,7 +7914,7 @@
         <v>-6.109</v>
       </c>
       <c r="P96" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="Q96" s="13"/>
     </row>
@@ -7917,40 +7923,40 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C97" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D97" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="E97" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E97" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="F97" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H97" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="I97" s="12" t="s">
+        <v>565</v>
+      </c>
+      <c r="J97" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="K97" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L97" s="12" t="s">
         <v>566</v>
       </c>
-      <c r="I97" s="12" t="s">
-        <v>567</v>
-      </c>
-      <c r="J97" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="K97" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="L97" s="12" t="s">
-        <v>568</v>
-      </c>
       <c r="M97" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N97" s="12">
         <v>57.826000000000001</v>
@@ -7959,7 +7965,7 @@
         <v>-4.0789999999999997</v>
       </c>
       <c r="P97" s="12" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="Q97" s="13">
         <v>43</v>
@@ -7970,40 +7976,40 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H98" s="12" t="s">
+        <v>559</v>
+      </c>
+      <c r="I98" s="12" t="s">
+        <v>560</v>
+      </c>
+      <c r="J98" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="K98" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L98" s="12" t="s">
         <v>561</v>
       </c>
-      <c r="I98" s="12" t="s">
-        <v>562</v>
-      </c>
-      <c r="J98" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="K98" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="L98" s="12" t="s">
-        <v>563</v>
-      </c>
       <c r="M98" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N98" s="12">
         <v>57.52</v>
@@ -8012,7 +8018,7 @@
         <v>-4.0469999999999997</v>
       </c>
       <c r="P98" s="12" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="Q98" s="13">
         <v>58.1</v>
@@ -8023,40 +8029,40 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E99" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="G99" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="F99" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="G99" s="8" t="s">
-        <v>263</v>
-      </c>
       <c r="H99" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I99" s="12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J99" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K99" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L99" s="12" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="M99" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N99" s="12">
         <v>57.451999999999998</v>
@@ -8065,7 +8071,7 @@
         <v>-3.3769999999999998</v>
       </c>
       <c r="P99" s="12" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="Q99" s="13">
         <v>59.6</v>
@@ -8076,40 +8082,40 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H100" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="I100" s="12" t="s">
+        <v>565</v>
+      </c>
+      <c r="J100" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="K100" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L100" s="12" t="s">
         <v>566</v>
       </c>
-      <c r="I100" s="12" t="s">
-        <v>567</v>
-      </c>
-      <c r="J100" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="K100" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="L100" s="12" t="s">
-        <v>568</v>
-      </c>
       <c r="M100" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N100" s="12">
         <v>57.826000000000001</v>
@@ -8118,7 +8124,7 @@
         <v>-4.0789999999999997</v>
       </c>
       <c r="P100" s="12" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="Q100" s="13">
         <v>43</v>
@@ -8129,40 +8135,40 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E101" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G101" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="F101" s="3" t="s">
+      <c r="H101" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="G101" s="8" t="s">
+      <c r="I101" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="H101" s="3" t="s">
+      <c r="J101" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>271</v>
-      </c>
       <c r="K101" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L101" s="3">
         <v>2018</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N101" s="3">
         <v>39.01</v>
@@ -8171,7 +8177,7 @@
         <v>139.90799999999999</v>
       </c>
       <c r="P101" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="Q101" s="13">
         <v>62</v>
@@ -8182,40 +8188,40 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H102" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="I102" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="J102" s="12" t="s">
         <v>494</v>
       </c>
-      <c r="I102" s="12" t="s">
+      <c r="K102" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="L102" s="12" t="s">
         <v>495</v>
       </c>
-      <c r="J102" s="12" t="s">
-        <v>496</v>
-      </c>
-      <c r="K102" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="L102" s="12" t="s">
-        <v>497</v>
-      </c>
       <c r="M102" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N102" s="12">
         <v>34.652999999999999</v>
@@ -8224,7 +8230,7 @@
         <v>134.989</v>
       </c>
       <c r="P102" s="12" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="Q102" s="13">
         <v>50</v>
@@ -8235,40 +8241,40 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H103" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="I103" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="J103" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="I103" s="12" t="s">
+      <c r="K103" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="L103" s="12" t="s">
         <v>397</v>
       </c>
-      <c r="J103" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="K103" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="L103" s="12" t="s">
-        <v>399</v>
-      </c>
       <c r="M103" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N103" s="12">
         <v>34.890999999999998</v>
@@ -8277,7 +8283,7 @@
         <v>135.67500000000001</v>
       </c>
       <c r="P103" s="12" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="Q103" s="13">
         <v>40</v>
@@ -8288,40 +8294,40 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H104" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="I104" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="J104" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="K104" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="L104" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="J104" s="12" t="s">
-        <v>402</v>
-      </c>
-      <c r="K104" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="L104" s="12" t="s">
-        <v>403</v>
-      </c>
       <c r="M104" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N104" s="12">
         <v>35.988999999999997</v>
@@ -8330,7 +8336,7 @@
         <v>139.072</v>
       </c>
       <c r="P104" s="12" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q104" s="13">
         <v>55</v>
@@ -8341,40 +8347,40 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H105" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="J105" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="I105" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="J105" s="3" t="s">
-        <v>228</v>
-      </c>
       <c r="K105" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L105" s="3">
         <v>1985</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="N105" s="3">
         <v>35.899000000000001</v>
@@ -8383,7 +8389,7 @@
         <v>137.94200000000001</v>
       </c>
       <c r="P105" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="Q105" s="13">
         <v>48</v>
@@ -8394,40 +8400,40 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G106" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I106" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="H106" s="3" t="s">
+      <c r="J106" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="I106" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="J106" s="3" t="s">
-        <v>228</v>
-      </c>
       <c r="K106" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L106" s="3">
         <v>1985</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="N106" s="3">
         <v>35.899000000000001</v>
@@ -8436,7 +8442,7 @@
         <v>137.94200000000001</v>
       </c>
       <c r="P106" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="Q106" s="13"/>
     </row>
@@ -8445,40 +8451,40 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="G107" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="C107" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="G107" s="8" t="s">
-        <v>284</v>
-      </c>
       <c r="H107" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="I107" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="J107" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="I107" s="12" t="s">
+      <c r="K107" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="L107" s="12" t="s">
         <v>413</v>
       </c>
-      <c r="J107" s="12" t="s">
-        <v>414</v>
-      </c>
-      <c r="K107" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="L107" s="12" t="s">
-        <v>415</v>
-      </c>
       <c r="M107" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N107" s="12">
         <v>36.637999999999998</v>
@@ -8487,7 +8493,7 @@
         <v>136.964</v>
       </c>
       <c r="P107" s="12" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="Q107" s="13"/>
     </row>
@@ -8496,40 +8502,40 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="G108" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="C108" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="G108" s="8" t="s">
-        <v>287</v>
-      </c>
       <c r="H108" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="I108" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="J108" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="K108" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L108" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="I108" s="12" t="s">
-        <v>439</v>
-      </c>
-      <c r="J108" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="K108" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="L108" s="12" t="s">
-        <v>440</v>
-      </c>
       <c r="M108" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N108" s="12">
         <v>56.94</v>
@@ -8538,7 +8544,7 @@
         <v>-4.2370000000000001</v>
       </c>
       <c r="P108" s="12" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="Q108" s="13"/>
     </row>
@@ -8547,40 +8553,40 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F109" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G109" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="H109" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="G109" s="8" t="s">
+      <c r="I109" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="H109" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="I109" s="12" t="s">
-        <v>291</v>
-      </c>
       <c r="J109" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K109" s="12" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="L109" s="12" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="M109" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N109" s="12">
         <v>43.052</v>
@@ -8589,7 +8595,7 @@
         <v>144.84299999999999</v>
       </c>
       <c r="P109" s="12" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="Q109" s="13">
         <v>55</v>
@@ -8600,40 +8606,40 @@
         <v>108</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G110" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="I110" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="H110" s="3" t="s">
+      <c r="J110" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="I110" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="J110" s="3" t="s">
-        <v>212</v>
-      </c>
       <c r="K110" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L110" s="3">
         <v>2018</v>
       </c>
       <c r="M110" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N110" s="3">
         <v>34.371000000000002</v>
@@ -8642,7 +8648,7 @@
         <v>132.334</v>
       </c>
       <c r="P110" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Q110" s="13">
         <v>62</v>
@@ -8653,41 +8659,33 @@
         <v>109</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="Q111" s="1">
         <v>52</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P111" xr:uid="{D4F60670-F158-4C9B-93E8-D52D53F4A8E3}">
+  <autoFilter ref="A1:Q111" xr:uid="{D4F60670-F158-4C9B-93E8-D52D53F4A8E3}">
     <filterColumn colId="7">
       <filters>
-        <filter val="ティーリング蒸留所"/>
-        <filter val="ティーリング蒸溜所"/>
+        <filter val="トミントウル蒸溜所"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="16">
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="B13:B14"/>
     <mergeCell ref="N13:N14"/>
     <mergeCell ref="O13:O14"/>
     <mergeCell ref="P13:P14"/>
@@ -8697,6 +8695,13 @@
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="L13:L14"/>
     <mergeCell ref="M13:M14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="B13:B14"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8727,16 +8732,16 @@
   <sheetData>
     <row r="1" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>11</v>
@@ -8751,27 +8756,27 @@
         <v>14</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="C2" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>305</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G2" s="5">
         <v>57.302</v>
@@ -8780,27 +8785,27 @@
         <v>-6.3559999999999999</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="C3" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>307</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>309</v>
       </c>
       <c r="G3" s="5">
         <v>55.63</v>
@@ -8809,27 +8814,27 @@
         <v>-6.1929999999999996</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>313</v>
-      </c>
       <c r="F4" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G4" s="5">
         <v>57.484999999999999</v>
@@ -8838,27 +8843,27 @@
         <v>-3.2080000000000002</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G5" s="5">
         <v>55.756</v>
@@ -8867,27 +8872,27 @@
         <v>-6.2889999999999997</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>319</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>321</v>
       </c>
       <c r="G6" s="5">
         <v>55.991</v>
@@ -8896,27 +8901,27 @@
         <v>-3.827</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="D7" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>326</v>
-      </c>
       <c r="F7" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G7" s="5">
         <v>55.424999999999997</v>
@@ -8925,27 +8930,27 @@
         <v>-5.609</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>330</v>
-      </c>
       <c r="F8" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G8" s="5">
         <v>55.878</v>
@@ -8954,27 +8959,27 @@
         <v>-6.125</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="D9" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>335</v>
-      </c>
       <c r="F9" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G9" s="5">
         <v>56.624000000000002</v>
@@ -8983,27 +8988,27 @@
         <v>-3.85</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="D10" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>340</v>
-      </c>
       <c r="F10" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G10" s="5">
         <v>55.640999999999998</v>
@@ -9012,27 +9017,27 @@
         <v>-6.109</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>344</v>
-      </c>
       <c r="D11" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G11" s="5">
         <v>58.968000000000004</v>
@@ -9041,27 +9046,27 @@
         <v>-2.956</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>350</v>
-      </c>
       <c r="F12" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G12" s="5">
         <v>37.398000000000003</v>
@@ -9070,27 +9075,27 @@
         <v>140.36000000000001</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G13" s="5">
         <v>57.451999999999998</v>
@@ -9099,27 +9104,27 @@
         <v>-3.3769999999999998</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>357</v>
-      </c>
       <c r="D14" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G14" s="5">
         <v>56.835999999999999</v>
@@ -9128,27 +9133,27 @@
         <v>-5.0739999999999998</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G15" s="5">
         <v>57.545999999999999</v>
@@ -9157,27 +9162,27 @@
         <v>-3.048</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>364</v>
-      </c>
       <c r="F16" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G16" s="5">
         <v>57.444000000000003</v>
@@ -9186,27 +9191,27 @@
         <v>-3.1280000000000001</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G17" s="5">
         <v>56.704000000000001</v>
@@ -9215,27 +9220,27 @@
         <v>-3.7330000000000001</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>371</v>
-      </c>
       <c r="F18" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G18" s="5">
         <v>55.853999999999999</v>
@@ -9244,27 +9249,27 @@
         <v>-6.1079999999999997</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>375</v>
-      </c>
       <c r="D19" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G19" s="5">
         <v>56.847000000000001</v>
@@ -9273,27 +9278,27 @@
         <v>-2.5880000000000001</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>379</v>
-      </c>
       <c r="F20" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G20" s="5">
         <v>57.427</v>
@@ -9302,27 +9307,27 @@
         <v>-3.3130000000000002</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>383</v>
-      </c>
       <c r="F21" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G21" s="5">
         <v>57.646999999999998</v>
@@ -9331,27 +9336,27 @@
         <v>-3.2930000000000001</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>387</v>
-      </c>
       <c r="F22" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G22" s="5">
         <v>55.78</v>
@@ -9360,27 +9365,27 @@
         <v>-6.4329999999999998</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>391</v>
-      </c>
       <c r="F23" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G23" s="5">
         <v>57.533000000000001</v>
@@ -9389,27 +9394,27 @@
         <v>-3.206</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G24" s="5">
         <v>57.343000000000004</v>
@@ -9418,27 +9423,27 @@
         <v>-3.3380000000000001</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="D25" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>399</v>
-      </c>
       <c r="F25" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G25" s="5">
         <v>34.890999999999998</v>
@@ -9447,27 +9452,27 @@
         <v>135.67500000000001</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>403</v>
-      </c>
       <c r="F26" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G26" s="5">
         <v>35.988999999999997</v>
@@ -9476,27 +9481,27 @@
         <v>139.072</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>407</v>
-      </c>
       <c r="F27" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G27" s="5">
         <v>35.773000000000003</v>
@@ -9505,27 +9510,27 @@
         <v>137.93700000000001</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>99</v>
-      </c>
       <c r="C28" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G28" s="5">
         <v>35.380000000000003</v>
@@ -9534,27 +9539,27 @@
         <v>136.274</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="D29" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>415</v>
-      </c>
       <c r="F29" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G29" s="5">
         <v>36.637999999999998</v>
@@ -9563,27 +9568,27 @@
         <v>136.964</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="D30" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="E30" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>421</v>
-      </c>
       <c r="F30" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G30" s="5">
         <v>53.338000000000001</v>
@@ -9592,27 +9597,27 @@
         <v>-6.2779999999999996</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="E31" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>427</v>
-      </c>
       <c r="F31" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G31" s="5">
         <v>63.040999999999997</v>
@@ -9621,27 +9626,27 @@
         <v>17.739000000000001</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G32" s="5">
         <v>57.649000000000001</v>
@@ -9650,27 +9655,27 @@
         <v>-3.64</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="D33" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="F33" s="5" t="s">
         <v>434</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>436</v>
       </c>
       <c r="G33" s="5">
         <v>36.347999999999999</v>
@@ -9679,27 +9684,27 @@
         <v>138.596</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="147.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>440</v>
-      </c>
       <c r="F34" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G34" s="5">
         <v>56.94</v>
@@ -9708,27 +9713,27 @@
         <v>-4.2370000000000001</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G35" s="5">
         <v>43.052</v>
@@ -9737,27 +9742,27 @@
         <v>144.84299999999999</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G36" s="5">
         <v>55.640999999999998</v>
@@ -9766,27 +9771,27 @@
         <v>-6.109</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G37" s="5">
         <v>58.968000000000004</v>
@@ -9795,27 +9800,27 @@
         <v>-2.956</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G38" s="5">
         <v>57.484999999999999</v>
@@ -9824,27 +9829,27 @@
         <v>-3.2080000000000002</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C39" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>421</v>
-      </c>
       <c r="F39" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G39" s="5">
         <v>53.338000000000001</v>
@@ -9853,27 +9858,27 @@
         <v>-6.2779999999999996</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>459</v>
-      </c>
       <c r="D40" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G40" s="5">
         <v>31.454000000000001</v>
@@ -9882,27 +9887,27 @@
         <v>130.46100000000001</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="D41" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="E41" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>464</v>
-      </c>
       <c r="F41" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G41" s="5">
         <v>35.823999999999998</v>
@@ -9911,27 +9916,27 @@
         <v>138.43600000000001</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="D42" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>469</v>
-      </c>
       <c r="F42" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G42" s="5">
         <v>43.177999999999997</v>
@@ -9940,27 +9945,27 @@
         <v>140.76599999999999</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="D43" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="E43" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>474</v>
-      </c>
       <c r="F43" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G43" s="5">
         <v>38.445999999999998</v>
@@ -9969,27 +9974,27 @@
         <v>140.88300000000001</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>478</v>
-      </c>
       <c r="F44" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G44" s="5">
         <v>36.320999999999998</v>
@@ -9998,27 +10003,27 @@
         <v>138.44999999999999</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="D45" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>483</v>
-      </c>
       <c r="F45" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G45" s="5">
         <v>35.768999999999998</v>
@@ -10027,27 +10032,27 @@
         <v>139.125</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>487</v>
-      </c>
       <c r="D46" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G46" s="5">
         <v>35.302999999999997</v>
@@ -10056,27 +10061,27 @@
         <v>138.95400000000001</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="D47" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="E47" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>492</v>
-      </c>
       <c r="F47" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G47" s="5">
         <v>35.036999999999999</v>
@@ -10085,27 +10090,27 @@
         <v>136.82900000000001</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="D48" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>474</v>
-      </c>
       <c r="F48" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G48" s="5">
         <v>38.445999999999998</v>
@@ -10114,27 +10119,27 @@
         <v>140.88300000000001</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="D49" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="E49" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>497</v>
-      </c>
       <c r="F49" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G49" s="5">
         <v>34.652999999999999</v>
@@ -10143,27 +10148,27 @@
         <v>134.989</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G50" s="5">
         <v>35.773000000000003</v>
@@ -10172,27 +10177,27 @@
         <v>137.93700000000001</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="E51" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>504</v>
-      </c>
       <c r="F51" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G51" s="5">
         <v>31.672999999999998</v>
@@ -10201,7 +10206,7 @@
         <v>130.279</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -10211,20 +10216,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6ff6e2ba-ab06-4ac9-b2c7-449843b7cb08" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6ff6e2ba-ab06-4ac9-b2c7-449843b7cb08" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10410,6 +10415,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B963C0D-E7E9-44EF-8AEB-EF3D573F3F67}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{987E6F6F-1448-40F2-A1EC-D5FD1FE7DC5E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="6ff6e2ba-ab06-4ac9-b2c7-449843b7cb08"/>
@@ -10421,14 +10434,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B963C0D-E7E9-44EF-8AEB-EF3D573F3F67}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/whisky_database.xlsx
+++ b/whisky_database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\新藤駿介(ShindoShunsuke)\Documents\GitHub\whisky-sommelier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC6BC70-1E7D-4E55-AEE0-E74E65C81686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500A3695-7D8B-4A05-957E-D479979CB144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{A2419164-9416-4CEB-A64A-CE2C95D250D1}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$114</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$H$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="680">
   <si>
     <t>番号</t>
   </si>
@@ -190,9 +190,6 @@
     <t>BAR BARNS</t>
   </si>
   <si>
-    <t>SPRINGBANK21年 2022年</t>
-  </si>
-  <si>
     <t xml:space="preserve">Campbeltown Single Malt  </t>
   </si>
   <si>
@@ -220,9 +217,6 @@
     <t>1999年蒸留のアバフェルディ18年は、蒸留所の特徴である豊かな蜂蜜とヘザーの風味が長期熟成によって深まっています。熟した果実、バニラカスタード、控えめなスパイスにオークタンニンの風味が調和。フィニッシュではダークチョコレート、オレンジピール、穏やかなスパイスの余韻が広がります。</t>
   </si>
   <si>
-    <t>ISLAY KILDALTON13年（アードベッグ）2009-2022</t>
-  </si>
-  <si>
     <t>アイラ島キルダルトン地区産の13年熟成アードベッグ（2009-2022）は、強烈なピート煙、海の塩気、薬品的な香りが特徴。口当たりは燻製肉、ヨード、タール、海藻の層が広がり、かすかな柑橘類、バニラ、ダークチョコレートとバランスが取れています。余韻は長く、ピート、黒胡椒、わずかな甘みが残ります。</t>
   </si>
   <si>
@@ -283,9 +277,6 @@
     <t>2011年に蒸留され2021年にボトリングされた10年熟成のデイルエイン。豊かな麦芽の特徴にオーチャードフルーツ、ハチミツ、スパイシーなオークの風味が感じられます。口当たりはトフィー、バニラ、ドライフルーツにナツメグとジンジャーのニュアンス。心地よい温かみと余韻の長いオークスパイスで締めくくられます。</t>
   </si>
   <si>
-    <t>macallan 22年マッカラン1985－2007</t>
-  </si>
-  <si>
     <t>このマッカラン22年（1985-2007）は、ドライフルーツ、特にレーズンやイチジクの豊かな層が、温かいスパイスとオークの香りと調和しています。口当たりにはシェリー由来のオレンジピール、チョコレート、トフィーの風味が広がり、ナツメグやジンジャーのニュアンスが感じられます。余韻は長く複雑で、エレガントなオークタンニンが特徴です。</t>
   </si>
   <si>
@@ -445,9 +436,6 @@
     <t>SUNTORY</t>
   </si>
   <si>
-    <t>Linkwood15年2008-2023</t>
-  </si>
-  <si>
     <t>リンクウッド15年（2008-2023）は、エレガントな花の香りとグリーンアップル、洋ナシ、柑橘系の果実の香りを提供します。口当たりはハチミツ、バニラ、軽いオークスパイスとモルトの風味が感じられます。ミディアムボディで、クリーンでやや草のような特徴があり、繊細なスパイスと余韻のある果実味を伴うジェントルなフィニッシュです。</t>
   </si>
   <si>
@@ -535,9 +523,6 @@
     <t>秩父2016-2021</t>
   </si>
   <si>
-    <t>Orkney（ハイランドパーク） 2008 13年</t>
-  </si>
-  <si>
     <t>2008年蒸留の13年熟成ハイランドパーク（オークニー）は、ヘザーハニーの甘さ、優しい海の塩気、控えめなピートスモークのバランスが特徴です。ドライフルーツ、オレンジピール、ウィンタースパイスの風味に、オークとバニラのタッチが加わります。フィニッシュではジンジャー、ナツメグ、そして蜂蜜のようなスモーキーさが長く続きます。</t>
   </si>
   <si>
@@ -568,9 +553,6 @@
     <t>JURA1999</t>
   </si>
   <si>
-    <t>エドラタワー10年750ml　８０年代</t>
-  </si>
-  <si>
     <t xml:space="preserve">Blended  </t>
   </si>
   <si>
@@ -601,9 +583,6 @@
     <t>秩父ESTABLISHED2004は、有名な秩父蒸留所のジャパニーズクラフトウイスキーです。洋梨やリンゴなどの果実の風味、蜂蜜、軽いオークの香りにバニラとスパイスのニュアンスが調和しています。口当たりは優しい麦芽の甘さに柑橘類、白コショウ、生姜の風味が加わり、クリーンで程よい長さの余韻と心地よい温かみを感じさせます。</t>
   </si>
   <si>
-    <t>LINKWOOD13年　SHIMAJIボトル</t>
-  </si>
-  <si>
     <t>リンクウッド13年 SHIMAJIボトルは、青リンゴや洋ナシなどの果樹園の果実と繊細な花の香りのバランスが特徴です。口当たりはハチミツの甘さ、バニラ、柑橘類の皮の風味が感じられ、穏やかなオークスパイスが調和しています。フィニッシュは中程度の長さで、モルトの余韻とわずかなナッツの風味が残ります。</t>
   </si>
   <si>
@@ -760,9 +739,6 @@
     <t>INVERGOROON</t>
   </si>
   <si>
-    <t>桜尾2020-2023　信濃屋</t>
-  </si>
-  <si>
     <t>桜尾2020-2023 信濃屋は、桜の花と地元の柑橘類の植物性の特徴を持つ限定版の日本のクラフトジンです。フローラルな香り、ジュニパー、繊細な柑橘系の風味にグリーンティーとスパイスのヒントが調和しています。口当たりは滑らかで、伝統的な日本の植物性成分が際立つ、清潔でさわやかな余韻があります。</t>
   </si>
   <si>
@@ -911,30 +887,6 @@
   </si>
   <si>
     <t>Akkeshi Distillery</t>
-  </si>
-  <si>
-    <r>
-      <t>津</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>贯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>2018-2021 ５周年記念ボトル</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1642,10 +1594,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>FETTERCAIRN25年1995-2021</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>シグナトリによる1995年に蒸留され2021年にボトリングされた25年熟成のハイランドシングルモルト。トロピカルフルーツ、ハチミツ、バニラの豊かな香りに、ダークチョコレート、ローストナッツ、控えめなオークスパイスのノートが感じられます。口当たりはドライフルーツ、トフィー、柑橘系の皮の風味があり、穏やかなスパイスとオークの長く温かい余韻が続きます。</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -1897,10 +1845,6 @@
   <si>
     <t>CAOL ILA　14年2008-2023
 SIGNATORY</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>CAOL ILA　2003-2017</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -2396,7 +2340,116 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>MORTLACH 2023 HEPBURN'S CHOICE</t>
+    <t>エドラタワー 10年 80年代750mlボトル</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ISLAY KILDALTON13年（アードベッグ）2009-2022</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>トリックスター　シークレットアイラ３年２０１９</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Linkwood 15年 2008-2023 Avians</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>macallan 22年 OLD MALR CASK 1985－2007</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>CARNMOR 11年 AMONTILLADO SHERRY</t>
+    <rPh sb="10" eb="11">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>GLENTAUCHERS　Distillert</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>グレンタウチャーズ蒸溜所</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>SPRINGBANK 21年 2022年　CLAXTON'S</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Orkney（ハイランドパーク） 2008 13年 TOMPSONS</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>MORTLACH 2023 HEPBURN'S CHOICE Special Release</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>FETTERCAIRN 25年 1995-2021 SIGNATORY</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>CAOL ILA　2003-2017 GORDON &amp; MACPHAIL</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>桜尾2020-2023 WHISKY CREW</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ハイランドパーク18年2004-2023　DUNCAN TAYLOR</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ARDBEG　9年　1990-2000　PROVENANCE</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>The Lucky Cat May &amp; Hana ブレンデッド</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ブレンデッド</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>LINKWOOD13年　SHIMAJIボトル</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>SPRINGBANK 12年 1997-2009 DUNCAN TAYLOR</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>TEELING 18年 2005-2023 コニャックカスク</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>津</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>贯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>2018-2021 ５周年記念 500ml ボトル</t>
+    </r>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -2608,10 +2661,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2952,11 +3005,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F60670-F158-4C9B-93E8-D52D53F4A8E3}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q111"/>
+  <dimension ref="A1:Q114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F85" sqref="F85"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P126" sqref="P126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2980,7 +3033,7 @@
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="32.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3030,7 +3083,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -3038,7 +3091,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>16</v>
@@ -3062,16 +3115,16 @@
         <v>22</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N2" s="12">
         <v>57.302</v>
@@ -3080,7 +3133,7 @@
         <v>-6.3559999999999999</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="Q2" s="13">
         <v>49.1</v>
@@ -3091,7 +3144,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>16</v>
@@ -3115,16 +3168,16 @@
         <v>30</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="N3" s="12">
         <v>55.63</v>
@@ -3133,7 +3186,7 @@
         <v>-6.1929999999999996</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="Q3" s="13">
         <v>56.2</v>
@@ -3162,22 +3215,22 @@
         <v>33</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>35</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="K4" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="L4" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="L4" s="12" t="s">
-        <v>311</v>
-      </c>
       <c r="M4" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N4" s="12">
         <v>57.484999999999999</v>
@@ -3186,7 +3239,7 @@
         <v>-3.2080000000000002</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="Q4" s="13">
         <v>45</v>
@@ -3197,7 +3250,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>16</v>
@@ -3215,22 +3268,22 @@
         <v>40</v>
       </c>
       <c r="H5" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="K5" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="I5" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="J5" s="12" t="s">
+      <c r="L5" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="K5" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>314</v>
-      </c>
       <c r="M5" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N5" s="12">
         <v>55.756</v>
@@ -3239,7 +3292,7 @@
         <v>-6.2889999999999997</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="Q5" s="13">
         <v>50.2</v>
@@ -3250,7 +3303,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>16</v>
@@ -3268,22 +3321,22 @@
         <v>43</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="N6" s="12">
         <v>55.991</v>
@@ -3292,13 +3345,13 @@
         <v>-3.827</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="Q6" s="13">
         <v>52.9</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="32.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3338,7 +3391,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>49</v>
+        <v>666</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>16</v>
@@ -3347,31 +3400,31 @@
         <v>24</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>52</v>
-      </c>
       <c r="H8" s="12" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N8" s="12">
         <v>55.424999999999997</v>
@@ -3380,16 +3433,18 @@
         <v>-5.609</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q8" s="13"/>
+        <v>316</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>45.3</v>
+      </c>
     </row>
     <row r="9" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>16</v>
@@ -3401,28 +3456,28 @@
         <v>18</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>55</v>
-      </c>
       <c r="H9" s="12" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N9" s="12">
         <v>55.878</v>
@@ -3431,7 +3486,7 @@
         <v>-6.125</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="Q9" s="13">
         <v>40</v>
@@ -3442,7 +3497,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>16</v>
@@ -3451,31 +3506,31 @@
         <v>24</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="G10" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N10" s="12">
         <v>56.624000000000002</v>
@@ -3484,7 +3539,7 @@
         <v>-3.85</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="Q10" s="13">
         <v>43</v>
@@ -3495,7 +3550,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>59</v>
+        <v>659</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>16</v>
@@ -3507,28 +3562,28 @@
         <v>18</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N11" s="12">
         <v>55.640999999999998</v>
@@ -3537,49 +3592,51 @@
         <v>-6.109</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q11" s="13"/>
+        <v>330</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>58.6</v>
+      </c>
     </row>
     <row r="12" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N12" s="12">
         <v>58.968000000000004</v>
@@ -3588,82 +3645,82 @@
         <v>-2.956</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="Q12" s="13">
         <v>51.7</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="16">
+    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="15">
         <v>12</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>641</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="16" t="s">
+        <v>630</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="16" t="s">
-        <v>609</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="16" t="s">
+      <c r="F13" s="15" t="s">
+        <v>598</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="I13" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="16" t="s">
+      <c r="J13" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="16" t="s">
+      <c r="K13" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="16">
+      <c r="L13" s="15">
         <v>1830</v>
       </c>
-      <c r="M13" s="16" t="s">
+      <c r="M13" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="N13" s="16">
+      <c r="N13" s="15">
         <v>57.302</v>
       </c>
-      <c r="O13" s="16">
+      <c r="O13" s="15">
         <v>-6.3559999999999999</v>
       </c>
-      <c r="P13" s="16" t="s">
-        <v>296</v>
+      <c r="P13" s="15" t="s">
+        <v>287</v>
       </c>
       <c r="Q13" s="13">
         <v>53.2</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="48.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="16"/>
+    <row r="14" spans="1:17" ht="48.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="15"/>
       <c r="B14" s="17"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
       <c r="Q14" s="13"/>
     </row>
     <row r="15" spans="1:17" ht="79.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -3671,7 +3728,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>16</v>
@@ -3683,28 +3740,28 @@
         <v>18</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N15" s="12">
         <v>55.640999999999998</v>
@@ -3713,7 +3770,7 @@
         <v>-6.109</v>
       </c>
       <c r="P15" s="12" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="Q15" s="13"/>
     </row>
@@ -3722,7 +3779,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>16</v>
@@ -3731,31 +3788,31 @@
         <v>45</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>72</v>
-      </c>
       <c r="H16" s="12" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N16" s="12">
         <v>37.398000000000003</v>
@@ -3764,49 +3821,51 @@
         <v>140.36000000000001</v>
       </c>
       <c r="P16" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q16" s="13"/>
+        <v>340</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>58</v>
+      </c>
     </row>
     <row r="17" spans="1:17" ht="79.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N17" s="12">
         <v>58.968000000000004</v>
@@ -3815,7 +3874,7 @@
         <v>-2.956</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="Q17" s="13">
         <v>49.7</v>
@@ -3826,7 +3885,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>16</v>
@@ -3838,28 +3897,28 @@
         <v>18</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="I18" s="12" t="s">
         <v>35</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="K18" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="L18" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="L18" s="12" t="s">
-        <v>311</v>
-      </c>
       <c r="M18" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N18" s="12">
         <v>57.484999999999999</v>
@@ -3868,7 +3927,7 @@
         <v>-3.2080000000000002</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="Q18" s="13">
         <v>48.1</v>
@@ -3879,7 +3938,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>16</v>
@@ -3891,28 +3950,28 @@
         <v>18</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N19" s="12">
         <v>57.451999999999998</v>
@@ -3921,7 +3980,7 @@
         <v>-3.3769999999999998</v>
       </c>
       <c r="P19" s="12" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="Q19" s="13">
         <v>50.9</v>
@@ -3932,7 +3991,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>16</v>
@@ -3941,31 +4000,31 @@
         <v>24</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N20" s="12">
         <v>57.451999999999998</v>
@@ -3974,18 +4033,18 @@
         <v>-3.3769999999999998</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="Q20" s="13">
         <v>52.3</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="48" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>80</v>
+        <v>662</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>16</v>
@@ -3997,10 +4056,10 @@
         <v>18</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>34</v>
@@ -4029,14 +4088,16 @@
       <c r="P21" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q21" s="13"/>
+      <c r="Q21" s="13">
+        <v>50</v>
+      </c>
     </row>
     <row r="22" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>16</v>
@@ -4048,28 +4109,28 @@
         <v>18</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N22" s="12">
         <v>56.835999999999999</v>
@@ -4078,7 +4139,7 @@
         <v>-5.0739999999999998</v>
       </c>
       <c r="P22" s="12" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="Q22" s="13">
         <v>64.099999999999994</v>
@@ -4089,40 +4150,40 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>85</v>
+        <v>672</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N23" s="12">
         <v>58.968000000000004</v>
@@ -4131,49 +4192,51 @@
         <v>-2.956</v>
       </c>
       <c r="P23" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q23" s="13"/>
+        <v>334</v>
+      </c>
+      <c r="Q23" s="13">
+        <v>54.6</v>
+      </c>
     </row>
     <row r="24" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="3">
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N24" s="12">
         <v>63.002000000000002</v>
@@ -4182,7 +4245,7 @@
         <v>17.798999999999999</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="Q24" s="13">
         <v>64.900000000000006</v>
@@ -4193,7 +4256,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>16</v>
@@ -4202,31 +4265,31 @@
         <v>24</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N25" s="12">
         <v>57.649000000000001</v>
@@ -4235,7 +4298,7 @@
         <v>-3.64</v>
       </c>
       <c r="P25" s="12" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="Q25" s="13">
         <v>58.7</v>
@@ -4246,7 +4309,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>16</v>
@@ -4258,28 +4321,28 @@
         <v>18</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="M26" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N26" s="12">
         <v>55.78</v>
@@ -4288,16 +4351,16 @@
         <v>-6.4329999999999998</v>
       </c>
       <c r="P26" s="12" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="Q26" s="13"/>
     </row>
-    <row r="27" spans="1:17" ht="48" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>16</v>
@@ -4306,22 +4369,22 @@
         <v>45</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F27" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I27" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="J27" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>45</v>
@@ -4339,7 +4402,7 @@
         <v>136.26400000000001</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="Q27" s="13">
         <v>47</v>
@@ -4350,7 +4413,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>16</v>
@@ -4359,31 +4422,31 @@
         <v>24</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N28" s="12">
         <v>57.444000000000003</v>
@@ -4392,7 +4455,7 @@
         <v>-3.1280000000000001</v>
       </c>
       <c r="P28" s="12" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="Q28" s="13">
         <v>46</v>
@@ -4403,7 +4466,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>16</v>
@@ -4412,31 +4475,31 @@
         <v>24</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="M29" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N29" s="12">
         <v>57.444000000000003</v>
@@ -4445,7 +4508,7 @@
         <v>-3.1280000000000001</v>
       </c>
       <c r="P29" s="12" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="Q29" s="13">
         <v>52.9</v>
@@ -4456,7 +4519,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>16</v>
@@ -4465,31 +4528,31 @@
         <v>24</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>357</v>
+        <v>665</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N30" s="12">
         <v>57.545999999999999</v>
@@ -4498,7 +4561,7 @@
         <v>-3.048</v>
       </c>
       <c r="P30" s="12" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="Q30" s="13"/>
     </row>
@@ -4507,7 +4570,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>16</v>
@@ -4519,28 +4582,28 @@
         <v>18</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="I31" s="12" t="s">
         <v>35</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="K31" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="L31" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="L31" s="12" t="s">
-        <v>311</v>
-      </c>
       <c r="M31" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N31" s="12">
         <v>57.484999999999999</v>
@@ -4549,7 +4612,7 @@
         <v>-3.2080000000000002</v>
       </c>
       <c r="P31" s="12" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="Q31" s="13">
         <v>50.5</v>
@@ -4560,40 +4623,40 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="M32" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N32" s="12">
         <v>53.338000000000001</v>
@@ -4602,7 +4665,7 @@
         <v>-6.2779999999999996</v>
       </c>
       <c r="P32" s="12" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="Q32" s="13">
         <v>62.5</v>
@@ -4613,40 +4676,40 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D33" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="F33" s="3" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="L33" s="12" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="M33" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N33" s="12">
         <v>53.338000000000001</v>
@@ -4655,7 +4718,7 @@
         <v>-6.2779999999999996</v>
       </c>
       <c r="P33" s="12" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="Q33" s="13">
         <v>62</v>
@@ -4666,7 +4729,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>16</v>
@@ -4675,31 +4738,31 @@
         <v>24</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L34" s="12" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="M34" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N34" s="12">
         <v>58.023000000000003</v>
@@ -4708,7 +4771,7 @@
         <v>-3.867</v>
       </c>
       <c r="P34" s="12" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="Q34" s="13">
         <v>55.5</v>
@@ -4719,7 +4782,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>16</v>
@@ -4728,31 +4791,31 @@
         <v>24</v>
       </c>
       <c r="E35" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="G35" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>115</v>
-      </c>
       <c r="H35" s="12" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L35" s="12" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="M35" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N35" s="12">
         <v>57.337000000000003</v>
@@ -4761,7 +4824,7 @@
         <v>-2.3149999999999999</v>
       </c>
       <c r="P35" s="12" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="Q35" s="13"/>
     </row>
@@ -4770,7 +4833,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>16</v>
@@ -4779,31 +4842,31 @@
         <v>24</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L36" s="12" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="M36" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N36" s="12">
         <v>57.337000000000003</v>
@@ -4812,7 +4875,7 @@
         <v>-2.3149999999999999</v>
       </c>
       <c r="P36" s="12" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="Q36" s="13">
         <v>63.6</v>
@@ -4823,7 +4886,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>16</v>
@@ -4832,31 +4895,31 @@
         <v>24</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L37" s="12" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="M37" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N37" s="12">
         <v>56.704000000000001</v>
@@ -4865,7 +4928,7 @@
         <v>-3.7330000000000001</v>
       </c>
       <c r="P37" s="12" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="Q37" s="13">
         <v>55.5</v>
@@ -4876,7 +4939,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>16</v>
@@ -4888,28 +4951,28 @@
         <v>18</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H38" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="K38" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="I38" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="J38" s="12" t="s">
+      <c r="L38" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="K38" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="L38" s="12" t="s">
-        <v>314</v>
-      </c>
       <c r="M38" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N38" s="12">
         <v>55.756</v>
@@ -4918,7 +4981,7 @@
         <v>-6.2889999999999997</v>
       </c>
       <c r="P38" s="12" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="Q38" s="13">
         <v>46</v>
@@ -4929,7 +4992,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>16</v>
@@ -4938,31 +5001,31 @@
         <v>38</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H39" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="K39" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="I39" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="J39" s="12" t="s">
+      <c r="L39" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="K39" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="L39" s="12" t="s">
-        <v>314</v>
-      </c>
       <c r="M39" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N39" s="12">
         <v>55.756</v>
@@ -4971,7 +5034,7 @@
         <v>-6.2889999999999997</v>
       </c>
       <c r="P39" s="12" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="Q39" s="13"/>
     </row>
@@ -4980,7 +5043,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>16</v>
@@ -4989,31 +5052,31 @@
         <v>45</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="L40" s="12" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="M40" s="12" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="N40" s="12">
         <v>36.347999999999999</v>
@@ -5022,7 +5085,7 @@
         <v>138.596</v>
       </c>
       <c r="P40" s="12" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="Q40" s="13"/>
     </row>
@@ -5031,7 +5094,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>16</v>
@@ -5043,28 +5106,28 @@
         <v>26</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L41" s="12" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="M41" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N41" s="12">
         <v>55.853999999999999</v>
@@ -5073,7 +5136,7 @@
         <v>-6.1079999999999997</v>
       </c>
       <c r="P41" s="12" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="Q41" s="13">
         <v>54.1</v>
@@ -5084,7 +5147,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>507</v>
+        <v>669</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>16</v>
@@ -5093,31 +5156,31 @@
         <v>24</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="K42" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="L42" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="L42" s="12" t="s">
-        <v>311</v>
-      </c>
       <c r="M42" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N42" s="12">
         <v>56.847000000000001</v>
@@ -5126,16 +5189,18 @@
         <v>-2.5880000000000001</v>
       </c>
       <c r="P42" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q42" s="13"/>
+        <v>365</v>
+      </c>
+      <c r="Q42" s="13">
+        <v>57.4</v>
+      </c>
     </row>
     <row r="43" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A43" s="3">
         <v>41</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>16</v>
@@ -5144,31 +5209,31 @@
         <v>24</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L43" s="12" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="M43" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N43" s="12">
         <v>57.427</v>
@@ -5177,18 +5242,18 @@
         <v>-3.3130000000000002</v>
       </c>
       <c r="P43" s="12" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="Q43" s="13">
         <v>58.7</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="79.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:17" ht="78.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>16</v>
@@ -5197,13 +5262,13 @@
         <v>45</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -5214,14 +5279,16 @@
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
-      <c r="Q44" s="13"/>
+      <c r="Q44" s="13">
+        <v>43</v>
+      </c>
     </row>
     <row r="45" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A45" s="3">
         <v>43</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>134</v>
+        <v>661</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>16</v>
@@ -5230,31 +5297,31 @@
         <v>24</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L45" s="12" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="M45" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N45" s="12">
         <v>57.646999999999998</v>
@@ -5263,16 +5330,18 @@
         <v>-3.2930000000000001</v>
       </c>
       <c r="P45" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q45" s="13"/>
+        <v>373</v>
+      </c>
+      <c r="Q45" s="13">
+        <v>52.3</v>
+      </c>
     </row>
     <row r="46" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A46" s="3">
         <v>44</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>16</v>
@@ -5284,28 +5353,28 @@
         <v>26</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="I46" s="12" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="K46" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L46" s="12" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="M46" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N46" s="12">
         <v>55.78</v>
@@ -5314,18 +5383,18 @@
         <v>-6.4329999999999998</v>
       </c>
       <c r="P46" s="12" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="Q46" s="13">
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="48" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <v>45</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>290</v>
+        <v>679</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>16</v>
@@ -5337,19 +5406,19 @@
         <v>18</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>45</v>
@@ -5367,16 +5436,18 @@
         <v>130.32300000000001</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q47" s="13"/>
+        <v>138</v>
+      </c>
+      <c r="Q47" s="13">
+        <v>61</v>
+      </c>
     </row>
     <row r="48" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A48" s="3">
         <v>46</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>16</v>
@@ -5388,28 +5459,28 @@
         <v>26</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="J48" s="12" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L48" s="12" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="M48" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N48" s="12">
         <v>55.78</v>
@@ -5418,7 +5489,7 @@
         <v>-6.4329999999999998</v>
       </c>
       <c r="P48" s="12" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="Q48" s="13">
         <v>55.7</v>
@@ -5429,7 +5500,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>16</v>
@@ -5438,31 +5509,31 @@
         <v>24</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="K49" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="L49" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="L49" s="12" t="s">
-        <v>311</v>
-      </c>
       <c r="M49" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N49" s="12">
         <v>56.847000000000001</v>
@@ -5471,7 +5542,7 @@
         <v>-2.5880000000000001</v>
       </c>
       <c r="P49" s="12" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="Q49" s="13">
         <v>43</v>
@@ -5482,7 +5553,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>16</v>
@@ -5494,28 +5565,28 @@
         <v>18</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="I50" s="12" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="J50" s="12" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L50" s="12" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="M50" s="12" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="N50" s="12">
         <v>57.683999999999997</v>
@@ -5524,18 +5595,18 @@
         <v>-2.5649999999999999</v>
       </c>
       <c r="P50" s="12" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="Q50" s="13">
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="48" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A51" s="3">
         <v>49</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>16</v>
@@ -5544,22 +5615,22 @@
         <v>45</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G51" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J51" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="K51" s="3" t="s">
         <v>45</v>
@@ -5577,7 +5648,7 @@
         <v>136.26400000000001</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="Q51" s="13">
         <v>58</v>
@@ -5588,7 +5659,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>16</v>
@@ -5597,31 +5668,31 @@
         <v>24</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="J52" s="12" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L52" s="12" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="M52" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N52" s="12">
         <v>55.424999999999997</v>
@@ -5630,7 +5701,7 @@
         <v>-5.609</v>
       </c>
       <c r="P52" s="12" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="Q52" s="13">
         <v>46.3</v>
@@ -5641,7 +5712,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>584</v>
+        <v>670</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>16</v>
@@ -5653,28 +5724,28 @@
         <v>18</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L53" s="12" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="M53" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N53" s="12">
         <v>55.853999999999999</v>
@@ -5683,16 +5754,18 @@
         <v>-6.1079999999999997</v>
       </c>
       <c r="P53" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q53" s="13"/>
+        <v>361</v>
+      </c>
+      <c r="Q53" s="13">
+        <v>55.5</v>
+      </c>
     </row>
     <row r="54" spans="1:17" ht="79.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A54" s="3">
         <v>52</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>16</v>
@@ -5704,28 +5777,28 @@
         <v>18</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L54" s="12" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="M54" s="12" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="N54" s="12">
         <v>55.767000000000003</v>
@@ -5734,7 +5807,7 @@
         <v>-6.3620000000000001</v>
       </c>
       <c r="P54" s="12" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="Q54" s="13">
         <v>52.4</v>
@@ -5745,7 +5818,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>16</v>
@@ -5754,31 +5827,31 @@
         <v>24</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L55" s="12" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="M55" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N55" s="12">
         <v>57.451999999999998</v>
@@ -5787,7 +5860,7 @@
         <v>-3.3769999999999998</v>
       </c>
       <c r="P55" s="12" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="Q55" s="13">
         <v>57.3</v>
@@ -5798,7 +5871,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>16</v>
@@ -5807,31 +5880,31 @@
         <v>24</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="I56" s="12" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="J56" s="12" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="K56" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L56" s="12" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="M56" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N56" s="12">
         <v>57.533000000000001</v>
@@ -5840,7 +5913,7 @@
         <v>-3.206</v>
       </c>
       <c r="P56" s="12" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="Q56" s="13">
         <v>58.1</v>
@@ -5851,7 +5924,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>16</v>
@@ -5860,31 +5933,31 @@
         <v>24</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="J57" s="12" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="K57" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="L57" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="L57" s="12" t="s">
-        <v>311</v>
-      </c>
       <c r="M57" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N57" s="12">
         <v>57.343000000000004</v>
@@ -5893,7 +5966,7 @@
         <v>-3.3380000000000001</v>
       </c>
       <c r="P57" s="12" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="Q57" s="13">
         <v>58.3</v>
@@ -5904,7 +5977,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>16</v>
@@ -5913,31 +5986,31 @@
         <v>45</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="J58" s="12" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="K58" s="12" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="L58" s="12" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="M58" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N58" s="12">
         <v>35.988999999999997</v>
@@ -5946,7 +6019,7 @@
         <v>139.072</v>
       </c>
       <c r="P58" s="12" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="Q58" s="13">
         <v>62</v>
@@ -5957,40 +6030,40 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>164</v>
+        <v>667</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="J59" s="12" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="K59" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L59" s="12" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="M59" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N59" s="12">
         <v>58.968000000000004</v>
@@ -5999,16 +6072,18 @@
         <v>-2.956</v>
       </c>
       <c r="P59" s="12" t="s">
-        <v>449</v>
-      </c>
-      <c r="Q59" s="13"/>
+        <v>440</v>
+      </c>
+      <c r="Q59" s="13">
+        <v>53.2</v>
+      </c>
     </row>
     <row r="60" spans="1:17" ht="50.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A60" s="3">
         <v>58</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>167</v>
+        <v>673</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>16</v>
@@ -6020,28 +6095,28 @@
         <v>18</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="J60" s="12" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="K60" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L60" s="12" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="M60" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N60" s="12">
         <v>55.640999999999998</v>
@@ -6050,16 +6125,18 @@
         <v>-6.109</v>
       </c>
       <c r="P60" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q60" s="13"/>
+        <v>330</v>
+      </c>
+      <c r="Q60" s="13">
+        <v>43</v>
+      </c>
     </row>
     <row r="61" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A61" s="3">
         <v>59</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>16</v>
@@ -6068,31 +6145,31 @@
         <v>24</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="I61" s="12" t="s">
         <v>35</v>
       </c>
       <c r="J61" s="12" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="K61" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="L61" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="L61" s="12" t="s">
-        <v>311</v>
-      </c>
       <c r="M61" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N61" s="12">
         <v>57.484999999999999</v>
@@ -6101,7 +6178,7 @@
         <v>-3.2080000000000002</v>
       </c>
       <c r="P61" s="12" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="Q61" s="13">
         <v>40</v>
@@ -6112,7 +6189,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>16</v>
@@ -6121,31 +6198,31 @@
         <v>24</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="J62" s="12" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="K62" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L62" s="12" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="M62" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N62" s="12">
         <v>56.835999999999999</v>
@@ -6154,7 +6231,7 @@
         <v>-5.0739999999999998</v>
       </c>
       <c r="P62" s="12" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="Q62" s="13">
         <v>40</v>
@@ -6165,40 +6242,40 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="I63" s="12" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="J63" s="12" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="K63" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L63" s="12" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="M63" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N63" s="12">
         <v>55.832999999999998</v>
@@ -6207,7 +6284,7 @@
         <v>-5.9509999999999996</v>
       </c>
       <c r="P63" s="12" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="Q63" s="13">
         <v>60.7</v>
@@ -6218,7 +6295,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>175</v>
+        <v>658</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>16</v>
@@ -6227,31 +6304,31 @@
         <v>24</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="J64" s="12" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K64" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L64" s="12" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="M64" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N64" s="12">
         <v>56.701999999999998</v>
@@ -6260,16 +6337,18 @@
         <v>-3.702</v>
       </c>
       <c r="P64" s="12" t="s">
-        <v>538</v>
-      </c>
-      <c r="Q64" s="13"/>
+        <v>528</v>
+      </c>
+      <c r="Q64" s="13">
+        <v>43</v>
+      </c>
     </row>
     <row r="65" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A65" s="3">
         <v>63</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>179</v>
+        <v>677</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>16</v>
@@ -6278,31 +6357,31 @@
         <v>24</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="I65" s="12" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="J65" s="12" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="K65" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L65" s="12" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="M65" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N65" s="12">
         <v>55.424999999999997</v>
@@ -6311,16 +6390,18 @@
         <v>-5.609</v>
       </c>
       <c r="P65" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q65" s="13"/>
+        <v>316</v>
+      </c>
+      <c r="Q65" s="13">
+        <v>54.4</v>
+      </c>
     </row>
     <row r="66" spans="1:17" ht="99.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A66" s="3">
         <v>64</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>16</v>
@@ -6332,28 +6413,28 @@
         <v>18</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="J66" s="12" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="K66" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L66" s="12" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="M66" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N66" s="12">
         <v>56.622999999999998</v>
@@ -6362,7 +6443,7 @@
         <v>-6.07</v>
       </c>
       <c r="P66" s="12" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="Q66" s="13">
         <v>63.3</v>
@@ -6373,7 +6454,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>16</v>
@@ -6382,31 +6463,31 @@
         <v>45</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="J67" s="12" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="K67" s="12" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="L67" s="12" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="M67" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N67" s="12">
         <v>35.988999999999997</v>
@@ -6415,7 +6496,7 @@
         <v>139.072</v>
       </c>
       <c r="P67" s="12" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="Q67" s="13"/>
     </row>
@@ -6424,7 +6505,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>186</v>
+        <v>676</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>16</v>
@@ -6433,31 +6514,31 @@
         <v>24</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="I68" s="12" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="J68" s="12" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="K68" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L68" s="12" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="M68" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N68" s="12">
         <v>57.646999999999998</v>
@@ -6466,16 +6547,18 @@
         <v>-3.2930000000000001</v>
       </c>
       <c r="P68" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q68" s="13"/>
+        <v>373</v>
+      </c>
+      <c r="Q68" s="13">
+        <v>59.9</v>
+      </c>
     </row>
     <row r="69" spans="1:17" ht="99.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A69" s="3">
         <v>67</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>16</v>
@@ -6487,28 +6570,28 @@
         <v>18</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="I69" s="12" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="J69" s="12" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="K69" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L69" s="12" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="M69" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N69" s="12">
         <v>57.551000000000002</v>
@@ -6517,7 +6600,7 @@
         <v>-4.4340000000000002</v>
       </c>
       <c r="P69" s="12" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="Q69" s="13">
         <v>55.3</v>
@@ -6528,7 +6611,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>16</v>
@@ -6540,28 +6623,28 @@
         <v>18</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="J70" s="12" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="K70" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L70" s="12" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="M70" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N70" s="12">
         <v>55.853999999999999</v>
@@ -6570,7 +6653,7 @@
         <v>-6.1079999999999997</v>
       </c>
       <c r="P70" s="12" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="Q70" s="13">
         <v>43</v>
@@ -6581,7 +6664,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>16</v>
@@ -6590,31 +6673,31 @@
         <v>24</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="J71" s="12" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="K71" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L71" s="12" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="M71" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N71" s="12">
         <v>57.444000000000003</v>
@@ -6623,16 +6706,18 @@
         <v>-3.1280000000000001</v>
       </c>
       <c r="P71" s="12" t="s">
-        <v>541</v>
-      </c>
-      <c r="Q71" s="13"/>
+        <v>531</v>
+      </c>
+      <c r="Q71" s="13">
+        <v>58</v>
+      </c>
     </row>
     <row r="72" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A72" s="3">
         <v>70</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>16</v>
@@ -6641,31 +6726,31 @@
         <v>45</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="I72" s="12" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="J72" s="12" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="K72" s="12" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="L72" s="12" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="M72" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N72" s="12">
         <v>34.890999999999998</v>
@@ -6674,7 +6759,7 @@
         <v>135.67500000000001</v>
       </c>
       <c r="P72" s="12" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="Q72" s="13">
         <v>58</v>
@@ -6685,7 +6770,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>16</v>
@@ -6694,31 +6779,31 @@
         <v>24</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="I73" s="12" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="J73" s="12" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="K73" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L73" s="12" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="M73" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N73" s="12">
         <v>58.968000000000004</v>
@@ -6727,7 +6812,7 @@
         <v>-2.956</v>
       </c>
       <c r="P73" s="12" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="Q73" s="13">
         <v>40</v>
@@ -6738,7 +6823,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>16</v>
@@ -6750,28 +6835,28 @@
         <v>18</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="I74" s="12" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="J74" s="12" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="K74" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L74" s="12" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="M74" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N74" s="12">
         <v>55.78</v>
@@ -6780,7 +6865,7 @@
         <v>-6.4329999999999998</v>
       </c>
       <c r="P74" s="12" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="Q74" s="13"/>
     </row>
@@ -6789,7 +6874,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>16</v>
@@ -6798,31 +6883,31 @@
         <v>45</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="H75" s="12" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="I75" s="12" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="J75" s="12" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="K75" s="12" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="L75" s="12" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="M75" s="12" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="N75" s="12">
         <v>36.347999999999999</v>
@@ -6831,7 +6916,7 @@
         <v>138.596</v>
       </c>
       <c r="P75" s="12" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="Q75" s="13">
         <v>43</v>
@@ -6842,7 +6927,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>16</v>
@@ -6854,28 +6939,28 @@
         <v>18</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="I76" s="12" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="J76" s="12" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="K76" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L76" s="12" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="M76" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N76" s="12">
         <v>55.78</v>
@@ -6884,7 +6969,7 @@
         <v>-6.4329999999999998</v>
       </c>
       <c r="P76" s="12" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="Q76" s="13">
         <v>50</v>
@@ -6895,40 +6980,40 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="I77" s="12" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="J77" s="12" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="K77" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L77" s="12" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="M77" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N77" s="12">
         <v>57.427</v>
@@ -6937,7 +7022,7 @@
         <v>-3.3130000000000002</v>
       </c>
       <c r="P77" s="12" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="Q77" s="13">
         <v>59.2</v>
@@ -6948,7 +7033,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>16</v>
@@ -6957,31 +7042,31 @@
         <v>45</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="H78" s="12" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="I78" s="12" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="J78" s="12" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="K78" s="12" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="L78" s="12" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="M78" s="12" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="N78" s="12">
         <v>36.347999999999999</v>
@@ -6990,16 +7075,16 @@
         <v>138.596</v>
       </c>
       <c r="P78" s="12" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="Q78" s="13"/>
     </row>
-    <row r="79" spans="1:17" ht="48" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A79" s="3">
         <v>77</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>16</v>
@@ -7008,22 +7093,22 @@
         <v>45</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="K79" s="3" t="s">
         <v>45</v>
@@ -7041,7 +7126,7 @@
         <v>132.334</v>
       </c>
       <c r="P79" s="3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="Q79" s="13">
         <v>63</v>
@@ -7052,7 +7137,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>16</v>
@@ -7061,31 +7146,31 @@
         <v>24</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="I80" s="12" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="J80" s="12" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="K80" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L80" s="12" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="M80" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N80" s="12">
         <v>57.52</v>
@@ -7094,7 +7179,7 @@
         <v>-4.0469999999999997</v>
       </c>
       <c r="P80" s="12" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="Q80" s="13">
         <v>51.7</v>
@@ -7105,7 +7190,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>16</v>
@@ -7114,31 +7199,31 @@
         <v>24</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="I81" s="12" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="J81" s="12" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="K81" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L81" s="12" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="M81" s="12" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="N81" s="12">
         <v>57.438000000000002</v>
@@ -7147,16 +7232,18 @@
         <v>-3.3460000000000001</v>
       </c>
       <c r="P81" s="12" t="s">
-        <v>558</v>
-      </c>
-      <c r="Q81" s="13"/>
+        <v>548</v>
+      </c>
+      <c r="Q81" s="13">
+        <v>58.6</v>
+      </c>
     </row>
     <row r="82" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A82" s="3">
         <v>80</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>16</v>
@@ -7165,31 +7252,31 @@
         <v>45</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="I82" s="12" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="J82" s="12" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="K82" s="12" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="L82" s="12" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="M82" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N82" s="12">
         <v>35.988999999999997</v>
@@ -7198,7 +7285,7 @@
         <v>139.072</v>
       </c>
       <c r="P82" s="12" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="Q82" s="13">
         <v>46</v>
@@ -7209,7 +7296,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>16</v>
@@ -7218,31 +7305,31 @@
         <v>45</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="I83" s="12" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="J83" s="12" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="K83" s="12" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="L83" s="12" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="M83" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N83" s="12">
         <v>35.988999999999997</v>
@@ -7251,7 +7338,7 @@
         <v>139.072</v>
       </c>
       <c r="P83" s="12" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="Q83" s="13">
         <v>46</v>
@@ -7262,7 +7349,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>16</v>
@@ -7271,31 +7358,31 @@
         <v>45</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="I84" s="12" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="J84" s="12" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="K84" s="12" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="L84" s="12" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="M84" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N84" s="12">
         <v>35.988999999999997</v>
@@ -7304,16 +7391,16 @@
         <v>139.072</v>
       </c>
       <c r="P84" s="12" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="Q84" s="13"/>
     </row>
-    <row r="85" spans="1:17" ht="79.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:17" ht="78.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A85" s="3">
         <v>83</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>16</v>
@@ -7322,22 +7409,22 @@
         <v>45</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="K85" s="3" t="s">
         <v>45</v>
@@ -7346,7 +7433,7 @@
         <v>1985</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="N85" s="3">
         <v>35.899000000000001</v>
@@ -7355,39 +7442,39 @@
         <v>137.94200000000001</v>
       </c>
       <c r="P85" s="3" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="Q85" s="13">
         <v>51</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="48" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A86" s="3">
         <v>84</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="J86" s="3" t="s">
         <v>36</v>
@@ -7408,16 +7495,16 @@
         <v>-3.1179999999999999</v>
       </c>
       <c r="P86" s="3" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="Q86" s="13"/>
     </row>
-    <row r="87" spans="1:17" ht="79.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:17" ht="78.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A87" s="3">
         <v>85</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>16</v>
@@ -7426,13 +7513,13 @@
         <v>24</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
@@ -7452,7 +7539,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>16</v>
@@ -7461,31 +7548,31 @@
         <v>24</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="I88" s="12" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="J88" s="12" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="K88" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L88" s="12" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="M88" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N88" s="12">
         <v>57.688000000000002</v>
@@ -7494,18 +7581,18 @@
         <v>-4.1680000000000001</v>
       </c>
       <c r="P88" s="12" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="Q88" s="13">
         <v>44.4</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="48" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A89" s="3">
         <v>87</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>239</v>
+        <v>671</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>16</v>
@@ -7514,22 +7601,22 @@
         <v>45</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>45</v>
@@ -7547,16 +7634,18 @@
         <v>132.334</v>
       </c>
       <c r="P89" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q89" s="13"/>
+        <v>204</v>
+      </c>
+      <c r="Q89" s="13">
+        <v>60</v>
+      </c>
     </row>
     <row r="90" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A90" s="3">
         <v>88</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>16</v>
@@ -7565,31 +7654,31 @@
         <v>45</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="H90" s="12" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="I90" s="12" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="J90" s="12" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="K90" s="12" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="L90" s="12" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="M90" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N90" s="12">
         <v>37.398000000000003</v>
@@ -7598,7 +7687,7 @@
         <v>140.36000000000001</v>
       </c>
       <c r="P90" s="12" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="Q90" s="13">
         <v>62</v>
@@ -7609,40 +7698,40 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>243</v>
+        <v>678</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D91" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E91" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="F91" s="3" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="H91" s="12" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="I91" s="12" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="J91" s="12" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="K91" s="12" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="L91" s="12" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="M91" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N91" s="12">
         <v>53.338000000000001</v>
@@ -7651,16 +7740,18 @@
         <v>-6.2779999999999996</v>
       </c>
       <c r="P91" s="12" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q91" s="13"/>
-    </row>
-    <row r="92" spans="1:17" ht="48" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>411</v>
+      </c>
+      <c r="Q91" s="13">
+        <v>55.3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A92" s="3">
         <v>90</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>16</v>
@@ -7669,22 +7760,22 @@
         <v>45</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="G92" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J92" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="H92" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="I92" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="J92" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="K92" s="3" t="s">
         <v>45</v>
@@ -7702,18 +7793,18 @@
         <v>136.26400000000001</v>
       </c>
       <c r="P92" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="Q92" s="13">
         <v>57</v>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="116.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:17" ht="116.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A93" s="3">
         <v>91</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>16</v>
@@ -7722,31 +7813,31 @@
         <v>24</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="H93" s="12" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="I93" s="12" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="J93" s="12" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="K93" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L93" s="12" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="M93" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N93" s="12">
         <v>57.253</v>
@@ -7755,7 +7846,7 @@
         <v>-3.3780000000000001</v>
       </c>
       <c r="P93" s="12" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="Q93" s="13">
         <v>54.8</v>
@@ -7766,7 +7857,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>16</v>
@@ -7775,31 +7866,31 @@
         <v>24</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="I94" s="12" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="J94" s="12" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="K94" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L94" s="12" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="M94" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N94" s="12">
         <v>57.756</v>
@@ -7808,7 +7899,7 @@
         <v>-4.2229999999999999</v>
       </c>
       <c r="P94" s="12" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="Q94" s="13">
         <v>52.1</v>
@@ -7819,7 +7910,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>16</v>
@@ -7828,31 +7919,31 @@
         <v>24</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="I95" s="12" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="J95" s="12" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="K95" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L95" s="12" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="M95" s="12" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="N95" s="12">
         <v>57.453000000000003</v>
@@ -7861,7 +7952,7 @@
         <v>-3.1160000000000001</v>
       </c>
       <c r="P95" s="12" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="Q95" s="13">
         <v>51.4</v>
@@ -7872,7 +7963,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>16</v>
@@ -7884,28 +7975,28 @@
         <v>26</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="H96" s="12" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="I96" s="12" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="J96" s="12" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="K96" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L96" s="12" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="M96" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N96" s="12">
         <v>55.640999999999998</v>
@@ -7914,7 +8005,7 @@
         <v>-6.109</v>
       </c>
       <c r="P96" s="12" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="Q96" s="13"/>
     </row>
@@ -7923,7 +8014,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>16</v>
@@ -7935,28 +8026,28 @@
         <v>18</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="H97" s="12" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="I97" s="12" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="J97" s="12" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="K97" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L97" s="12" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="M97" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N97" s="12">
         <v>57.826000000000001</v>
@@ -7965,7 +8056,7 @@
         <v>-4.0789999999999997</v>
       </c>
       <c r="P97" s="12" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="Q97" s="13">
         <v>43</v>
@@ -7976,7 +8067,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>16</v>
@@ -7985,31 +8076,31 @@
         <v>24</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="H98" s="12" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="I98" s="12" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="J98" s="12" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="K98" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L98" s="12" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="M98" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N98" s="12">
         <v>57.52</v>
@@ -8018,7 +8109,7 @@
         <v>-4.0469999999999997</v>
       </c>
       <c r="P98" s="12" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="Q98" s="13">
         <v>58.1</v>
@@ -8029,7 +8120,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>16</v>
@@ -8038,31 +8129,31 @@
         <v>24</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="H99" s="12" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="I99" s="12" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="J99" s="12" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="K99" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L99" s="12" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="M99" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N99" s="12">
         <v>57.451999999999998</v>
@@ -8071,7 +8162,7 @@
         <v>-3.3769999999999998</v>
       </c>
       <c r="P99" s="12" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="Q99" s="13">
         <v>59.6</v>
@@ -8082,7 +8173,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>16</v>
@@ -8094,28 +8185,28 @@
         <v>18</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="H100" s="12" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="I100" s="12" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="J100" s="12" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="K100" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L100" s="12" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="M100" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N100" s="12">
         <v>57.826000000000001</v>
@@ -8124,7 +8215,7 @@
         <v>-4.0789999999999997</v>
       </c>
       <c r="P100" s="12" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="Q100" s="13">
         <v>43</v>
@@ -8135,7 +8226,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>16</v>
@@ -8144,22 +8235,22 @@
         <v>45</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>45</v>
@@ -8177,7 +8268,7 @@
         <v>139.90799999999999</v>
       </c>
       <c r="P101" s="3" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="Q101" s="13">
         <v>62</v>
@@ -8188,7 +8279,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>16</v>
@@ -8197,31 +8288,31 @@
         <v>45</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="H102" s="12" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="I102" s="12" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="J102" s="12" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="K102" s="12" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="L102" s="12" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="M102" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N102" s="12">
         <v>34.652999999999999</v>
@@ -8230,7 +8321,7 @@
         <v>134.989</v>
       </c>
       <c r="P102" s="12" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="Q102" s="13">
         <v>50</v>
@@ -8241,7 +8332,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>16</v>
@@ -8250,31 +8341,31 @@
         <v>45</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H103" s="12" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="I103" s="12" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="J103" s="12" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="K103" s="12" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="L103" s="12" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="M103" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N103" s="12">
         <v>34.890999999999998</v>
@@ -8283,7 +8374,7 @@
         <v>135.67500000000001</v>
       </c>
       <c r="P103" s="12" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="Q103" s="13">
         <v>40</v>
@@ -8294,7 +8385,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>16</v>
@@ -8303,31 +8394,31 @@
         <v>45</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="H104" s="12" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="I104" s="12" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="J104" s="12" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="K104" s="12" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="L104" s="12" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="M104" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N104" s="12">
         <v>35.988999999999997</v>
@@ -8336,7 +8427,7 @@
         <v>139.072</v>
       </c>
       <c r="P104" s="12" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="Q104" s="13">
         <v>55</v>
@@ -8347,7 +8438,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>16</v>
@@ -8356,22 +8447,22 @@
         <v>45</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="K105" s="3" t="s">
         <v>45</v>
@@ -8380,7 +8471,7 @@
         <v>1985</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="N105" s="3">
         <v>35.899000000000001</v>
@@ -8389,7 +8480,7 @@
         <v>137.94200000000001</v>
       </c>
       <c r="P105" s="3" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="Q105" s="13">
         <v>48</v>
@@ -8400,7 +8491,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>16</v>
@@ -8409,22 +8500,22 @@
         <v>45</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="K106" s="3" t="s">
         <v>45</v>
@@ -8433,7 +8524,7 @@
         <v>1985</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="N106" s="3">
         <v>35.899000000000001</v>
@@ -8442,7 +8533,7 @@
         <v>137.94200000000001</v>
       </c>
       <c r="P106" s="3" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="Q106" s="13"/>
     </row>
@@ -8451,7 +8542,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>16</v>
@@ -8460,31 +8551,31 @@
         <v>45</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="H107" s="12" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="I107" s="12" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="J107" s="12" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="K107" s="12" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="L107" s="12" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="M107" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N107" s="12">
         <v>36.637999999999998</v>
@@ -8493,16 +8584,18 @@
         <v>136.964</v>
       </c>
       <c r="P107" s="12" t="s">
-        <v>414</v>
-      </c>
-      <c r="Q107" s="13"/>
+        <v>405</v>
+      </c>
+      <c r="Q107" s="13">
+        <v>46</v>
+      </c>
     </row>
     <row r="108" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A108" s="3">
         <v>106</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>16</v>
@@ -8514,28 +8607,28 @@
         <v>18</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="H108" s="12" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="I108" s="12" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="J108" s="12" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K108" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L108" s="12" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="M108" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N108" s="12">
         <v>56.94</v>
@@ -8544,16 +8637,18 @@
         <v>-4.2370000000000001</v>
       </c>
       <c r="P108" s="12" t="s">
-        <v>439</v>
-      </c>
-      <c r="Q108" s="13"/>
+        <v>430</v>
+      </c>
+      <c r="Q108" s="13">
+        <v>48</v>
+      </c>
     </row>
     <row r="109" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A109" s="3">
         <v>107</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>16</v>
@@ -8562,31 +8657,31 @@
         <v>45</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="H109" s="12" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="I109" s="12" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J109" s="12" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="K109" s="12" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="L109" s="12" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="M109" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N109" s="12">
         <v>43.052</v>
@@ -8595,7 +8690,7 @@
         <v>144.84299999999999</v>
       </c>
       <c r="P109" s="12" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="Q109" s="13">
         <v>55</v>
@@ -8606,7 +8701,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>16</v>
@@ -8615,22 +8710,22 @@
         <v>45</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="K110" s="3" t="s">
         <v>45</v>
@@ -8648,7 +8743,7 @@
         <v>132.334</v>
       </c>
       <c r="P110" s="3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="Q110" s="13">
         <v>62</v>
@@ -8659,7 +8754,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>16</v>
@@ -8668,24 +8763,64 @@
         <v>45</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="Q111" s="1">
         <v>52</v>
       </c>
     </row>
+    <row r="112" spans="1:17" ht="37.5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B112" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Q112" s="1">
+        <v>54.5</v>
+      </c>
+    </row>
+    <row r="113" spans="2:17" ht="56.25" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B113" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="Q113" s="1">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="114" spans="2:17" ht="37.5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B114" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="Q114" s="1">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:Q111" xr:uid="{D4F60670-F158-4C9B-93E8-D52D53F4A8E3}">
+  <autoFilter ref="A1:Q114" xr:uid="{D4F60670-F158-4C9B-93E8-D52D53F4A8E3}">
     <filterColumn colId="7">
       <filters>
-        <filter val="トミントウル蒸溜所"/>
+        <filter val="マルス津貫蒸溜所"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="16">
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="B13:B14"/>
     <mergeCell ref="N13:N14"/>
     <mergeCell ref="O13:O14"/>
     <mergeCell ref="P13:P14"/>
@@ -8695,13 +8830,6 @@
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="L13:L14"/>
     <mergeCell ref="M13:M14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="B13:B14"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8732,16 +8860,16 @@
   <sheetData>
     <row r="1" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>11</v>
@@ -8756,7 +8884,7 @@
         <v>14</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -8767,16 +8895,16 @@
         <v>22</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G2" s="5">
         <v>57.302</v>
@@ -8785,7 +8913,7 @@
         <v>-6.3559999999999999</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -8796,16 +8924,16 @@
         <v>30</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="G3" s="5">
         <v>55.63</v>
@@ -8814,27 +8942,27 @@
         <v>-6.1929999999999996</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>311</v>
-      </c>
       <c r="F4" s="5" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G4" s="5">
         <v>57.484999999999999</v>
@@ -8843,27 +8971,27 @@
         <v>-3.2080000000000002</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>314</v>
-      </c>
       <c r="F5" s="5" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G5" s="5">
         <v>55.756</v>
@@ -8872,27 +9000,27 @@
         <v>-6.2889999999999997</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="G6" s="5">
         <v>55.991</v>
@@ -8901,27 +9029,27 @@
         <v>-3.827</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G7" s="5">
         <v>55.424999999999997</v>
@@ -8930,27 +9058,27 @@
         <v>-5.609</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G8" s="5">
         <v>55.878</v>
@@ -8959,27 +9087,27 @@
         <v>-6.125</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G9" s="5">
         <v>56.624000000000002</v>
@@ -8988,27 +9116,27 @@
         <v>-3.85</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G10" s="5">
         <v>55.640999999999998</v>
@@ -9017,27 +9145,27 @@
         <v>-6.109</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G11" s="5">
         <v>58.968000000000004</v>
@@ -9046,27 +9174,27 @@
         <v>-2.956</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G12" s="5">
         <v>37.398000000000003</v>
@@ -9075,27 +9203,27 @@
         <v>140.36000000000001</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G13" s="5">
         <v>57.451999999999998</v>
@@ -9104,27 +9232,27 @@
         <v>-3.3769999999999998</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G14" s="5">
         <v>56.835999999999999</v>
@@ -9133,27 +9261,27 @@
         <v>-5.0739999999999998</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G15" s="5">
         <v>57.545999999999999</v>
@@ -9162,27 +9290,27 @@
         <v>-3.048</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G16" s="5">
         <v>57.444000000000003</v>
@@ -9191,27 +9319,27 @@
         <v>-3.1280000000000001</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G17" s="5">
         <v>56.704000000000001</v>
@@ -9220,27 +9348,27 @@
         <v>-3.7330000000000001</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G18" s="5">
         <v>55.853999999999999</v>
@@ -9249,27 +9377,27 @@
         <v>-6.1079999999999997</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="D19" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>311</v>
-      </c>
       <c r="F19" s="5" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G19" s="5">
         <v>56.847000000000001</v>
@@ -9278,27 +9406,27 @@
         <v>-2.5880000000000001</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G20" s="5">
         <v>57.427</v>
@@ -9307,27 +9435,27 @@
         <v>-3.3130000000000002</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G21" s="5">
         <v>57.646999999999998</v>
@@ -9336,27 +9464,27 @@
         <v>-3.2930000000000001</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G22" s="5">
         <v>55.78</v>
@@ -9365,27 +9493,27 @@
         <v>-6.4329999999999998</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G23" s="5">
         <v>57.533000000000001</v>
@@ -9394,27 +9522,27 @@
         <v>-3.206</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D24" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>311</v>
-      </c>
       <c r="F24" s="5" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G24" s="5">
         <v>57.343000000000004</v>
@@ -9423,27 +9551,27 @@
         <v>-3.3380000000000001</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G25" s="5">
         <v>34.890999999999998</v>
@@ -9452,27 +9580,27 @@
         <v>135.67500000000001</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G26" s="5">
         <v>35.988999999999997</v>
@@ -9481,27 +9609,27 @@
         <v>139.072</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G27" s="5">
         <v>35.773000000000003</v>
@@ -9510,27 +9638,27 @@
         <v>137.93700000000001</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G28" s="5">
         <v>35.380000000000003</v>
@@ -9539,27 +9667,27 @@
         <v>136.274</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G29" s="5">
         <v>36.637999999999998</v>
@@ -9568,27 +9696,27 @@
         <v>136.964</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G30" s="5">
         <v>53.338000000000001</v>
@@ -9597,27 +9725,27 @@
         <v>-6.2779999999999996</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G31" s="5">
         <v>63.040999999999997</v>
@@ -9626,27 +9754,27 @@
         <v>17.739000000000001</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G32" s="5">
         <v>57.649000000000001</v>
@@ -9655,27 +9783,27 @@
         <v>-3.64</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="G33" s="5">
         <v>36.347999999999999</v>
@@ -9684,27 +9812,27 @@
         <v>138.596</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="147.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G34" s="5">
         <v>56.94</v>
@@ -9713,27 +9841,27 @@
         <v>-4.2370000000000001</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G35" s="5">
         <v>43.052</v>
@@ -9742,27 +9870,27 @@
         <v>144.84299999999999</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G36" s="5">
         <v>55.640999999999998</v>
@@ -9771,27 +9899,27 @@
         <v>-6.109</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G37" s="5">
         <v>58.968000000000004</v>
@@ -9800,27 +9928,27 @@
         <v>-2.956</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D38" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="E38" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>311</v>
-      </c>
       <c r="F38" s="5" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G38" s="5">
         <v>57.484999999999999</v>
@@ -9829,27 +9957,27 @@
         <v>-3.2080000000000002</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G39" s="5">
         <v>53.338000000000001</v>
@@ -9858,27 +9986,27 @@
         <v>-6.2779999999999996</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G40" s="5">
         <v>31.454000000000001</v>
@@ -9887,27 +10015,27 @@
         <v>130.46100000000001</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G41" s="5">
         <v>35.823999999999998</v>
@@ -9916,27 +10044,27 @@
         <v>138.43600000000001</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G42" s="5">
         <v>43.177999999999997</v>
@@ -9945,27 +10073,27 @@
         <v>140.76599999999999</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G43" s="5">
         <v>38.445999999999998</v>
@@ -9974,27 +10102,27 @@
         <v>140.88300000000001</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G44" s="5">
         <v>36.320999999999998</v>
@@ -10003,27 +10131,27 @@
         <v>138.44999999999999</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G45" s="5">
         <v>35.768999999999998</v>
@@ -10032,27 +10160,27 @@
         <v>139.125</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G46" s="5">
         <v>35.302999999999997</v>
@@ -10061,27 +10189,27 @@
         <v>138.95400000000001</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G47" s="5">
         <v>35.036999999999999</v>
@@ -10090,27 +10218,27 @@
         <v>136.82900000000001</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G48" s="5">
         <v>38.445999999999998</v>
@@ -10119,27 +10247,27 @@
         <v>140.88300000000001</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G49" s="5">
         <v>34.652999999999999</v>
@@ -10148,27 +10276,27 @@
         <v>134.989</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G50" s="5">
         <v>35.773000000000003</v>
@@ -10177,27 +10305,27 @@
         <v>137.93700000000001</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G51" s="5">
         <v>31.672999999999998</v>
@@ -10206,7 +10334,7 @@
         <v>130.279</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
     </row>
   </sheetData>
@@ -10216,20 +10344,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6ff6e2ba-ab06-4ac9-b2c7-449843b7cb08" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6ff6e2ba-ab06-4ac9-b2c7-449843b7cb08" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10415,14 +10543,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B963C0D-E7E9-44EF-8AEB-EF3D573F3F67}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{987E6F6F-1448-40F2-A1EC-D5FD1FE7DC5E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="6ff6e2ba-ab06-4ac9-b2c7-449843b7cb08"/>
@@ -10434,6 +10554,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B963C0D-E7E9-44EF-8AEB-EF3D573F3F67}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/whisky_database.xlsx
+++ b/whisky_database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\新藤駿介(ShindoShunsuke)\Documents\GitHub\whisky-sommelier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500A3695-7D8B-4A05-957E-D479979CB144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DEEF16-7F8C-4CC6-9B52-68DEC12491E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{A2419164-9416-4CEB-A64A-CE2C95D250D1}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="681">
   <si>
     <t>番号</t>
   </si>
@@ -2450,6 +2450,10 @@
       </rPr>
       <t>2018-2021 ５周年記念 500ml ボトル</t>
     </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>blended</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -2661,10 +2665,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3004,12 +3008,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F60670-F158-4C9B-93E8-D52D53F4A8E3}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P126" sqref="P126"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3033,7 +3036,7 @@
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" ht="32.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3086,7 +3089,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3139,7 +3142,7 @@
         <v>49.1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="99.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" ht="99.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3192,7 +3195,7 @@
         <v>56.2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" ht="83.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3245,7 +3248,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3298,7 +3301,7 @@
         <v>50.2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" ht="83.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -3351,7 +3354,7 @@
         <v>52.9</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17" ht="32.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3386,7 +3389,7 @@
         <v>42.7</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3439,7 +3442,7 @@
         <v>45.3</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" ht="83.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -3492,7 +3495,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -3545,7 +3548,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="50.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" ht="50.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -3598,7 +3601,7 @@
         <v>58.6</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -3651,79 +3654,79 @@
         <v>51.7</v>
       </c>
     </row>
-    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="15">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A13" s="16">
         <v>12</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>630</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="15" t="s">
+      <c r="C13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="16" t="s">
         <v>598</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="J13" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="15">
+      <c r="L13" s="16">
         <v>1830</v>
       </c>
-      <c r="M13" s="15" t="s">
+      <c r="M13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="N13" s="15">
+      <c r="N13" s="16">
         <v>57.302</v>
       </c>
-      <c r="O13" s="15">
+      <c r="O13" s="16">
         <v>-6.3559999999999999</v>
       </c>
-      <c r="P13" s="15" t="s">
+      <c r="P13" s="16" t="s">
         <v>287</v>
       </c>
       <c r="Q13" s="13">
         <v>53.2</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="48.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="15"/>
+    <row r="14" spans="1:17" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="16"/>
       <c r="B14" s="17"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
       <c r="Q14" s="13"/>
     </row>
-    <row r="15" spans="1:17" ht="79.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" ht="79.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -3774,7 +3777,7 @@
       </c>
       <c r="Q15" s="13"/>
     </row>
-    <row r="16" spans="1:17" ht="105.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" ht="105.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -3827,7 +3830,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="79.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:17" ht="79.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -3880,7 +3883,7 @@
         <v>49.7</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:17" ht="83.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -3933,7 +3936,7 @@
         <v>48.1</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -3986,7 +3989,7 @@
         <v>50.9</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -4039,7 +4042,7 @@
         <v>52.3</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:17" ht="48" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -4092,7 +4095,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -4145,7 +4148,7 @@
         <v>64.099999999999994</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:17" ht="83.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -4198,7 +4201,7 @@
         <v>54.6</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:17" ht="83.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -4251,7 +4254,7 @@
         <v>64.900000000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -4304,7 +4307,7 @@
         <v>58.7</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -4355,7 +4358,7 @@
       </c>
       <c r="Q26" s="13"/>
     </row>
-    <row r="27" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:17" ht="48" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -4408,7 +4411,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -4461,7 +4464,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -4514,7 +4517,7 @@
         <v>52.9</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -4565,7 +4568,7 @@
       </c>
       <c r="Q30" s="13"/>
     </row>
-    <row r="31" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:17" ht="83.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -4618,7 +4621,7 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:17" ht="83.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -4671,7 +4674,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:17" ht="83.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -4724,7 +4727,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="132.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:17" ht="132.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -4777,7 +4780,7 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:17" ht="83.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -4828,7 +4831,7 @@
       </c>
       <c r="Q35" s="13"/>
     </row>
-    <row r="36" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:17" ht="83.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -4881,7 +4884,7 @@
         <v>63.6</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="84.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:17" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -4934,7 +4937,7 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="84.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:17" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -4987,7 +4990,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="79.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:17" ht="79.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -5038,7 +5041,7 @@
       </c>
       <c r="Q39" s="13"/>
     </row>
-    <row r="40" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -5089,7 +5092,7 @@
       </c>
       <c r="Q40" s="13"/>
     </row>
-    <row r="41" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -5142,7 +5145,7 @@
         <v>54.1</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -5195,7 +5198,7 @@
         <v>57.4</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -5248,7 +5251,7 @@
         <v>58.7</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="78.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:17" ht="79.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -5283,7 +5286,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -5336,7 +5339,7 @@
         <v>52.3</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -5389,7 +5392,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:17" ht="48" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -5442,7 +5445,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A48" s="3">
         <v>46</v>
       </c>
@@ -5495,7 +5498,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A49" s="3">
         <v>47</v>
       </c>
@@ -5548,7 +5551,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:17" ht="83.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A50" s="3">
         <v>48</v>
       </c>
@@ -5601,7 +5604,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:17" ht="48" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A51" s="3">
         <v>49</v>
       </c>
@@ -5654,7 +5657,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A52" s="3">
         <v>50</v>
       </c>
@@ -5707,7 +5710,7 @@
         <v>46.3</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A53" s="3">
         <v>51</v>
       </c>
@@ -5760,7 +5763,7 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="79.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:17" ht="79.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A54" s="3">
         <v>52</v>
       </c>
@@ -5813,7 +5816,7 @@
         <v>52.4</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="3">
         <v>53</v>
       </c>
@@ -5866,7 +5869,7 @@
         <v>57.3</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A56" s="3">
         <v>54</v>
       </c>
@@ -5919,7 +5922,7 @@
         <v>58.1</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:17" ht="83.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A57" s="3">
         <v>55</v>
       </c>
@@ -5972,7 +5975,7 @@
         <v>58.3</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A58" s="3">
         <v>56</v>
       </c>
@@ -6025,7 +6028,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A59" s="3">
         <v>57</v>
       </c>
@@ -6078,7 +6081,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="50.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:17" ht="50.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A60" s="3">
         <v>58</v>
       </c>
@@ -6131,7 +6134,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:17" ht="83.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A61" s="3">
         <v>59</v>
       </c>
@@ -6184,7 +6187,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A62" s="3">
         <v>60</v>
       </c>
@@ -6237,7 +6240,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="99.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:17" ht="99.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A63" s="3">
         <v>61</v>
       </c>
@@ -6290,7 +6293,7 @@
         <v>60.7</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="99.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:17" ht="99.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A64" s="3">
         <v>62</v>
       </c>
@@ -6343,7 +6346,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A65" s="3">
         <v>63</v>
       </c>
@@ -6396,7 +6399,7 @@
         <v>54.4</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="99.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:17" ht="99.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A66" s="3">
         <v>64</v>
       </c>
@@ -6449,7 +6452,7 @@
         <v>63.3</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A67" s="3">
         <v>65</v>
       </c>
@@ -6500,7 +6503,7 @@
       </c>
       <c r="Q67" s="13"/>
     </row>
-    <row r="68" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A68" s="3">
         <v>66</v>
       </c>
@@ -6553,7 +6556,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="99.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:17" ht="99.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A69" s="3">
         <v>67</v>
       </c>
@@ -6606,7 +6609,7 @@
         <v>55.3</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A70" s="3">
         <v>68</v>
       </c>
@@ -6659,7 +6662,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="99.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:17" ht="99.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A71" s="3">
         <v>69</v>
       </c>
@@ -6712,7 +6715,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A72" s="3">
         <v>70</v>
       </c>
@@ -6765,7 +6768,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="99.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:17" ht="99.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A73" s="3">
         <v>71</v>
       </c>
@@ -6818,7 +6821,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="99.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:17" ht="99.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A74" s="3">
         <v>72</v>
       </c>
@@ -6869,7 +6872,7 @@
       </c>
       <c r="Q74" s="13"/>
     </row>
-    <row r="75" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A75" s="3">
         <v>73</v>
       </c>
@@ -6922,7 +6925,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="76" spans="1:17" ht="99.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:17" ht="99.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A76" s="3">
         <v>74</v>
       </c>
@@ -6975,7 +6978,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="99.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:17" ht="99.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A77" s="3">
         <v>75</v>
       </c>
@@ -7028,7 +7031,7 @@
         <v>59.2</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A78" s="3">
         <v>76</v>
       </c>
@@ -7079,7 +7082,7 @@
       </c>
       <c r="Q78" s="13"/>
     </row>
-    <row r="79" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:17" ht="48" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A79" s="3">
         <v>77</v>
       </c>
@@ -7132,7 +7135,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="99.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:17" ht="99.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A80" s="3">
         <v>78</v>
       </c>
@@ -7185,7 +7188,7 @@
         <v>51.7</v>
       </c>
     </row>
-    <row r="81" spans="1:17" ht="99.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:17" ht="99.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A81" s="3">
         <v>79</v>
       </c>
@@ -7238,7 +7241,7 @@
         <v>58.6</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A82" s="3">
         <v>80</v>
       </c>
@@ -7291,7 +7294,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A83" s="3">
         <v>81</v>
       </c>
@@ -7344,7 +7347,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A84" s="3">
         <v>82</v>
       </c>
@@ -7395,7 +7398,7 @@
       </c>
       <c r="Q84" s="13"/>
     </row>
-    <row r="85" spans="1:17" ht="78.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:17" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A85" s="3">
         <v>83</v>
       </c>
@@ -7448,7 +7451,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A86" s="3">
         <v>84</v>
       </c>
@@ -7499,7 +7502,7 @@
       </c>
       <c r="Q86" s="13"/>
     </row>
-    <row r="87" spans="1:17" ht="78.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:17" ht="79.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A87" s="3">
         <v>85</v>
       </c>
@@ -7534,7 +7537,7 @@
         <v>57.9</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="116.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:17" ht="116.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A88" s="3">
         <v>86</v>
       </c>
@@ -7587,7 +7590,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:17" ht="48" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A89" s="3">
         <v>87</v>
       </c>
@@ -7640,7 +7643,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:17" ht="83.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A90" s="3">
         <v>88</v>
       </c>
@@ -7693,7 +7696,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:17" ht="83.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A91" s="3">
         <v>89</v>
       </c>
@@ -7746,7 +7749,7 @@
         <v>55.3</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:17" ht="48" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A92" s="3">
         <v>90</v>
       </c>
@@ -7799,7 +7802,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="116.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:17" ht="116.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A93" s="3">
         <v>91</v>
       </c>
@@ -7852,7 +7855,7 @@
         <v>54.8</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="116.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:17" ht="116.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A94" s="3">
         <v>92</v>
       </c>
@@ -7905,7 +7908,7 @@
         <v>52.1</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="116.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:17" ht="116.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A95" s="3">
         <v>93</v>
       </c>
@@ -7958,7 +7961,7 @@
         <v>51.4</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="50.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:17" ht="50.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A96" s="3">
         <v>94</v>
       </c>
@@ -8009,7 +8012,7 @@
       </c>
       <c r="Q96" s="13"/>
     </row>
-    <row r="97" spans="1:17" ht="116.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:17" ht="116.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A97" s="3">
         <v>95</v>
       </c>
@@ -8062,7 +8065,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="98" spans="1:17" ht="99.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:17" ht="99.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A98" s="3">
         <v>96</v>
       </c>
@@ -8115,7 +8118,7 @@
         <v>58.1</v>
       </c>
     </row>
-    <row r="99" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A99" s="3">
         <v>97</v>
       </c>
@@ -8168,7 +8171,7 @@
         <v>59.6</v>
       </c>
     </row>
-    <row r="100" spans="1:17" ht="116.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:17" ht="116.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A100" s="3">
         <v>98</v>
       </c>
@@ -8221,7 +8224,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="101" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:17" ht="48" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A101" s="3">
         <v>99</v>
       </c>
@@ -8274,7 +8277,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="102" spans="1:17" ht="182.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:17" ht="182.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A102" s="3">
         <v>100</v>
       </c>
@@ -8327,7 +8330,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="103" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A103" s="3">
         <v>101</v>
       </c>
@@ -8380,7 +8383,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="104" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A104" s="3">
         <v>102</v>
       </c>
@@ -8433,7 +8436,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="105" spans="1:17" ht="78.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:17" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A105" s="3">
         <v>103</v>
       </c>
@@ -8486,7 +8489,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="106" spans="1:17" ht="78.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:17" ht="79.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A106" s="3">
         <v>104</v>
       </c>
@@ -8537,7 +8540,7 @@
       </c>
       <c r="Q106" s="13"/>
     </row>
-    <row r="107" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A107" s="3">
         <v>105</v>
       </c>
@@ -8590,7 +8593,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="108" spans="1:17" ht="83.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:17" ht="83.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A108" s="3">
         <v>106</v>
       </c>
@@ -8643,7 +8646,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="109" spans="1:17" ht="66.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A109" s="3">
         <v>107</v>
       </c>
@@ -8696,7 +8699,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="110" spans="1:17" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A110" s="3">
         <v>108</v>
       </c>
@@ -8749,7 +8752,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="111" spans="1:17" ht="37.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:17" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -8772,7 +8775,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="112" spans="1:17" ht="37.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:17" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
       <c r="B112" s="1" t="s">
         <v>660</v>
       </c>
@@ -8780,7 +8786,10 @@
         <v>54.5</v>
       </c>
     </row>
-    <row r="113" spans="2:17" ht="56.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:17" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
       <c r="B113" s="1" t="s">
         <v>663</v>
       </c>
@@ -8794,10 +8803,16 @@
         <v>47.5</v>
       </c>
     </row>
-    <row r="114" spans="2:17" ht="37.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:17" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
       <c r="B114" s="1" t="s">
         <v>674</v>
       </c>
+      <c r="E114" s="1" t="s">
+        <v>680</v>
+      </c>
       <c r="H114" s="1" t="s">
         <v>675</v>
       </c>
@@ -8806,21 +8821,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q114" xr:uid="{D4F60670-F158-4C9B-93E8-D52D53F4A8E3}">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="マルス津貫蒸溜所"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Q114" xr:uid="{D4F60670-F158-4C9B-93E8-D52D53F4A8E3}"/>
   <mergeCells count="16">
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="B13:B14"/>
     <mergeCell ref="N13:N14"/>
     <mergeCell ref="O13:O14"/>
     <mergeCell ref="P13:P14"/>
@@ -8830,6 +8832,13 @@
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="L13:L14"/>
     <mergeCell ref="M13:M14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="B13:B14"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10344,23 +10353,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6ff6e2ba-ab06-4ac9-b2c7-449843b7cb08" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100878E4B43DE72CA43A54D88023800C627" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6a3a74974baf4964707801529ad07702">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6ff6e2ba-ab06-4ac9-b2c7-449843b7cb08" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f1f8092831ecf6ca7037d980d41b8739" ns3:_="">
     <xsd:import namespace="6ff6e2ba-ab06-4ac9-b2c7-449843b7cb08"/>
@@ -10542,31 +10534,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{987E6F6F-1448-40F2-A1EC-D5FD1FE7DC5E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="6ff6e2ba-ab06-4ac9-b2c7-449843b7cb08"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B963C0D-E7E9-44EF-8AEB-EF3D573F3F67}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6ff6e2ba-ab06-4ac9-b2c7-449843b7cb08" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE36A8C4-FC9B-4599-A3AF-537EA555F661}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10582,4 +10567,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B963C0D-E7E9-44EF-8AEB-EF3D573F3F67}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{987E6F6F-1448-40F2-A1EC-D5FD1FE7DC5E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="6ff6e2ba-ab06-4ac9-b2c7-449843b7cb08"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>